--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039915D-F7B5-4435-A62B-664E36EB4F2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FB56F-5DB1-4FD7-BE0D-E0DD21F594A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
     <sheet name="Лист2" sheetId="6" r:id="rId6"/>
     <sheet name="teta" sheetId="7" r:id="rId7"/>
     <sheet name="Лист3" sheetId="8" r:id="rId8"/>
+    <sheet name="kij" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1998">
   <si>
     <t>№</t>
   </si>
@@ -6473,6 +6473,198 @@
   <si>
     <t>391.663084445343</t>
   </si>
+  <si>
+    <t>kij</t>
+  </si>
+  <si>
+    <t>iC4</t>
+  </si>
+  <si>
+    <t>(328,15081705153,</t>
+  </si>
+  <si>
+    <t>328,321820214391,</t>
+  </si>
+  <si>
+    <t>345,370900034904,</t>
+  </si>
+  <si>
+    <t>367,08410564065,</t>
+  </si>
+  <si>
+    <t>385,682712197304,</t>
+  </si>
+  <si>
+    <t>398,748969011009,</t>
+  </si>
+  <si>
+    <t>405,961940616369,</t>
+  </si>
+  <si>
+    <t>406,08185184747,</t>
+  </si>
+  <si>
+    <t>397,916830688715,</t>
+  </si>
+  <si>
+    <t>383,789538115263,</t>
+  </si>
+  <si>
+    <t>425,514830768108,</t>
+  </si>
+  <si>
+    <t>438,657890416682,</t>
+  </si>
+  <si>
+    <t>441,55496352911,</t>
+  </si>
+  <si>
+    <t>442,359023191035,</t>
+  </si>
+  <si>
+    <t>442,699845634401,</t>
+  </si>
+  <si>
+    <t>442,886493049562,</t>
+  </si>
+  <si>
+    <t>442,989338867366,</t>
+  </si>
+  <si>
+    <t>443,027738198638,</t>
+  </si>
+  <si>
+    <t>443,001218631864,</t>
+  </si>
+  <si>
+    <t>442,887031815946,</t>
+  </si>
+  <si>
+    <t>442,612266816199,</t>
+  </si>
+  <si>
+    <t>441,922629654408,</t>
+  </si>
+  <si>
+    <t>450,02378360182,</t>
+  </si>
+  <si>
+    <t>450,645598076284,</t>
+  </si>
+  <si>
+    <t>450,001883886755,</t>
+  </si>
+  <si>
+    <t>449,111589789391,</t>
+  </si>
+  <si>
+    <t>448,144888274372,</t>
+  </si>
+  <si>
+    <t>447,150192454457,</t>
+  </si>
+  <si>
+    <t>446,161065228283,</t>
+  </si>
+  <si>
+    <t>445,209517866373,</t>
+  </si>
+  <si>
+    <t>444,325442649424,</t>
+  </si>
+  <si>
+    <t>443,534251943231,</t>
+  </si>
+  <si>
+    <t>442,855051346123,</t>
+  </si>
+  <si>
+    <t>442,299723751843,</t>
+  </si>
+  <si>
+    <t>441,873084127903,</t>
+  </si>
+  <si>
+    <t>441,573760688305,</t>
+  </si>
+  <si>
+    <t>441,39555567503,</t>
+  </si>
+  <si>
+    <t>441,3289244771,</t>
+  </si>
+  <si>
+    <t>441,362406551838,</t>
+  </si>
+  <si>
+    <t>441,4839630723,</t>
+  </si>
+  <si>
+    <t>441,682162702084,</t>
+  </si>
+  <si>
+    <t>441,947297275066,</t>
+  </si>
+  <si>
+    <t>442,272404782474,</t>
+  </si>
+  <si>
+    <t>442,65424374491,</t>
+  </si>
+  <si>
+    <t>443,093969598413,</t>
+  </si>
+  <si>
+    <t>443,59754781425,</t>
+  </si>
+  <si>
+    <t>444,175597913563,</t>
+  </si>
+  <si>
+    <t>444,842559434474,</t>
+  </si>
+  <si>
+    <t>445,614942342043,</t>
+  </si>
+  <si>
+    <t>446,508663512766,</t>
+  </si>
+  <si>
+    <t>447,535371169448,</t>
+  </si>
+  <si>
+    <t>448,69850345701,</t>
+  </si>
+  <si>
+    <t>449,990072846413,</t>
+  </si>
+  <si>
+    <t>451,389738574624,</t>
+  </si>
+  <si>
+    <t>452,86747495085,</t>
+  </si>
+  <si>
+    <t>454,38980717212,</t>
+  </si>
+  <si>
+    <t>455,928384646773,</t>
+  </si>
+  <si>
+    <t>457,468712508678,</t>
+  </si>
+  <si>
+    <t>459,018961712718,</t>
+  </si>
+  <si>
+    <t>460,627420447767,</t>
+  </si>
+  <si>
+    <t>462,480454929173,</t>
+  </si>
+  <si>
+    <t>465,829186677933)</t>
+  </si>
 </sst>
 </file>
 
@@ -6482,12 +6674,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6551,6 +6751,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6595,49 +6802,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{AFF3F87A-FDE4-4506-86B2-2B9AE26B9163}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{460BCC82-989A-4065-9474-79ABD5EFF6CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6901,190 +7113,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>-58.205179707705952</c:v>
+                  <c:v>55.000817051530021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.626986457407497</c:v>
+                  <c:v>55.171820214391005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.081676228344463</c:v>
+                  <c:v>72.220900034904048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.71960984021428</c:v>
+                  <c:v>93.934105640650046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.88854920715096</c:v>
+                  <c:v>112.53271219730402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.84751611799004</c:v>
+                  <c:v>125.59896901100905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.0132655784488</c:v>
+                  <c:v>132.81194061636904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.05399541407826</c:v>
+                  <c:v>132.93185184747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>138.50626849979164</c:v>
+                  <c:v>124.766830688715</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.76056587547066</c:v>
+                  <c:v>110.63953811526301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151.79324352592232</c:v>
+                  <c:v>152.36483076810805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.29639853388073</c:v>
+                  <c:v>165.50789041668202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>153.63409274667504</c:v>
+                  <c:v>168.40496352911003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>153.80268969982865</c:v>
+                  <c:v>169.20902319103504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153.93933036774399</c:v>
+                  <c:v>169.54984563440104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154.06756715327504</c:v>
+                  <c:v>169.736493049562</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>154.19370771795514</c:v>
+                  <c:v>169.839338867366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>154.32059557586911</c:v>
+                  <c:v>169.87773819863804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>154.45014329105618</c:v>
+                  <c:v>169.85121863186401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>154.58409243673088</c:v>
+                  <c:v>169.73703181594601</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154.72448856979611</c:v>
+                  <c:v>169.46226681619902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>154.87401054650547</c:v>
+                  <c:v>168.77262965440804</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155.05002343505623</c:v>
+                  <c:v>176.87378360182004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155.22905082851651</c:v>
+                  <c:v>177.49559807628401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155.42475299388173</c:v>
+                  <c:v>176.85188388675505</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>155.64350092262032</c:v>
+                  <c:v>175.96158978939104</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>155.89207091778519</c:v>
+                  <c:v>174.99488827437204</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>156.17892385870221</c:v>
+                  <c:v>174.00019245445702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>156.51470550745728</c:v>
+                  <c:v>173.01106522828303</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>156.9126138225198</c:v>
+                  <c:v>172.05951786637303</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>157.38863327950241</c:v>
+                  <c:v>171.17544264942404</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>157.9614398762584</c:v>
+                  <c:v>170.38425194323105</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>158.65193249136212</c:v>
+                  <c:v>169.70505134612301</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>159.48194095343354</c:v>
+                  <c:v>169.149723751843</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>160.47199049443009</c:v>
+                  <c:v>168.72308412790301</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>161.63801492601635</c:v>
+                  <c:v>168.42376068830504</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>162.98725285977127</c:v>
+                  <c:v>168.24555567503</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>164.51408059746029</c:v>
+                  <c:v>168.1789244771</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>166.19709262102845</c:v>
+                  <c:v>168.212406551838</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>167.99874694496395</c:v>
+                  <c:v>168.33396307230004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>169.86855694502594</c:v>
+                  <c:v>168.53216270208401</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>171.74947501569989</c:v>
+                  <c:v>168.797297275066</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>173.58582147806885</c:v>
+                  <c:v>169.12240478247401</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>175.33059285432103</c:v>
+                  <c:v>169.50424374491001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>176.95013561695816</c:v>
+                  <c:v>169.94396959841305</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>178.42553944736721</c:v>
+                  <c:v>170.44754781425002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>179.75121231228115</c:v>
+                  <c:v>171.02559791356305</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>180.93176463097336</c:v>
+                  <c:v>171.69255943447405</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>181.97841213494542</c:v>
+                  <c:v>172.464942342043</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>182.90577137321236</c:v>
+                  <c:v>173.35866351276604</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>183.72949117273095</c:v>
+                  <c:v>174.38537116944804</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>184.46491637676957</c:v>
+                  <c:v>175.54850345701004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>185.12687252312901</c:v>
+                  <c:v>176.84007284641302</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>185.73079311698677</c:v>
+                  <c:v>178.23973857462403</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>186.29528449326756</c:v>
+                  <c:v>179.71747495085003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>186.8454189732671</c:v>
+                  <c:v>181.23980717212004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>187.41488174945118</c:v>
+                  <c:v>182.77838464677302</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.04459662586453</c:v>
+                  <c:v>184.318712508678</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>188.78096544593575</c:v>
+                  <c:v>185.86896171271803</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>189.68890772610905</c:v>
+                  <c:v>187.47742044776703</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>190.95411316901448</c:v>
+                  <c:v>189.33045492917302</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>193.82552409023049</c:v>
+                  <c:v>192.67918667793305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8308,190 +8520,190 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.20000126596278</c:v>
+                  <c:v>376.19999867213244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>867.9917455829675</c:v>
+                  <c:v>909.85364381938552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>722.82649187318975</c:v>
+                  <c:v>811.11426126007427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>628.99995090415359</c:v>
+                  <c:v>712.45688666045044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>589.31788134235785</c:v>
+                  <c:v>643.48412279106265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>567.86493934369014</c:v>
+                  <c:v>614.88214315558139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>545.68109523684029</c:v>
+                  <c:v>636.11191126241943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>519.92449148269702</c:v>
+                  <c:v>702.61492060264573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>498.32001842727118</c:v>
+                  <c:v>777.8852463783378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2051.006183820733</c:v>
+                  <c:v>2089.2544696749046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2055.5090818604285</c:v>
+                  <c:v>2045.3642735460312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2056.2079786147524</c:v>
+                  <c:v>2048.9037162776849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2056.4149139530045</c:v>
+                  <c:v>2049.471863946123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2056.6640597590663</c:v>
+                  <c:v>2049.2217861181471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2056.9776320920155</c:v>
+                  <c:v>2049.0606017975488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2057.3343093744866</c:v>
+                  <c:v>2049.0901984861221</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2057.7176956350113</c:v>
+                  <c:v>2049.3124812701435</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2058.1175381047469</c:v>
+                  <c:v>2049.7661798812583</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2058.5272313851319</c:v>
+                  <c:v>2050.5828032628233</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2058.9416942055032</c:v>
+                  <c:v>2052.0927967116995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2059.3557726827576</c:v>
+                  <c:v>2055.1880157777414</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2161.8725261154887</c:v>
+                  <c:v>2079.6829001349533</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2162.2685348627374</c:v>
+                  <c:v>2089.6522125134493</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2162.6320508319604</c:v>
+                  <c:v>2093.8347542120609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2162.9619404110949</c:v>
+                  <c:v>2097.0369538259174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2163.2447272041863</c:v>
+                  <c:v>2100.2131034368695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2163.4599146675514</c:v>
+                  <c:v>2103.4616496155077</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2163.5790887565763</c:v>
+                  <c:v>2106.7410073133951</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2163.5641461400651</c:v>
+                  <c:v>2109.9837721712488</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2163.3655167382658</c:v>
+                  <c:v>2113.1175366562934</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2162.9209523929394</c:v>
+                  <c:v>2116.072703839036</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2162.1555640906658</c:v>
+                  <c:v>2118.7881680600103</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2160.9845294087968</c:v>
+                  <c:v>2121.2160497266177</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2159.3193346659336</c:v>
+                  <c:v>2123.3246214328178</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2157.0787096583044</c:v>
+                  <c:v>2125.0993461402313</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2154.204028405552</c:v>
+                  <c:v>2126.5417820348771</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2150.6769076461283</c:v>
+                  <c:v>2127.6669405904549</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2146.5343135290996</c:v>
+                  <c:v>2128.499532554295</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2141.8751890000103</c:v>
+                  <c:v>2129.0696848081507</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2136.8536352480724</c:v>
+                  <c:v>2129.4085592256206</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2131.6586199086041</c:v>
+                  <c:v>2129.5439550814513</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2126.4856340255246</c:v>
+                  <c:v>2129.4961499048677</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2121.5091542204245</c:v>
+                  <c:v>2129.2740977783824</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2116.8639076771515</c:v>
+                  <c:v>2128.8724620812809</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2112.6377433430371</c:v>
+                  <c:v>2128.2695938737802</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2108.8745424564959</c:v>
+                  <c:v>2127.4275086505199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2105.582892299843</c:v>
+                  <c:v>2126.2944122376734</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2102.7463492180677</c:v>
+                  <c:v>2124.8110057568747</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2100.3327451973105</c:v>
+                  <c:v>2122.9214452876827</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2098.3017240356585</c:v>
+                  <c:v>2120.5895308067616</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2096.6109325394668</c:v>
+                  <c:v>2117.8181076003848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2095.2221254933615</c:v>
+                  <c:v>2114.6676641757736</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2094.1085898184956</c:v>
+                  <c:v>2111.2666937369449</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2093.2646229523093</c:v>
+                  <c:v>2107.8070224674657</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2092.7147796982026</c:v>
+                  <c:v>2104.5222211951464</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2092.5159707604748</c:v>
+                  <c:v>2101.6545229242302</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2092.7464018747601</c:v>
+                  <c:v>2099.4215294762362</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2093.4842527739424</c:v>
+                  <c:v>2097.9903552770065</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2094.7762398134846</c:v>
+                  <c:v>2097.4494708708626</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2096.4866645703069</c:v>
+                  <c:v>2097.665771725543</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2097.3023796413254</c:v>
+                  <c:v>2097.3024261658516</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>408.09999558158256</c:v>
+                  <c:v>408.10000463447784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9534,187 +9746,187 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.2000056843815</c:v>
+                  <c:v>1689.1999940376559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2180.9917500013862</c:v>
+                  <c:v>2222.8536391849088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2035.8264962916085</c:v>
+                  <c:v>2124.1142566255976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1941.9999553225723</c:v>
+                  <c:v>2025.4568820259738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1902.3178857607766</c:v>
+                  <c:v>1956.484118156586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1880.8649437621089</c:v>
+                  <c:v>1927.8821385211047</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1858.681099655259</c:v>
+                  <c:v>1949.1119066279427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1832.9244959011157</c:v>
+                  <c:v>2015.614915968169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1811.3200228456899</c:v>
+                  <c:v>2090.8852417438611</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1746.0061882391517</c:v>
+                  <c:v>1784.2544650404282</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1750.5090862788472</c:v>
+                  <c:v>1740.3642689115545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1751.2079830331709</c:v>
+                  <c:v>1743.9037116432082</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1751.414918371423</c:v>
+                  <c:v>1744.4718593116463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1751.664064177485</c:v>
+                  <c:v>1744.2217814836706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1751.9776365104342</c:v>
+                  <c:v>1744.0605971630719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1752.3343137929053</c:v>
+                  <c:v>1744.0901938516452</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1752.71770005343</c:v>
+                  <c:v>1744.3124766356666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1753.1175425231654</c:v>
+                  <c:v>1744.7661752467816</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1753.5272358035509</c:v>
+                  <c:v>1745.5827986283468</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1753.9416986239216</c:v>
+                  <c:v>1747.0927920772228</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1754.355777101176</c:v>
+                  <c:v>1750.1880111432645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1753.7725305339075</c:v>
+                  <c:v>1671.5828955004765</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1754.1685392811562</c:v>
+                  <c:v>1681.5522078789725</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1754.5320552503792</c:v>
+                  <c:v>1685.7347495775841</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1754.8619448295135</c:v>
+                  <c:v>1688.9369491914406</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1755.1447316226049</c:v>
+                  <c:v>1692.1130988023929</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1755.35991908597</c:v>
+                  <c:v>1695.3616449810308</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1755.4790931749951</c:v>
+                  <c:v>1698.6410026789185</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1755.4641505584839</c:v>
+                  <c:v>1701.883767536772</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1755.2655211566846</c:v>
+                  <c:v>1705.0175320218166</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1754.820956811358</c:v>
+                  <c:v>1707.9726992045594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1754.0555685090844</c:v>
+                  <c:v>1710.6881634255337</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1752.8845338272154</c:v>
+                  <c:v>1713.1160450921411</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1751.2193390843524</c:v>
+                  <c:v>1715.224616798341</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1748.978714076723</c:v>
+                  <c:v>1716.9993415057545</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1746.1040328239708</c:v>
+                  <c:v>1718.4417774004005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1742.5769120645468</c:v>
+                  <c:v>1719.5669359559784</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1738.4343179475184</c:v>
+                  <c:v>1720.3995279198184</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1733.7751934184289</c:v>
+                  <c:v>1720.9696801736739</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1728.7536396664909</c:v>
+                  <c:v>1721.3085545911438</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1723.5586243270227</c:v>
+                  <c:v>1721.4439504469744</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1718.3856384439432</c:v>
+                  <c:v>1721.3961452703911</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1713.4091586388433</c:v>
+                  <c:v>1721.1740931439058</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1708.76391209557</c:v>
+                  <c:v>1720.7724574468043</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1704.5377477614559</c:v>
+                  <c:v>1720.1695892393034</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1700.7745468749144</c:v>
+                  <c:v>1719.3275040160433</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1697.4828967182616</c:v>
+                  <c:v>1718.1944076031969</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1694.6463536364865</c:v>
+                  <c:v>1716.7110011223981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1692.2327496157293</c:v>
+                  <c:v>1714.8214406532059</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1690.2017284540771</c:v>
+                  <c:v>1712.4895261722847</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1688.5109369578856</c:v>
+                  <c:v>1709.7181029659082</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1687.1221299117801</c:v>
+                  <c:v>1706.5676595412967</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1686.0085942369142</c:v>
+                  <c:v>1703.1666891024681</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1685.1646273707279</c:v>
+                  <c:v>1699.7070178329891</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1684.6147841166214</c:v>
+                  <c:v>1696.4222165606698</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1684.4159751788936</c:v>
+                  <c:v>1693.5545182897536</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1684.6464062931789</c:v>
+                  <c:v>1691.3215248417596</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1685.3842571923612</c:v>
+                  <c:v>1689.8903506425297</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1686.6762442319032</c:v>
+                  <c:v>1689.3494662363858</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1688.3866689887257</c:v>
+                  <c:v>1689.5657670910662</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1689.202384059744</c:v>
+                  <c:v>1689.2024215313747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12244,16 +12456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25984,8 +26196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:AE42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34339,10 +34551,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BQ130"/>
+  <dimension ref="A1:BQ134"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34730,7 +34942,8 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-58.205179707705952</v>
+        <f>G4-273.15</f>
+        <v>55.000817051530021</v>
       </c>
       <c r="C4">
         <v>42.770640332440799</v>
@@ -34743,6 +34956,9 @@
       </c>
       <c r="F4">
         <v>576</v>
+      </c>
+      <c r="G4">
+        <v>328.15081705153</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -34750,7 +34966,8 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>58.626986457407497</v>
+        <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
+        <v>55.171820214391005</v>
       </c>
       <c r="C5">
         <v>44.906728683645397</v>
@@ -34763,6 +34980,9 @@
       </c>
       <c r="F5">
         <v>576</v>
+      </c>
+      <c r="G5">
+        <v>328.32182021439098</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -34770,7 +34990,8 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>83.081676228344463</v>
+        <f t="shared" si="0"/>
+        <v>72.220900034904048</v>
       </c>
       <c r="C6">
         <v>45.434369618188803</v>
@@ -34783,6 +35004,9 @@
       </c>
       <c r="F6">
         <v>577.34577656750002</v>
+      </c>
+      <c r="G6">
+        <v>345.37090003490403</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -34790,7 +35014,8 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>108.71960984021428</v>
+        <f t="shared" si="0"/>
+        <v>93.934105640650046</v>
       </c>
       <c r="C7">
         <v>45.695753646172797</v>
@@ -34803,6 +35028,9 @@
       </c>
       <c r="F7">
         <v>578.69155313500096</v>
+      </c>
+      <c r="G7">
+        <v>367.08410564065002</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -34810,7 +35038,8 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>122.88854920715096</v>
+        <f t="shared" si="0"/>
+        <v>112.53271219730402</v>
       </c>
       <c r="C8">
         <v>45.8871277101563</v>
@@ -34823,6 +35052,9 @@
       </c>
       <c r="F8">
         <v>580.03732970250098</v>
+      </c>
+      <c r="G8">
+        <v>385.682712197304</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -34830,7 +35062,8 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>128.84751611799004</v>
+        <f t="shared" si="0"/>
+        <v>125.59896901100905</v>
       </c>
       <c r="C9">
         <v>46.054600563038697</v>
@@ -34843,6 +35076,9 @@
       </c>
       <c r="F9">
         <v>581.38310627000101</v>
+      </c>
+      <c r="G9">
+        <v>398.74896901100902</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -34850,7 +35086,8 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>132.0132655784488</v>
+        <f t="shared" si="0"/>
+        <v>132.81194061636904</v>
       </c>
       <c r="C10">
         <v>46.227242331734502</v>
@@ -34863,6 +35100,9 @@
       </c>
       <c r="F10">
         <v>582.72888283750103</v>
+      </c>
+      <c r="G10">
+        <v>405.96194061636902</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -34870,7 +35110,8 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>135.05399541407826</v>
+        <f t="shared" si="0"/>
+        <v>132.93185184747</v>
       </c>
       <c r="C11">
         <v>46.477138698471101</v>
@@ -34883,6 +35124,9 @@
       </c>
       <c r="F11">
         <v>584.07465940500197</v>
+      </c>
+      <c r="G11">
+        <v>406.08185184746998</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -34890,7 +35134,8 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>138.50626849979164</v>
+        <f t="shared" si="0"/>
+        <v>124.766830688715</v>
       </c>
       <c r="C12">
         <v>47.285981535291597</v>
@@ -34903,6 +35148,9 @@
       </c>
       <c r="F12">
         <v>585.42043597250199</v>
+      </c>
+      <c r="G12">
+        <v>397.91683068871498</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -34910,7 +35158,8 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>141.76056587547066</v>
+        <f t="shared" si="0"/>
+        <v>110.63953811526301</v>
       </c>
       <c r="C13">
         <v>52.222918010638701</v>
@@ -34923,6 +35172,9 @@
       </c>
       <c r="F13">
         <v>586.76621254000202</v>
+      </c>
+      <c r="G13">
+        <v>383.78953811526299</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -34930,7 +35182,8 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>151.79324352592232</v>
+        <f t="shared" si="0"/>
+        <v>152.36483076810805</v>
       </c>
       <c r="C14">
         <v>52.7741896013844</v>
@@ -34943,6 +35196,9 @@
       </c>
       <c r="F14">
         <v>588.11198910750204</v>
+      </c>
+      <c r="G14">
+        <v>425.51483076810803</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -34950,7 +35206,8 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>153.29639853388073</v>
+        <f t="shared" si="0"/>
+        <v>165.50789041668202</v>
       </c>
       <c r="C15">
         <v>53.037096580507601</v>
@@ -34963,6 +35220,9 @@
       </c>
       <c r="F15">
         <v>589.45776567500297</v>
+      </c>
+      <c r="G15">
+        <v>438.65789041668199</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -34970,7 +35230,8 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>153.63409274667504</v>
+        <f t="shared" si="0"/>
+        <v>168.40496352911003</v>
       </c>
       <c r="C16">
         <v>53.184739001984099</v>
@@ -34983,6 +35244,9 @@
       </c>
       <c r="F16">
         <v>590.803542242503</v>
+      </c>
+      <c r="G16">
+        <v>441.55496352911001</v>
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
@@ -34990,7 +35254,8 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>153.80268969982865</v>
+        <f t="shared" si="0"/>
+        <v>169.20902319103504</v>
       </c>
       <c r="C17">
         <v>53.285389833478398</v>
@@ -35003,6 +35268,9 @@
       </c>
       <c r="F17">
         <v>592.14931881000302</v>
+      </c>
+      <c r="G17">
+        <v>442.35902319103502</v>
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
@@ -35010,7 +35278,8 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>153.93933036774399</v>
+        <f t="shared" si="0"/>
+        <v>169.54984563440104</v>
       </c>
       <c r="C18">
         <v>53.365235835489202</v>
@@ -35023,6 +35292,9 @@
       </c>
       <c r="F18">
         <v>593.49509537750305</v>
+      </c>
+      <c r="G18">
+        <v>442.69984563440102</v>
       </c>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
@@ -35030,7 +35302,8 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>154.06756715327504</v>
+        <f t="shared" si="0"/>
+        <v>169.736493049562</v>
       </c>
       <c r="C19">
         <v>53.433699775111101</v>
@@ -35043,6 +35316,9 @@
       </c>
       <c r="F19">
         <v>594.84087194500398</v>
+      </c>
+      <c r="G19">
+        <v>442.88649304956198</v>
       </c>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
@@ -35050,7 +35326,8 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>154.19370771795514</v>
+        <f t="shared" si="0"/>
+        <v>169.839338867366</v>
       </c>
       <c r="C20">
         <v>53.493682430376502</v>
@@ -35063,6 +35340,9 @@
       </c>
       <c r="F20">
         <v>596.18664851250401</v>
+      </c>
+      <c r="G20">
+        <v>442.98933886736597</v>
       </c>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
@@ -35070,7 +35350,8 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>154.32059557586911</v>
+        <f t="shared" si="0"/>
+        <v>169.87773819863804</v>
       </c>
       <c r="C21">
         <v>53.5451659713354</v>
@@ -35083,6 +35364,9 @@
       </c>
       <c r="F21">
         <v>597.53242508000403</v>
+      </c>
+      <c r="G21">
+        <v>443.02773819863802</v>
       </c>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
@@ -35090,7 +35374,8 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>154.45014329105618</v>
+        <f t="shared" si="0"/>
+        <v>169.85121863186401</v>
       </c>
       <c r="C22">
         <v>53.586199327556201</v>
@@ -35103,6 +35388,9 @@
       </c>
       <c r="F22">
         <v>598.87820164750406</v>
+      </c>
+      <c r="G22">
+        <v>443.00121863186399</v>
       </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
@@ -35110,7 +35398,8 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>154.58409243673088</v>
+        <f t="shared" si="0"/>
+        <v>169.73703181594601</v>
       </c>
       <c r="C23">
         <v>53.611292230714497</v>
@@ -35123,6 +35412,9 @@
       </c>
       <c r="F23">
         <v>600.22397821500499</v>
+      </c>
+      <c r="G23">
+        <v>442.88703181594599</v>
       </c>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
@@ -35130,7 +35422,8 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>154.72448856979611</v>
+        <f t="shared" si="0"/>
+        <v>169.46226681619902</v>
       </c>
       <c r="C24">
         <v>53.595120146984797</v>
@@ -35143,6 +35436,9 @@
       </c>
       <c r="F24">
         <v>601.56975478250502</v>
+      </c>
+      <c r="G24">
+        <v>442.612266816199</v>
       </c>
       <c r="H24">
         <v>0.57599999999999996</v>
@@ -35336,7 +35632,8 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>154.87401054650547</v>
+        <f t="shared" si="0"/>
+        <v>168.77262965440804</v>
       </c>
       <c r="C25">
         <v>53.267428832761397</v>
@@ -35349,253 +35646,256 @@
       </c>
       <c r="F25">
         <v>602.91553135000504</v>
+      </c>
+      <c r="G25">
+        <v>441.92262965440801</v>
       </c>
       <c r="H25">
         <f>H24*1000</f>
         <v>576</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:BQ25" si="0">I24*1000</f>
+        <f t="shared" ref="I25:BQ25" si="1">I24*1000</f>
         <v>577.27419354838707</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>578.54838709677404</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>579.822580645161</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>581.09677419354796</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>582.37096774193492</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>583.6451612903229</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>584.91935483871009</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>586.19354838709705</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>587.46774193548401</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>588.74193548387098</v>
       </c>
       <c r="S25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>590.01612903225794</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>591.29032258064501</v>
       </c>
       <c r="U25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>592.56451612903209</v>
       </c>
       <c r="V25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>593.83870967741905</v>
       </c>
       <c r="W25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>595.11290322580601</v>
       </c>
       <c r="X25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>596.38709677419297</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>597.66129032258095</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>598.93548387096791</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.2096774193551</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>601.48387096774206</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>602.75806451612902</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>604.03225806451599</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>605.30645161290295</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>606.58064516128991</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>607.8548387096771</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>609.12903225806406</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610.40322580645102</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>611.677419354839</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>612.95161290322596</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>614.22580645161293</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>615.5</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>616.77419354838707</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>618.04838709677404</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>619.322580645161</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>620.59677419354796</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>621.87096774193492</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>623.14516129032199</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>624.41935483870907</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>625.69354838709705</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>626.96774193548401</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>628.24193548387098</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>629.51612903225794</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630.79032258064501</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>632.06451612903197</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>633.33870967741905</v>
       </c>
       <c r="BB25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>634.61290322580601</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>635.88709677419297</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>637.16129032257993</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>638.435483870967</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>639.70967741935499</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640.98387096774206</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>642.25806451612902</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>643.53225806451599</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644.80645161290295</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>646.08064516129002</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>647.35483870967698</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>648.62903225806406</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>649.90322580645102</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>651.17741935483798</v>
       </c>
       <c r="BP25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>652.45161290322596</v>
       </c>
       <c r="BQ25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>655</v>
       </c>
     </row>
@@ -35604,7 +35904,8 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>155.05002343505623</v>
+        <f t="shared" si="0"/>
+        <v>176.87378360182004</v>
       </c>
       <c r="C26">
         <v>53.365305779651798</v>
@@ -35617,6 +35918,9 @@
       </c>
       <c r="F26">
         <v>604.26130791750495</v>
+      </c>
+      <c r="G26">
+        <v>450.02378360182001</v>
       </c>
       <c r="H26">
         <v>576</v>
@@ -35810,7 +36114,8 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>155.22905082851651</v>
+        <f t="shared" si="0"/>
+        <v>177.49559807628401</v>
       </c>
       <c r="C27">
         <v>53.458887326907899</v>
@@ -35823,6 +36128,9 @@
       </c>
       <c r="F27">
         <v>605.607084485006</v>
+      </c>
+      <c r="G27">
+        <v>450.64559807628399</v>
       </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
@@ -35830,7 +36138,8 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>155.42475299388173</v>
+        <f t="shared" si="0"/>
+        <v>176.85188388675505</v>
       </c>
       <c r="C28">
         <v>53.550750035862102</v>
@@ -35843,6 +36152,9 @@
       </c>
       <c r="F28">
         <v>606.95286105250602</v>
+      </c>
+      <c r="G28">
+        <v>450.00188388675502</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -35850,7 +36162,8 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>155.64350092262032</v>
+        <f t="shared" si="0"/>
+        <v>175.96158978939104</v>
       </c>
       <c r="C29">
         <v>53.642366339583504</v>
@@ -35863,6 +36176,9 @@
       </c>
       <c r="F29">
         <v>608.29863762000605</v>
+      </c>
+      <c r="G29">
+        <v>449.11158978939102</v>
       </c>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
@@ -35870,7 +36186,8 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>155.89207091778519</v>
+        <f t="shared" si="0"/>
+        <v>174.99488827437204</v>
       </c>
       <c r="C30">
         <v>53.734252450157399</v>
@@ -35883,6 +36200,9 @@
       </c>
       <c r="F30">
         <v>609.64441418750596</v>
+      </c>
+      <c r="G30">
+        <v>448.14488827437202</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -35890,7 +36210,8 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>156.17892385870221</v>
+        <f t="shared" si="0"/>
+        <v>174.00019245445702</v>
       </c>
       <c r="C31">
         <v>53.826807556226598</v>
@@ -35903,6 +36224,9 @@
       </c>
       <c r="F31">
         <v>610.99019075500701</v>
+      </c>
+      <c r="G31">
+        <v>447.150192454457</v>
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
@@ -35910,7 +36234,8 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>156.51470550745728</v>
+        <f t="shared" si="0"/>
+        <v>173.01106522828303</v>
       </c>
       <c r="C32">
         <v>53.920447504538302</v>
@@ -35924,13 +36249,17 @@
       <c r="F32">
         <v>612.33596732250703</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>446.16106522828301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>156.9126138225198</v>
+        <f t="shared" si="0"/>
+        <v>172.05951786637303</v>
       </c>
       <c r="C33">
         <v>54.015555486012403</v>
@@ -35944,13 +36273,17 @@
       <c r="F33">
         <v>613.68174389000706</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>445.20951786637301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>157.38863327950241</v>
+        <f t="shared" si="0"/>
+        <v>171.17544264942404</v>
       </c>
       <c r="C34">
         <v>54.112629436428101</v>
@@ -35964,13 +36297,17 @@
       <c r="F34">
         <v>615.02752045750697</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>444.32544264942402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>157.9614398762584</v>
+        <f t="shared" si="0"/>
+        <v>170.38425194323105</v>
       </c>
       <c r="C35">
         <v>54.212261052956897</v>
@@ -35984,13 +36321,17 @@
       <c r="F35">
         <v>616.37329702500801</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>443.53425194323103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>158.65193249136212</v>
+        <f t="shared" si="0"/>
+        <v>169.70505134612301</v>
       </c>
       <c r="C36">
         <v>54.315430223097003</v>
@@ -36004,13 +36345,17 @@
       <c r="F36">
         <v>617.71907359250804</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>442.85505134612299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>159.48194095343354</v>
+        <f t="shared" si="0"/>
+        <v>169.149723751843</v>
       </c>
       <c r="C37">
         <v>54.422870035450302</v>
@@ -36024,13 +36369,17 @@
       <c r="F37">
         <v>619.06485016000795</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>442.29972375184298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>160.47199049443009</v>
+        <f t="shared" si="0"/>
+        <v>168.72308412790301</v>
       </c>
       <c r="C38">
         <v>54.535894156153603</v>
@@ -36044,13 +36393,17 @@
       <c r="F38">
         <v>620.41062672750797</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>441.87308412790298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39">
-        <v>161.63801492601635</v>
+        <f t="shared" si="0"/>
+        <v>168.42376068830504</v>
       </c>
       <c r="C39">
         <v>54.6564934271765</v>
@@ -36064,13 +36417,17 @@
       <c r="F39">
         <v>621.75640329500902</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>441.57376068830501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40">
-        <v>162.98725285977127</v>
+        <f t="shared" si="0"/>
+        <v>168.24555567503</v>
       </c>
       <c r="C40">
         <v>54.786753279440603</v>
@@ -36084,13 +36441,17 @@
       <c r="F40">
         <v>623.10217986250905</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>441.39555567502998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41">
-        <v>164.51408059746029</v>
+        <f t="shared" si="0"/>
+        <v>168.1789244771</v>
       </c>
       <c r="C41">
         <v>54.928499217312897</v>
@@ -36104,13 +36465,17 @@
       <c r="F41">
         <v>624.44795643000896</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>441.32892447709997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>166.19709262102845</v>
+        <f t="shared" si="0"/>
+        <v>168.212406551838</v>
       </c>
       <c r="C42">
         <v>55.085919669328597</v>
@@ -36124,13 +36489,17 @@
       <c r="F42">
         <v>625.79373299750898</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>441.36240655183798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>167.99874694496395</v>
+        <f t="shared" si="0"/>
+        <v>168.33396307230004</v>
       </c>
       <c r="C43">
         <v>55.262767148063098</v>
@@ -36144,13 +36513,17 @@
       <c r="F43">
         <v>627.13950956501003</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>441.48396307230001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44">
-        <v>169.86855694502594</v>
+        <f t="shared" si="0"/>
+        <v>168.53216270208401</v>
       </c>
       <c r="C44">
         <v>55.464027048942299</v>
@@ -36164,13 +36537,17 @@
       <c r="F44">
         <v>628.48528613251005</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>441.68216270208399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45">
-        <v>171.74947501569989</v>
+        <f t="shared" si="0"/>
+        <v>168.797297275066</v>
       </c>
       <c r="C45">
         <v>55.695565995082703</v>
@@ -36184,13 +36561,17 @@
       <c r="F45">
         <v>629.83106270000997</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>441.94729727506598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>173.58582147806885</v>
+        <f t="shared" si="0"/>
+        <v>169.12240478247401</v>
       </c>
       <c r="C46">
         <v>55.963697502665099</v>
@@ -36204,13 +36585,17 @@
       <c r="F46">
         <v>631.17683926750999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>442.27240478247398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
-        <v>175.33059285432103</v>
+        <f t="shared" si="0"/>
+        <v>169.50424374491001</v>
       </c>
       <c r="C47">
         <v>56.277528443496102</v>
@@ -36224,13 +36609,17 @@
       <c r="F47">
         <v>632.52261583501104</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>442.65424374490999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48">
-        <v>176.95013561695816</v>
+        <f t="shared" si="0"/>
+        <v>169.94396959841305</v>
       </c>
       <c r="C48">
         <v>56.642283785163599</v>
@@ -36244,13 +36633,17 @@
       <c r="F48">
         <v>633.86839240251095</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>443.09396959841303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>178.42553944736721</v>
+        <f t="shared" si="0"/>
+        <v>170.44754781425002</v>
       </c>
       <c r="C49">
         <v>57.067212727468302</v>
@@ -36264,13 +36657,17 @@
       <c r="F49">
         <v>635.21416897001097</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>443.59754781424999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
-        <v>179.75121231228115</v>
+        <f t="shared" si="0"/>
+        <v>171.02559791356305</v>
       </c>
       <c r="C50">
         <v>57.559184555381201</v>
@@ -36284,13 +36681,17 @@
       <c r="F50">
         <v>636.559945537511</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>444.17559791356302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
-        <v>180.93176463097336</v>
+        <f t="shared" si="0"/>
+        <v>171.69255943447405</v>
       </c>
       <c r="C51">
         <v>58.121686948638697</v>
@@ -36304,13 +36705,17 @@
       <c r="F51">
         <v>637.90572210501205</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>444.84255943447403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
-        <v>181.97841213494542</v>
+        <f t="shared" si="0"/>
+        <v>172.464942342043</v>
       </c>
       <c r="C52">
         <v>58.753885163261202</v>
@@ -36324,13 +36729,17 @@
       <c r="F52">
         <v>639.25149867251196</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>445.61494234204298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
-        <v>182.90577137321236</v>
+        <f t="shared" si="0"/>
+        <v>173.35866351276604</v>
       </c>
       <c r="C53">
         <v>59.449971212343797</v>
@@ -36344,13 +36753,17 @@
       <c r="F53">
         <v>640.59727524001198</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>446.50866351276602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
-        <v>183.72949117273095</v>
+        <f t="shared" si="0"/>
+        <v>174.38537116944804</v>
       </c>
       <c r="C54">
         <v>60.197818620175902</v>
@@ -36364,13 +36777,17 @@
       <c r="F54">
         <v>641.94305180751201</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>447.53537116944801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>184.46491637676957</v>
+        <f t="shared" si="0"/>
+        <v>175.54850345701004</v>
       </c>
       <c r="C55">
         <v>60.9803601345698</v>
@@ -36384,13 +36801,17 @@
       <c r="F55">
         <v>643.28882837501305</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>448.69850345701002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
-        <v>185.12687252312901</v>
+        <f t="shared" si="0"/>
+        <v>176.84007284641302</v>
       </c>
       <c r="C56">
         <v>61.777024756998799</v>
@@ -36404,13 +36825,17 @@
       <c r="F56">
         <v>644.63460494251296</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>449.990072846413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
-        <v>185.73079311698677</v>
+        <f t="shared" si="0"/>
+        <v>178.23973857462403</v>
       </c>
       <c r="C57">
         <v>62.567025428430597</v>
@@ -36424,13 +36849,17 @@
       <c r="F57">
         <v>645.98038151001299</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>451.389738574624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>186.29528449326756</v>
+        <f t="shared" si="0"/>
+        <v>179.71747495085003</v>
       </c>
       <c r="C58">
         <v>63.333913811673902</v>
@@ -36444,13 +36873,17 @@
       <c r="F58">
         <v>647.32615807751301</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>452.86747495085001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59">
-        <v>186.8454189732671</v>
+        <f t="shared" si="0"/>
+        <v>181.23980717212004</v>
       </c>
       <c r="C59">
         <v>64.072470274829399</v>
@@ -36464,13 +36897,17 @@
       <c r="F59">
         <v>648.67193464501395</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>454.38980717212002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60">
-        <v>187.41488174945118</v>
+        <f t="shared" si="0"/>
+        <v>182.77838464677302</v>
       </c>
       <c r="C60">
         <v>64.801247754856703</v>
@@ -36484,13 +36921,17 @@
       <c r="F60">
         <v>650.01771121251397</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>455.928384646773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61">
-        <v>188.04459662586453</v>
+        <f t="shared" si="0"/>
+        <v>184.318712508678</v>
       </c>
       <c r="C61">
         <v>65.592700236618299</v>
@@ -36504,13 +36945,17 @@
       <c r="F61">
         <v>651.363487780014</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>457.46871250867798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62">
-        <v>188.78096544593575</v>
+        <f t="shared" si="0"/>
+        <v>185.86896171271803</v>
       </c>
       <c r="C62">
         <v>66.6781824811154</v>
@@ -36524,13 +36969,17 @@
       <c r="F62">
         <v>652.70926434751402</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>459.01896171271801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
-        <v>189.68890772610905</v>
+        <f t="shared" si="0"/>
+        <v>187.47742044776703</v>
       </c>
       <c r="C63">
         <v>69.045257790581402</v>
@@ -36544,13 +36993,17 @@
       <c r="F63">
         <v>654.05504091501496</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>460.62742044776701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64">
-        <v>190.95411316901448</v>
+        <f t="shared" si="0"/>
+        <v>189.33045492917302</v>
       </c>
       <c r="C64">
         <v>78.857783433238893</v>
@@ -36560,6 +37013,9 @@
       </c>
       <c r="F64">
         <v>655.40081748251498</v>
+      </c>
+      <c r="G64">
+        <v>462.48045492917299</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -36567,7 +37023,8 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <v>193.82552409023049</v>
+        <f t="shared" si="0"/>
+        <v>192.67918667793305</v>
       </c>
       <c r="C65">
         <v>118.513084445343</v>
@@ -36577,6 +37034,9 @@
       </c>
       <c r="F65">
         <v>655.40081748251498</v>
+      </c>
+      <c r="G65">
+        <v>465.82918667793302</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -36624,7 +37084,7 @@
         <v>2.4412993835254299E-5</v>
       </c>
       <c r="G69" s="9">
-        <v>376.20000126596278</v>
+        <v>376.19999867213244</v>
       </c>
       <c r="H69" s="9">
         <v>0</v>
@@ -36647,10 +37107,10 @@
         <v>1689.19270119726</v>
       </c>
       <c r="G70" s="9">
-        <v>867.9917455829675</v>
+        <v>909.85364381938552</v>
       </c>
       <c r="H70" s="9">
-        <v>1689.2000056843815</v>
+        <v>1689.1999940376559</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -36670,10 +37130,10 @@
         <v>1686.67064477299</v>
       </c>
       <c r="G71" s="9">
-        <v>722.82649187318975</v>
+        <v>811.11426126007427</v>
       </c>
       <c r="H71" s="9">
-        <v>2180.9917500013862</v>
+        <v>2222.8536391849088</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -36693,10 +37153,10 @@
         <v>1684.73410321713</v>
       </c>
       <c r="G72" s="9">
-        <v>628.99995090415359</v>
+        <v>712.45688666045044</v>
       </c>
       <c r="H72" s="9">
-        <v>2035.8264962916085</v>
+        <v>2124.1142566255976</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -36716,10 +37176,10 @@
         <v>1683.2382493499999</v>
       </c>
       <c r="G73" s="9">
-        <v>589.31788134235785</v>
+        <v>643.48412279106265</v>
       </c>
       <c r="H73" s="9">
-        <v>1941.9999553225723</v>
+        <v>2025.4568820259738</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -36739,10 +37199,10 @@
         <v>1681.94274595722</v>
       </c>
       <c r="G74" s="9">
-        <v>567.86493934369014</v>
+        <v>614.88214315558139</v>
       </c>
       <c r="H74" s="9">
-        <v>1902.3178857607766</v>
+        <v>1956.484118156586</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -36762,10 +37222,10 @@
         <v>1680.5871066960799</v>
       </c>
       <c r="G75" s="9">
-        <v>545.68109523684029</v>
+        <v>636.11191126241943</v>
       </c>
       <c r="H75" s="9">
-        <v>1880.8649437621089</v>
+        <v>1927.8821385211047</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -36785,10 +37245,10 @@
         <v>1678.4811758027499</v>
       </c>
       <c r="G76" s="9">
-        <v>519.92449148269702</v>
+        <v>702.61492060264573</v>
       </c>
       <c r="H76" s="9">
-        <v>1858.681099655259</v>
+        <v>1949.1119066279427</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -36808,10 +37268,10 @@
         <v>1671.0790606069299</v>
       </c>
       <c r="G77" s="9">
-        <v>498.32001842727118</v>
+        <v>777.8852463783378</v>
       </c>
       <c r="H77" s="9">
-        <v>1832.9244959011157</v>
+        <v>2015.614915968169</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -36831,10 +37291,10 @@
         <v>1625.6623785813899</v>
       </c>
       <c r="G78" s="9">
-        <v>2051.006183820733</v>
+        <v>2089.2544696749046</v>
       </c>
       <c r="H78" s="9">
-        <v>1811.3200228456899</v>
+        <v>2090.8852417438611</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -36854,10 +37314,10 @@
         <v>1802.6683890167899</v>
       </c>
       <c r="G79" s="9">
-        <v>2055.5090818604285</v>
+        <v>2045.3642735460312</v>
       </c>
       <c r="H79" s="9">
-        <v>1746.0061882391517</v>
+        <v>1784.2544650404282</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -36877,10 +37337,10 @@
         <v>1807.4716047024001</v>
       </c>
       <c r="G80" s="9">
-        <v>2056.2079786147524</v>
+        <v>2048.9037162776849</v>
       </c>
       <c r="H80" s="9">
-        <v>1750.5090862788472</v>
+        <v>1740.3642689115545</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -36900,10 +37360,10 @@
         <v>1809.8832660636001</v>
       </c>
       <c r="G81" s="9">
-        <v>2056.4149139530045</v>
+        <v>2049.471863946123</v>
       </c>
       <c r="H81" s="9">
-        <v>1751.2079830331709</v>
+        <v>1743.9037116432082</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -36923,10 +37383,10 @@
         <v>1811.35128022252</v>
       </c>
       <c r="G82" s="9">
-        <v>2056.6640597590663</v>
+        <v>2049.2217861181471</v>
       </c>
       <c r="H82" s="9">
-        <v>1751.414918371423</v>
+        <v>1744.4718593116463</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -36946,10 +37406,10 @@
         <v>1812.4663006529299</v>
       </c>
       <c r="G83" s="9">
-        <v>2056.9776320920155</v>
+        <v>2049.0606017975488</v>
       </c>
       <c r="H83" s="9">
-        <v>1751.664064177485</v>
+        <v>1744.2217814836706</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -36969,10 +37429,10 @@
         <v>1813.4414373842101</v>
       </c>
       <c r="G84" s="9">
-        <v>2057.3343093744866</v>
+        <v>2049.0901984861221</v>
       </c>
       <c r="H84" s="9">
-        <v>1751.9776365104342</v>
+        <v>1744.0605971630719</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -36992,10 +37452,10 @@
         <v>1814.3961333165901</v>
       </c>
       <c r="G85" s="9">
-        <v>2057.7176956350113</v>
+        <v>2049.3124812701435</v>
       </c>
       <c r="H85" s="9">
-        <v>1752.3343137929053</v>
+        <v>1744.0901938516452</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -37015,10 +37475,10 @@
         <v>1815.3682371423599</v>
       </c>
       <c r="G86" s="9">
-        <v>2058.1175381047469</v>
+        <v>2049.7661798812583</v>
       </c>
       <c r="H86" s="9">
-        <v>1752.71770005343</v>
+        <v>1744.3124766356666</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -37038,10 +37498,10 @@
         <v>1816.38736661282</v>
       </c>
       <c r="G87" s="9">
-        <v>2058.5272313851319</v>
+        <v>2050.5828032628233</v>
       </c>
       <c r="H87" s="9">
-        <v>1753.1175425231654</v>
+        <v>1744.7661752467816</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -37061,10 +37521,10 @@
         <v>1817.51322226109</v>
       </c>
       <c r="G88" s="9">
-        <v>2058.9416942055032</v>
+        <v>2052.0927967116995</v>
       </c>
       <c r="H88" s="9">
-        <v>1753.5272358035509</v>
+        <v>1745.5827986283468</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -37084,10 +37544,10 @@
         <v>1819.0228865332999</v>
       </c>
       <c r="G89" s="9">
-        <v>2059.3557726827576</v>
+        <v>2055.1880157777414</v>
       </c>
       <c r="H89" s="9">
-        <v>1753.9416986239216</v>
+        <v>1747.0927920772228</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -37107,10 +37567,10 @@
         <v>1823.6094484259299</v>
       </c>
       <c r="G90" s="9">
-        <v>2161.8725261154887</v>
+        <v>2079.6829001349533</v>
       </c>
       <c r="H90" s="9">
-        <v>1754.355777101176</v>
+        <v>1750.1880111432645</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -37130,10 +37590,10 @@
         <v>1823.11083383306</v>
       </c>
       <c r="G91" s="9">
-        <v>2162.2685348627374</v>
+        <v>2089.6522125134493</v>
       </c>
       <c r="H91" s="9">
-        <v>1753.7725305339075</v>
+        <v>1671.5828955004765</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -37153,10 +37613,10 @@
         <v>1824.0303035187401</v>
       </c>
       <c r="G92" s="9">
-        <v>2162.6320508319604</v>
+        <v>2093.8347542120609</v>
       </c>
       <c r="H92" s="9">
-        <v>1754.1685392811562</v>
+        <v>1681.5522078789725</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -37176,10 +37636,10 @@
         <v>1824.8940923463699</v>
       </c>
       <c r="G93" s="9">
-        <v>2162.9619404110949</v>
+        <v>2097.0369538259174</v>
       </c>
       <c r="H93" s="9">
-        <v>1754.5320552503792</v>
+        <v>1685.7347495775841</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -37199,10 +37659,10 @@
         <v>1825.78968474417</v>
       </c>
       <c r="G94" s="9">
-        <v>2163.2447272041863</v>
+        <v>2100.2131034368695</v>
       </c>
       <c r="H94" s="9">
-        <v>1754.8619448295135</v>
+        <v>1688.9369491914406</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -37222,10 +37682,10 @@
         <v>1826.64311337494</v>
       </c>
       <c r="G95" s="9">
-        <v>2163.4599146675514</v>
+        <v>2103.4616496155077</v>
       </c>
       <c r="H95" s="9">
-        <v>1755.1447316226049</v>
+        <v>1692.1130988023929</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -37245,10 +37705,10 @@
         <v>1827.48962894791</v>
       </c>
       <c r="G96" s="9">
-        <v>2163.5790887565763</v>
+        <v>2106.7410073133951</v>
       </c>
       <c r="H96" s="9">
-        <v>1755.35991908597</v>
+        <v>1695.3616449810308</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -37268,10 +37728,10 @@
         <v>1828.33206244543</v>
       </c>
       <c r="G97" s="9">
-        <v>2163.5641461400651</v>
+        <v>2109.9837721712488</v>
       </c>
       <c r="H97" s="9">
-        <v>1755.4790931749951</v>
+        <v>1698.6410026789185</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -37291,10 +37751,10 @@
         <v>1829.1498138985801</v>
       </c>
       <c r="G98" s="9">
-        <v>2163.3655167382658</v>
+        <v>2113.1175366562934</v>
       </c>
       <c r="H98" s="9">
-        <v>1755.4641505584839</v>
+        <v>1701.883767536772</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -37314,10 +37774,10 @@
         <v>1829.94438480495</v>
       </c>
       <c r="G99" s="9">
-        <v>2162.9209523929394</v>
+        <v>2116.072703839036</v>
       </c>
       <c r="H99" s="9">
-        <v>1755.2655211566846</v>
+        <v>1705.0175320218166</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -37337,10 +37797,10 @@
         <v>1830.70714843421</v>
       </c>
       <c r="G100" s="9">
-        <v>2162.1555640906658</v>
+        <v>2118.7881680600103</v>
       </c>
       <c r="H100" s="9">
-        <v>1754.820956811358</v>
+        <v>1707.9726992045594</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -37360,10 +37820,10 @@
         <v>1831.44383287716</v>
       </c>
       <c r="G101" s="9">
-        <v>2160.9845294087968</v>
+        <v>2121.2160497266177</v>
       </c>
       <c r="H101" s="9">
-        <v>1754.0555685090844</v>
+        <v>1710.6881634255337</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -37383,10 +37843,10 @@
         <v>1832.07700851914</v>
       </c>
       <c r="G102" s="9">
-        <v>2159.3193346659336</v>
+        <v>2123.3246214328178</v>
       </c>
       <c r="H102" s="9">
-        <v>1752.8845338272154</v>
+        <v>1713.1160450921411</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -37406,10 +37866,10 @@
         <v>1832.6889456737199</v>
       </c>
       <c r="G103" s="9">
-        <v>2157.0787096583044</v>
+        <v>2125.0993461402313</v>
       </c>
       <c r="H103" s="9">
-        <v>1751.2193390843524</v>
+        <v>1715.224616798341</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -37429,10 +37889,10 @@
         <v>1833.27099962594</v>
       </c>
       <c r="G104" s="9">
-        <v>2154.204028405552</v>
+        <v>2126.5417820348771</v>
       </c>
       <c r="H104" s="9">
-        <v>1748.978714076723</v>
+        <v>1716.9993415057545</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -37452,10 +37912,10 @@
         <v>1833.69538440163</v>
       </c>
       <c r="G105" s="9">
-        <v>2150.6769076461283</v>
+        <v>2127.6669405904549</v>
       </c>
       <c r="H105" s="9">
-        <v>1746.1040328239708</v>
+        <v>1718.4417774004005</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -37475,10 +37935,10 @@
         <v>1833.9283134412899</v>
       </c>
       <c r="G106" s="9">
-        <v>2146.5343135290996</v>
+        <v>2128.499532554295</v>
       </c>
       <c r="H106" s="9">
-        <v>1742.5769120645468</v>
+        <v>1719.5669359559784</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -37498,10 +37958,10 @@
         <v>1834.23918064949</v>
       </c>
       <c r="G107" s="9">
-        <v>2141.8751890000103</v>
+        <v>2129.0696848081507</v>
       </c>
       <c r="H107" s="9">
-        <v>1738.4343179475184</v>
+        <v>1720.3995279198184</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -37521,10 +37981,10 @@
         <v>1834.31138354991</v>
       </c>
       <c r="G108" s="9">
-        <v>2136.8536352480724</v>
+        <v>2129.4085592256206</v>
       </c>
       <c r="H108" s="9">
-        <v>1733.7751934184289</v>
+        <v>1720.9696801736739</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -37544,10 +38004,10 @@
         <v>1834.22385659784</v>
       </c>
       <c r="G109" s="9">
-        <v>2131.6586199086041</v>
+        <v>2129.5439550814513</v>
       </c>
       <c r="H109" s="9">
-        <v>1728.7536396664909</v>
+        <v>1721.3085545911438</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -37567,10 +38027,10 @@
         <v>1833.93736706594</v>
       </c>
       <c r="G110" s="9">
-        <v>2126.4856340255246</v>
+        <v>2129.4961499048677</v>
       </c>
       <c r="H110" s="9">
-        <v>1723.5586243270227</v>
+        <v>1721.4439504469744</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -37590,10 +38050,10 @@
         <v>1833.42356782605</v>
       </c>
       <c r="G111" s="9">
-        <v>2121.5091542204245</v>
+        <v>2129.2740977783824</v>
       </c>
       <c r="H111" s="9">
-        <v>1718.3856384439432</v>
+        <v>1721.3961452703911</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -37613,10 +38073,10 @@
         <v>1832.8507522954301</v>
       </c>
       <c r="G112" s="9">
-        <v>2116.8639076771515</v>
+        <v>2128.8724620812809</v>
       </c>
       <c r="H112" s="9">
-        <v>1713.4091586388433</v>
+        <v>1721.1740931439058</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -37636,10 +38096,10 @@
         <v>1831.63049238688</v>
       </c>
       <c r="G113" s="9">
-        <v>2112.6377433430371</v>
+        <v>2128.2695938737802</v>
       </c>
       <c r="H113" s="9">
-        <v>1708.76391209557</v>
+        <v>1720.7724574468043</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -37659,10 +38119,10 @@
         <v>1830.6774215267201</v>
       </c>
       <c r="G114" s="9">
-        <v>2108.8745424564959</v>
+        <v>2127.4275086505199</v>
       </c>
       <c r="H114" s="9">
-        <v>1704.5377477614559</v>
+        <v>1720.1695892393034</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -37682,10 +38142,10 @@
         <v>1829.4897040455601</v>
       </c>
       <c r="G115" s="9">
-        <v>2105.582892299843</v>
+        <v>2126.2944122376734</v>
       </c>
       <c r="H115" s="9">
-        <v>1700.7745468749144</v>
+        <v>1719.3275040160433</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -37705,10 +38165,10 @@
         <v>1827.89625489421</v>
       </c>
       <c r="G116" s="9">
-        <v>2102.7463492180677</v>
+        <v>2124.8110057568747</v>
       </c>
       <c r="H116" s="9">
-        <v>1697.4828967182616</v>
+        <v>1718.1944076031969</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -37728,10 +38188,10 @@
         <v>1825.9853932389401</v>
       </c>
       <c r="G117" s="9">
-        <v>2100.3327451973105</v>
+        <v>2122.9214452876827</v>
       </c>
       <c r="H117" s="9">
-        <v>1694.6463536364865</v>
+        <v>1716.7110011223981</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -37751,10 +38211,10 @@
         <v>1823.9610357799399</v>
       </c>
       <c r="G118" s="9">
-        <v>2098.3017240356585</v>
+        <v>2120.5895308067616</v>
       </c>
       <c r="H118" s="9">
-        <v>1692.2327496157293</v>
+        <v>1714.8214406532059</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -37774,10 +38234,10 @@
         <v>1821.9267078276</v>
       </c>
       <c r="G119" s="9">
-        <v>2096.6109325394668</v>
+        <v>2117.8181076003848</v>
       </c>
       <c r="H119" s="9">
-        <v>1690.2017284540771</v>
+        <v>1712.4895261722847</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -37797,10 +38257,10 @@
         <v>1820.14156474071</v>
       </c>
       <c r="G120" s="9">
-        <v>2095.2221254933615</v>
+        <v>2114.6676641757736</v>
       </c>
       <c r="H120" s="9">
-        <v>1688.5109369578856</v>
+        <v>1709.7181029659082</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -37820,10 +38280,10 @@
         <v>1818.7042645689401</v>
       </c>
       <c r="G121" s="9">
-        <v>2094.1085898184956</v>
+        <v>2111.2666937369449</v>
       </c>
       <c r="H121" s="9">
-        <v>1687.1221299117801</v>
+        <v>1706.5676595412967</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -37843,10 +38303,10 @@
         <v>1817.67077654788</v>
       </c>
       <c r="G122" s="9">
-        <v>2093.2646229523093</v>
+        <v>2107.8070224674657</v>
       </c>
       <c r="H122" s="9">
-        <v>1686.0085942369142</v>
+        <v>1703.1666891024681</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -37866,10 +38326,10 @@
         <v>1817.0160045904399</v>
       </c>
       <c r="G123" s="9">
-        <v>2092.7147796982026</v>
+        <v>2104.5222211951464</v>
       </c>
       <c r="H123" s="9">
-        <v>1685.1646273707279</v>
+        <v>1699.7070178329891</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -37889,10 +38349,10 @@
         <v>1816.63066529141</v>
       </c>
       <c r="G124" s="9">
-        <v>2092.5159707604748</v>
+        <v>2101.6545229242302</v>
       </c>
       <c r="H124" s="9">
-        <v>1684.6147841166214</v>
+        <v>1696.4222165606698</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -37912,10 +38372,10 @@
         <v>1816.2300425866899</v>
       </c>
       <c r="G125" s="9">
-        <v>2092.7464018747601</v>
+        <v>2099.4215294762362</v>
       </c>
       <c r="H125" s="9">
-        <v>1684.4159751788936</v>
+        <v>1693.5545182897536</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -37935,10 +38395,10 @@
         <v>1815.0859054346099</v>
       </c>
       <c r="G126" s="9">
-        <v>2093.4842527739424</v>
+        <v>2097.9903552770065</v>
       </c>
       <c r="H126" s="9">
-        <v>1684.6464062931789</v>
+        <v>1691.3215248417596</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -37958,10 +38418,10 @@
         <v>1811.1431846381799</v>
       </c>
       <c r="G127" s="9">
-        <v>2094.7762398134846</v>
+        <v>2097.4494708708626</v>
       </c>
       <c r="H127" s="9">
-        <v>1685.3842571923612</v>
+        <v>1689.8903506425297</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -37981,13 +38441,13 @@
         <v>1795.2527030034601</v>
       </c>
       <c r="G128" s="9">
-        <v>2096.4866645703069</v>
+        <v>2097.665771725543</v>
       </c>
       <c r="H128" s="9">
-        <v>1686.6762442319032</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1689.3494662363858</v>
+      </c>
+    </row>
+    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>61</v>
       </c>
@@ -38004,13 +38464,13 @@
         <v>1708.7871303899301</v>
       </c>
       <c r="G129" s="9">
-        <v>2097.3023796413254</v>
+        <v>2097.3024261658516</v>
       </c>
       <c r="H129" s="9">
-        <v>1688.3866689887257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1689.5657670910662</v>
+      </c>
+    </row>
+    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>62</v>
       </c>
@@ -38027,10 +38487,198 @@
         <v>1367.0960423517399</v>
       </c>
       <c r="G130" s="9">
-        <v>408.09999558158256</v>
+        <v>408.10000463447784</v>
       </c>
       <c r="H130" s="9">
-        <v>1689.202384059744</v>
+        <v>1689.2024215313747</v>
+      </c>
+    </row>
+    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1945</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M134" t="s">
+        <v>1948</v>
+      </c>
+      <c r="N134" t="s">
+        <v>1949</v>
+      </c>
+      <c r="O134" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P134" t="s">
+        <v>1951</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>1952</v>
+      </c>
+      <c r="R134" t="s">
+        <v>1953</v>
+      </c>
+      <c r="S134" t="s">
+        <v>1954</v>
+      </c>
+      <c r="T134" t="s">
+        <v>1955</v>
+      </c>
+      <c r="U134" t="s">
+        <v>1956</v>
+      </c>
+      <c r="V134" t="s">
+        <v>1957</v>
+      </c>
+      <c r="W134" t="s">
+        <v>1958</v>
+      </c>
+      <c r="X134" t="s">
+        <v>1959</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>1971</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>1972</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AN134" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AO134" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AS134" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AX134" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AY134" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AZ134" t="s">
+        <v>1987</v>
+      </c>
+      <c r="BA134" t="s">
+        <v>1988</v>
+      </c>
+      <c r="BB134" t="s">
+        <v>1989</v>
+      </c>
+      <c r="BC134" t="s">
+        <v>1990</v>
+      </c>
+      <c r="BD134" t="s">
+        <v>1991</v>
+      </c>
+      <c r="BE134" t="s">
+        <v>1992</v>
+      </c>
+      <c r="BF134" t="s">
+        <v>1993</v>
+      </c>
+      <c r="BG134" t="s">
+        <v>1994</v>
+      </c>
+      <c r="BH134" t="s">
+        <v>1995</v>
+      </c>
+      <c r="BI134" t="s">
+        <v>1996</v>
+      </c>
+      <c r="BJ134" t="s">
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
@@ -55447,7 +56095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6AE07F-558D-498F-8CC3-8F33837DB2F7}">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="H34" sqref="H34:H95"/>
     </sheetView>
   </sheetViews>
@@ -62772,4 +63420,528 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB81913-7A8B-42A4-B25F-EAFCD1F43EAE}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.07671258533863E-2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>9.3384205739410398E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.6574607379347299</v>
+      </c>
+      <c r="B5">
+        <v>5.9424893872710501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.4426830465593601</v>
+      </c>
+      <c r="B6">
+        <v>0.174695281352753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.4667405893600103</v>
+      </c>
+      <c r="B7">
+        <v>0.34571360914989002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6.2266211235405997</v>
+      </c>
+      <c r="B8">
+        <v>0.41924937337479601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6.1981321902628697</v>
+      </c>
+      <c r="B9">
+        <v>0.41685777885075997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.8512691044709699</v>
+      </c>
+      <c r="B10">
+        <v>0.38333378154235598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.3255983430424703</v>
+      </c>
+      <c r="B11">
+        <v>0.334021927260578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.6570053294513398</v>
+      </c>
+      <c r="B12">
+        <v>0.27438316506896798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.9837831473887801</v>
+      </c>
+      <c r="B13">
+        <v>0.21820527233006801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8.0177229244424204</v>
+      </c>
+      <c r="B14">
+        <v>0.61232439913903502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9.7550428669863294</v>
+      </c>
+      <c r="B15">
+        <v>0.81839090272356696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10.132111437136</v>
+      </c>
+      <c r="B16">
+        <v>0.86632148053567604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10.204564452719399</v>
+      </c>
+      <c r="B17">
+        <v>0.87636024190456197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10.209709788680099</v>
+      </c>
+      <c r="B18">
+        <v>0.87790453373317801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10.1924355126925</v>
+      </c>
+      <c r="B19">
+        <v>0.87660604773763195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10.1624489112794</v>
+      </c>
+      <c r="B20">
+        <v>0.87369267916458204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10.122166246085801</v>
+      </c>
+      <c r="B21">
+        <v>0.86947219103670603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10.0713366211994</v>
+      </c>
+      <c r="B22">
+        <v>0.86391634313803201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.006777310622599</v>
+      </c>
+      <c r="B23">
+        <v>0.85662918609462801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9.9187478315357396</v>
+      </c>
+      <c r="B24">
+        <v>0.84639625573666399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9.7742866327066498</v>
+      </c>
+      <c r="B25">
+        <v>0.82912216090691804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10.766932020582599</v>
+      </c>
+      <c r="B26">
+        <v>0.95711083718121404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10.7561173371093</v>
+      </c>
+      <c r="B27">
+        <v>0.95664897361568402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10.577323199714399</v>
+      </c>
+      <c r="B28">
+        <v>0.93423576064418701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10.3720947331894</v>
+      </c>
+      <c r="B29">
+        <v>0.90854694364458899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10.1649386463257</v>
+      </c>
+      <c r="B30">
+        <v>0.88280614873528196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9.9634390941665796</v>
+      </c>
+      <c r="B31">
+        <v>0.85798564813446998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9.7724843873792295</v>
+      </c>
+      <c r="B32">
+        <v>0.83468570637010397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9.5960236519352193</v>
+      </c>
+      <c r="B33">
+        <v>0.81336988832357404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9.4371611386099001</v>
+      </c>
+      <c r="B34">
+        <v>0.794384059750188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9.2981371659644392</v>
+      </c>
+      <c r="B35">
+        <v>0.77796086814279897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9.1804030304774695</v>
+      </c>
+      <c r="B36">
+        <v>0.76423521772329295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9.0847716431836592</v>
+      </c>
+      <c r="B37">
+        <v>0.75326763466864999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9.0116359241993802</v>
+      </c>
+      <c r="B38">
+        <v>0.74507421359082904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8.9611913422691405</v>
+      </c>
+      <c r="B39">
+        <v>0.73965553174675602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8.9336401052215795</v>
+      </c>
+      <c r="B40">
+        <v>0.73702234016834001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8.9293474870083607</v>
+      </c>
+      <c r="B41">
+        <v>0.73721506329053299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8.9489194258855704</v>
+      </c>
+      <c r="B42">
+        <v>0.74031388551566901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8.9931825068175399</v>
+      </c>
+      <c r="B43">
+        <v>0.74643739968653799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9.0630347574774408</v>
+      </c>
+      <c r="B44">
+        <v>0.75572582748042905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9.1591662050931397</v>
+      </c>
+      <c r="B45">
+        <v>0.76830796905355603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9.2816438147552507</v>
+      </c>
+      <c r="B46">
+        <v>0.78424986677316799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9.4294277645875795</v>
+      </c>
+      <c r="B47">
+        <v>0.80349159239858903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9.59992948051657</v>
+      </c>
+      <c r="B48">
+        <v>0.82578426314279696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9.7887695708256004</v>
+      </c>
+      <c r="B49">
+        <v>0.85064687735035505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9.9899059227474591</v>
+      </c>
+      <c r="B50">
+        <v>0.87736691073472595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10.1961970471834</v>
+      </c>
+      <c r="B51">
+        <v>0.90505821022104205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10.400315391965</v>
+      </c>
+      <c r="B52">
+        <v>0.93277132991208001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10.595763071600199</v>
+      </c>
+      <c r="B53">
+        <v>0.95962797443025305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10.7777001763281</v>
+      </c>
+      <c r="B54">
+        <v>0.98494078782967698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10.943387605723499</v>
+      </c>
+      <c r="B55">
+        <v>1.0082875458010701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11.0922019171086</v>
+      </c>
+      <c r="B56">
+        <v>1.0295281734059001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11.2253431698147</v>
+      </c>
+      <c r="B57">
+        <v>1.0487766384847901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11.3454210399013</v>
+      </c>
+      <c r="B58">
+        <v>1.06635145553225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>11.456071921422399</v>
+      </c>
+      <c r="B59">
+        <v>1.0827264533871499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11.561719834551299</v>
+      </c>
+      <c r="B60">
+        <v>1.09849911188584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11.6675692794102</v>
+      </c>
+      <c r="B61">
+        <v>1.1143907158548501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>11.7801001474802</v>
+      </c>
+      <c r="B62">
+        <v>1.1313185686560401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>11.909491072213999</v>
+      </c>
+      <c r="B63">
+        <v>1.1507471417180299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12.084765597028399</v>
+      </c>
+      <c r="B64">
+        <v>1.17688317574219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12.471039205972501</v>
+      </c>
+      <c r="B65">
+        <v>1.23501973569825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -6480,192 +6480,6 @@
     <t>iC4</t>
   </si>
   <si>
-    <t>(328,15081705153,</t>
-  </si>
-  <si>
-    <t>328,321820214391,</t>
-  </si>
-  <si>
-    <t>345,370900034904,</t>
-  </si>
-  <si>
-    <t>367,08410564065,</t>
-  </si>
-  <si>
-    <t>385,682712197304,</t>
-  </si>
-  <si>
-    <t>398,748969011009,</t>
-  </si>
-  <si>
-    <t>405,961940616369,</t>
-  </si>
-  <si>
-    <t>406,08185184747,</t>
-  </si>
-  <si>
-    <t>397,916830688715,</t>
-  </si>
-  <si>
-    <t>383,789538115263,</t>
-  </si>
-  <si>
-    <t>425,514830768108,</t>
-  </si>
-  <si>
-    <t>438,657890416682,</t>
-  </si>
-  <si>
-    <t>441,55496352911,</t>
-  </si>
-  <si>
-    <t>442,359023191035,</t>
-  </si>
-  <si>
-    <t>442,699845634401,</t>
-  </si>
-  <si>
-    <t>442,886493049562,</t>
-  </si>
-  <si>
-    <t>442,989338867366,</t>
-  </si>
-  <si>
-    <t>443,027738198638,</t>
-  </si>
-  <si>
-    <t>443,001218631864,</t>
-  </si>
-  <si>
-    <t>442,887031815946,</t>
-  </si>
-  <si>
-    <t>442,612266816199,</t>
-  </si>
-  <si>
-    <t>441,922629654408,</t>
-  </si>
-  <si>
-    <t>450,02378360182,</t>
-  </si>
-  <si>
-    <t>450,645598076284,</t>
-  </si>
-  <si>
-    <t>450,001883886755,</t>
-  </si>
-  <si>
-    <t>449,111589789391,</t>
-  </si>
-  <si>
-    <t>448,144888274372,</t>
-  </si>
-  <si>
-    <t>447,150192454457,</t>
-  </si>
-  <si>
-    <t>446,161065228283,</t>
-  </si>
-  <si>
-    <t>445,209517866373,</t>
-  </si>
-  <si>
-    <t>444,325442649424,</t>
-  </si>
-  <si>
-    <t>443,534251943231,</t>
-  </si>
-  <si>
-    <t>442,855051346123,</t>
-  </si>
-  <si>
-    <t>442,299723751843,</t>
-  </si>
-  <si>
-    <t>441,873084127903,</t>
-  </si>
-  <si>
-    <t>441,573760688305,</t>
-  </si>
-  <si>
-    <t>441,39555567503,</t>
-  </si>
-  <si>
-    <t>441,3289244771,</t>
-  </si>
-  <si>
-    <t>441,362406551838,</t>
-  </si>
-  <si>
-    <t>441,4839630723,</t>
-  </si>
-  <si>
-    <t>441,682162702084,</t>
-  </si>
-  <si>
-    <t>441,947297275066,</t>
-  </si>
-  <si>
-    <t>442,272404782474,</t>
-  </si>
-  <si>
-    <t>442,65424374491,</t>
-  </si>
-  <si>
-    <t>443,093969598413,</t>
-  </si>
-  <si>
-    <t>443,59754781425,</t>
-  </si>
-  <si>
-    <t>444,175597913563,</t>
-  </si>
-  <si>
-    <t>444,842559434474,</t>
-  </si>
-  <si>
-    <t>445,614942342043,</t>
-  </si>
-  <si>
-    <t>446,508663512766,</t>
-  </si>
-  <si>
-    <t>447,535371169448,</t>
-  </si>
-  <si>
-    <t>448,69850345701,</t>
-  </si>
-  <si>
-    <t>449,990072846413,</t>
-  </si>
-  <si>
-    <t>451,389738574624,</t>
-  </si>
-  <si>
-    <t>452,86747495085,</t>
-  </si>
-  <si>
-    <t>454,38980717212,</t>
-  </si>
-  <si>
-    <t>455,928384646773,</t>
-  </si>
-  <si>
-    <t>457,468712508678,</t>
-  </si>
-  <si>
-    <t>459,018961712718,</t>
-  </si>
-  <si>
-    <t>460,627420447767,</t>
-  </si>
-  <si>
-    <t>462,480454929173,</t>
-  </si>
-  <si>
-    <t>465,829186677933)</t>
-  </si>
-  <si>
     <t>zf[ 0, FeedTray2-1] :</t>
   </si>
   <si>
@@ -6814,6 +6628,192 @@
   </si>
   <si>
     <t>Ср0, кДж / (кг * К) Жидкость</t>
+  </si>
+  <si>
+    <t>(347.313531860709.</t>
+  </si>
+  <si>
+    <t>349.866914376616.</t>
+  </si>
+  <si>
+    <t>400.775489583612.</t>
+  </si>
+  <si>
+    <t>430.311613157392.</t>
+  </si>
+  <si>
+    <t>438.697197660804.</t>
+  </si>
+  <si>
+    <t>438.745175674558.</t>
+  </si>
+  <si>
+    <t>432.941726967692.</t>
+  </si>
+  <si>
+    <t>420.704275742173.</t>
+  </si>
+  <si>
+    <t>403.148788586259.</t>
+  </si>
+  <si>
+    <t>385.514464601874.</t>
+  </si>
+  <si>
+    <t>429.447881504893.</t>
+  </si>
+  <si>
+    <t>443.648260459304.</t>
+  </si>
+  <si>
+    <t>446.697563305497.</t>
+  </si>
+  <si>
+    <t>447.480218484998.</t>
+  </si>
+  <si>
+    <t>447.792407497764.</t>
+  </si>
+  <si>
+    <t>447.97013066709.</t>
+  </si>
+  <si>
+    <t>448.08620326221.</t>
+  </si>
+  <si>
+    <t>448.158958181739.</t>
+  </si>
+  <si>
+    <t>448.186537995934.</t>
+  </si>
+  <si>
+    <t>448.143528774381.</t>
+  </si>
+  <si>
+    <t>447.94790185988.</t>
+  </si>
+  <si>
+    <t>447.296976670623.</t>
+  </si>
+  <si>
+    <t>459.344178810716.</t>
+  </si>
+  <si>
+    <t>461.225191876292.</t>
+  </si>
+  <si>
+    <t>461.307361349463.</t>
+  </si>
+  <si>
+    <t>461.054965481162.</t>
+  </si>
+  <si>
+    <t>460.691070184112.</t>
+  </si>
+  <si>
+    <t>460.24236343801.</t>
+  </si>
+  <si>
+    <t>459.70520414412.</t>
+  </si>
+  <si>
+    <t>459.072035178542.</t>
+  </si>
+  <si>
+    <t>458.336439356208.</t>
+  </si>
+  <si>
+    <t>457.495104148984.</t>
+  </si>
+  <si>
+    <t>456.549498066306.</t>
+  </si>
+  <si>
+    <t>455.507526919246.</t>
+  </si>
+  <si>
+    <t>454.384982213378.</t>
+  </si>
+  <si>
+    <t>453.20648662746.</t>
+  </si>
+  <si>
+    <t>452.005601301789.</t>
+  </si>
+  <si>
+    <t>450.82379989326.</t>
+  </si>
+  <si>
+    <t>449.708383157849.</t>
+  </si>
+  <si>
+    <t>448.709468171.</t>
+  </si>
+  <si>
+    <t>447.87649475038.</t>
+  </si>
+  <si>
+    <t>447.254718467593.</t>
+  </si>
+  <si>
+    <t>446.882092580199.</t>
+  </si>
+  <si>
+    <t>446.786418184638.</t>
+  </si>
+  <si>
+    <t>446.982816234231.</t>
+  </si>
+  <si>
+    <t>447.471259906888.</t>
+  </si>
+  <si>
+    <t>448.234569653869.</t>
+  </si>
+  <si>
+    <t>449.237628653646.</t>
+  </si>
+  <si>
+    <t>450.429025664926.</t>
+  </si>
+  <si>
+    <t>451.745990291238.</t>
+  </si>
+  <si>
+    <t>453.122245147824.</t>
+  </si>
+  <si>
+    <t>454.497091844678.</t>
+  </si>
+  <si>
+    <t>455.823330208659.</t>
+  </si>
+  <si>
+    <t>457.071985676885.</t>
+  </si>
+  <si>
+    <t>458.233194425702.</t>
+  </si>
+  <si>
+    <t>459.314158186316.</t>
+  </si>
+  <si>
+    <t>460.335825011134.</t>
+  </si>
+  <si>
+    <t>461.330401524901.</t>
+  </si>
+  <si>
+    <t>462.342492863536.</t>
+  </si>
+  <si>
+    <t>463.4441498667.</t>
+  </si>
+  <si>
+    <t>464.840514585376.</t>
+  </si>
+  <si>
+    <t>467.783011868596)</t>
   </si>
 </sst>
 </file>
@@ -6823,7 +6823,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -6993,10 +6993,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7265,190 +7265,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>55.000817051530021</c:v>
+                  <c:v>74.163531860709043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.171820214391005</c:v>
+                  <c:v>76.716914376616046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.220900034904048</c:v>
+                  <c:v>127.62548958361202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.934105640650046</c:v>
+                  <c:v>157.16161315739203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.53271219730402</c:v>
+                  <c:v>165.54719766080404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.59896901100905</c:v>
+                  <c:v>165.59517567455805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.81194061636904</c:v>
+                  <c:v>159.791726967692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132.93185184747</c:v>
+                  <c:v>147.55427574217305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.766830688715</c:v>
+                  <c:v>129.99878858625902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.63953811526301</c:v>
+                  <c:v>112.36446460187403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152.36483076810805</c:v>
+                  <c:v>156.29788150489304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>165.50789041668202</c:v>
+                  <c:v>170.49826045930405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168.40496352911003</c:v>
+                  <c:v>173.54756330549702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169.20902319103504</c:v>
+                  <c:v>174.330218484998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>169.54984563440104</c:v>
+                  <c:v>174.642407497764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169.736493049562</c:v>
+                  <c:v>174.82013066709004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169.839338867366</c:v>
+                  <c:v>174.93620326221003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>169.87773819863804</c:v>
+                  <c:v>175.00895818173905</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169.85121863186401</c:v>
+                  <c:v>175.036537995934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169.73703181594601</c:v>
+                  <c:v>174.99352877438105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169.46226681619902</c:v>
+                  <c:v>174.79790185988003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168.77262965440804</c:v>
+                  <c:v>174.14697667062302</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176.87378360182004</c:v>
+                  <c:v>186.19417881071604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>177.49559807628401</c:v>
+                  <c:v>188.07519187629202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>176.85188388675505</c:v>
+                  <c:v>188.15736134946303</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>175.96158978939104</c:v>
+                  <c:v>187.90496548116204</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>174.99488827437204</c:v>
+                  <c:v>187.54107018411202</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>174.00019245445702</c:v>
+                  <c:v>187.09236343801001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>173.01106522828303</c:v>
+                  <c:v>186.55520414412001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>172.05951786637303</c:v>
+                  <c:v>185.92203517854205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>171.17544264942404</c:v>
+                  <c:v>185.18643935620804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>170.38425194323105</c:v>
+                  <c:v>184.34510414898403</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>169.70505134612301</c:v>
+                  <c:v>183.39949806630602</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>169.149723751843</c:v>
+                  <c:v>182.35752691924603</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>168.72308412790301</c:v>
+                  <c:v>181.23498221337803</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>168.42376068830504</c:v>
+                  <c:v>180.05648662746</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>168.24555567503</c:v>
+                  <c:v>178.85560130178902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>168.1789244771</c:v>
+                  <c:v>177.67379989326002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>168.212406551838</c:v>
+                  <c:v>176.55838315784905</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>168.33396307230004</c:v>
+                  <c:v>175.55946817100005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>168.53216270208401</c:v>
+                  <c:v>174.72649475038003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>168.797297275066</c:v>
+                  <c:v>174.10471846759305</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>169.12240478247401</c:v>
+                  <c:v>173.73209258019904</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>169.50424374491001</c:v>
+                  <c:v>173.63641818463805</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>169.94396959841305</c:v>
+                  <c:v>173.83281623423102</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>170.44754781425002</c:v>
+                  <c:v>174.32125990688803</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>171.02559791356305</c:v>
+                  <c:v>175.08456965386904</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>171.69255943447405</c:v>
+                  <c:v>176.08762865364605</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>172.464942342043</c:v>
+                  <c:v>177.279025664926</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>173.35866351276604</c:v>
+                  <c:v>178.59599029123802</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>174.38537116944804</c:v>
+                  <c:v>179.97224514782403</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>175.54850345701004</c:v>
+                  <c:v>181.347091844678</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>176.84007284641302</c:v>
+                  <c:v>182.67333020865902</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>178.23973857462403</c:v>
+                  <c:v>183.92198567688501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>179.71747495085003</c:v>
+                  <c:v>185.083194425702</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>181.23980717212004</c:v>
+                  <c:v>186.164158186316</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>182.77838464677302</c:v>
+                  <c:v>187.185825011134</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>184.318712508678</c:v>
+                  <c:v>188.18040152490101</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>185.86896171271803</c:v>
+                  <c:v>189.19249286353602</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>187.47742044776703</c:v>
+                  <c:v>190.29414986670002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>189.33045492917302</c:v>
+                  <c:v>191.69051458537604</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192.67918667793305</c:v>
+                  <c:v>194.63301186859604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7871,11 +7871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60458112"/>
-        <c:axId val="60458688"/>
+        <c:axId val="41387712"/>
+        <c:axId val="41388288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60458112"/>
+        <c:axId val="41387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -7908,13 +7908,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60458688"/>
+        <c:crossAx val="41388288"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60458688"/>
+        <c:axId val="41388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7956,7 +7956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60458112"/>
+        <c:crossAx val="41387712"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8876,11 +8876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60460992"/>
-        <c:axId val="60461568"/>
+        <c:axId val="41390592"/>
+        <c:axId val="41391168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60460992"/>
+        <c:axId val="41390592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -8976,13 +8976,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60461568"/>
+        <c:crossAx val="41391168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60461568"/>
+        <c:axId val="41391168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9076,7 +9076,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60460992"/>
+        <c:crossAx val="41390592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10062,11 +10062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60463872"/>
-        <c:axId val="60464448"/>
+        <c:axId val="41393472"/>
+        <c:axId val="50511872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60463872"/>
+        <c:axId val="41393472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -10162,13 +10162,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60464448"/>
+        <c:crossAx val="50511872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60464448"/>
+        <c:axId val="50511872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10262,7 +10262,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60463872"/>
+        <c:crossAx val="41393472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11205,11 +11205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91489984"/>
-        <c:axId val="91490560"/>
+        <c:axId val="50514176"/>
+        <c:axId val="50514752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91489984"/>
+        <c:axId val="50514176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -11242,13 +11242,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91490560"/>
+        <c:crossAx val="50514752"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91490560"/>
+        <c:axId val="50514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11290,7 +11290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91489984"/>
+        <c:crossAx val="50514176"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12444,7 +12444,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12480,7 +12480,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12516,7 +12516,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12552,7 +12552,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14777,7 +14777,7 @@
         <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>2047</v>
+        <v>1985</v>
       </c>
       <c r="K1" t="s">
         <v>132</v>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1998</v>
+        <v>1936</v>
       </c>
       <c r="E2">
         <v>7.5792344443219003E-4</v>
@@ -14842,7 +14842,7 @@
         <v>1812</v>
       </c>
       <c r="H2" t="s">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="I2">
         <v>56.107700347900398</v>
@@ -14901,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1999</v>
+        <v>1937</v>
       </c>
       <c r="E3">
         <v>2.18269096480515E-3</v>
@@ -14913,7 +14913,7 @@
         <v>1814</v>
       </c>
       <c r="H3" t="s">
-        <v>2024</v>
+        <v>1962</v>
       </c>
       <c r="I3">
         <v>56.107700347900398</v>
@@ -14972,7 +14972,7 @@
         <v>0.53243451031042299</v>
       </c>
       <c r="D4" t="s">
-        <v>2000</v>
+        <v>1938</v>
       </c>
       <c r="E4">
         <v>0.95590636432036002</v>
@@ -14984,7 +14984,7 @@
         <v>1815</v>
       </c>
       <c r="H4" t="s">
-        <v>2025</v>
+        <v>1963</v>
       </c>
       <c r="I4">
         <v>58.124000549316399</v>
@@ -15043,7 +15043,7 @@
         <v>0.13946958469184201</v>
       </c>
       <c r="D5" t="s">
-        <v>2001</v>
+        <v>1939</v>
       </c>
       <c r="E5">
         <v>3.6267756299790802E-2</v>
@@ -15055,7 +15055,7 @@
         <v>1816</v>
       </c>
       <c r="H5" t="s">
-        <v>2026</v>
+        <v>1964</v>
       </c>
       <c r="I5">
         <v>58.124000549316399</v>
@@ -15114,7 +15114,7 @@
         <v>9.6447548559085605E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>2002</v>
+        <v>1940</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>1819</v>
       </c>
       <c r="H6" t="s">
-        <v>2027</v>
+        <v>1965</v>
       </c>
       <c r="I6">
         <v>114.23200225830099</v>
@@ -15185,7 +15185,7 @@
         <v>5.09975946839561E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>2003</v>
+        <v>1941</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15197,7 +15197,7 @@
         <v>1820</v>
       </c>
       <c r="H7" t="s">
-        <v>2028</v>
+        <v>1966</v>
       </c>
       <c r="I7">
         <v>114.23200225830099</v>
@@ -15256,7 +15256,7 @@
         <v>4.3018966177655799E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>2004</v>
+        <v>1942</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15268,7 +15268,7 @@
         <v>1821</v>
       </c>
       <c r="H8" t="s">
-        <v>2029</v>
+        <v>1967</v>
       </c>
       <c r="I8">
         <v>114.23200225830099</v>
@@ -15327,7 +15327,7 @@
         <v>1.1361250705203999E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>2005</v>
+        <v>1943</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>1822</v>
       </c>
       <c r="H9" t="s">
-        <v>2030</v>
+        <v>1968</v>
       </c>
       <c r="I9">
         <v>114.23200225830099</v>
@@ -15398,7 +15398,7 @@
         <v>9.2467915526789797E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>2006</v>
+        <v>1944</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -15410,7 +15410,7 @@
         <v>1823</v>
       </c>
       <c r="H10" t="s">
-        <v>2031</v>
+        <v>1969</v>
       </c>
       <c r="I10">
         <v>114.23200225830099</v>
@@ -15469,7 +15469,7 @@
         <v>7.9965921384572702E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>2007</v>
+        <v>1945</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -15481,7 +15481,7 @@
         <v>1824</v>
       </c>
       <c r="H11" t="s">
-        <v>2032</v>
+        <v>1970</v>
       </c>
       <c r="I11">
         <v>114.23200225830099</v>
@@ -15540,7 +15540,7 @@
         <v>8.9432776817251793E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>2008</v>
+        <v>1946</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -15552,7 +15552,7 @@
         <v>1825</v>
       </c>
       <c r="H12" t="s">
-        <v>2033</v>
+        <v>1971</v>
       </c>
       <c r="I12">
         <v>100.205001831055</v>
@@ -15611,7 +15611,7 @@
         <v>5.4705289527527603E-4</v>
       </c>
       <c r="D13" t="s">
-        <v>2009</v>
+        <v>1947</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -15623,7 +15623,7 @@
         <v>1826</v>
       </c>
       <c r="H13" t="s">
-        <v>2034</v>
+        <v>1972</v>
       </c>
       <c r="I13">
         <v>100.205001831055</v>
@@ -15682,7 +15682,7 @@
         <v>5.3026697320919698E-4</v>
       </c>
       <c r="D14" t="s">
-        <v>2010</v>
+        <v>1948</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -15694,7 +15694,7 @@
         <v>1827</v>
       </c>
       <c r="H14" t="s">
-        <v>2032</v>
+        <v>1970</v>
       </c>
       <c r="I14">
         <v>100.205001831055</v>
@@ -15753,7 +15753,7 @@
         <v>4.5093426373259103E-3</v>
       </c>
       <c r="D15" t="s">
-        <v>2011</v>
+        <v>1949</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -15765,7 +15765,7 @@
         <v>1828</v>
       </c>
       <c r="H15" t="s">
-        <v>2035</v>
+        <v>1973</v>
       </c>
       <c r="I15">
         <v>100.205001831055</v>
@@ -15824,7 +15824,7 @@
         <v>3.7493268704121002E-4</v>
       </c>
       <c r="D16" t="s">
-        <v>2012</v>
+        <v>1950</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -15836,7 +15836,7 @@
         <v>1829</v>
       </c>
       <c r="H16" t="s">
-        <v>2036</v>
+        <v>1974</v>
       </c>
       <c r="I16">
         <v>100.205001831055</v>
@@ -15895,7 +15895,7 @@
         <v>7.2362140610227202E-3</v>
       </c>
       <c r="D17" t="s">
-        <v>2013</v>
+        <v>1951</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -15907,7 +15907,7 @@
         <v>1831</v>
       </c>
       <c r="H17" t="s">
-        <v>2037</v>
+        <v>1975</v>
       </c>
       <c r="I17">
         <v>114.23200225830099</v>
@@ -15966,7 +15966,7 @@
         <v>1.0947820005587101E-2</v>
       </c>
       <c r="D18" t="s">
-        <v>2014</v>
+        <v>1952</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -15978,7 +15978,7 @@
         <v>1832</v>
       </c>
       <c r="H18" t="s">
-        <v>2038</v>
+        <v>1976</v>
       </c>
       <c r="I18">
         <v>128.25900268554699</v>
@@ -16037,7 +16037,7 @@
         <v>1.9515039500368099E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>2015</v>
+        <v>1953</v>
       </c>
       <c r="E19">
         <v>4.8852649706113702E-3</v>
@@ -16049,7 +16049,7 @@
         <v>1811</v>
       </c>
       <c r="H19" t="s">
-        <v>2039</v>
+        <v>1977</v>
       </c>
       <c r="I19">
         <v>44.097000122070298</v>
@@ -16108,7 +16108,7 @@
         <v>2.4959312471910699E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>2016</v>
+        <v>1954</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>1818</v>
       </c>
       <c r="H20" t="s">
-        <v>2040</v>
+        <v>1978</v>
       </c>
       <c r="I20">
         <v>72.1510009765625</v>
@@ -16179,7 +16179,7 @@
         <v>1.2700891777383001E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>2017</v>
+        <v>1955</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -16191,7 +16191,7 @@
         <v>1833</v>
       </c>
       <c r="H21" t="s">
-        <v>2041</v>
+        <v>1979</v>
       </c>
       <c r="I21">
         <v>86.177902221679702</v>
@@ -16250,7 +16250,7 @@
         <v>2.9529131951911399E-3</v>
       </c>
       <c r="D22" t="s">
-        <v>2018</v>
+        <v>1956</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -16262,7 +16262,7 @@
         <v>1835</v>
       </c>
       <c r="H22" t="s">
-        <v>2042</v>
+        <v>1980</v>
       </c>
       <c r="I22">
         <v>86.177902221679702</v>
@@ -16321,7 +16321,7 @@
         <v>1.3865878540410301E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>2019</v>
+        <v>1957</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -16333,7 +16333,7 @@
         <v>1836</v>
       </c>
       <c r="H23" t="s">
-        <v>2043</v>
+        <v>1981</v>
       </c>
       <c r="I23">
         <v>86.177902221679702</v>
@@ -16392,7 +16392,7 @@
         <v>5.4943739468231001E-4</v>
       </c>
       <c r="D24" t="s">
-        <v>2020</v>
+        <v>1958</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -16404,7 +16404,7 @@
         <v>1837</v>
       </c>
       <c r="H24" t="s">
-        <v>2044</v>
+        <v>1982</v>
       </c>
       <c r="I24">
         <v>170.33900451660199</v>
@@ -16463,7 +16463,7 @@
         <v>3.3601780383204602E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>2021</v>
+        <v>1959</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -16475,7 +16475,7 @@
         <v>1838</v>
       </c>
       <c r="H25" t="s">
-        <v>2045</v>
+        <v>1983</v>
       </c>
       <c r="I25">
         <v>142.28500366210901</v>
@@ -16534,7 +16534,7 @@
         <v>1.05138940076147E-2</v>
       </c>
       <c r="D26" t="s">
-        <v>2022</v>
+        <v>1960</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -16546,7 +16546,7 @@
         <v>1839</v>
       </c>
       <c r="H26" t="s">
-        <v>2046</v>
+        <v>1984</v>
       </c>
       <c r="I26">
         <v>156.31300354003901</v>
@@ -17031,79 +17031,79 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="B35" t="s">
-        <v>2024</v>
+        <v>1962</v>
       </c>
       <c r="C35" t="s">
-        <v>2025</v>
+        <v>1963</v>
       </c>
       <c r="D35" t="s">
-        <v>2026</v>
+        <v>1964</v>
       </c>
       <c r="E35" t="s">
-        <v>2027</v>
+        <v>1965</v>
       </c>
       <c r="F35" t="s">
-        <v>2028</v>
+        <v>1966</v>
       </c>
       <c r="G35" t="s">
-        <v>2029</v>
+        <v>1967</v>
       </c>
       <c r="H35" t="s">
-        <v>2030</v>
+        <v>1968</v>
       </c>
       <c r="I35" t="s">
-        <v>2031</v>
+        <v>1969</v>
       </c>
       <c r="J35" t="s">
-        <v>2032</v>
+        <v>1970</v>
       </c>
       <c r="K35" t="s">
-        <v>2033</v>
+        <v>1971</v>
       </c>
       <c r="L35" t="s">
-        <v>2034</v>
+        <v>1972</v>
       </c>
       <c r="M35" t="s">
-        <v>2032</v>
+        <v>1970</v>
       </c>
       <c r="N35" t="s">
-        <v>2035</v>
+        <v>1973</v>
       </c>
       <c r="O35" t="s">
-        <v>2036</v>
+        <v>1974</v>
       </c>
       <c r="P35" t="s">
-        <v>2037</v>
+        <v>1975</v>
       </c>
       <c r="Q35" t="s">
-        <v>2038</v>
+        <v>1976</v>
       </c>
       <c r="R35" t="s">
-        <v>2039</v>
+        <v>1977</v>
       </c>
       <c r="S35" t="s">
-        <v>2040</v>
+        <v>1978</v>
       </c>
       <c r="T35" t="s">
-        <v>2041</v>
+        <v>1979</v>
       </c>
       <c r="U35" t="s">
-        <v>2042</v>
+        <v>1980</v>
       </c>
       <c r="V35" t="s">
-        <v>2043</v>
+        <v>1981</v>
       </c>
       <c r="W35" t="s">
-        <v>2044</v>
+        <v>1982</v>
       </c>
       <c r="X35" t="s">
-        <v>2045</v>
+        <v>1983</v>
       </c>
       <c r="Y35" t="s">
-        <v>2046</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -20095,7 +20095,7 @@
       <c r="A82" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>0</v>
       </c>
       <c r="C82">
@@ -20129,7 +20129,7 @@
       <c r="A83" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>0</v>
       </c>
       <c r="C83">
@@ -20163,7 +20163,7 @@
       <c r="A84" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>0.53243451031042266</v>
       </c>
       <c r="C84">
@@ -20197,7 +20197,7 @@
       <c r="A85" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>0.13946958469184165</v>
       </c>
       <c r="C85">
@@ -20231,7 +20231,7 @@
       <c r="A86" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="20">
         <v>9.6447548559085591E-2</v>
       </c>
       <c r="C86">
@@ -20265,7 +20265,7 @@
       <c r="A87" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="20">
         <v>5.0997594683956086E-2</v>
       </c>
       <c r="C87">
@@ -20299,7 +20299,7 @@
       <c r="A88" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>4.3018966177655764E-2</v>
       </c>
       <c r="C88">
@@ -20333,7 +20333,7 @@
       <c r="A89" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="20">
         <v>1.1361250705203992E-2</v>
       </c>
       <c r="C89">
@@ -20367,7 +20367,7 @@
       <c r="A90" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="20">
         <v>9.2467915526789797E-3</v>
       </c>
       <c r="C90">
@@ -20401,7 +20401,7 @@
       <c r="A91" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>7.996592138457272E-3</v>
       </c>
       <c r="C91">
@@ -20435,7 +20435,7 @@
       <c r="A92" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>8.9432776817251793E-3</v>
       </c>
       <c r="C92">
@@ -20469,7 +20469,7 @@
       <c r="A93" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>5.4705289527527613E-4</v>
       </c>
       <c r="C93">
@@ -20503,7 +20503,7 @@
       <c r="A94" t="s">
         <v>124</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>5.3026697320919666E-4</v>
       </c>
       <c r="C94">
@@ -20537,7 +20537,7 @@
       <c r="A95" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>4.5093426373259086E-3</v>
       </c>
       <c r="C95">
@@ -20571,7 +20571,7 @@
       <c r="A96" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>3.7493268704121008E-4</v>
       </c>
       <c r="C96">
@@ -20605,7 +20605,7 @@
       <c r="A97" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>7.2362140610227168E-3</v>
       </c>
       <c r="C97">
@@ -20639,7 +20639,7 @@
       <c r="A98" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>1.0947820005587128E-2</v>
       </c>
       <c r="C98">
@@ -20673,7 +20673,7 @@
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>1.9515039500368137E-2</v>
       </c>
       <c r="C99">
@@ -20707,7 +20707,7 @@
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="21">
+      <c r="B100" s="20">
         <v>2.4959312471910664E-2</v>
       </c>
       <c r="C100">
@@ -20741,7 +20741,7 @@
       <c r="A101" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>1.2700891777383011E-2</v>
       </c>
       <c r="C101">
@@ -20775,7 +20775,7 @@
       <c r="A102" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>2.9529131951911416E-3</v>
       </c>
       <c r="C102">
@@ -20809,7 +20809,7 @@
       <c r="A103" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>1.3865878540410266E-3</v>
       </c>
       <c r="C103">
@@ -20843,7 +20843,7 @@
       <c r="A104" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B104" s="20">
         <v>5.494373946823099E-4</v>
       </c>
       <c r="C104">
@@ -20877,7 +20877,7 @@
       <c r="A105" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="20">
         <v>3.3601780383204615E-3</v>
       </c>
       <c r="C105">
@@ -20911,7 +20911,7 @@
       <c r="A106" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="21">
+      <c r="B106" s="20">
         <v>1.0513894007614729E-2</v>
       </c>
       <c r="C106">
@@ -20968,7 +20968,7 @@
         <v>7.5792344443218981E-4</v>
       </c>
       <c r="C110" t="e">
-        <f>B110/$B$144</f>
+        <f t="shared" ref="C110:C134" si="19">B110/$B$144</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D110" s="9"/>
@@ -21003,7 +21003,7 @@
         <v>2.1826909648051539E-3</v>
       </c>
       <c r="C111" t="e">
-        <f>B111/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D111" s="9"/>
@@ -21026,7 +21026,7 @@
         <v>170</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" ref="K111:K134" si="19">CONCATENATE(E111,F111,G111,H111,I111,B111,J111)</f>
+        <f t="shared" ref="K111:K134" si="20">CONCATENATE(E111,F111,G111,H111,I111,B111,J111)</f>
         <v>zf[1,FeedTray2-1]:=0.00218269096480515;</v>
       </c>
     </row>
@@ -21038,7 +21038,7 @@
         <v>0.95590636432036047</v>
       </c>
       <c r="C112" t="e">
-        <f>B112/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D112" s="9"/>
@@ -21061,7 +21061,7 @@
         <v>170</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[2,FeedTray2-1]:=0.95590636432036;</v>
       </c>
     </row>
@@ -21073,7 +21073,7 @@
         <v>3.6267756299790774E-2</v>
       </c>
       <c r="C113" t="e">
-        <f>B113/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D113" s="9"/>
@@ -21096,7 +21096,7 @@
         <v>170</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[3,FeedTray2-1]:=0.0362677562997908;</v>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="e">
-        <f>B114/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D114" s="9"/>
@@ -21131,7 +21131,7 @@
         <v>170</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[4,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="e">
-        <f>B115/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D115" s="9"/>
@@ -21166,7 +21166,7 @@
         <v>170</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[5,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21178,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="e">
-        <f>B116/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D116" s="9"/>
@@ -21201,7 +21201,7 @@
         <v>170</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[6,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="e">
-        <f>B117/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D117" s="9"/>
@@ -21236,7 +21236,7 @@
         <v>170</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[7,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="e">
-        <f>B118/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D118" s="9"/>
@@ -21271,7 +21271,7 @@
         <v>170</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[8,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21283,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="e">
-        <f>B119/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D119" s="9"/>
@@ -21306,7 +21306,7 @@
         <v>170</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[9,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="e">
-        <f>B120/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D120" s="9"/>
@@ -21341,7 +21341,7 @@
         <v>170</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[10,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="e">
-        <f>B121/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D121" s="9"/>
@@ -21376,7 +21376,7 @@
         <v>170</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[11,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="e">
-        <f>B122/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D122" s="9"/>
@@ -21411,7 +21411,7 @@
         <v>170</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[12,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="e">
-        <f>B123/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D123" s="9"/>
@@ -21446,7 +21446,7 @@
         <v>170</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[13,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21458,7 +21458,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="e">
-        <f>B124/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D124" s="9"/>
@@ -21481,7 +21481,7 @@
         <v>170</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[14,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21493,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="e">
-        <f>B125/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D125" s="9"/>
@@ -21516,7 +21516,7 @@
         <v>170</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[15,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="e">
-        <f>B126/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D126" s="9"/>
@@ -21551,7 +21551,7 @@
         <v>170</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[16,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
         <v>4.8852649706113702E-3</v>
       </c>
       <c r="C127" t="e">
-        <f>B127/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D127" s="9"/>
@@ -21586,7 +21586,7 @@
         <v>170</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[17,FeedTray2-1]:=0.00488526497061137;</v>
       </c>
     </row>
@@ -21598,7 +21598,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="e">
-        <f>B128/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D128" s="9"/>
@@ -21621,7 +21621,7 @@
         <v>170</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[18,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21633,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="e">
-        <f>B129/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D129" s="9"/>
@@ -21656,7 +21656,7 @@
         <v>170</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[19,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="e">
-        <f>B130/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D130" s="9"/>
@@ -21691,7 +21691,7 @@
         <v>170</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[20,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21703,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="e">
-        <f>B131/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D131" s="9"/>
@@ -21726,7 +21726,7 @@
         <v>170</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[21,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21738,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="e">
-        <f>B132/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D132" s="9"/>
@@ -21761,7 +21761,7 @@
         <v>170</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[22,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21773,7 +21773,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="e">
-        <f>B133/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D133" s="9"/>
@@ -21796,7 +21796,7 @@
         <v>170</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[23,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="e">
-        <f>B134/$B$144</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D134" s="9"/>
@@ -21831,7 +21831,7 @@
         <v>170</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>zf[24,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -33356,12 +33356,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
       <c r="Q1" t="s">
         <v>156</v>
       </c>
@@ -41698,7 +41698,7 @@
   <dimension ref="A1:BQ134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G4" sqref="G4:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42087,7 +42087,7 @@
       </c>
       <c r="B4">
         <f>G4-273.15</f>
-        <v>55.000817051530021</v>
+        <v>74.163531860709043</v>
       </c>
       <c r="C4">
         <v>42.770640332440799</v>
@@ -42102,7 +42102,7 @@
         <v>576</v>
       </c>
       <c r="G4">
-        <v>328.15081705153</v>
+        <v>347.31353186070902</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -42111,7 +42111,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
-        <v>55.171820214391005</v>
+        <v>76.716914376616046</v>
       </c>
       <c r="C5">
         <v>44.906728683645397</v>
@@ -42126,7 +42126,7 @@
         <v>576</v>
       </c>
       <c r="G5">
-        <v>328.32182021439098</v>
+        <v>349.86691437661602</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -42135,7 +42135,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>72.220900034904048</v>
+        <v>127.62548958361202</v>
       </c>
       <c r="C6">
         <v>45.434369618188803</v>
@@ -42150,7 +42150,7 @@
         <v>577.34577656750002</v>
       </c>
       <c r="G6">
-        <v>345.37090003490403</v>
+        <v>400.775489583612</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -42159,7 +42159,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>93.934105640650046</v>
+        <v>157.16161315739203</v>
       </c>
       <c r="C7">
         <v>45.695753646172797</v>
@@ -42174,7 +42174,7 @@
         <v>578.69155313500096</v>
       </c>
       <c r="G7">
-        <v>367.08410564065002</v>
+        <v>430.311613157392</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -42183,7 +42183,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>112.53271219730402</v>
+        <v>165.54719766080404</v>
       </c>
       <c r="C8">
         <v>45.8871277101563</v>
@@ -42198,7 +42198,7 @@
         <v>580.03732970250098</v>
       </c>
       <c r="G8">
-        <v>385.682712197304</v>
+        <v>438.69719766080402</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -42207,7 +42207,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>125.59896901100905</v>
+        <v>165.59517567455805</v>
       </c>
       <c r="C9">
         <v>46.054600563038697</v>
@@ -42222,7 +42222,7 @@
         <v>581.38310627000101</v>
       </c>
       <c r="G9">
-        <v>398.74896901100902</v>
+        <v>438.74517567455803</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -42231,7 +42231,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>132.81194061636904</v>
+        <v>159.791726967692</v>
       </c>
       <c r="C10">
         <v>46.227242331734502</v>
@@ -42246,7 +42246,7 @@
         <v>582.72888283750103</v>
       </c>
       <c r="G10">
-        <v>405.96194061636902</v>
+        <v>432.94172696769198</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -42255,7 +42255,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>132.93185184747</v>
+        <v>147.55427574217305</v>
       </c>
       <c r="C11">
         <v>46.477138698471101</v>
@@ -42270,7 +42270,7 @@
         <v>584.07465940500197</v>
       </c>
       <c r="G11">
-        <v>406.08185184746998</v>
+        <v>420.70427574217302</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>124.766830688715</v>
+        <v>129.99878858625902</v>
       </c>
       <c r="C12">
         <v>47.285981535291597</v>
@@ -42294,7 +42294,7 @@
         <v>585.42043597250199</v>
       </c>
       <c r="G12">
-        <v>397.91683068871498</v>
+        <v>403.148788586259</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -42303,7 +42303,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>110.63953811526301</v>
+        <v>112.36446460187403</v>
       </c>
       <c r="C13">
         <v>52.222918010638701</v>
@@ -42318,7 +42318,7 @@
         <v>586.76621254000202</v>
       </c>
       <c r="G13">
-        <v>383.78953811526299</v>
+        <v>385.51446460187401</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -42327,7 +42327,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>152.36483076810805</v>
+        <v>156.29788150489304</v>
       </c>
       <c r="C14">
         <v>52.7741896013844</v>
@@ -42342,7 +42342,7 @@
         <v>588.11198910750204</v>
       </c>
       <c r="G14">
-        <v>425.51483076810803</v>
+        <v>429.44788150489302</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -42351,7 +42351,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>165.50789041668202</v>
+        <v>170.49826045930405</v>
       </c>
       <c r="C15">
         <v>53.037096580507601</v>
@@ -42366,7 +42366,7 @@
         <v>589.45776567500297</v>
       </c>
       <c r="G15">
-        <v>438.65789041668199</v>
+        <v>443.64826045930403</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -42375,7 +42375,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>168.40496352911003</v>
+        <v>173.54756330549702</v>
       </c>
       <c r="C16">
         <v>53.184739001984099</v>
@@ -42390,7 +42390,7 @@
         <v>590.803542242503</v>
       </c>
       <c r="G16">
-        <v>441.55496352911001</v>
+        <v>446.697563305497</v>
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
@@ -42399,7 +42399,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>169.20902319103504</v>
+        <v>174.330218484998</v>
       </c>
       <c r="C17">
         <v>53.285389833478398</v>
@@ -42414,7 +42414,7 @@
         <v>592.14931881000302</v>
       </c>
       <c r="G17">
-        <v>442.35902319103502</v>
+        <v>447.48021848499798</v>
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
@@ -42423,7 +42423,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>169.54984563440104</v>
+        <v>174.642407497764</v>
       </c>
       <c r="C18">
         <v>53.365235835489202</v>
@@ -42438,7 +42438,7 @@
         <v>593.49509537750305</v>
       </c>
       <c r="G18">
-        <v>442.69984563440102</v>
+        <v>447.79240749776397</v>
       </c>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
@@ -42447,7 +42447,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>169.736493049562</v>
+        <v>174.82013066709004</v>
       </c>
       <c r="C19">
         <v>53.433699775111101</v>
@@ -42462,7 +42462,7 @@
         <v>594.84087194500398</v>
       </c>
       <c r="G19">
-        <v>442.88649304956198</v>
+        <v>447.97013066709002</v>
       </c>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
@@ -42471,7 +42471,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>169.839338867366</v>
+        <v>174.93620326221003</v>
       </c>
       <c r="C20">
         <v>53.493682430376502</v>
@@ -42486,7 +42486,7 @@
         <v>596.18664851250401</v>
       </c>
       <c r="G20">
-        <v>442.98933886736597</v>
+        <v>448.08620326221001</v>
       </c>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
@@ -42495,7 +42495,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>169.87773819863804</v>
+        <v>175.00895818173905</v>
       </c>
       <c r="C21">
         <v>53.5451659713354</v>
@@ -42510,7 +42510,7 @@
         <v>597.53242508000403</v>
       </c>
       <c r="G21">
-        <v>443.02773819863802</v>
+        <v>448.15895818173902</v>
       </c>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
@@ -42519,7 +42519,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>169.85121863186401</v>
+        <v>175.036537995934</v>
       </c>
       <c r="C22">
         <v>53.586199327556201</v>
@@ -42534,7 +42534,7 @@
         <v>598.87820164750406</v>
       </c>
       <c r="G22">
-        <v>443.00121863186399</v>
+        <v>448.18653799593397</v>
       </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
@@ -42543,7 +42543,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>169.73703181594601</v>
+        <v>174.99352877438105</v>
       </c>
       <c r="C23">
         <v>53.611292230714497</v>
@@ -42558,7 +42558,7 @@
         <v>600.22397821500499</v>
       </c>
       <c r="G23">
-        <v>442.88703181594599</v>
+        <v>448.14352877438102</v>
       </c>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
@@ -42567,7 +42567,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>169.46226681619902</v>
+        <v>174.79790185988003</v>
       </c>
       <c r="C24">
         <v>53.595120146984797</v>
@@ -42582,7 +42582,7 @@
         <v>601.56975478250502</v>
       </c>
       <c r="G24">
-        <v>442.612266816199</v>
+        <v>447.94790185988001</v>
       </c>
       <c r="H24">
         <v>0.57599999999999996</v>
@@ -42777,7 +42777,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>168.77262965440804</v>
+        <v>174.14697667062302</v>
       </c>
       <c r="C25">
         <v>53.267428832761397</v>
@@ -42792,7 +42792,7 @@
         <v>602.91553135000504</v>
       </c>
       <c r="G25">
-        <v>441.92262965440801</v>
+        <v>447.296976670623</v>
       </c>
       <c r="H25">
         <f>H24*1000</f>
@@ -43049,7 +43049,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>176.87378360182004</v>
+        <v>186.19417881071604</v>
       </c>
       <c r="C26">
         <v>53.365305779651798</v>
@@ -43064,7 +43064,7 @@
         <v>604.26130791750495</v>
       </c>
       <c r="G26">
-        <v>450.02378360182001</v>
+        <v>459.34417881071602</v>
       </c>
       <c r="H26">
         <v>576</v>
@@ -43259,7 +43259,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>177.49559807628401</v>
+        <v>188.07519187629202</v>
       </c>
       <c r="C27">
         <v>53.458887326907899</v>
@@ -43274,7 +43274,7 @@
         <v>605.607084485006</v>
       </c>
       <c r="G27">
-        <v>450.64559807628399</v>
+        <v>461.225191876292</v>
       </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
@@ -43283,7 +43283,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>176.85188388675505</v>
+        <v>188.15736134946303</v>
       </c>
       <c r="C28">
         <v>53.550750035862102</v>
@@ -43298,7 +43298,7 @@
         <v>606.95286105250602</v>
       </c>
       <c r="G28">
-        <v>450.00188388675502</v>
+        <v>461.30736134946301</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -43307,7 +43307,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>175.96158978939104</v>
+        <v>187.90496548116204</v>
       </c>
       <c r="C29">
         <v>53.642366339583504</v>
@@ -43322,7 +43322,7 @@
         <v>608.29863762000605</v>
       </c>
       <c r="G29">
-        <v>449.11158978939102</v>
+        <v>461.05496548116201</v>
       </c>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
@@ -43331,7 +43331,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>174.99488827437204</v>
+        <v>187.54107018411202</v>
       </c>
       <c r="C30">
         <v>53.734252450157399</v>
@@ -43346,7 +43346,7 @@
         <v>609.64441418750596</v>
       </c>
       <c r="G30">
-        <v>448.14488827437202</v>
+        <v>460.69107018411199</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -43355,7 +43355,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>174.00019245445702</v>
+        <v>187.09236343801001</v>
       </c>
       <c r="C31">
         <v>53.826807556226598</v>
@@ -43370,7 +43370,7 @@
         <v>610.99019075500701</v>
       </c>
       <c r="G31">
-        <v>447.150192454457</v>
+        <v>460.24236343800999</v>
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
@@ -43379,7 +43379,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>173.01106522828303</v>
+        <v>186.55520414412001</v>
       </c>
       <c r="C32">
         <v>53.920447504538302</v>
@@ -43394,7 +43394,7 @@
         <v>612.33596732250703</v>
       </c>
       <c r="G32">
-        <v>446.16106522828301</v>
+        <v>459.70520414411999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -43403,7 +43403,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>172.05951786637303</v>
+        <v>185.92203517854205</v>
       </c>
       <c r="C33">
         <v>54.015555486012403</v>
@@ -43418,7 +43418,7 @@
         <v>613.68174389000706</v>
       </c>
       <c r="G33">
-        <v>445.20951786637301</v>
+        <v>459.07203517854202</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -43427,7 +43427,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>171.17544264942404</v>
+        <v>185.18643935620804</v>
       </c>
       <c r="C34">
         <v>54.112629436428101</v>
@@ -43442,7 +43442,7 @@
         <v>615.02752045750697</v>
       </c>
       <c r="G34">
-        <v>444.32544264942402</v>
+        <v>458.33643935620802</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -43451,7 +43451,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>170.38425194323105</v>
+        <v>184.34510414898403</v>
       </c>
       <c r="C35">
         <v>54.212261052956897</v>
@@ -43466,7 +43466,7 @@
         <v>616.37329702500801</v>
       </c>
       <c r="G35">
-        <v>443.53425194323103</v>
+        <v>457.49510414898401</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -43475,7 +43475,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>169.70505134612301</v>
+        <v>183.39949806630602</v>
       </c>
       <c r="C36">
         <v>54.315430223097003</v>
@@ -43490,7 +43490,7 @@
         <v>617.71907359250804</v>
       </c>
       <c r="G36">
-        <v>442.85505134612299</v>
+        <v>456.549498066306</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -43499,7 +43499,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>169.149723751843</v>
+        <v>182.35752691924603</v>
       </c>
       <c r="C37">
         <v>54.422870035450302</v>
@@ -43514,7 +43514,7 @@
         <v>619.06485016000795</v>
       </c>
       <c r="G37">
-        <v>442.29972375184298</v>
+        <v>455.507526919246</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -43523,7 +43523,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>168.72308412790301</v>
+        <v>181.23498221337803</v>
       </c>
       <c r="C38">
         <v>54.535894156153603</v>
@@ -43538,7 +43538,7 @@
         <v>620.41062672750797</v>
       </c>
       <c r="G38">
-        <v>441.87308412790298</v>
+        <v>454.38498221337801</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -43547,7 +43547,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>168.42376068830504</v>
+        <v>180.05648662746</v>
       </c>
       <c r="C39">
         <v>54.6564934271765</v>
@@ -43562,7 +43562,7 @@
         <v>621.75640329500902</v>
       </c>
       <c r="G39">
-        <v>441.57376068830501</v>
+        <v>453.20648662745998</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -43571,7 +43571,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>168.24555567503</v>
+        <v>178.85560130178902</v>
       </c>
       <c r="C40">
         <v>54.786753279440603</v>
@@ -43586,7 +43586,7 @@
         <v>623.10217986250905</v>
       </c>
       <c r="G40">
-        <v>441.39555567502998</v>
+        <v>452.005601301789</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>168.1789244771</v>
+        <v>177.67379989326002</v>
       </c>
       <c r="C41">
         <v>54.928499217312897</v>
@@ -43610,7 +43610,7 @@
         <v>624.44795643000896</v>
       </c>
       <c r="G41">
-        <v>441.32892447709997</v>
+        <v>450.82379989326</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -43619,7 +43619,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>168.212406551838</v>
+        <v>176.55838315784905</v>
       </c>
       <c r="C42">
         <v>55.085919669328597</v>
@@ -43634,7 +43634,7 @@
         <v>625.79373299750898</v>
       </c>
       <c r="G42">
-        <v>441.36240655183798</v>
+        <v>449.70838315784903</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -43643,7 +43643,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>168.33396307230004</v>
+        <v>175.55946817100005</v>
       </c>
       <c r="C43">
         <v>55.262767148063098</v>
@@ -43658,7 +43658,7 @@
         <v>627.13950956501003</v>
       </c>
       <c r="G43">
-        <v>441.48396307230001</v>
+        <v>448.70946817100003</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -43667,7 +43667,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>168.53216270208401</v>
+        <v>174.72649475038003</v>
       </c>
       <c r="C44">
         <v>55.464027048942299</v>
@@ -43682,7 +43682,7 @@
         <v>628.48528613251005</v>
       </c>
       <c r="G44">
-        <v>441.68216270208399</v>
+        <v>447.87649475038</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -43691,7 +43691,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>168.797297275066</v>
+        <v>174.10471846759305</v>
       </c>
       <c r="C45">
         <v>55.695565995082703</v>
@@ -43706,7 +43706,7 @@
         <v>629.83106270000997</v>
       </c>
       <c r="G45">
-        <v>441.94729727506598</v>
+        <v>447.25471846759302</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>169.12240478247401</v>
+        <v>173.73209258019904</v>
       </c>
       <c r="C46">
         <v>55.963697502665099</v>
@@ -43730,7 +43730,7 @@
         <v>631.17683926750999</v>
       </c>
       <c r="G46">
-        <v>442.27240478247398</v>
+        <v>446.88209258019901</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -43739,7 +43739,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>169.50424374491001</v>
+        <v>173.63641818463805</v>
       </c>
       <c r="C47">
         <v>56.277528443496102</v>
@@ -43754,7 +43754,7 @@
         <v>632.52261583501104</v>
       </c>
       <c r="G47">
-        <v>442.65424374490999</v>
+        <v>446.78641818463802</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -43763,7 +43763,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>169.94396959841305</v>
+        <v>173.83281623423102</v>
       </c>
       <c r="C48">
         <v>56.642283785163599</v>
@@ -43778,7 +43778,7 @@
         <v>633.86839240251095</v>
       </c>
       <c r="G48">
-        <v>443.09396959841303</v>
+        <v>446.982816234231</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -43787,7 +43787,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>170.44754781425002</v>
+        <v>174.32125990688803</v>
       </c>
       <c r="C49">
         <v>57.067212727468302</v>
@@ -43802,7 +43802,7 @@
         <v>635.21416897001097</v>
       </c>
       <c r="G49">
-        <v>443.59754781424999</v>
+        <v>447.47125990688801</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -43811,7 +43811,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>171.02559791356305</v>
+        <v>175.08456965386904</v>
       </c>
       <c r="C50">
         <v>57.559184555381201</v>
@@ -43826,7 +43826,7 @@
         <v>636.559945537511</v>
       </c>
       <c r="G50">
-        <v>444.17559791356302</v>
+        <v>448.23456965386902</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -43835,7 +43835,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>171.69255943447405</v>
+        <v>176.08762865364605</v>
       </c>
       <c r="C51">
         <v>58.121686948638697</v>
@@ -43850,7 +43850,7 @@
         <v>637.90572210501205</v>
       </c>
       <c r="G51">
-        <v>444.84255943447403</v>
+        <v>449.23762865364603</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -43859,7 +43859,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>172.464942342043</v>
+        <v>177.279025664926</v>
       </c>
       <c r="C52">
         <v>58.753885163261202</v>
@@ -43874,7 +43874,7 @@
         <v>639.25149867251196</v>
       </c>
       <c r="G52">
-        <v>445.61494234204298</v>
+        <v>450.42902566492597</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -43883,7 +43883,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>173.35866351276604</v>
+        <v>178.59599029123802</v>
       </c>
       <c r="C53">
         <v>59.449971212343797</v>
@@ -43898,7 +43898,7 @@
         <v>640.59727524001198</v>
       </c>
       <c r="G53">
-        <v>446.50866351276602</v>
+        <v>451.745990291238</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -43907,7 +43907,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>174.38537116944804</v>
+        <v>179.97224514782403</v>
       </c>
       <c r="C54">
         <v>60.197818620175902</v>
@@ -43922,7 +43922,7 @@
         <v>641.94305180751201</v>
       </c>
       <c r="G54">
-        <v>447.53537116944801</v>
+        <v>453.122245147824</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -43931,7 +43931,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>175.54850345701004</v>
+        <v>181.347091844678</v>
       </c>
       <c r="C55">
         <v>60.9803601345698</v>
@@ -43946,7 +43946,7 @@
         <v>643.28882837501305</v>
       </c>
       <c r="G55">
-        <v>448.69850345701002</v>
+        <v>454.49709184467798</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -43955,7 +43955,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>176.84007284641302</v>
+        <v>182.67333020865902</v>
       </c>
       <c r="C56">
         <v>61.777024756998799</v>
@@ -43970,7 +43970,7 @@
         <v>644.63460494251296</v>
       </c>
       <c r="G56">
-        <v>449.990072846413</v>
+        <v>455.823330208659</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -43979,7 +43979,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>178.23973857462403</v>
+        <v>183.92198567688501</v>
       </c>
       <c r="C57">
         <v>62.567025428430597</v>
@@ -43994,7 +43994,7 @@
         <v>645.98038151001299</v>
       </c>
       <c r="G57">
-        <v>451.389738574624</v>
+        <v>457.07198567688499</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -44003,7 +44003,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>179.71747495085003</v>
+        <v>185.083194425702</v>
       </c>
       <c r="C58">
         <v>63.333913811673902</v>
@@ -44018,7 +44018,7 @@
         <v>647.32615807751301</v>
       </c>
       <c r="G58">
-        <v>452.86747495085001</v>
+        <v>458.23319442570198</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -44027,7 +44027,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>181.23980717212004</v>
+        <v>186.164158186316</v>
       </c>
       <c r="C59">
         <v>64.072470274829399</v>
@@ -44042,7 +44042,7 @@
         <v>648.67193464501395</v>
       </c>
       <c r="G59">
-        <v>454.38980717212002</v>
+        <v>459.31415818631598</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -44051,7 +44051,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>182.77838464677302</v>
+        <v>187.185825011134</v>
       </c>
       <c r="C60">
         <v>64.801247754856703</v>
@@ -44066,7 +44066,7 @@
         <v>650.01771121251397</v>
       </c>
       <c r="G60">
-        <v>455.928384646773</v>
+        <v>460.33582501113398</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -44075,7 +44075,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>184.318712508678</v>
+        <v>188.18040152490101</v>
       </c>
       <c r="C61">
         <v>65.592700236618299</v>
@@ -44090,7 +44090,7 @@
         <v>651.363487780014</v>
       </c>
       <c r="G61">
-        <v>457.46871250867798</v>
+        <v>461.33040152490099</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -44099,7 +44099,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>185.86896171271803</v>
+        <v>189.19249286353602</v>
       </c>
       <c r="C62">
         <v>66.6781824811154</v>
@@ -44114,7 +44114,7 @@
         <v>652.70926434751402</v>
       </c>
       <c r="G62">
-        <v>459.01896171271801</v>
+        <v>462.34249286353599</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -44123,7 +44123,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>187.47742044776703</v>
+        <v>190.29414986670002</v>
       </c>
       <c r="C63">
         <v>69.045257790581402</v>
@@ -44138,7 +44138,7 @@
         <v>654.05504091501496</v>
       </c>
       <c r="G63">
-        <v>460.62742044776701</v>
+        <v>463.4441498667</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -44147,7 +44147,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>189.33045492917302</v>
+        <v>191.69051458537604</v>
       </c>
       <c r="C64">
         <v>78.857783433238893</v>
@@ -44159,7 +44159,7 @@
         <v>655.40081748251498</v>
       </c>
       <c r="G64">
-        <v>462.48045492917299</v>
+        <v>464.84051458537601</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -44168,7 +44168,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>192.67918667793305</v>
+        <v>194.63301186859604</v>
       </c>
       <c r="C65">
         <v>118.513084445343</v>
@@ -44180,7 +44180,7 @@
         <v>655.40081748251498</v>
       </c>
       <c r="G65">
-        <v>465.82918667793302</v>
+        <v>467.78301186859602</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -45639,190 +45639,190 @@
     </row>
     <row r="134" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1936</v>
+        <v>1986</v>
       </c>
       <c r="B134" t="s">
-        <v>1937</v>
+        <v>1987</v>
       </c>
       <c r="C134" t="s">
-        <v>1938</v>
+        <v>1988</v>
       </c>
       <c r="D134" t="s">
-        <v>1939</v>
+        <v>1989</v>
       </c>
       <c r="E134" t="s">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="F134" t="s">
-        <v>1941</v>
+        <v>1991</v>
       </c>
       <c r="G134" t="s">
-        <v>1942</v>
+        <v>1992</v>
       </c>
       <c r="H134" t="s">
-        <v>1943</v>
+        <v>1993</v>
       </c>
       <c r="I134" t="s">
-        <v>1944</v>
+        <v>1994</v>
       </c>
       <c r="J134" t="s">
-        <v>1945</v>
+        <v>1995</v>
       </c>
       <c r="K134" t="s">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="L134" t="s">
-        <v>1947</v>
+        <v>1997</v>
       </c>
       <c r="M134" t="s">
-        <v>1948</v>
+        <v>1998</v>
       </c>
       <c r="N134" t="s">
-        <v>1949</v>
+        <v>1999</v>
       </c>
       <c r="O134" t="s">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="P134" t="s">
-        <v>1951</v>
+        <v>2001</v>
       </c>
       <c r="Q134" t="s">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="R134" t="s">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="S134" t="s">
-        <v>1954</v>
+        <v>2004</v>
       </c>
       <c r="T134" t="s">
-        <v>1955</v>
+        <v>2005</v>
       </c>
       <c r="U134" t="s">
-        <v>1956</v>
+        <v>2006</v>
       </c>
       <c r="V134" t="s">
-        <v>1957</v>
+        <v>2007</v>
       </c>
       <c r="W134" t="s">
-        <v>1958</v>
+        <v>2008</v>
       </c>
       <c r="X134" t="s">
-        <v>1959</v>
+        <v>2009</v>
       </c>
       <c r="Y134" t="s">
-        <v>1960</v>
+        <v>2010</v>
       </c>
       <c r="Z134" t="s">
-        <v>1961</v>
+        <v>2011</v>
       </c>
       <c r="AA134" t="s">
-        <v>1962</v>
+        <v>2012</v>
       </c>
       <c r="AB134" t="s">
-        <v>1963</v>
+        <v>2013</v>
       </c>
       <c r="AC134" t="s">
-        <v>1964</v>
+        <v>2014</v>
       </c>
       <c r="AD134" t="s">
-        <v>1965</v>
+        <v>2015</v>
       </c>
       <c r="AE134" t="s">
-        <v>1966</v>
+        <v>2016</v>
       </c>
       <c r="AF134" t="s">
-        <v>1967</v>
+        <v>2017</v>
       </c>
       <c r="AG134" t="s">
-        <v>1968</v>
+        <v>2018</v>
       </c>
       <c r="AH134" t="s">
-        <v>1969</v>
+        <v>2019</v>
       </c>
       <c r="AI134" t="s">
-        <v>1970</v>
+        <v>2020</v>
       </c>
       <c r="AJ134" t="s">
-        <v>1971</v>
+        <v>2021</v>
       </c>
       <c r="AK134" t="s">
-        <v>1972</v>
+        <v>2022</v>
       </c>
       <c r="AL134" t="s">
-        <v>1973</v>
+        <v>2023</v>
       </c>
       <c r="AM134" t="s">
-        <v>1974</v>
+        <v>2024</v>
       </c>
       <c r="AN134" t="s">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="AO134" t="s">
-        <v>1976</v>
+        <v>2026</v>
       </c>
       <c r="AP134" t="s">
-        <v>1977</v>
+        <v>2027</v>
       </c>
       <c r="AQ134" t="s">
-        <v>1978</v>
+        <v>2028</v>
       </c>
       <c r="AR134" t="s">
-        <v>1979</v>
+        <v>2029</v>
       </c>
       <c r="AS134" t="s">
-        <v>1980</v>
+        <v>2030</v>
       </c>
       <c r="AT134" t="s">
-        <v>1981</v>
+        <v>2031</v>
       </c>
       <c r="AU134" t="s">
-        <v>1982</v>
+        <v>2032</v>
       </c>
       <c r="AV134" t="s">
-        <v>1983</v>
+        <v>2033</v>
       </c>
       <c r="AW134" t="s">
-        <v>1984</v>
+        <v>2034</v>
       </c>
       <c r="AX134" t="s">
-        <v>1985</v>
+        <v>2035</v>
       </c>
       <c r="AY134" t="s">
-        <v>1986</v>
+        <v>2036</v>
       </c>
       <c r="AZ134" t="s">
-        <v>1987</v>
+        <v>2037</v>
       </c>
       <c r="BA134" t="s">
-        <v>1988</v>
+        <v>2038</v>
       </c>
       <c r="BB134" t="s">
-        <v>1989</v>
+        <v>2039</v>
       </c>
       <c r="BC134" t="s">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="BD134" t="s">
-        <v>1991</v>
+        <v>2041</v>
       </c>
       <c r="BE134" t="s">
-        <v>1992</v>
+        <v>2042</v>
       </c>
       <c r="BF134" t="s">
-        <v>1993</v>
+        <v>2043</v>
       </c>
       <c r="BG134" t="s">
-        <v>1994</v>
+        <v>2044</v>
       </c>
       <c r="BH134" t="s">
-        <v>1995</v>
+        <v>2045</v>
       </c>
       <c r="BI134" t="s">
-        <v>1996</v>
+        <v>2046</v>
       </c>
       <c r="BJ134" t="s">
-        <v>1997</v>
+        <v>2047</v>
       </c>
     </row>
   </sheetData>

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -6630,190 +6630,190 @@
     <t>Ср0, кДж / (кг * К) Жидкость</t>
   </si>
   <si>
-    <t>(347.313531860709.</t>
-  </si>
-  <si>
-    <t>349.866914376616.</t>
-  </si>
-  <si>
-    <t>400.775489583612.</t>
-  </si>
-  <si>
-    <t>430.311613157392.</t>
-  </si>
-  <si>
-    <t>438.697197660804.</t>
-  </si>
-  <si>
-    <t>438.745175674558.</t>
-  </si>
-  <si>
-    <t>432.941726967692.</t>
-  </si>
-  <si>
-    <t>420.704275742173.</t>
-  </si>
-  <si>
-    <t>403.148788586259.</t>
-  </si>
-  <si>
-    <t>385.514464601874.</t>
-  </si>
-  <si>
-    <t>429.447881504893.</t>
-  </si>
-  <si>
-    <t>443.648260459304.</t>
-  </si>
-  <si>
-    <t>446.697563305497.</t>
-  </si>
-  <si>
-    <t>447.480218484998.</t>
-  </si>
-  <si>
-    <t>447.792407497764.</t>
-  </si>
-  <si>
-    <t>447.97013066709.</t>
-  </si>
-  <si>
-    <t>448.08620326221.</t>
-  </si>
-  <si>
-    <t>448.158958181739.</t>
-  </si>
-  <si>
-    <t>448.186537995934.</t>
-  </si>
-  <si>
-    <t>448.143528774381.</t>
-  </si>
-  <si>
-    <t>447.94790185988.</t>
-  </si>
-  <si>
-    <t>447.296976670623.</t>
-  </si>
-  <si>
-    <t>459.344178810716.</t>
-  </si>
-  <si>
-    <t>461.225191876292.</t>
-  </si>
-  <si>
-    <t>461.307361349463.</t>
-  </si>
-  <si>
-    <t>461.054965481162.</t>
-  </si>
-  <si>
-    <t>460.691070184112.</t>
-  </si>
-  <si>
-    <t>460.24236343801.</t>
-  </si>
-  <si>
-    <t>459.70520414412.</t>
-  </si>
-  <si>
-    <t>459.072035178542.</t>
-  </si>
-  <si>
-    <t>458.336439356208.</t>
-  </si>
-  <si>
-    <t>457.495104148984.</t>
-  </si>
-  <si>
-    <t>456.549498066306.</t>
-  </si>
-  <si>
-    <t>455.507526919246.</t>
-  </si>
-  <si>
-    <t>454.384982213378.</t>
-  </si>
-  <si>
-    <t>453.20648662746.</t>
-  </si>
-  <si>
-    <t>452.005601301789.</t>
-  </si>
-  <si>
-    <t>450.82379989326.</t>
-  </si>
-  <si>
-    <t>449.708383157849.</t>
-  </si>
-  <si>
-    <t>448.709468171.</t>
-  </si>
-  <si>
-    <t>447.87649475038.</t>
-  </si>
-  <si>
-    <t>447.254718467593.</t>
-  </si>
-  <si>
-    <t>446.882092580199.</t>
-  </si>
-  <si>
-    <t>446.786418184638.</t>
-  </si>
-  <si>
-    <t>446.982816234231.</t>
-  </si>
-  <si>
-    <t>447.471259906888.</t>
-  </si>
-  <si>
-    <t>448.234569653869.</t>
-  </si>
-  <si>
-    <t>449.237628653646.</t>
-  </si>
-  <si>
-    <t>450.429025664926.</t>
-  </si>
-  <si>
-    <t>451.745990291238.</t>
-  </si>
-  <si>
-    <t>453.122245147824.</t>
-  </si>
-  <si>
-    <t>454.497091844678.</t>
-  </si>
-  <si>
-    <t>455.823330208659.</t>
-  </si>
-  <si>
-    <t>457.071985676885.</t>
-  </si>
-  <si>
-    <t>458.233194425702.</t>
-  </si>
-  <si>
-    <t>459.314158186316.</t>
-  </si>
-  <si>
-    <t>460.335825011134.</t>
-  </si>
-  <si>
-    <t>461.330401524901.</t>
-  </si>
-  <si>
-    <t>462.342492863536.</t>
-  </si>
-  <si>
-    <t>463.4441498667.</t>
-  </si>
-  <si>
-    <t>464.840514585376.</t>
-  </si>
-  <si>
-    <t>467.783011868596)</t>
+    <t>(0.</t>
+  </si>
+  <si>
+    <t>1689.20067757085.</t>
+  </si>
+  <si>
+    <t>2353.42647411414.</t>
+  </si>
+  <si>
+    <t>2293.12287404034.</t>
+  </si>
+  <si>
+    <t>2241.79870006232.</t>
+  </si>
+  <si>
+    <t>2232.21108884753.</t>
+  </si>
+  <si>
+    <t>2245.81417284052.</t>
+  </si>
+  <si>
+    <t>2254.00215799196.</t>
+  </si>
+  <si>
+    <t>2252.2229416154.</t>
+  </si>
+  <si>
+    <t>2243.56898871172.</t>
+  </si>
+  <si>
+    <t>2019.67130339928.</t>
+  </si>
+  <si>
+    <t>1921.23306574388.</t>
+  </si>
+  <si>
+    <t>1909.34003714077.</t>
+  </si>
+  <si>
+    <t>1908.94274497079.</t>
+  </si>
+  <si>
+    <t>1908.78698482867.</t>
+  </si>
+  <si>
+    <t>1908.62791267615.</t>
+  </si>
+  <si>
+    <t>1908.54837986262.</t>
+  </si>
+  <si>
+    <t>1908.5508930092.</t>
+  </si>
+  <si>
+    <t>1908.66575278869.</t>
+  </si>
+  <si>
+    <t>1909.07234590194.</t>
+  </si>
+  <si>
+    <t>1910.48975224834.</t>
+  </si>
+  <si>
+    <t>1915.96676288597.</t>
+  </si>
+  <si>
+    <t>1779.03968253953.</t>
+  </si>
+  <si>
+    <t>1779.65315270865.</t>
+  </si>
+  <si>
+    <t>1782.34908122523.</t>
+  </si>
+  <si>
+    <t>1784.18692796648.</t>
+  </si>
+  <si>
+    <t>1785.92271077228.</t>
+  </si>
+  <si>
+    <t>1787.84096777652.</t>
+  </si>
+  <si>
+    <t>1790.04148800179.</t>
+  </si>
+  <si>
+    <t>1792.58169360212.</t>
+  </si>
+  <si>
+    <t>1795.51159557518.</t>
+  </si>
+  <si>
+    <t>1798.88066645903.</t>
+  </si>
+  <si>
+    <t>1802.73774086611.</t>
+  </si>
+  <si>
+    <t>1807.12915204162.</t>
+  </si>
+  <si>
+    <t>1812.09584281124.</t>
+  </si>
+  <si>
+    <t>1817.6702710057.</t>
+  </si>
+  <si>
+    <t>1823.87311271046.</t>
+  </si>
+  <si>
+    <t>1830.71047243182.</t>
+  </si>
+  <si>
+    <t>1838.17180052491.</t>
+  </si>
+  <si>
+    <t>1846.22891275677.</t>
+  </si>
+  <si>
+    <t>1854.83608210319.</t>
+  </si>
+  <si>
+    <t>1863.93039735592.</t>
+  </si>
+  <si>
+    <t>1873.43160020038.</t>
+  </si>
+  <si>
+    <t>1883.23920783463.</t>
+  </si>
+  <si>
+    <t>1893.22571296246.</t>
+  </si>
+  <si>
+    <t>1903.22338179318.</t>
+  </si>
+  <si>
+    <t>1913.00361792856.</t>
+  </si>
+  <si>
+    <t>1922.24813898328.</t>
+  </si>
+  <si>
+    <t>1930.51447595537.</t>
+  </si>
+  <si>
+    <t>1937.2045244257.</t>
+  </si>
+  <si>
+    <t>1941.55579704442.</t>
+  </si>
+  <si>
+    <t>1942.68192974014.</t>
+  </si>
+  <si>
+    <t>1939.66672337734.</t>
+  </si>
+  <si>
+    <t>1931.64510112193.</t>
+  </si>
+  <si>
+    <t>1917.76533014225.</t>
+  </si>
+  <si>
+    <t>1897.17835728092.</t>
+  </si>
+  <si>
+    <t>1869.79993717577.</t>
+  </si>
+  <si>
+    <t>1838.27395457263.</t>
+  </si>
+  <si>
+    <t>1808.64193251895.</t>
+  </si>
+  <si>
+    <t>1786.55898093874.</t>
+  </si>
+  <si>
+    <t>1773.15642171251.</t>
+  </si>
+  <si>
+    <t>1689.19581352716)</t>
   </si>
 </sst>
 </file>
@@ -7265,190 +7265,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>74.163531860709043</c:v>
+                  <c:v>55.193186154962007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.716914376616046</c:v>
+                  <c:v>55.275529971719038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.62548958361202</c:v>
+                  <c:v>66.171702346206018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.16161315739203</c:v>
+                  <c:v>80.502845695615008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.54719766080404</c:v>
+                  <c:v>91.335496655107022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>165.59517567455805</c:v>
+                  <c:v>94.599134823680004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159.791726967692</c:v>
+                  <c:v>93.04313172996001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147.55427574217305</c:v>
+                  <c:v>91.247003874183008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129.99878858625902</c:v>
+                  <c:v>91.462626656889995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.36446460187403</c:v>
+                  <c:v>94.818425527215027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.29788150489304</c:v>
+                  <c:v>131.20148440301404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170.49826045930405</c:v>
+                  <c:v>150.80587749779204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>173.54756330549702</c:v>
+                  <c:v>157.24439283311403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>174.330218484998</c:v>
+                  <c:v>159.15381049215802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>174.642407497764</c:v>
+                  <c:v>159.797580888867</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>174.82013066709004</c:v>
+                  <c:v>160.07720117867001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>174.93620326221003</c:v>
+                  <c:v>160.23821418583401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175.00895818173905</c:v>
+                  <c:v>160.35368998944801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>175.036537995934</c:v>
+                  <c:v>160.44426818788105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.99352877438105</c:v>
+                  <c:v>160.49593423903002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.79790185988003</c:v>
+                  <c:v>160.40435691773905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174.14697667062302</c:v>
+                  <c:v>159.604998281598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>186.19417881071604</c:v>
+                  <c:v>175.73076744973702</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188.07519187629202</c:v>
+                  <c:v>179.85845913589003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>188.15736134946303</c:v>
+                  <c:v>180.65923934280903</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>187.90496548116204</c:v>
+                  <c:v>180.63807000815905</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187.54107018411202</c:v>
+                  <c:v>180.38596918284901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>187.09236343801001</c:v>
+                  <c:v>180.030884942412</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>186.55520414412001</c:v>
+                  <c:v>179.59369828403004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>185.92203517854205</c:v>
+                  <c:v>179.07013778984503</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185.18643935620804</c:v>
+                  <c:v>178.44952156245705</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>184.34510414898403</c:v>
+                  <c:v>177.71919628083702</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>183.39949806630602</c:v>
+                  <c:v>176.86593865454205</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>182.35752691924603</c:v>
+                  <c:v>175.87672655880505</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>181.23498221337803</c:v>
+                  <c:v>174.73963086903103</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180.05648662746</c:v>
+                  <c:v>173.44482128918202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>178.85560130178902</c:v>
+                  <c:v>171.985800167918</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>177.67379989326002</c:v>
+                  <c:v>170.36071007549805</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>176.55838315784905</c:v>
+                  <c:v>168.573634675145</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>175.55946817100005</c:v>
+                  <c:v>166.63575877845301</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>174.72649475038003</c:v>
+                  <c:v>164.56612606942701</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>174.10471846759305</c:v>
+                  <c:v>162.39202131927004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>173.73209258019904</c:v>
+                  <c:v>160.14874910414204</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>173.63641818463805</c:v>
+                  <c:v>157.879231473804</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>173.83281623423102</c:v>
+                  <c:v>155.63351844847205</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>174.32125990688803</c:v>
+                  <c:v>153.46894895136404</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>175.08456965386904</c:v>
+                  <c:v>151.45139133036105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>176.08762865364605</c:v>
+                  <c:v>149.65791215598603</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>177.279025664926</c:v>
+                  <c:v>148.18024297654603</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>178.59599029123802</c:v>
+                  <c:v>147.12702666819104</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>179.97224514782403</c:v>
+                  <c:v>146.62137662470303</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>181.347091844678</c:v>
+                  <c:v>146.79107998907602</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>182.67333020865902</c:v>
+                  <c:v>147.75614549815703</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>183.92198567688501</c:v>
+                  <c:v>149.63075478971001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>185.083194425702</c:v>
+                  <c:v>152.55330314338204</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>186.164158186316</c:v>
+                  <c:v>156.69967641532401</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>187.185825011134</c:v>
+                  <c:v>162.142408242822</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.18040152490101</c:v>
+                  <c:v>168.52502634227301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>189.19249286353602</c:v>
+                  <c:v>174.97129326164702</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>190.29414986670002</c:v>
+                  <c:v>180.62982892095999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>191.69051458537604</c:v>
+                  <c:v>185.33612003028401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>194.63301186859604</c:v>
+                  <c:v>190.43579732477701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7871,11 +7871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41387712"/>
-        <c:axId val="41388288"/>
+        <c:axId val="59475648"/>
+        <c:axId val="59476224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41387712"/>
+        <c:axId val="59475648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -7908,13 +7908,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41388288"/>
+        <c:crossAx val="59476224"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41388288"/>
+        <c:axId val="59476224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7956,7 +7956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41387712"/>
+        <c:crossAx val="59475648"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8670,193 +8670,193 @@
             <c:numRef>
               <c:f>Лист2!$G$69:$G$130</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.19999867213244</c:v>
+                  <c:v>376.20015090111002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>909.85364381938552</c:v>
+                  <c:v>1040.4259474444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>811.11426126007427</c:v>
+                  <c:v>980.12234737059805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>712.45688666045044</c:v>
+                  <c:v>928.79817339258102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>643.48412279106265</c:v>
+                  <c:v>919.21056217778698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>614.88214315558139</c:v>
+                  <c:v>932.813646170776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>636.11191126241943</c:v>
+                  <c:v>941.00163132221496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>702.61492060264573</c:v>
+                  <c:v>939.22241494565696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>777.8852463783378</c:v>
+                  <c:v>930.56846204197996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2089.2544696749046</c:v>
+                  <c:v>2324.6707767295302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2045.3642735460312</c:v>
+                  <c:v>2226.2325390741298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.9037162776849</c:v>
+                  <c:v>2214.3395104710198</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2049.471863946123</c:v>
+                  <c:v>2213.9422183010502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2049.2217861181471</c:v>
+                  <c:v>2213.7864581589301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2049.0606017975488</c:v>
+                  <c:v>2213.6273860063998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2049.0901984861221</c:v>
+                  <c:v>2213.5478531928802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2049.3124812701435</c:v>
+                  <c:v>2213.5503663394602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2049.7661798812583</c:v>
+                  <c:v>2213.6652261189502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2050.5828032628233</c:v>
+                  <c:v>2214.0718192321901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2052.0927967116995</c:v>
+                  <c:v>2215.4892255785899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2055.1880157777414</c:v>
+                  <c:v>2220.9662362162298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2079.6829001349533</c:v>
+                  <c:v>2187.1391558697801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2089.6522125134493</c:v>
+                  <c:v>2187.75262603891</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2093.8347542120609</c:v>
+                  <c:v>2190.4485545554899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2097.0369538259174</c:v>
+                  <c:v>2192.2864012967302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2100.2131034368695</c:v>
+                  <c:v>2194.02218410254</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2103.4616496155077</c:v>
+                  <c:v>2195.9404411067799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2106.7410073133951</c:v>
+                  <c:v>2198.1409613320502</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2109.9837721712488</c:v>
+                  <c:v>2200.6811669323702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2113.1175366562934</c:v>
+                  <c:v>2203.6110689054299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2116.072703839036</c:v>
+                  <c:v>2206.9801397892802</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2118.7881680600103</c:v>
+                  <c:v>2210.83721419637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2121.2160497266177</c:v>
+                  <c:v>2215.2286253718798</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2123.3246214328178</c:v>
+                  <c:v>2220.1953161414999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2125.0993461402313</c:v>
+                  <c:v>2225.7697443359498</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2126.5417820348771</c:v>
+                  <c:v>2231.9725860407202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2127.6669405904549</c:v>
+                  <c:v>2238.8099457620801</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2128.499532554295</c:v>
+                  <c:v>2246.27127385517</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2129.0696848081507</c:v>
+                  <c:v>2254.3283860870201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2129.4085592256206</c:v>
+                  <c:v>2262.9355554334502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2129.5439550814513</c:v>
+                  <c:v>2272.0298706861799</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2129.4961499048677</c:v>
+                  <c:v>2281.5310735306298</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2129.2740977783824</c:v>
+                  <c:v>2291.3386811648802</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2128.8724620812809</c:v>
+                  <c:v>2301.32518629272</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2128.2695938737802</c:v>
+                  <c:v>2311.3228551234401</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2127.4275086505199</c:v>
+                  <c:v>2321.1030912588099</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2126.2944122376734</c:v>
+                  <c:v>2330.3476123135401</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2124.8110057568747</c:v>
+                  <c:v>2338.61394928563</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2122.9214452876827</c:v>
+                  <c:v>2345.3039977559501</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2120.5895308067616</c:v>
+                  <c:v>2349.6552703746802</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2117.8181076003848</c:v>
+                  <c:v>2350.7814030703898</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2114.6676641757736</c:v>
+                  <c:v>2347.7661967076001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2111.2666937369449</c:v>
+                  <c:v>2339.7445744521901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2107.8070224674657</c:v>
+                  <c:v>2325.8648034725102</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2104.5222211951464</c:v>
+                  <c:v>2305.27783061118</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2101.6545229242302</c:v>
+                  <c:v>2277.8994105060201</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2099.4215294762362</c:v>
+                  <c:v>2246.3734279028899</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2097.9903552770065</c:v>
+                  <c:v>2216.74140584921</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2097.4494708708626</c:v>
+                  <c:v>2194.6584542689998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2097.665771725543</c:v>
+                  <c:v>2181.2558950427701</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2097.3024261658516</c:v>
+                  <c:v>2097.2952868574098</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>408.10000463447784</c:v>
+                  <c:v>408.09947333025798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8876,11 +8876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41390592"/>
-        <c:axId val="41391168"/>
+        <c:axId val="59478528"/>
+        <c:axId val="59479104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41390592"/>
+        <c:axId val="59478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -8976,13 +8976,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41391168"/>
+        <c:crossAx val="59479104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41391168"/>
+        <c:axId val="59479104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9076,7 +9076,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41390592"/>
+        <c:crossAx val="59478528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9856,193 +9856,193 @@
             <c:numRef>
               <c:f>Лист2!$H$69:$H$130</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.1999940376559</c:v>
+                  <c:v>1689.2006775708501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2222.8536391849088</c:v>
+                  <c:v>2353.4264741141401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2124.1142566255976</c:v>
+                  <c:v>2293.1228740403399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2025.4568820259738</c:v>
+                  <c:v>2241.7987000623202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1956.484118156586</c:v>
+                  <c:v>2232.2110888475299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1927.8821385211047</c:v>
+                  <c:v>2245.8141728405199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1949.1119066279427</c:v>
+                  <c:v>2254.0021579919598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015.614915968169</c:v>
+                  <c:v>2252.2229416154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2090.8852417438611</c:v>
+                  <c:v>2243.5689887117201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1784.2544650404282</c:v>
+                  <c:v>2019.6713033992801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1740.3642689115545</c:v>
+                  <c:v>1921.2330657438799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1743.9037116432082</c:v>
+                  <c:v>1909.3400371407699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1744.4718593116463</c:v>
+                  <c:v>1908.94274497079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1744.2217814836706</c:v>
+                  <c:v>1908.78698482867</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1744.0605971630719</c:v>
+                  <c:v>1908.6279126761499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1744.0901938516452</c:v>
+                  <c:v>1908.5483798626201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1744.3124766356666</c:v>
+                  <c:v>1908.5508930092001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1744.7661752467816</c:v>
+                  <c:v>1908.66575278869</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1745.5827986283468</c:v>
+                  <c:v>1909.07234590194</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1747.0927920772228</c:v>
+                  <c:v>1910.48975224834</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1750.1880111432645</c:v>
+                  <c:v>1915.96676288597</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1671.5828955004765</c:v>
+                  <c:v>1779.0396825395301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1681.5522078789725</c:v>
+                  <c:v>1779.6531527086499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1685.7347495775841</c:v>
+                  <c:v>1782.3490812252301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1688.9369491914406</c:v>
+                  <c:v>1784.18692796648</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1692.1130988023929</c:v>
+                  <c:v>1785.92271077228</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1695.3616449810308</c:v>
+                  <c:v>1787.8409677765201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1698.6410026789185</c:v>
+                  <c:v>1790.04148800179</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1701.883767536772</c:v>
+                  <c:v>1792.5816936021199</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1705.0175320218166</c:v>
+                  <c:v>1795.5115955751801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1707.9726992045594</c:v>
+                  <c:v>1798.88066645903</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1710.6881634255337</c:v>
+                  <c:v>1802.73774086611</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1713.1160450921411</c:v>
+                  <c:v>1807.12915204162</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1715.224616798341</c:v>
+                  <c:v>1812.0958428112399</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1716.9993415057545</c:v>
+                  <c:v>1817.6702710057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1718.4417774004005</c:v>
+                  <c:v>1823.87311271046</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1719.5669359559784</c:v>
+                  <c:v>1830.7104724318201</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1720.3995279198184</c:v>
+                  <c:v>1838.1718005249099</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1720.9696801736739</c:v>
+                  <c:v>1846.2289127567699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1721.3085545911438</c:v>
+                  <c:v>1854.8360821031899</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1721.4439504469744</c:v>
+                  <c:v>1863.9303973559199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1721.3961452703911</c:v>
+                  <c:v>1873.43160020038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1721.1740931439058</c:v>
+                  <c:v>1883.23920783463</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1720.7724574468043</c:v>
+                  <c:v>1893.22571296246</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1720.1695892393034</c:v>
+                  <c:v>1903.2233817931799</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1719.3275040160433</c:v>
+                  <c:v>1913.0036179285601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1718.1944076031969</c:v>
+                  <c:v>1922.2481389832799</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1716.7110011223981</c:v>
+                  <c:v>1930.51447595537</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1714.8214406532059</c:v>
+                  <c:v>1937.2045244256999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1712.4895261722847</c:v>
+                  <c:v>1941.5557970444199</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1709.7181029659082</c:v>
+                  <c:v>1942.68192974014</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1706.5676595412967</c:v>
+                  <c:v>1939.6667233773401</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1703.1666891024681</c:v>
+                  <c:v>1931.6451011219301</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1699.7070178329891</c:v>
+                  <c:v>1917.7653301422499</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1696.4222165606698</c:v>
+                  <c:v>1897.17835728092</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1693.5545182897536</c:v>
+                  <c:v>1869.7999371757701</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1691.3215248417596</c:v>
+                  <c:v>1838.2739545726299</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1689.8903506425297</c:v>
+                  <c:v>1808.6419325189499</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1689.3494662363858</c:v>
+                  <c:v>1786.55898093874</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1689.5657670910662</c:v>
+                  <c:v>1773.1564217125101</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1689.2024215313747</c:v>
+                  <c:v>1689.19581352716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10062,11 +10062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41393472"/>
-        <c:axId val="50511872"/>
+        <c:axId val="59481408"/>
+        <c:axId val="61456384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41393472"/>
+        <c:axId val="59481408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -10162,13 +10162,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50511872"/>
+        <c:crossAx val="61456384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50511872"/>
+        <c:axId val="61456384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10262,7 +10262,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41393472"/>
+        <c:crossAx val="59481408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11205,11 +11205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50514176"/>
-        <c:axId val="50514752"/>
+        <c:axId val="61458688"/>
+        <c:axId val="61459264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50514176"/>
+        <c:axId val="61458688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -11242,13 +11242,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50514752"/>
+        <c:crossAx val="61459264"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50514752"/>
+        <c:axId val="61459264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11290,7 +11290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50514176"/>
+        <c:crossAx val="61458688"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12444,7 +12444,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12480,7 +12480,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12516,7 +12516,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12552,7 +12552,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41697,8 +41697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42087,7 +42087,7 @@
       </c>
       <c r="B4">
         <f>G4-273.15</f>
-        <v>74.163531860709043</v>
+        <v>55.193186154962007</v>
       </c>
       <c r="C4">
         <v>42.770640332440799</v>
@@ -42102,7 +42102,7 @@
         <v>576</v>
       </c>
       <c r="G4">
-        <v>347.31353186070902</v>
+        <v>328.34318615496198</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -42111,7 +42111,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
-        <v>76.716914376616046</v>
+        <v>55.275529971719038</v>
       </c>
       <c r="C5">
         <v>44.906728683645397</v>
@@ -42126,7 +42126,7 @@
         <v>576</v>
       </c>
       <c r="G5">
-        <v>349.86691437661602</v>
+        <v>328.42552997171902</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -42135,7 +42135,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>127.62548958361202</v>
+        <v>66.171702346206018</v>
       </c>
       <c r="C6">
         <v>45.434369618188803</v>
@@ -42150,7 +42150,7 @@
         <v>577.34577656750002</v>
       </c>
       <c r="G6">
-        <v>400.775489583612</v>
+        <v>339.321702346206</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -42159,7 +42159,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>157.16161315739203</v>
+        <v>80.502845695615008</v>
       </c>
       <c r="C7">
         <v>45.695753646172797</v>
@@ -42174,7 +42174,7 @@
         <v>578.69155313500096</v>
       </c>
       <c r="G7">
-        <v>430.311613157392</v>
+        <v>353.65284569561499</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -42183,7 +42183,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>165.54719766080404</v>
+        <v>91.335496655107022</v>
       </c>
       <c r="C8">
         <v>45.8871277101563</v>
@@ -42198,7 +42198,7 @@
         <v>580.03732970250098</v>
       </c>
       <c r="G8">
-        <v>438.69719766080402</v>
+        <v>364.485496655107</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -42207,7 +42207,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>165.59517567455805</v>
+        <v>94.599134823680004</v>
       </c>
       <c r="C9">
         <v>46.054600563038697</v>
@@ -42222,7 +42222,7 @@
         <v>581.38310627000101</v>
       </c>
       <c r="G9">
-        <v>438.74517567455803</v>
+        <v>367.74913482367998</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -42231,7 +42231,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>159.791726967692</v>
+        <v>93.04313172996001</v>
       </c>
       <c r="C10">
         <v>46.227242331734502</v>
@@ -42246,7 +42246,7 @@
         <v>582.72888283750103</v>
       </c>
       <c r="G10">
-        <v>432.94172696769198</v>
+        <v>366.19313172995999</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -42255,7 +42255,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>147.55427574217305</v>
+        <v>91.247003874183008</v>
       </c>
       <c r="C11">
         <v>46.477138698471101</v>
@@ -42270,7 +42270,7 @@
         <v>584.07465940500197</v>
       </c>
       <c r="G11">
-        <v>420.70427574217302</v>
+        <v>364.39700387418299</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>129.99878858625902</v>
+        <v>91.462626656889995</v>
       </c>
       <c r="C12">
         <v>47.285981535291597</v>
@@ -42294,7 +42294,7 @@
         <v>585.42043597250199</v>
       </c>
       <c r="G12">
-        <v>403.148788586259</v>
+        <v>364.61262665688997</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -42303,7 +42303,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>112.36446460187403</v>
+        <v>94.818425527215027</v>
       </c>
       <c r="C13">
         <v>52.222918010638701</v>
@@ -42318,7 +42318,7 @@
         <v>586.76621254000202</v>
       </c>
       <c r="G13">
-        <v>385.51446460187401</v>
+        <v>367.968425527215</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -42327,7 +42327,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>156.29788150489304</v>
+        <v>131.20148440301404</v>
       </c>
       <c r="C14">
         <v>52.7741896013844</v>
@@ -42342,7 +42342,7 @@
         <v>588.11198910750204</v>
       </c>
       <c r="G14">
-        <v>429.44788150489302</v>
+        <v>404.35148440301401</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -42351,7 +42351,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>170.49826045930405</v>
+        <v>150.80587749779204</v>
       </c>
       <c r="C15">
         <v>53.037096580507601</v>
@@ -42366,7 +42366,7 @@
         <v>589.45776567500297</v>
       </c>
       <c r="G15">
-        <v>443.64826045930403</v>
+        <v>423.95587749779202</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -42375,7 +42375,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>173.54756330549702</v>
+        <v>157.24439283311403</v>
       </c>
       <c r="C16">
         <v>53.184739001984099</v>
@@ -42390,7 +42390,7 @@
         <v>590.803542242503</v>
       </c>
       <c r="G16">
-        <v>446.697563305497</v>
+        <v>430.39439283311401</v>
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
@@ -42399,7 +42399,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>174.330218484998</v>
+        <v>159.15381049215802</v>
       </c>
       <c r="C17">
         <v>53.285389833478398</v>
@@ -42414,7 +42414,7 @@
         <v>592.14931881000302</v>
       </c>
       <c r="G17">
-        <v>447.48021848499798</v>
+        <v>432.30381049215799</v>
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
@@ -42423,7 +42423,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>174.642407497764</v>
+        <v>159.797580888867</v>
       </c>
       <c r="C18">
         <v>53.365235835489202</v>
@@ -42438,7 +42438,7 @@
         <v>593.49509537750305</v>
       </c>
       <c r="G18">
-        <v>447.79240749776397</v>
+        <v>432.94758088886698</v>
       </c>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
@@ -42447,7 +42447,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>174.82013066709004</v>
+        <v>160.07720117867001</v>
       </c>
       <c r="C19">
         <v>53.433699775111101</v>
@@ -42462,7 +42462,7 @@
         <v>594.84087194500398</v>
       </c>
       <c r="G19">
-        <v>447.97013066709002</v>
+        <v>433.22720117866999</v>
       </c>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
@@ -42471,7 +42471,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>174.93620326221003</v>
+        <v>160.23821418583401</v>
       </c>
       <c r="C20">
         <v>53.493682430376502</v>
@@ -42486,7 +42486,7 @@
         <v>596.18664851250401</v>
       </c>
       <c r="G20">
-        <v>448.08620326221001</v>
+        <v>433.38821418583399</v>
       </c>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
@@ -42495,7 +42495,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>175.00895818173905</v>
+        <v>160.35368998944801</v>
       </c>
       <c r="C21">
         <v>53.5451659713354</v>
@@ -42510,7 +42510,7 @@
         <v>597.53242508000403</v>
       </c>
       <c r="G21">
-        <v>448.15895818173902</v>
+        <v>433.50368998944799</v>
       </c>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
@@ -42519,7 +42519,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>175.036537995934</v>
+        <v>160.44426818788105</v>
       </c>
       <c r="C22">
         <v>53.586199327556201</v>
@@ -42534,7 +42534,7 @@
         <v>598.87820164750406</v>
       </c>
       <c r="G22">
-        <v>448.18653799593397</v>
+        <v>433.59426818788103</v>
       </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
@@ -42543,7 +42543,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>174.99352877438105</v>
+        <v>160.49593423903002</v>
       </c>
       <c r="C23">
         <v>53.611292230714497</v>
@@ -42558,7 +42558,7 @@
         <v>600.22397821500499</v>
       </c>
       <c r="G23">
-        <v>448.14352877438102</v>
+        <v>433.64593423903</v>
       </c>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
@@ -42567,7 +42567,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>174.79790185988003</v>
+        <v>160.40435691773905</v>
       </c>
       <c r="C24">
         <v>53.595120146984797</v>
@@ -42582,7 +42582,7 @@
         <v>601.56975478250502</v>
       </c>
       <c r="G24">
-        <v>447.94790185988001</v>
+        <v>433.55435691773903</v>
       </c>
       <c r="H24">
         <v>0.57599999999999996</v>
@@ -42777,7 +42777,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>174.14697667062302</v>
+        <v>159.604998281598</v>
       </c>
       <c r="C25">
         <v>53.267428832761397</v>
@@ -42792,7 +42792,7 @@
         <v>602.91553135000504</v>
       </c>
       <c r="G25">
-        <v>447.296976670623</v>
+        <v>432.75499828159798</v>
       </c>
       <c r="H25">
         <f>H24*1000</f>
@@ -43049,7 +43049,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>186.19417881071604</v>
+        <v>175.73076744973702</v>
       </c>
       <c r="C26">
         <v>53.365305779651798</v>
@@ -43064,7 +43064,7 @@
         <v>604.26130791750495</v>
       </c>
       <c r="G26">
-        <v>459.34417881071602</v>
+        <v>448.88076744973699</v>
       </c>
       <c r="H26">
         <v>576</v>
@@ -43259,7 +43259,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>188.07519187629202</v>
+        <v>179.85845913589003</v>
       </c>
       <c r="C27">
         <v>53.458887326907899</v>
@@ -43274,7 +43274,7 @@
         <v>605.607084485006</v>
       </c>
       <c r="G27">
-        <v>461.225191876292</v>
+        <v>453.00845913589001</v>
       </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
@@ -43283,7 +43283,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>188.15736134946303</v>
+        <v>180.65923934280903</v>
       </c>
       <c r="C28">
         <v>53.550750035862102</v>
@@ -43298,7 +43298,7 @@
         <v>606.95286105250602</v>
       </c>
       <c r="G28">
-        <v>461.30736134946301</v>
+        <v>453.80923934280901</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -43307,7 +43307,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>187.90496548116204</v>
+        <v>180.63807000815905</v>
       </c>
       <c r="C29">
         <v>53.642366339583504</v>
@@ -43322,7 +43322,7 @@
         <v>608.29863762000605</v>
       </c>
       <c r="G29">
-        <v>461.05496548116201</v>
+        <v>453.78807000815902</v>
       </c>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
@@ -43331,7 +43331,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>187.54107018411202</v>
+        <v>180.38596918284901</v>
       </c>
       <c r="C30">
         <v>53.734252450157399</v>
@@ -43346,7 +43346,7 @@
         <v>609.64441418750596</v>
       </c>
       <c r="G30">
-        <v>460.69107018411199</v>
+        <v>453.53596918284899</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -43355,7 +43355,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>187.09236343801001</v>
+        <v>180.030884942412</v>
       </c>
       <c r="C31">
         <v>53.826807556226598</v>
@@ -43370,7 +43370,7 @@
         <v>610.99019075500701</v>
       </c>
       <c r="G31">
-        <v>460.24236343800999</v>
+        <v>453.18088494241198</v>
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
@@ -43379,7 +43379,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>186.55520414412001</v>
+        <v>179.59369828403004</v>
       </c>
       <c r="C32">
         <v>53.920447504538302</v>
@@ -43394,7 +43394,7 @@
         <v>612.33596732250703</v>
       </c>
       <c r="G32">
-        <v>459.70520414411999</v>
+        <v>452.74369828403002</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -43403,7 +43403,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>185.92203517854205</v>
+        <v>179.07013778984503</v>
       </c>
       <c r="C33">
         <v>54.015555486012403</v>
@@ -43418,7 +43418,7 @@
         <v>613.68174389000706</v>
       </c>
       <c r="G33">
-        <v>459.07203517854202</v>
+        <v>452.22013778984501</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -43427,7 +43427,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>185.18643935620804</v>
+        <v>178.44952156245705</v>
       </c>
       <c r="C34">
         <v>54.112629436428101</v>
@@ -43442,7 +43442,7 @@
         <v>615.02752045750697</v>
       </c>
       <c r="G34">
-        <v>458.33643935620802</v>
+        <v>451.59952156245703</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -43451,7 +43451,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>184.34510414898403</v>
+        <v>177.71919628083702</v>
       </c>
       <c r="C35">
         <v>54.212261052956897</v>
@@ -43466,7 +43466,7 @@
         <v>616.37329702500801</v>
       </c>
       <c r="G35">
-        <v>457.49510414898401</v>
+        <v>450.869196280837</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -43475,7 +43475,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>183.39949806630602</v>
+        <v>176.86593865454205</v>
       </c>
       <c r="C36">
         <v>54.315430223097003</v>
@@ -43490,7 +43490,7 @@
         <v>617.71907359250804</v>
       </c>
       <c r="G36">
-        <v>456.549498066306</v>
+        <v>450.01593865454203</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -43499,7 +43499,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>182.35752691924603</v>
+        <v>175.87672655880505</v>
       </c>
       <c r="C37">
         <v>54.422870035450302</v>
@@ -43514,7 +43514,7 @@
         <v>619.06485016000795</v>
       </c>
       <c r="G37">
-        <v>455.507526919246</v>
+        <v>449.02672655880502</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -43523,7 +43523,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>181.23498221337803</v>
+        <v>174.73963086903103</v>
       </c>
       <c r="C38">
         <v>54.535894156153603</v>
@@ -43538,7 +43538,7 @@
         <v>620.41062672750797</v>
       </c>
       <c r="G38">
-        <v>454.38498221337801</v>
+        <v>447.88963086903101</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -43547,7 +43547,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>180.05648662746</v>
+        <v>173.44482128918202</v>
       </c>
       <c r="C39">
         <v>54.6564934271765</v>
@@ -43562,7 +43562,7 @@
         <v>621.75640329500902</v>
       </c>
       <c r="G39">
-        <v>453.20648662745998</v>
+        <v>446.59482128918199</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -43571,7 +43571,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>178.85560130178902</v>
+        <v>171.985800167918</v>
       </c>
       <c r="C40">
         <v>54.786753279440603</v>
@@ -43586,7 +43586,7 @@
         <v>623.10217986250905</v>
       </c>
       <c r="G40">
-        <v>452.005601301789</v>
+        <v>445.13580016791798</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>177.67379989326002</v>
+        <v>170.36071007549805</v>
       </c>
       <c r="C41">
         <v>54.928499217312897</v>
@@ -43610,7 +43610,7 @@
         <v>624.44795643000896</v>
       </c>
       <c r="G41">
-        <v>450.82379989326</v>
+        <v>443.51071007549803</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -43619,7 +43619,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>176.55838315784905</v>
+        <v>168.573634675145</v>
       </c>
       <c r="C42">
         <v>55.085919669328597</v>
@@ -43634,7 +43634,7 @@
         <v>625.79373299750898</v>
       </c>
       <c r="G42">
-        <v>449.70838315784903</v>
+        <v>441.72363467514498</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -43643,7 +43643,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>175.55946817100005</v>
+        <v>166.63575877845301</v>
       </c>
       <c r="C43">
         <v>55.262767148063098</v>
@@ -43658,7 +43658,7 @@
         <v>627.13950956501003</v>
       </c>
       <c r="G43">
-        <v>448.70946817100003</v>
+        <v>439.78575877845299</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -43667,7 +43667,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>174.72649475038003</v>
+        <v>164.56612606942701</v>
       </c>
       <c r="C44">
         <v>55.464027048942299</v>
@@ -43682,7 +43682,7 @@
         <v>628.48528613251005</v>
       </c>
       <c r="G44">
-        <v>447.87649475038</v>
+        <v>437.71612606942699</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -43691,7 +43691,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>174.10471846759305</v>
+        <v>162.39202131927004</v>
       </c>
       <c r="C45">
         <v>55.695565995082703</v>
@@ -43706,7 +43706,7 @@
         <v>629.83106270000997</v>
       </c>
       <c r="G45">
-        <v>447.25471846759302</v>
+        <v>435.54202131927002</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>173.73209258019904</v>
+        <v>160.14874910414204</v>
       </c>
       <c r="C46">
         <v>55.963697502665099</v>
@@ -43730,7 +43730,7 @@
         <v>631.17683926750999</v>
       </c>
       <c r="G46">
-        <v>446.88209258019901</v>
+        <v>433.29874910414202</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -43739,7 +43739,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>173.63641818463805</v>
+        <v>157.879231473804</v>
       </c>
       <c r="C47">
         <v>56.277528443496102</v>
@@ -43754,7 +43754,7 @@
         <v>632.52261583501104</v>
       </c>
       <c r="G47">
-        <v>446.78641818463802</v>
+        <v>431.02923147380397</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -43763,7 +43763,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>173.83281623423102</v>
+        <v>155.63351844847205</v>
       </c>
       <c r="C48">
         <v>56.642283785163599</v>
@@ -43778,7 +43778,7 @@
         <v>633.86839240251095</v>
       </c>
       <c r="G48">
-        <v>446.982816234231</v>
+        <v>428.78351844847202</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -43787,7 +43787,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>174.32125990688803</v>
+        <v>153.46894895136404</v>
       </c>
       <c r="C49">
         <v>57.067212727468302</v>
@@ -43802,7 +43802,7 @@
         <v>635.21416897001097</v>
       </c>
       <c r="G49">
-        <v>447.47125990688801</v>
+        <v>426.61894895136402</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -43811,7 +43811,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>175.08456965386904</v>
+        <v>151.45139133036105</v>
       </c>
       <c r="C50">
         <v>57.559184555381201</v>
@@ -43826,7 +43826,7 @@
         <v>636.559945537511</v>
       </c>
       <c r="G50">
-        <v>448.23456965386902</v>
+        <v>424.60139133036103</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -43835,7 +43835,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>176.08762865364605</v>
+        <v>149.65791215598603</v>
       </c>
       <c r="C51">
         <v>58.121686948638697</v>
@@ -43850,7 +43850,7 @@
         <v>637.90572210501205</v>
       </c>
       <c r="G51">
-        <v>449.23762865364603</v>
+        <v>422.807912155986</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -43859,7 +43859,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>177.279025664926</v>
+        <v>148.18024297654603</v>
       </c>
       <c r="C52">
         <v>58.753885163261202</v>
@@ -43874,7 +43874,7 @@
         <v>639.25149867251196</v>
       </c>
       <c r="G52">
-        <v>450.42902566492597</v>
+        <v>421.330242976546</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -43883,7 +43883,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>178.59599029123802</v>
+        <v>147.12702666819104</v>
       </c>
       <c r="C53">
         <v>59.449971212343797</v>
@@ -43898,7 +43898,7 @@
         <v>640.59727524001198</v>
       </c>
       <c r="G53">
-        <v>451.745990291238</v>
+        <v>420.27702666819101</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -43907,7 +43907,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>179.97224514782403</v>
+        <v>146.62137662470303</v>
       </c>
       <c r="C54">
         <v>60.197818620175902</v>
@@ -43922,7 +43922,7 @@
         <v>641.94305180751201</v>
       </c>
       <c r="G54">
-        <v>453.122245147824</v>
+        <v>419.77137662470301</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -43931,7 +43931,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>181.347091844678</v>
+        <v>146.79107998907602</v>
       </c>
       <c r="C55">
         <v>60.9803601345698</v>
@@ -43946,7 +43946,7 @@
         <v>643.28882837501305</v>
       </c>
       <c r="G55">
-        <v>454.49709184467798</v>
+        <v>419.941079989076</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -43955,7 +43955,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>182.67333020865902</v>
+        <v>147.75614549815703</v>
       </c>
       <c r="C56">
         <v>61.777024756998799</v>
@@ -43970,7 +43970,7 @@
         <v>644.63460494251296</v>
       </c>
       <c r="G56">
-        <v>455.823330208659</v>
+        <v>420.906145498157</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -43979,7 +43979,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>183.92198567688501</v>
+        <v>149.63075478971001</v>
       </c>
       <c r="C57">
         <v>62.567025428430597</v>
@@ -43994,7 +43994,7 @@
         <v>645.98038151001299</v>
       </c>
       <c r="G57">
-        <v>457.07198567688499</v>
+        <v>422.78075478970999</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -44003,7 +44003,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>185.083194425702</v>
+        <v>152.55330314338204</v>
       </c>
       <c r="C58">
         <v>63.333913811673902</v>
@@ -44018,7 +44018,7 @@
         <v>647.32615807751301</v>
       </c>
       <c r="G58">
-        <v>458.23319442570198</v>
+        <v>425.70330314338202</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -44027,7 +44027,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>186.164158186316</v>
+        <v>156.69967641532401</v>
       </c>
       <c r="C59">
         <v>64.072470274829399</v>
@@ -44042,7 +44042,7 @@
         <v>648.67193464501395</v>
       </c>
       <c r="G59">
-        <v>459.31415818631598</v>
+        <v>429.84967641532398</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -44051,7 +44051,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>187.185825011134</v>
+        <v>162.142408242822</v>
       </c>
       <c r="C60">
         <v>64.801247754856703</v>
@@ -44066,7 +44066,7 @@
         <v>650.01771121251397</v>
       </c>
       <c r="G60">
-        <v>460.33582501113398</v>
+        <v>435.29240824282198</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -44075,7 +44075,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>188.18040152490101</v>
+        <v>168.52502634227301</v>
       </c>
       <c r="C61">
         <v>65.592700236618299</v>
@@ -44090,7 +44090,7 @@
         <v>651.363487780014</v>
       </c>
       <c r="G61">
-        <v>461.33040152490099</v>
+        <v>441.67502634227299</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -44099,7 +44099,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>189.19249286353602</v>
+        <v>174.97129326164702</v>
       </c>
       <c r="C62">
         <v>66.6781824811154</v>
@@ -44114,7 +44114,7 @@
         <v>652.70926434751402</v>
       </c>
       <c r="G62">
-        <v>462.34249286353599</v>
+        <v>448.121293261647</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -44123,7 +44123,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>190.29414986670002</v>
+        <v>180.62982892095999</v>
       </c>
       <c r="C63">
         <v>69.045257790581402</v>
@@ -44138,7 +44138,7 @@
         <v>654.05504091501496</v>
       </c>
       <c r="G63">
-        <v>463.4441498667</v>
+        <v>453.77982892095997</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -44147,7 +44147,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>191.69051458537604</v>
+        <v>185.33612003028401</v>
       </c>
       <c r="C64">
         <v>78.857783433238893</v>
@@ -44159,7 +44159,7 @@
         <v>655.40081748251498</v>
       </c>
       <c r="G64">
-        <v>464.84051458537601</v>
+        <v>458.48612003028398</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -44168,7 +44168,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>194.63301186859604</v>
+        <v>190.43579732477701</v>
       </c>
       <c r="C65">
         <v>118.513084445343</v>
@@ -44180,7 +44180,7 @@
         <v>655.40081748251498</v>
       </c>
       <c r="G65">
-        <v>467.78301186859602</v>
+        <v>463.58579732477699</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -44227,10 +44227,10 @@
       <c r="E69" s="10">
         <v>2.4412993835254299E-5</v>
       </c>
-      <c r="G69" s="9">
-        <v>376.19999867213244</v>
-      </c>
-      <c r="H69" s="9">
+      <c r="G69">
+        <v>376.20015090111002</v>
+      </c>
+      <c r="H69">
         <v>0</v>
       </c>
     </row>
@@ -44250,11 +44250,11 @@
       <c r="E70">
         <v>1689.19270119726</v>
       </c>
-      <c r="G70" s="9">
-        <v>909.85364381938552</v>
-      </c>
-      <c r="H70" s="9">
-        <v>1689.1999940376559</v>
+      <c r="G70">
+        <v>1040.4259474444</v>
+      </c>
+      <c r="H70">
+        <v>1689.2006775708501</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -44273,11 +44273,11 @@
       <c r="E71">
         <v>1686.67064477299</v>
       </c>
-      <c r="G71" s="9">
-        <v>811.11426126007427</v>
-      </c>
-      <c r="H71" s="9">
-        <v>2222.8536391849088</v>
+      <c r="G71">
+        <v>980.12234737059805</v>
+      </c>
+      <c r="H71">
+        <v>2353.4264741141401</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -44296,11 +44296,11 @@
       <c r="E72">
         <v>1684.73410321713</v>
       </c>
-      <c r="G72" s="9">
-        <v>712.45688666045044</v>
-      </c>
-      <c r="H72" s="9">
-        <v>2124.1142566255976</v>
+      <c r="G72">
+        <v>928.79817339258102</v>
+      </c>
+      <c r="H72">
+        <v>2293.1228740403399</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -44319,11 +44319,11 @@
       <c r="E73">
         <v>1683.2382493499999</v>
       </c>
-      <c r="G73" s="9">
-        <v>643.48412279106265</v>
-      </c>
-      <c r="H73" s="9">
-        <v>2025.4568820259738</v>
+      <c r="G73">
+        <v>919.21056217778698</v>
+      </c>
+      <c r="H73">
+        <v>2241.7987000623202</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -44342,11 +44342,11 @@
       <c r="E74">
         <v>1681.94274595722</v>
       </c>
-      <c r="G74" s="9">
-        <v>614.88214315558139</v>
-      </c>
-      <c r="H74" s="9">
-        <v>1956.484118156586</v>
+      <c r="G74">
+        <v>932.813646170776</v>
+      </c>
+      <c r="H74">
+        <v>2232.2110888475299</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -44365,11 +44365,11 @@
       <c r="E75">
         <v>1680.5871066960799</v>
       </c>
-      <c r="G75" s="9">
-        <v>636.11191126241943</v>
-      </c>
-      <c r="H75" s="9">
-        <v>1927.8821385211047</v>
+      <c r="G75">
+        <v>941.00163132221496</v>
+      </c>
+      <c r="H75">
+        <v>2245.8141728405199</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -44388,11 +44388,11 @@
       <c r="E76">
         <v>1678.4811758027499</v>
       </c>
-      <c r="G76" s="9">
-        <v>702.61492060264573</v>
-      </c>
-      <c r="H76" s="9">
-        <v>1949.1119066279427</v>
+      <c r="G76">
+        <v>939.22241494565696</v>
+      </c>
+      <c r="H76">
+        <v>2254.0021579919598</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -44411,11 +44411,11 @@
       <c r="E77">
         <v>1671.0790606069299</v>
       </c>
-      <c r="G77" s="9">
-        <v>777.8852463783378</v>
-      </c>
-      <c r="H77" s="9">
-        <v>2015.614915968169</v>
+      <c r="G77">
+        <v>930.56846204197996</v>
+      </c>
+      <c r="H77">
+        <v>2252.2229416154</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -44434,11 +44434,11 @@
       <c r="E78">
         <v>1625.6623785813899</v>
       </c>
-      <c r="G78" s="9">
-        <v>2089.2544696749046</v>
-      </c>
-      <c r="H78" s="9">
-        <v>2090.8852417438611</v>
+      <c r="G78">
+        <v>2324.6707767295302</v>
+      </c>
+      <c r="H78">
+        <v>2243.5689887117201</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -44457,11 +44457,11 @@
       <c r="E79">
         <v>1802.6683890167899</v>
       </c>
-      <c r="G79" s="9">
-        <v>2045.3642735460312</v>
-      </c>
-      <c r="H79" s="9">
-        <v>1784.2544650404282</v>
+      <c r="G79">
+        <v>2226.2325390741298</v>
+      </c>
+      <c r="H79">
+        <v>2019.6713033992801</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -44480,11 +44480,11 @@
       <c r="E80">
         <v>1807.4716047024001</v>
       </c>
-      <c r="G80" s="9">
-        <v>2048.9037162776849</v>
-      </c>
-      <c r="H80" s="9">
-        <v>1740.3642689115545</v>
+      <c r="G80">
+        <v>2214.3395104710198</v>
+      </c>
+      <c r="H80">
+        <v>1921.2330657438799</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -44503,11 +44503,11 @@
       <c r="E81">
         <v>1809.8832660636001</v>
       </c>
-      <c r="G81" s="9">
-        <v>2049.471863946123</v>
-      </c>
-      <c r="H81" s="9">
-        <v>1743.9037116432082</v>
+      <c r="G81">
+        <v>2213.9422183010502</v>
+      </c>
+      <c r="H81">
+        <v>1909.3400371407699</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -44526,11 +44526,11 @@
       <c r="E82">
         <v>1811.35128022252</v>
       </c>
-      <c r="G82" s="9">
-        <v>2049.2217861181471</v>
-      </c>
-      <c r="H82" s="9">
-        <v>1744.4718593116463</v>
+      <c r="G82">
+        <v>2213.7864581589301</v>
+      </c>
+      <c r="H82">
+        <v>1908.94274497079</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -44549,11 +44549,11 @@
       <c r="E83">
         <v>1812.4663006529299</v>
       </c>
-      <c r="G83" s="9">
-        <v>2049.0606017975488</v>
-      </c>
-      <c r="H83" s="9">
-        <v>1744.2217814836706</v>
+      <c r="G83">
+        <v>2213.6273860063998</v>
+      </c>
+      <c r="H83">
+        <v>1908.78698482867</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -44572,11 +44572,11 @@
       <c r="E84">
         <v>1813.4414373842101</v>
       </c>
-      <c r="G84" s="9">
-        <v>2049.0901984861221</v>
-      </c>
-      <c r="H84" s="9">
-        <v>1744.0605971630719</v>
+      <c r="G84">
+        <v>2213.5478531928802</v>
+      </c>
+      <c r="H84">
+        <v>1908.6279126761499</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -44595,11 +44595,11 @@
       <c r="E85">
         <v>1814.3961333165901</v>
       </c>
-      <c r="G85" s="9">
-        <v>2049.3124812701435</v>
-      </c>
-      <c r="H85" s="9">
-        <v>1744.0901938516452</v>
+      <c r="G85">
+        <v>2213.5503663394602</v>
+      </c>
+      <c r="H85">
+        <v>1908.5483798626201</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -44618,11 +44618,11 @@
       <c r="E86">
         <v>1815.3682371423599</v>
       </c>
-      <c r="G86" s="9">
-        <v>2049.7661798812583</v>
-      </c>
-      <c r="H86" s="9">
-        <v>1744.3124766356666</v>
+      <c r="G86">
+        <v>2213.6652261189502</v>
+      </c>
+      <c r="H86">
+        <v>1908.5508930092001</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -44641,11 +44641,11 @@
       <c r="E87">
         <v>1816.38736661282</v>
       </c>
-      <c r="G87" s="9">
-        <v>2050.5828032628233</v>
-      </c>
-      <c r="H87" s="9">
-        <v>1744.7661752467816</v>
+      <c r="G87">
+        <v>2214.0718192321901</v>
+      </c>
+      <c r="H87">
+        <v>1908.66575278869</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -44664,11 +44664,11 @@
       <c r="E88">
         <v>1817.51322226109</v>
       </c>
-      <c r="G88" s="9">
-        <v>2052.0927967116995</v>
-      </c>
-      <c r="H88" s="9">
-        <v>1745.5827986283468</v>
+      <c r="G88">
+        <v>2215.4892255785899</v>
+      </c>
+      <c r="H88">
+        <v>1909.07234590194</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -44687,11 +44687,11 @@
       <c r="E89">
         <v>1819.0228865332999</v>
       </c>
-      <c r="G89" s="9">
-        <v>2055.1880157777414</v>
-      </c>
-      <c r="H89" s="9">
-        <v>1747.0927920772228</v>
+      <c r="G89">
+        <v>2220.9662362162298</v>
+      </c>
+      <c r="H89">
+        <v>1910.48975224834</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -44710,11 +44710,11 @@
       <c r="E90">
         <v>1823.6094484259299</v>
       </c>
-      <c r="G90" s="9">
-        <v>2079.6829001349533</v>
-      </c>
-      <c r="H90" s="9">
-        <v>1750.1880111432645</v>
+      <c r="G90">
+        <v>2187.1391558697801</v>
+      </c>
+      <c r="H90">
+        <v>1915.96676288597</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -44733,11 +44733,11 @@
       <c r="E91">
         <v>1823.11083383306</v>
       </c>
-      <c r="G91" s="9">
-        <v>2089.6522125134493</v>
-      </c>
-      <c r="H91" s="9">
-        <v>1671.5828955004765</v>
+      <c r="G91">
+        <v>2187.75262603891</v>
+      </c>
+      <c r="H91">
+        <v>1779.0396825395301</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -44756,11 +44756,11 @@
       <c r="E92">
         <v>1824.0303035187401</v>
       </c>
-      <c r="G92" s="9">
-        <v>2093.8347542120609</v>
-      </c>
-      <c r="H92" s="9">
-        <v>1681.5522078789725</v>
+      <c r="G92">
+        <v>2190.4485545554899</v>
+      </c>
+      <c r="H92">
+        <v>1779.6531527086499</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -44779,11 +44779,11 @@
       <c r="E93">
         <v>1824.8940923463699</v>
       </c>
-      <c r="G93" s="9">
-        <v>2097.0369538259174</v>
-      </c>
-      <c r="H93" s="9">
-        <v>1685.7347495775841</v>
+      <c r="G93">
+        <v>2192.2864012967302</v>
+      </c>
+      <c r="H93">
+        <v>1782.3490812252301</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -44802,11 +44802,11 @@
       <c r="E94">
         <v>1825.78968474417</v>
       </c>
-      <c r="G94" s="9">
-        <v>2100.2131034368695</v>
-      </c>
-      <c r="H94" s="9">
-        <v>1688.9369491914406</v>
+      <c r="G94">
+        <v>2194.02218410254</v>
+      </c>
+      <c r="H94">
+        <v>1784.18692796648</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -44825,11 +44825,11 @@
       <c r="E95">
         <v>1826.64311337494</v>
       </c>
-      <c r="G95" s="9">
-        <v>2103.4616496155077</v>
-      </c>
-      <c r="H95" s="9">
-        <v>1692.1130988023929</v>
+      <c r="G95">
+        <v>2195.9404411067799</v>
+      </c>
+      <c r="H95">
+        <v>1785.92271077228</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -44848,11 +44848,11 @@
       <c r="E96">
         <v>1827.48962894791</v>
       </c>
-      <c r="G96" s="9">
-        <v>2106.7410073133951</v>
-      </c>
-      <c r="H96" s="9">
-        <v>1695.3616449810308</v>
+      <c r="G96">
+        <v>2198.1409613320502</v>
+      </c>
+      <c r="H96">
+        <v>1787.8409677765201</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -44871,11 +44871,11 @@
       <c r="E97">
         <v>1828.33206244543</v>
       </c>
-      <c r="G97" s="9">
-        <v>2109.9837721712488</v>
-      </c>
-      <c r="H97" s="9">
-        <v>1698.6410026789185</v>
+      <c r="G97">
+        <v>2200.6811669323702</v>
+      </c>
+      <c r="H97">
+        <v>1790.04148800179</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -44894,11 +44894,11 @@
       <c r="E98">
         <v>1829.1498138985801</v>
       </c>
-      <c r="G98" s="9">
-        <v>2113.1175366562934</v>
-      </c>
-      <c r="H98" s="9">
-        <v>1701.883767536772</v>
+      <c r="G98">
+        <v>2203.6110689054299</v>
+      </c>
+      <c r="H98">
+        <v>1792.5816936021199</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -44917,11 +44917,11 @@
       <c r="E99">
         <v>1829.94438480495</v>
       </c>
-      <c r="G99" s="9">
-        <v>2116.072703839036</v>
-      </c>
-      <c r="H99" s="9">
-        <v>1705.0175320218166</v>
+      <c r="G99">
+        <v>2206.9801397892802</v>
+      </c>
+      <c r="H99">
+        <v>1795.5115955751801</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -44940,11 +44940,11 @@
       <c r="E100">
         <v>1830.70714843421</v>
       </c>
-      <c r="G100" s="9">
-        <v>2118.7881680600103</v>
-      </c>
-      <c r="H100" s="9">
-        <v>1707.9726992045594</v>
+      <c r="G100">
+        <v>2210.83721419637</v>
+      </c>
+      <c r="H100">
+        <v>1798.88066645903</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -44963,11 +44963,11 @@
       <c r="E101">
         <v>1831.44383287716</v>
       </c>
-      <c r="G101" s="9">
-        <v>2121.2160497266177</v>
-      </c>
-      <c r="H101" s="9">
-        <v>1710.6881634255337</v>
+      <c r="G101">
+        <v>2215.2286253718798</v>
+      </c>
+      <c r="H101">
+        <v>1802.73774086611</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -44986,11 +44986,11 @@
       <c r="E102">
         <v>1832.07700851914</v>
       </c>
-      <c r="G102" s="9">
-        <v>2123.3246214328178</v>
-      </c>
-      <c r="H102" s="9">
-        <v>1713.1160450921411</v>
+      <c r="G102">
+        <v>2220.1953161414999</v>
+      </c>
+      <c r="H102">
+        <v>1807.12915204162</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -45009,11 +45009,11 @@
       <c r="E103">
         <v>1832.6889456737199</v>
       </c>
-      <c r="G103" s="9">
-        <v>2125.0993461402313</v>
-      </c>
-      <c r="H103" s="9">
-        <v>1715.224616798341</v>
+      <c r="G103">
+        <v>2225.7697443359498</v>
+      </c>
+      <c r="H103">
+        <v>1812.0958428112399</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -45032,11 +45032,11 @@
       <c r="E104">
         <v>1833.27099962594</v>
       </c>
-      <c r="G104" s="9">
-        <v>2126.5417820348771</v>
-      </c>
-      <c r="H104" s="9">
-        <v>1716.9993415057545</v>
+      <c r="G104">
+        <v>2231.9725860407202</v>
+      </c>
+      <c r="H104">
+        <v>1817.6702710057</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -45055,11 +45055,11 @@
       <c r="E105">
         <v>1833.69538440163</v>
       </c>
-      <c r="G105" s="9">
-        <v>2127.6669405904549</v>
-      </c>
-      <c r="H105" s="9">
-        <v>1718.4417774004005</v>
+      <c r="G105">
+        <v>2238.8099457620801</v>
+      </c>
+      <c r="H105">
+        <v>1823.87311271046</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -45078,11 +45078,11 @@
       <c r="E106">
         <v>1833.9283134412899</v>
       </c>
-      <c r="G106" s="9">
-        <v>2128.499532554295</v>
-      </c>
-      <c r="H106" s="9">
-        <v>1719.5669359559784</v>
+      <c r="G106">
+        <v>2246.27127385517</v>
+      </c>
+      <c r="H106">
+        <v>1830.7104724318201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -45101,11 +45101,11 @@
       <c r="E107">
         <v>1834.23918064949</v>
       </c>
-      <c r="G107" s="9">
-        <v>2129.0696848081507</v>
-      </c>
-      <c r="H107" s="9">
-        <v>1720.3995279198184</v>
+      <c r="G107">
+        <v>2254.3283860870201</v>
+      </c>
+      <c r="H107">
+        <v>1838.1718005249099</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -45124,11 +45124,11 @@
       <c r="E108">
         <v>1834.31138354991</v>
       </c>
-      <c r="G108" s="9">
-        <v>2129.4085592256206</v>
-      </c>
-      <c r="H108" s="9">
-        <v>1720.9696801736739</v>
+      <c r="G108">
+        <v>2262.9355554334502</v>
+      </c>
+      <c r="H108">
+        <v>1846.2289127567699</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -45147,11 +45147,11 @@
       <c r="E109">
         <v>1834.22385659784</v>
       </c>
-      <c r="G109" s="9">
-        <v>2129.5439550814513</v>
-      </c>
-      <c r="H109" s="9">
-        <v>1721.3085545911438</v>
+      <c r="G109">
+        <v>2272.0298706861799</v>
+      </c>
+      <c r="H109">
+        <v>1854.8360821031899</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -45170,11 +45170,11 @@
       <c r="E110">
         <v>1833.93736706594</v>
       </c>
-      <c r="G110" s="9">
-        <v>2129.4961499048677</v>
-      </c>
-      <c r="H110" s="9">
-        <v>1721.4439504469744</v>
+      <c r="G110">
+        <v>2281.5310735306298</v>
+      </c>
+      <c r="H110">
+        <v>1863.9303973559199</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -45193,11 +45193,11 @@
       <c r="E111">
         <v>1833.42356782605</v>
       </c>
-      <c r="G111" s="9">
-        <v>2129.2740977783824</v>
-      </c>
-      <c r="H111" s="9">
-        <v>1721.3961452703911</v>
+      <c r="G111">
+        <v>2291.3386811648802</v>
+      </c>
+      <c r="H111">
+        <v>1873.43160020038</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -45216,11 +45216,11 @@
       <c r="E112">
         <v>1832.8507522954301</v>
       </c>
-      <c r="G112" s="9">
-        <v>2128.8724620812809</v>
-      </c>
-      <c r="H112" s="9">
-        <v>1721.1740931439058</v>
+      <c r="G112">
+        <v>2301.32518629272</v>
+      </c>
+      <c r="H112">
+        <v>1883.23920783463</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -45239,11 +45239,11 @@
       <c r="E113">
         <v>1831.63049238688</v>
       </c>
-      <c r="G113" s="9">
-        <v>2128.2695938737802</v>
-      </c>
-      <c r="H113" s="9">
-        <v>1720.7724574468043</v>
+      <c r="G113">
+        <v>2311.3228551234401</v>
+      </c>
+      <c r="H113">
+        <v>1893.22571296246</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -45262,11 +45262,11 @@
       <c r="E114">
         <v>1830.6774215267201</v>
       </c>
-      <c r="G114" s="9">
-        <v>2127.4275086505199</v>
-      </c>
-      <c r="H114" s="9">
-        <v>1720.1695892393034</v>
+      <c r="G114">
+        <v>2321.1030912588099</v>
+      </c>
+      <c r="H114">
+        <v>1903.2233817931799</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -45285,11 +45285,11 @@
       <c r="E115">
         <v>1829.4897040455601</v>
       </c>
-      <c r="G115" s="9">
-        <v>2126.2944122376734</v>
-      </c>
-      <c r="H115" s="9">
-        <v>1719.3275040160433</v>
+      <c r="G115">
+        <v>2330.3476123135401</v>
+      </c>
+      <c r="H115">
+        <v>1913.0036179285601</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -45308,11 +45308,11 @@
       <c r="E116">
         <v>1827.89625489421</v>
       </c>
-      <c r="G116" s="9">
-        <v>2124.8110057568747</v>
-      </c>
-      <c r="H116" s="9">
-        <v>1718.1944076031969</v>
+      <c r="G116">
+        <v>2338.61394928563</v>
+      </c>
+      <c r="H116">
+        <v>1922.2481389832799</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -45331,11 +45331,11 @@
       <c r="E117">
         <v>1825.9853932389401</v>
       </c>
-      <c r="G117" s="9">
-        <v>2122.9214452876827</v>
-      </c>
-      <c r="H117" s="9">
-        <v>1716.7110011223981</v>
+      <c r="G117">
+        <v>2345.3039977559501</v>
+      </c>
+      <c r="H117">
+        <v>1930.51447595537</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -45354,11 +45354,11 @@
       <c r="E118">
         <v>1823.9610357799399</v>
       </c>
-      <c r="G118" s="9">
-        <v>2120.5895308067616</v>
-      </c>
-      <c r="H118" s="9">
-        <v>1714.8214406532059</v>
+      <c r="G118">
+        <v>2349.6552703746802</v>
+      </c>
+      <c r="H118">
+        <v>1937.2045244256999</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -45377,11 +45377,11 @@
       <c r="E119">
         <v>1821.9267078276</v>
       </c>
-      <c r="G119" s="9">
-        <v>2117.8181076003848</v>
-      </c>
-      <c r="H119" s="9">
-        <v>1712.4895261722847</v>
+      <c r="G119">
+        <v>2350.7814030703898</v>
+      </c>
+      <c r="H119">
+        <v>1941.5557970444199</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -45400,11 +45400,11 @@
       <c r="E120">
         <v>1820.14156474071</v>
       </c>
-      <c r="G120" s="9">
-        <v>2114.6676641757736</v>
-      </c>
-      <c r="H120" s="9">
-        <v>1709.7181029659082</v>
+      <c r="G120">
+        <v>2347.7661967076001</v>
+      </c>
+      <c r="H120">
+        <v>1942.68192974014</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -45423,11 +45423,11 @@
       <c r="E121">
         <v>1818.7042645689401</v>
       </c>
-      <c r="G121" s="9">
-        <v>2111.2666937369449</v>
-      </c>
-      <c r="H121" s="9">
-        <v>1706.5676595412967</v>
+      <c r="G121">
+        <v>2339.7445744521901</v>
+      </c>
+      <c r="H121">
+        <v>1939.6667233773401</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -45446,11 +45446,11 @@
       <c r="E122">
         <v>1817.67077654788</v>
       </c>
-      <c r="G122" s="9">
-        <v>2107.8070224674657</v>
-      </c>
-      <c r="H122" s="9">
-        <v>1703.1666891024681</v>
+      <c r="G122">
+        <v>2325.8648034725102</v>
+      </c>
+      <c r="H122">
+        <v>1931.6451011219301</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -45469,11 +45469,11 @@
       <c r="E123">
         <v>1817.0160045904399</v>
       </c>
-      <c r="G123" s="9">
-        <v>2104.5222211951464</v>
-      </c>
-      <c r="H123" s="9">
-        <v>1699.7070178329891</v>
+      <c r="G123">
+        <v>2305.27783061118</v>
+      </c>
+      <c r="H123">
+        <v>1917.7653301422499</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -45492,11 +45492,11 @@
       <c r="E124">
         <v>1816.63066529141</v>
       </c>
-      <c r="G124" s="9">
-        <v>2101.6545229242302</v>
-      </c>
-      <c r="H124" s="9">
-        <v>1696.4222165606698</v>
+      <c r="G124">
+        <v>2277.8994105060201</v>
+      </c>
+      <c r="H124">
+        <v>1897.17835728092</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -45515,11 +45515,11 @@
       <c r="E125">
         <v>1816.2300425866899</v>
       </c>
-      <c r="G125" s="9">
-        <v>2099.4215294762362</v>
-      </c>
-      <c r="H125" s="9">
-        <v>1693.5545182897536</v>
+      <c r="G125">
+        <v>2246.3734279028899</v>
+      </c>
+      <c r="H125">
+        <v>1869.7999371757701</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -45538,11 +45538,11 @@
       <c r="E126">
         <v>1815.0859054346099</v>
       </c>
-      <c r="G126" s="9">
-        <v>2097.9903552770065</v>
-      </c>
-      <c r="H126" s="9">
-        <v>1691.3215248417596</v>
+      <c r="G126">
+        <v>2216.74140584921</v>
+      </c>
+      <c r="H126">
+        <v>1838.2739545726299</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -45561,11 +45561,11 @@
       <c r="E127">
         <v>1811.1431846381799</v>
       </c>
-      <c r="G127" s="9">
-        <v>2097.4494708708626</v>
-      </c>
-      <c r="H127" s="9">
-        <v>1689.8903506425297</v>
+      <c r="G127">
+        <v>2194.6584542689998</v>
+      </c>
+      <c r="H127">
+        <v>1808.6419325189499</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -45584,11 +45584,11 @@
       <c r="E128">
         <v>1795.2527030034601</v>
       </c>
-      <c r="G128" s="9">
-        <v>2097.665771725543</v>
-      </c>
-      <c r="H128" s="9">
-        <v>1689.3494662363858</v>
+      <c r="G128">
+        <v>2181.2558950427701</v>
+      </c>
+      <c r="H128">
+        <v>1786.55898093874</v>
       </c>
     </row>
     <row r="129" spans="1:62" x14ac:dyDescent="0.25">
@@ -45607,11 +45607,11 @@
       <c r="E129">
         <v>1708.7871303899301</v>
       </c>
-      <c r="G129" s="9">
-        <v>2097.3024261658516</v>
-      </c>
-      <c r="H129" s="9">
-        <v>1689.5657670910662</v>
+      <c r="G129">
+        <v>2097.2952868574098</v>
+      </c>
+      <c r="H129">
+        <v>1773.1564217125101</v>
       </c>
     </row>
     <row r="130" spans="1:62" x14ac:dyDescent="0.25">
@@ -45630,11 +45630,11 @@
       <c r="E130">
         <v>1367.0960423517399</v>
       </c>
-      <c r="G130" s="9">
-        <v>408.10000463447784</v>
-      </c>
-      <c r="H130" s="9">
-        <v>1689.2024215313747</v>
+      <c r="G130">
+        <v>408.09947333025798</v>
+      </c>
+      <c r="H130">
+        <v>1689.19581352716</v>
       </c>
     </row>
     <row r="134" spans="1:62" x14ac:dyDescent="0.25">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B5200C-4B85-4249-B9BF-4E633EE79E98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="kij" sheetId="9" r:id="rId9"/>
     <sheet name="zf" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6633,193 +6634,193 @@
     <t>(0.</t>
   </si>
   <si>
-    <t>1689.20067757085.</t>
-  </si>
-  <si>
-    <t>2353.42647411414.</t>
-  </si>
-  <si>
-    <t>2293.12287404034.</t>
-  </si>
-  <si>
-    <t>2241.79870006232.</t>
-  </si>
-  <si>
-    <t>2232.21108884753.</t>
-  </si>
-  <si>
-    <t>2245.81417284052.</t>
-  </si>
-  <si>
-    <t>2254.00215799196.</t>
-  </si>
-  <si>
-    <t>2252.2229416154.</t>
-  </si>
-  <si>
-    <t>2243.56898871172.</t>
-  </si>
-  <si>
-    <t>2019.67130339928.</t>
-  </si>
-  <si>
-    <t>1921.23306574388.</t>
-  </si>
-  <si>
-    <t>1909.34003714077.</t>
-  </si>
-  <si>
-    <t>1908.94274497079.</t>
-  </si>
-  <si>
-    <t>1908.78698482867.</t>
-  </si>
-  <si>
-    <t>1908.62791267615.</t>
-  </si>
-  <si>
-    <t>1908.54837986262.</t>
-  </si>
-  <si>
-    <t>1908.5508930092.</t>
-  </si>
-  <si>
-    <t>1908.66575278869.</t>
-  </si>
-  <si>
-    <t>1909.07234590194.</t>
-  </si>
-  <si>
-    <t>1910.48975224834.</t>
-  </si>
-  <si>
-    <t>1915.96676288597.</t>
-  </si>
-  <si>
-    <t>1779.03968253953.</t>
-  </si>
-  <si>
-    <t>1779.65315270865.</t>
-  </si>
-  <si>
-    <t>1782.34908122523.</t>
-  </si>
-  <si>
-    <t>1784.18692796648.</t>
-  </si>
-  <si>
-    <t>1785.92271077228.</t>
-  </si>
-  <si>
-    <t>1787.84096777652.</t>
-  </si>
-  <si>
-    <t>1790.04148800179.</t>
-  </si>
-  <si>
-    <t>1792.58169360212.</t>
-  </si>
-  <si>
-    <t>1795.51159557518.</t>
-  </si>
-  <si>
-    <t>1798.88066645903.</t>
-  </si>
-  <si>
-    <t>1802.73774086611.</t>
-  </si>
-  <si>
-    <t>1807.12915204162.</t>
-  </si>
-  <si>
-    <t>1812.09584281124.</t>
-  </si>
-  <si>
-    <t>1817.6702710057.</t>
-  </si>
-  <si>
-    <t>1823.87311271046.</t>
-  </si>
-  <si>
-    <t>1830.71047243182.</t>
-  </si>
-  <si>
-    <t>1838.17180052491.</t>
-  </si>
-  <si>
-    <t>1846.22891275677.</t>
-  </si>
-  <si>
-    <t>1854.83608210319.</t>
-  </si>
-  <si>
-    <t>1863.93039735592.</t>
-  </si>
-  <si>
-    <t>1873.43160020038.</t>
-  </si>
-  <si>
-    <t>1883.23920783463.</t>
-  </si>
-  <si>
-    <t>1893.22571296246.</t>
-  </si>
-  <si>
-    <t>1903.22338179318.</t>
-  </si>
-  <si>
-    <t>1913.00361792856.</t>
-  </si>
-  <si>
-    <t>1922.24813898328.</t>
-  </si>
-  <si>
-    <t>1930.51447595537.</t>
-  </si>
-  <si>
-    <t>1937.2045244257.</t>
-  </si>
-  <si>
-    <t>1941.55579704442.</t>
-  </si>
-  <si>
-    <t>1942.68192974014.</t>
-  </si>
-  <si>
-    <t>1939.66672337734.</t>
-  </si>
-  <si>
-    <t>1931.64510112193.</t>
-  </si>
-  <si>
-    <t>1917.76533014225.</t>
-  </si>
-  <si>
-    <t>1897.17835728092.</t>
-  </si>
-  <si>
-    <t>1869.79993717577.</t>
-  </si>
-  <si>
-    <t>1838.27395457263.</t>
-  </si>
-  <si>
-    <t>1808.64193251895.</t>
-  </si>
-  <si>
-    <t>1786.55898093874.</t>
-  </si>
-  <si>
-    <t>1773.15642171251.</t>
-  </si>
-  <si>
-    <t>1689.19581352716)</t>
+    <t>1689.19928874001.</t>
+  </si>
+  <si>
+    <t>2353.72599919144.</t>
+  </si>
+  <si>
+    <t>2293.48068628513.</t>
+  </si>
+  <si>
+    <t>2242.68424387376.</t>
+  </si>
+  <si>
+    <t>2233.50138005032.</t>
+  </si>
+  <si>
+    <t>2246.7898537489.</t>
+  </si>
+  <si>
+    <t>2254.52907370544.</t>
+  </si>
+  <si>
+    <t>2252.59930906337.</t>
+  </si>
+  <si>
+    <t>2243.93054116709.</t>
+  </si>
+  <si>
+    <t>2019.98266002438.</t>
+  </si>
+  <si>
+    <t>1921.42660474388.</t>
+  </si>
+  <si>
+    <t>1909.50004311904.</t>
+  </si>
+  <si>
+    <t>1909.09493141861.</t>
+  </si>
+  <si>
+    <t>1908.93743714591.</t>
+  </si>
+  <si>
+    <t>1908.77850834085.</t>
+  </si>
+  <si>
+    <t>1908.69991779003.</t>
+  </si>
+  <si>
+    <t>1908.70393983533.</t>
+  </si>
+  <si>
+    <t>1908.82087014191.</t>
+  </si>
+  <si>
+    <t>1909.23033603149.</t>
+  </si>
+  <si>
+    <t>1910.65201309414.</t>
+  </si>
+  <si>
+    <t>1916.13614533848.</t>
+  </si>
+  <si>
+    <t>1779.10393036161.</t>
+  </si>
+  <si>
+    <t>1779.71150697258.</t>
+  </si>
+  <si>
+    <t>1782.42911804689.</t>
+  </si>
+  <si>
+    <t>1784.29905850707.</t>
+  </si>
+  <si>
+    <t>1786.07363253375.</t>
+  </si>
+  <si>
+    <t>1788.03686770804.</t>
+  </si>
+  <si>
+    <t>1790.28874179105.</t>
+  </si>
+  <si>
+    <t>1792.88701340644.</t>
+  </si>
+  <si>
+    <t>1795.88185239579.</t>
+  </si>
+  <si>
+    <t>1799.32267845589.</t>
+  </si>
+  <si>
+    <t>1803.25794894174.</t>
+  </si>
+  <si>
+    <t>1807.73311863057.</t>
+  </si>
+  <si>
+    <t>1812.78787964229.</t>
+  </si>
+  <si>
+    <t>1818.45295702299.</t>
+  </si>
+  <si>
+    <t>1824.74689455094.</t>
+  </si>
+  <si>
+    <t>1831.67330612435.</t>
+  </si>
+  <si>
+    <t>1839.21914978549.</t>
+  </si>
+  <si>
+    <t>1847.35385743571.</t>
+  </si>
+  <si>
+    <t>1856.02961713373.</t>
+  </si>
+  <si>
+    <t>1865.18201684938.</t>
+  </si>
+  <si>
+    <t>1874.72968517626.</t>
+  </si>
+  <si>
+    <t>1884.57170765239.</t>
+  </si>
+  <si>
+    <t>1894.58050922359.</t>
+  </si>
+  <si>
+    <t>1904.58889239018.</t>
+  </si>
+  <si>
+    <t>1914.36955902276.</t>
+  </si>
+  <si>
+    <t>1923.60653257015.</t>
+  </si>
+  <si>
+    <t>1931.86047413464.</t>
+  </si>
+  <si>
+    <t>1938.53582200965.</t>
+  </si>
+  <si>
+    <t>1942.86835584121.</t>
+  </si>
+  <si>
+    <t>1943.95966426903.</t>
+  </si>
+  <si>
+    <t>1940.86627751776.</t>
+  </si>
+  <si>
+    <t>1932.68581438615.</t>
+  </si>
+  <si>
+    <t>1918.5416707658.</t>
+  </si>
+  <si>
+    <t>1897.60475104536.</t>
+  </si>
+  <si>
+    <t>1869.87629186005.</t>
+  </si>
+  <si>
+    <t>1838.12542279265.</t>
+  </si>
+  <si>
+    <t>1808.45441312348.</t>
+  </si>
+  <si>
+    <t>1786.44689986144.</t>
+  </si>
+  <si>
+    <t>1773.1296596464.</t>
+  </si>
+  <si>
+    <t>1689.20028187495)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -7000,8 +7001,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -7017,7 +7018,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7265,196 +7266,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>55.193186154962007</c:v>
+                  <c:v>55.211954912543035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.275529971719038</c:v>
+                  <c:v>55.292836925387007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.171702346206018</c:v>
+                  <c:v>66.214295825362001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.502845695615008</c:v>
+                  <c:v>80.529962828755004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.335496655107022</c:v>
+                  <c:v>91.277272602916014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.599134823680004</c:v>
+                  <c:v>94.462033709883997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.04313172996001</c:v>
+                  <c:v>92.912293574214004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.247003874183008</c:v>
+                  <c:v>91.174148371816045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.462626656889995</c:v>
+                  <c:v>91.436173370481015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.818425527215027</c:v>
+                  <c:v>94.817419698834044</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.20148440301404</c:v>
+                  <c:v>131.21500273644904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.80587749779204</c:v>
+                  <c:v>150.82938035428504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.24439283311403</c:v>
+                  <c:v>157.27041696608103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>159.15381049215802</c:v>
+                  <c:v>159.17987485826001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159.797580888867</c:v>
+                  <c:v>159.82304846346403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.07720117867001</c:v>
+                  <c:v>160.10183056294903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160.23821418583401</c:v>
+                  <c:v>160.26183774173302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>160.35368998944801</c:v>
+                  <c:v>160.37612666785702</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.44426818788105</c:v>
+                  <c:v>160.46531682312502</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>160.49593423903002</c:v>
+                  <c:v>160.51536013782004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160.40435691773905</c:v>
+                  <c:v>160.42190527021904</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159.604998281598</c:v>
+                  <c:v>159.62055509388404</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>175.73076744973702</c:v>
+                  <c:v>175.748939415812</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>179.85845913589003</c:v>
+                  <c:v>179.871709248424</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>180.65923934280903</c:v>
+                  <c:v>180.66559617817404</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.63807000815905</c:v>
+                  <c:v>180.63642715513703</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>180.38596918284901</c:v>
+                  <c:v>180.37513305842901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>180.030884942412</c:v>
+                  <c:v>180.00946750342803</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>179.59369828403004</c:v>
+                  <c:v>179.560163965821</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>179.07013778984503</c:v>
+                  <c:v>179.02281691730002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>178.44952156245705</c:v>
+                  <c:v>178.38666399419304</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>177.71919628083702</c:v>
+                  <c:v>177.63903175890403</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>176.86593865454205</c:v>
+                  <c:v>176.766723743081</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>175.87672655880505</c:v>
+                  <c:v>175.75688546001902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>174.73963086903103</c:v>
+                  <c:v>174.59788282811604</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>173.44482128918202</c:v>
+                  <c:v>173.28034152686604</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>171.985800167918</c:v>
+                  <c:v>171.798360696435</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>170.36071007549805</c:v>
+                  <c:v>170.15087415874001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>168.573634675145</c:v>
+                  <c:v>168.34287752807103</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>166.63575877845301</c:v>
+                  <c:v>166.386521211267</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>164.56612606942701</c:v>
+                  <c:v>164.30183460414401</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>162.39202131927004</c:v>
+                  <c:v>162.11690714061302</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>160.14874910414204</c:v>
+                  <c:v>159.86767371594902</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>157.879231473804</c:v>
+                  <c:v>157.59727766215804</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>155.63351844847205</c:v>
+                  <c:v>155.35557453930403</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>153.46894895136404</c:v>
+                  <c:v>153.199219307303</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>151.45139133036105</c:v>
+                  <c:v>151.19291355311901</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>149.65791215598603</c:v>
+                  <c:v>149.41214804947401</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>148.18024297654603</c:v>
+                  <c:v>147.94691090881804</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>147.12702666819104</c:v>
+                  <c:v>146.90449719727002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>146.62137662470303</c:v>
+                  <c:v>146.40807395279404</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>146.79107998907602</c:v>
+                  <c:v>146.58803676664803</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>147.75614549815703</c:v>
+                  <c:v>147.570033720136</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>149.63075478971001</c:v>
+                  <c:v>149.47520007789103</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>152.55330314338204</c:v>
+                  <c:v>152.44568621218201</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>156.69967641532401</c:v>
+                  <c:v>156.65297245085202</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>162.142408242822</c:v>
+                  <c:v>162.15515544116505</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>168.52502634227301</c:v>
+                  <c:v>168.57645770013301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>174.97129326164702</c:v>
+                  <c:v>175.03164296448205</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>180.62982892095999</c:v>
+                  <c:v>180.67864512503104</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>185.33612003028401</c:v>
+                  <c:v>185.36799808442601</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>190.43579732477701</c:v>
+                  <c:v>190.45340602695904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7668,196 +7669,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>42.770640332440799</c:v>
+                  <c:v>46.043582630709402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.906728683645397</c:v>
+                  <c:v>48.171534442983898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.434369618188803</c:v>
+                  <c:v>48.637331111067702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.695753646172797</c:v>
+                  <c:v>48.837399453558803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.8871277101563</c:v>
+                  <c:v>48.968482363985501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.054600563038697</c:v>
+                  <c:v>49.076951638003301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.227242331734502</c:v>
+                  <c:v>49.192221563876203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.477138698471101</c:v>
+                  <c:v>49.388229804275099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.285981535291597</c:v>
+                  <c:v>50.151837894986798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.222918010638701</c:v>
+                  <c:v>54.9799937069698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.7741896013844</c:v>
+                  <c:v>55.475286124278298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.037096580507601</c:v>
+                  <c:v>55.681952080612703</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.184739001984099</c:v>
+                  <c:v>55.772428049256199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.285389833478398</c:v>
+                  <c:v>55.815322520011698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>53.365235835489202</c:v>
+                  <c:v>55.837119346028203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.433699775111101</c:v>
+                  <c:v>55.847558602984101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.493682430376502</c:v>
+                  <c:v>55.849676477742896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.5451659713354</c:v>
+                  <c:v>55.843548999819603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.586199327556201</c:v>
+                  <c:v>55.827340623791699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.611292230714497</c:v>
+                  <c:v>55.795734063302604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.595120146984797</c:v>
+                  <c:v>55.723509688218201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.267428832761397</c:v>
+                  <c:v>55.344109407954399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.365305779651798</c:v>
+                  <c:v>55.385015614794</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.458887326907899</c:v>
+                  <c:v>55.4219035266308</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.550750035862102</c:v>
+                  <c:v>55.457441572728499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.642366339583504</c:v>
+                  <c:v>55.492807114889303</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.734252450157399</c:v>
+                  <c:v>55.528481248985301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.826807556226598</c:v>
+                  <c:v>55.564954097481298</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.920447504538302</c:v>
+                  <c:v>55.603125646644301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54.015555486012403</c:v>
+                  <c:v>55.642535222350503</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.112629436428101</c:v>
+                  <c:v>55.683784575349698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54.212261052956897</c:v>
+                  <c:v>55.7275335971472</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>54.315430223097003</c:v>
+                  <c:v>55.773600524469003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>54.422870035450302</c:v>
+                  <c:v>55.829560982055902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54.535894156153603</c:v>
+                  <c:v>55.898871370666399</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54.6564934271765</c:v>
+                  <c:v>55.974034854856797</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>54.786753279440603</c:v>
+                  <c:v>56.059174593141798</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54.928499217312897</c:v>
+                  <c:v>56.158400420386101</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55.085919669328597</c:v>
+                  <c:v>56.272140186739399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>55.262767148063098</c:v>
+                  <c:v>56.405981867150601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>55.464027048942299</c:v>
+                  <c:v>56.568995115090601</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>55.695565995082703</c:v>
+                  <c:v>56.7667675369892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55.963697502665099</c:v>
+                  <c:v>57.009759387807499</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.277528443496102</c:v>
+                  <c:v>57.295867897514803</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56.642283785163599</c:v>
+                  <c:v>57.642965543990599</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>57.067212727468302</c:v>
+                  <c:v>58.057429399797101</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.559184555381201</c:v>
+                  <c:v>58.538835291702597</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58.121686948638697</c:v>
+                  <c:v>59.073670614655398</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58.753885163261202</c:v>
+                  <c:v>59.710782824925303</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>59.449971212343797</c:v>
+                  <c:v>60.384127439959002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>60.197818620175902</c:v>
+                  <c:v>61.096293131063398</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.9803601345698</c:v>
+                  <c:v>61.830301439656402</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.777024756998799</c:v>
+                  <c:v>62.5657958466808</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.567025428430597</c:v>
+                  <c:v>63.283943278721601</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>63.333913811673902</c:v>
+                  <c:v>63.966767795580502</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>64.072470274829399</c:v>
+                  <c:v>64.614439781489594</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>64.801247754856703</c:v>
+                  <c:v>65.249609590819404</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65.592700236618299</c:v>
+                  <c:v>65.944758620172394</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>66.6781824811154</c:v>
+                  <c:v>66.935453844689704</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>69.045257790581402</c:v>
+                  <c:v>69.210593338762493</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>78.857783433238893</c:v>
+                  <c:v>78.942378390062203</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>118.513084445343</c:v>
+                  <c:v>118.59490960456699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7901,7 +7902,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7979,7 +7979,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8238,196 +8238,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.20594616701197</c:v>
+                  <c:v>376.211399330777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>373.68388974274302</c:v>
+                  <c:v>374.27882853649498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>371.74734818687898</c:v>
+                  <c:v>372.71879442095297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>370.25149431975399</c:v>
+                  <c:v>371.58533090607801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368.95599092697199</c:v>
+                  <c:v>370.63961849127401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367.60035166583702</c:v>
+                  <c:v>369.61605307244002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>365.49442077250001</c:v>
+                  <c:v>367.79680597044802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>358.092305576679</c:v>
+                  <c:v>360.51295400656898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>312.67562355114501</c:v>
+                  <c:v>315.19681812677499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2107.3191858269101</c:v>
+                  <c:v>2152.5343572327201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2112.1224015125199</c:v>
+                  <c:v>2157.0348167501502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2114.5340628737199</c:v>
+                  <c:v>2159.06811719814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2116.00207703264</c:v>
+                  <c:v>2160.1117741747798</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2117.11709746305</c:v>
+                  <c:v>2160.7757625059398</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2118.0922341943401</c:v>
+                  <c:v>2161.3061854994899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2119.0469301267099</c:v>
+                  <c:v>2161.8051927384399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2120.0190339524802</c:v>
+                  <c:v>2162.31874221617</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2121.0381634229402</c:v>
+                  <c:v>2162.8775435124198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2122.1640190712101</c:v>
+                  <c:v>2163.5323400258499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2123.6736833434302</c:v>
+                  <c:v>2164.5321711310899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2128.2602452360502</c:v>
+                  <c:v>2168.64193934899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2230.8993250769799</c:v>
+                  <c:v>2272.4360354092701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2231.8187947626602</c:v>
+                  <c:v>2272.7708243638999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2232.6825835902901</c:v>
+                  <c:v>2273.0550613996402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2233.5781759880902</c:v>
+                  <c:v>2273.3118036149499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2234.4316046188601</c:v>
+                  <c:v>2273.57102285064</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2235.2781201918301</c:v>
+                  <c:v>2273.8960928807701</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2236.1205536893499</c:v>
+                  <c:v>2274.27947764896</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2236.9383051425002</c:v>
+                  <c:v>2274.5258521624701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2237.7328760488699</c:v>
+                  <c:v>2274.9505061286</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2238.4956396781299</c:v>
+                  <c:v>2275.5426791455102</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2239.2323241210802</c:v>
+                  <c:v>2276.3335143920399</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2239.8654997630701</c:v>
+                  <c:v>2277.8357827766099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2240.4774369176498</c:v>
+                  <c:v>2277.9257731249299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2241.0594908698699</c:v>
+                  <c:v>2275.5674797211</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2241.4838756455601</c:v>
+                  <c:v>2273.9337931291202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2241.7168046852198</c:v>
+                  <c:v>2272.65298904157</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2242.0276718934101</c:v>
+                  <c:v>2271.16866736263</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2242.0998747938302</c:v>
+                  <c:v>2270.7040728192401</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2242.0123478417599</c:v>
+                  <c:v>2270.9464363116299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2241.7258583098601</c:v>
+                  <c:v>2270.6470289192398</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2241.2120590699701</c:v>
+                  <c:v>2270.1406796036399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2240.63924353935</c:v>
+                  <c:v>2268.1846391853001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2239.4189836308001</c:v>
+                  <c:v>2268.2231761948601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2238.46591277064</c:v>
+                  <c:v>2266.8328793834698</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2237.2781952894802</c:v>
+                  <c:v>2263.9640853809001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2235.6847461381299</c:v>
+                  <c:v>2261.2595059697301</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2233.77388448286</c:v>
+                  <c:v>2265.0834207094699</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2231.7495270238701</c:v>
+                  <c:v>2255.88857871963</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2229.7151990715201</c:v>
+                  <c:v>2253.6030394991099</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2227.9300559846301</c:v>
+                  <c:v>2252.48202832995</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2226.4927558128602</c:v>
+                  <c:v>2251.6536549150601</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2225.4592677917999</c:v>
+                  <c:v>2250.7115157692601</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2224.8044958343698</c:v>
+                  <c:v>2249.13725189553</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2224.4191565353299</c:v>
+                  <c:v>2248.1921418284201</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2224.0185338306101</c:v>
+                  <c:v>2246.93097794186</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2222.8743966785401</c:v>
+                  <c:v>2244.4354710170301</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2218.9316758821101</c:v>
+                  <c:v>2239.8099740017201</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2203.0411942473802</c:v>
+                  <c:v>2223.2931735091702</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2116.57562163385</c:v>
+                  <c:v>2135.2181143204798</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1774.8845335956601</c:v>
+                  <c:v>1788.5046742494001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>407.788491243924</c:v>
+                  <c:v>407.73546151072799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -8673,196 +8673,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.20015090111002</c:v>
+                  <c:v>376.199841596017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1040.4259474444</c:v>
+                  <c:v>1040.72655204744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>980.12234737059805</c:v>
+                  <c:v>980.48123914113796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>928.79817339258102</c:v>
+                  <c:v>929.68479672977003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>919.21056217778698</c:v>
+                  <c:v>920.50193290632797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>932.813646170776</c:v>
+                  <c:v>933.79040660491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>941.00163132221496</c:v>
+                  <c:v>941.52962656144405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>939.22241494565696</c:v>
+                  <c:v>939.59986191937298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930.56846204197996</c:v>
+                  <c:v>930.93109402309904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2324.6707767295302</c:v>
+                  <c:v>2324.9832128803901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2226.2325390741298</c:v>
+                  <c:v>2226.4271575998901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2214.3395104710198</c:v>
+                  <c:v>2214.5005959750501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2213.9422183010502</c:v>
+                  <c:v>2214.09548427461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2213.7864581589301</c:v>
+                  <c:v>2213.9379900019198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2213.6273860063998</c:v>
+                  <c:v>2213.7790611968599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2213.5478531928802</c:v>
+                  <c:v>2213.7004706460398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2213.5503663394602</c:v>
+                  <c:v>2213.70449269133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2213.6652261189502</c:v>
+                  <c:v>2213.8214229979199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2214.0718192321901</c:v>
+                  <c:v>2214.23088888749</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2215.4892255785899</c:v>
+                  <c:v>2215.6525659501399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2220.9662362162298</c:v>
+                  <c:v>2221.1366981944798</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2187.1391558697801</c:v>
+                  <c:v>2187.2044832176198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2187.75262603891</c:v>
+                  <c:v>2187.81205982859</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2190.4485545554899</c:v>
+                  <c:v>2190.5296709028898</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2192.2864012967302</c:v>
+                  <c:v>2192.3996113630801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2194.02218410254</c:v>
+                  <c:v>2194.1741853897602</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2195.9404411067799</c:v>
+                  <c:v>2196.13742056404</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2198.1409613320502</c:v>
+                  <c:v>2198.3892946470501</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2200.6811669323702</c:v>
+                  <c:v>2200.9875662624499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2203.6110689054299</c:v>
+                  <c:v>2203.9824052518002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2206.9801397892802</c:v>
+                  <c:v>2207.4232313119001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2210.83721419637</c:v>
+                  <c:v>2211.3585017977498</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2215.2286253718798</c:v>
+                  <c:v>2215.83367148658</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2220.1953161414999</c:v>
+                  <c:v>2220.8884324983001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2225.7697443359498</c:v>
+                  <c:v>2226.5535098789901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2231.9725860407202</c:v>
+                  <c:v>2232.8474474069499</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2238.8099457620801</c:v>
+                  <c:v>2239.7738589803598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2246.27127385517</c:v>
+                  <c:v>2247.3197026415</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2254.3283860870201</c:v>
+                  <c:v>2255.4544102917198</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2262.9355554334502</c:v>
+                  <c:v>2264.1301699897299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2272.0298706861799</c:v>
+                  <c:v>2273.28256970539</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2281.5310735306298</c:v>
+                  <c:v>2282.8302380322698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2291.3386811648802</c:v>
+                  <c:v>2292.6722605084001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2301.32518629272</c:v>
+                  <c:v>2302.6810620796</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2311.3228551234401</c:v>
+                  <c:v>2312.6894452461902</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2321.1030912588099</c:v>
+                  <c:v>2322.4701118787598</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2330.3476123135401</c:v>
+                  <c:v>2331.7070854261501</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2338.61394928563</c:v>
+                  <c:v>2339.9610269906402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2345.3039977559501</c:v>
+                  <c:v>2346.6363748656599</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2349.6552703746802</c:v>
+                  <c:v>2350.9689086972198</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2350.7814030703898</c:v>
+                  <c:v>2352.0602171250298</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2347.7661967076001</c:v>
+                  <c:v>2348.9668303737699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2339.7445744521901</c:v>
+                  <c:v>2340.7863672421599</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2325.8648034725102</c:v>
+                  <c:v>2326.6422236218</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2305.27783061118</c:v>
+                  <c:v>2305.7053039013699</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2277.8994105060201</c:v>
+                  <c:v>2277.97684471606</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2246.3734279028899</c:v>
+                  <c:v>2246.2259756486601</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2216.74140584921</c:v>
+                  <c:v>2216.5549659794901</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2194.6584542689998</c:v>
+                  <c:v>2194.5474527174501</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2181.2558950427701</c:v>
+                  <c:v>2181.2302125024098</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2097.2952868574098</c:v>
+                  <c:v>2097.3008347309501</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>408.09947333025798</c:v>
+                  <c:v>408.10055285600902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1739-480A-A905-99EEB47984B8}"/>
             </c:ext>
@@ -8929,7 +8929,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8938,6 +8937,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9029,7 +9048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9038,6 +9056,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9090,7 +9128,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9122,14 +9159,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9165,7 +9202,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9424,196 +9461,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>2.4412993835254299E-5</c:v>
+                  <c:v>3.9516105327975499E-19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.19270119726</c:v>
+                  <c:v>1689.25118409422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1686.67064477299</c:v>
+                  <c:v>1687.3186132999399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1684.73410321713</c:v>
+                  <c:v>1685.7585791844001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1683.2382493499999</c:v>
+                  <c:v>1684.62511566952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1681.94274595722</c:v>
+                  <c:v>1683.67940325472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1680.5871066960799</c:v>
+                  <c:v>1682.65583783588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1678.4811758027499</c:v>
+                  <c:v>1680.83659073389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1671.0790606069299</c:v>
+                  <c:v>1673.5527387700099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1625.6623785813899</c:v>
+                  <c:v>1628.23660289022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1802.6683890167899</c:v>
+                  <c:v>1847.9365901557901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1807.4716047024001</c:v>
+                  <c:v>1852.4370496732199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1809.8832660636001</c:v>
+                  <c:v>1854.47035012121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1811.35128022252</c:v>
+                  <c:v>1855.51400709785</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1812.4663006529299</c:v>
+                  <c:v>1856.17799542901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1813.4414373842101</c:v>
+                  <c:v>1856.70841842256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1814.3961333165901</c:v>
+                  <c:v>1857.2074256615099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1815.3682371423599</c:v>
+                  <c:v>1857.72097513925</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1816.38736661282</c:v>
+                  <c:v>1858.27977643549</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1817.51322226109</c:v>
+                  <c:v>1858.93457294892</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1819.0228865332999</c:v>
+                  <c:v>1859.93440405416</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1823.6094484259299</c:v>
+                  <c:v>1864.04417227206</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1823.11083383306</c:v>
+                  <c:v>1864.7005738985399</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1824.0303035187401</c:v>
+                  <c:v>1865.03536285317</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1824.8940923463699</c:v>
+                  <c:v>1865.31959988891</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1825.78968474417</c:v>
+                  <c:v>1865.57634210423</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1826.64311337494</c:v>
+                  <c:v>1865.8355613399201</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1827.48962894791</c:v>
+                  <c:v>1866.1606313700399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1828.33206244543</c:v>
+                  <c:v>1866.5440161382301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1829.1498138985801</c:v>
+                  <c:v>1866.7903906517499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1829.94438480495</c:v>
+                  <c:v>1867.21504461788</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1830.70714843421</c:v>
+                  <c:v>1867.80721763478</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1831.44383287716</c:v>
+                  <c:v>1868.59805288132</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1832.07700851914</c:v>
+                  <c:v>1870.10032126589</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1832.6889456737199</c:v>
+                  <c:v>1870.19031161421</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1833.27099962594</c:v>
+                  <c:v>1867.8320182103701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1833.69538440163</c:v>
+                  <c:v>1866.1983316184001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1833.9283134412899</c:v>
+                  <c:v>1864.9175275308401</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1834.23918064949</c:v>
+                  <c:v>1863.4332058519001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1834.31138354991</c:v>
+                  <c:v>1862.9686113085099</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1834.22385659784</c:v>
+                  <c:v>1863.2109748009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1833.93736706594</c:v>
+                  <c:v>1862.9115674085101</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1833.42356782605</c:v>
+                  <c:v>1862.40521809292</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1832.8507522954301</c:v>
+                  <c:v>1860.4491776745799</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1831.63049238688</c:v>
+                  <c:v>1860.48771468414</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1830.6774215267201</c:v>
+                  <c:v>1859.0974178727399</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1829.4897040455601</c:v>
+                  <c:v>1856.2286238701699</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1827.89625489421</c:v>
+                  <c:v>1853.5240444590099</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1825.9853932389401</c:v>
+                  <c:v>1857.34795919875</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1823.9610357799399</c:v>
+                  <c:v>1848.1531172089101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1821.9267078276</c:v>
+                  <c:v>1845.8675779883799</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1820.14156474071</c:v>
+                  <c:v>1844.7465668192201</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1818.7042645689401</c:v>
+                  <c:v>1843.9181934043299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1817.67077654788</c:v>
+                  <c:v>1842.97605425854</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1817.0160045904399</c:v>
+                  <c:v>1841.4017903848001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1816.63066529141</c:v>
+                  <c:v>1840.4566803176999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1816.2300425866899</c:v>
+                  <c:v>1839.19551643113</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1815.0859054346099</c:v>
+                  <c:v>1836.7000095062999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1811.1431846381799</c:v>
+                  <c:v>1832.0745124909899</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1795.2527030034601</c:v>
+                  <c:v>1815.55771199844</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1708.7871303899301</c:v>
+                  <c:v>1727.4826528097501</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1367.0960423517399</c:v>
+                  <c:v>1380.7692127386699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -9862,193 +9899,193 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.2006775708501</c:v>
+                  <c:v>1689.1992887400099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2353.4264741141401</c:v>
+                  <c:v>2353.7259991914402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2293.1228740403399</c:v>
+                  <c:v>2293.4806862851301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2241.7987000623202</c:v>
+                  <c:v>2242.6842438737599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2232.2110888475299</c:v>
+                  <c:v>2233.5013800503202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2245.8141728405199</c:v>
+                  <c:v>2246.7898537489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2254.0021579919598</c:v>
+                  <c:v>2254.5290737054402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2252.2229416154</c:v>
+                  <c:v>2252.5993090633701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2243.5689887117201</c:v>
+                  <c:v>2243.9305411670898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019.6713033992801</c:v>
+                  <c:v>2019.98266002438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1921.2330657438799</c:v>
+                  <c:v>1921.42660474388</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1909.3400371407699</c:v>
+                  <c:v>1909.5000431190399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1908.94274497079</c:v>
+                  <c:v>1909.09493141861</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1908.78698482867</c:v>
+                  <c:v>1908.9374371459101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1908.6279126761499</c:v>
+                  <c:v>1908.7785083408501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1908.5483798626201</c:v>
+                  <c:v>1908.69991779003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1908.5508930092001</c:v>
+                  <c:v>1908.7039398353299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908.66575278869</c:v>
+                  <c:v>1908.8208701419101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1909.07234590194</c:v>
+                  <c:v>1909.23033603149</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1910.48975224834</c:v>
+                  <c:v>1910.6520130941401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1915.96676288597</c:v>
+                  <c:v>1916.13614533848</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1779.0396825395301</c:v>
+                  <c:v>1779.1039303616101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1779.6531527086499</c:v>
+                  <c:v>1779.7115069725801</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1782.3490812252301</c:v>
+                  <c:v>1782.4291180468899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1784.18692796648</c:v>
+                  <c:v>1784.29905850707</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1785.92271077228</c:v>
+                  <c:v>1786.07363253375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1787.8409677765201</c:v>
+                  <c:v>1788.0368677080401</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1790.04148800179</c:v>
+                  <c:v>1790.2887417910499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1792.5816936021199</c:v>
+                  <c:v>1792.88701340644</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1795.5115955751801</c:v>
+                  <c:v>1795.88185239579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1798.88066645903</c:v>
+                  <c:v>1799.3226784558899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1802.73774086611</c:v>
+                  <c:v>1803.2579489417401</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1807.12915204162</c:v>
+                  <c:v>1807.7331186305701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1812.0958428112399</c:v>
+                  <c:v>1812.7878796422899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1817.6702710057</c:v>
+                  <c:v>1818.4529570229899</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1823.87311271046</c:v>
+                  <c:v>1824.7468945509399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1830.7104724318201</c:v>
+                  <c:v>1831.6733061243499</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1838.1718005249099</c:v>
+                  <c:v>1839.2191497854899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1846.2289127567699</c:v>
+                  <c:v>1847.3538574357101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1854.8360821031899</c:v>
+                  <c:v>1856.02961713373</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1863.9303973559199</c:v>
+                  <c:v>1865.18201684938</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1873.43160020038</c:v>
+                  <c:v>1874.7296851762601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1883.23920783463</c:v>
+                  <c:v>1884.5717076523899</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1893.22571296246</c:v>
+                  <c:v>1894.5805092235901</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1903.2233817931799</c:v>
+                  <c:v>1904.58889239018</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1913.0036179285601</c:v>
+                  <c:v>1914.3695590227601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1922.2481389832799</c:v>
+                  <c:v>1923.60653257015</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1930.51447595537</c:v>
+                  <c:v>1931.8604741346401</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1937.2045244256999</c:v>
+                  <c:v>1938.53582200965</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1941.5557970444199</c:v>
+                  <c:v>1942.8683558412099</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1942.68192974014</c:v>
+                  <c:v>1943.9596642690301</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1939.6667233773401</c:v>
+                  <c:v>1940.86627751776</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1931.6451011219301</c:v>
+                  <c:v>1932.68581438615</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1917.7653301422499</c:v>
+                  <c:v>1918.5416707658001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1897.17835728092</c:v>
+                  <c:v>1897.60475104536</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1869.7999371757701</c:v>
+                  <c:v>1869.8762918600501</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1838.2739545726299</c:v>
+                  <c:v>1838.1254227926499</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1808.6419325189499</c:v>
+                  <c:v>1808.45441312348</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1786.55898093874</c:v>
+                  <c:v>1786.44689986144</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1773.1564217125101</c:v>
+                  <c:v>1773.1296596463999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1689.19581352716</c:v>
+                  <c:v>1689.20028187495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-289D-4A3D-B0A6-1E81BBB38AE5}"/>
             </c:ext>
@@ -10115,7 +10152,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10124,6 +10160,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10215,7 +10271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10224,6 +10279,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10276,7 +10351,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10308,14 +10382,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10351,7 +10425,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10788,7 +10862,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11191,7 +11265,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11235,7 +11309,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12444,7 +12517,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12480,7 +12553,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12516,7 +12589,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12552,7 +12625,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12616,7 +12689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12649,9 +12722,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12684,6 +12774,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12859,7 +12966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14744,7 +14851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
@@ -21842,7 +21949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23503,7 +23610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28430,7 +28537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33337,11 +33444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41694,11 +41801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42087,10 +42194,10 @@
       </c>
       <c r="B4">
         <f>G4-273.15</f>
-        <v>55.193186154962007</v>
+        <v>55.211954912543035</v>
       </c>
       <c r="C4">
-        <v>42.770640332440799</v>
+        <v>46.043582630709402</v>
       </c>
       <c r="D4">
         <v>-56.320303516089979</v>
@@ -42102,7 +42209,7 @@
         <v>576</v>
       </c>
       <c r="G4">
-        <v>328.34318615496198</v>
+        <v>328.36195491254301</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -42111,10 +42218,10 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
-        <v>55.275529971719038</v>
+        <v>55.292836925387007</v>
       </c>
       <c r="C5">
-        <v>44.906728683645397</v>
+        <v>48.171534442983898</v>
       </c>
       <c r="D5">
         <v>38.193361251056047</v>
@@ -42126,7 +42233,7 @@
         <v>576</v>
       </c>
       <c r="G5">
-        <v>328.42552997171902</v>
+        <v>328.44283692538698</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -42135,10 +42242,10 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>66.171702346206018</v>
+        <v>66.214295825362001</v>
       </c>
       <c r="C6">
-        <v>45.434369618188803</v>
+        <v>48.637331111067702</v>
       </c>
       <c r="D6">
         <v>41.090547455847002</v>
@@ -42150,7 +42257,7 @@
         <v>577.34577656750002</v>
       </c>
       <c r="G6">
-        <v>339.321702346206</v>
+        <v>339.36429582536198</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -42159,10 +42266,10 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>80.502845695615008</v>
+        <v>80.529962828755004</v>
       </c>
       <c r="C7">
-        <v>45.695753646172797</v>
+        <v>48.837399453558803</v>
       </c>
       <c r="D7">
         <v>42.683472646772998</v>
@@ -42174,7 +42281,7 @@
         <v>578.69155313500096</v>
       </c>
       <c r="G7">
-        <v>353.65284569561499</v>
+        <v>353.67996282875498</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -42183,10 +42290,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>91.335496655107022</v>
+        <v>91.277272602916014</v>
       </c>
       <c r="C8">
-        <v>45.8871277101563</v>
+        <v>48.968482363985501</v>
       </c>
       <c r="D8">
         <v>43.700336082280046</v>
@@ -42198,7 +42305,7 @@
         <v>580.03732970250098</v>
       </c>
       <c r="G8">
-        <v>364.485496655107</v>
+        <v>364.42727260291599</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -42207,10 +42314,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>94.599134823680004</v>
+        <v>94.462033709883997</v>
       </c>
       <c r="C9">
-        <v>46.054600563038697</v>
+        <v>49.076951638003301</v>
       </c>
       <c r="D9">
         <v>44.433766393363044</v>
@@ -42222,7 +42329,7 @@
         <v>581.38310627000101</v>
       </c>
       <c r="G9">
-        <v>367.74913482367998</v>
+        <v>367.61203370988397</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -42231,10 +42338,10 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>93.04313172996001</v>
+        <v>92.912293574214004</v>
       </c>
       <c r="C10">
-        <v>46.227242331734502</v>
+        <v>49.192221563876203</v>
       </c>
       <c r="D10">
         <v>45.052189542353005</v>
@@ -42246,7 +42353,7 @@
         <v>582.72888283750103</v>
       </c>
       <c r="G10">
-        <v>366.19313172995999</v>
+        <v>366.06229357421398</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -42255,10 +42362,10 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>91.247003874183008</v>
+        <v>91.174148371816045</v>
       </c>
       <c r="C11">
-        <v>46.477138698471101</v>
+        <v>49.388229804275099</v>
       </c>
       <c r="D11">
         <v>45.925173698365995</v>
@@ -42270,7 +42377,7 @@
         <v>584.07465940500197</v>
       </c>
       <c r="G11">
-        <v>364.39700387418299</v>
+        <v>364.32414837181602</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -42279,10 +42386,10 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>91.462626656889995</v>
+        <v>91.436173370481015</v>
       </c>
       <c r="C12">
-        <v>47.285981535291597</v>
+        <v>50.151837894986798</v>
       </c>
       <c r="D12">
         <v>57.162165059149004</v>
@@ -42294,7 +42401,7 @@
         <v>585.42043597250199</v>
       </c>
       <c r="G12">
-        <v>364.61262665688997</v>
+        <v>364.58617337048099</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -42303,10 +42410,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>94.818425527215027</v>
+        <v>94.817419698834044</v>
       </c>
       <c r="C13">
-        <v>52.222918010638701</v>
+        <v>54.9799937069698</v>
       </c>
       <c r="D13">
         <v>56.38363116830601</v>
@@ -42318,7 +42425,7 @@
         <v>586.76621254000202</v>
       </c>
       <c r="G13">
-        <v>367.968425527215</v>
+        <v>367.96741969883402</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -42327,10 +42434,10 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>131.20148440301404</v>
+        <v>131.21500273644904</v>
       </c>
       <c r="C14">
-        <v>52.7741896013844</v>
+        <v>55.475286124278298</v>
       </c>
       <c r="D14">
         <v>55.670979408920005</v>
@@ -42342,7 +42449,7 @@
         <v>588.11198910750204</v>
       </c>
       <c r="G14">
-        <v>404.35148440301401</v>
+        <v>404.36500273644901</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -42351,10 +42458,10 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>150.80587749779204</v>
+        <v>150.82938035428504</v>
       </c>
       <c r="C15">
-        <v>53.037096580507601</v>
+        <v>55.681952080612703</v>
       </c>
       <c r="D15">
         <v>55.072505189478022</v>
@@ -42366,7 +42473,7 @@
         <v>589.45776567500297</v>
       </c>
       <c r="G15">
-        <v>423.95587749779202</v>
+        <v>423.97938035428501</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -42375,10 +42482,10 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>157.24439283311403</v>
+        <v>157.27041696608103</v>
       </c>
       <c r="C16">
-        <v>53.184739001984099</v>
+        <v>55.772428049256199</v>
       </c>
       <c r="D16">
         <v>54.615427716075999</v>
@@ -42390,7 +42497,7 @@
         <v>590.803542242503</v>
       </c>
       <c r="G16">
-        <v>430.39439283311401</v>
+        <v>430.42041696608101</v>
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
@@ -42399,10 +42506,10 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>159.15381049215802</v>
+        <v>159.17987485826001</v>
       </c>
       <c r="C17">
-        <v>53.285389833478398</v>
+        <v>55.815322520011698</v>
       </c>
       <c r="D17">
         <v>54.288999898732015</v>
@@ -42414,7 +42521,7 @@
         <v>592.14931881000302</v>
       </c>
       <c r="G17">
-        <v>432.30381049215799</v>
+        <v>432.32987485825998</v>
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
@@ -42423,10 +42530,10 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>159.797580888867</v>
+        <v>159.82304846346403</v>
       </c>
       <c r="C18">
-        <v>53.365235835489202</v>
+        <v>55.837119346028203</v>
       </c>
       <c r="D18">
         <v>54.018593741952998</v>
@@ -42438,7 +42545,7 @@
         <v>593.49509537750305</v>
       </c>
       <c r="G18">
-        <v>432.94758088886698</v>
+        <v>432.97304846346401</v>
       </c>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
@@ -42447,10 +42554,10 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>160.07720117867001</v>
+        <v>160.10183056294903</v>
       </c>
       <c r="C19">
-        <v>53.433699775111101</v>
+        <v>55.847558602984101</v>
       </c>
       <c r="D19">
         <v>53.632743446529048</v>
@@ -42462,7 +42569,7 @@
         <v>594.84087194500398</v>
       </c>
       <c r="G19">
-        <v>433.22720117866999</v>
+        <v>433.25183056294901</v>
       </c>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
@@ -42471,10 +42578,10 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>160.23821418583401</v>
+        <v>160.26183774173302</v>
       </c>
       <c r="C20">
-        <v>53.493682430376502</v>
+        <v>55.849676477742896</v>
       </c>
       <c r="D20">
         <v>52.875355421007043</v>
@@ -42486,7 +42593,7 @@
         <v>596.18664851250401</v>
       </c>
       <c r="G20">
-        <v>433.38821418583399</v>
+        <v>433.411837741733</v>
       </c>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
@@ -42495,10 +42602,10 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>160.35368998944801</v>
+        <v>160.37612666785702</v>
       </c>
       <c r="C21">
-        <v>53.5451659713354</v>
+        <v>55.843548999819603</v>
       </c>
       <c r="D21">
         <v>51.594026176631019</v>
@@ -42510,7 +42617,7 @@
         <v>597.53242508000403</v>
       </c>
       <c r="G21">
-        <v>433.50368998944799</v>
+        <v>433.526126667857</v>
       </c>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
@@ -42519,10 +42626,10 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>160.44426818788105</v>
+        <v>160.46531682312502</v>
       </c>
       <c r="C22">
-        <v>53.586199327556201</v>
+        <v>55.827340623791699</v>
       </c>
       <c r="D22">
         <v>50.025565339625018</v>
@@ -42534,7 +42641,7 @@
         <v>598.87820164750406</v>
       </c>
       <c r="G22">
-        <v>433.59426818788103</v>
+        <v>433.615316823125</v>
       </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
@@ -42543,10 +42650,10 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>160.49593423903002</v>
+        <v>160.51536013782004</v>
       </c>
       <c r="C23">
-        <v>53.611292230714497</v>
+        <v>55.795734063302604</v>
       </c>
       <c r="D23">
         <v>48.646492673457033</v>
@@ -42558,7 +42665,7 @@
         <v>600.22397821500499</v>
       </c>
       <c r="G23">
-        <v>433.64593423903</v>
+        <v>433.66536013782002</v>
       </c>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
@@ -42567,10 +42674,10 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>160.40435691773905</v>
+        <v>160.42190527021904</v>
       </c>
       <c r="C24">
-        <v>53.595120146984797</v>
+        <v>55.723509688218201</v>
       </c>
       <c r="D24">
         <v>47.649799822271007</v>
@@ -42582,7 +42689,7 @@
         <v>601.56975478250502</v>
       </c>
       <c r="G24">
-        <v>433.55435691773903</v>
+        <v>433.57190527021902</v>
       </c>
       <c r="H24">
         <v>0.57599999999999996</v>
@@ -42777,10 +42884,10 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>159.604998281598</v>
+        <v>159.62055509388404</v>
       </c>
       <c r="C25">
-        <v>53.267428832761397</v>
+        <v>55.344109407954399</v>
       </c>
       <c r="D25">
         <v>47.107385261357024</v>
@@ -42792,7 +42899,7 @@
         <v>602.91553135000504</v>
       </c>
       <c r="G25">
-        <v>432.75499828159798</v>
+        <v>432.77055509388401</v>
       </c>
       <c r="H25">
         <f>H24*1000</f>
@@ -43049,10 +43156,10 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>175.73076744973702</v>
+        <v>175.748939415812</v>
       </c>
       <c r="C26">
-        <v>53.365305779651798</v>
+        <v>55.385015614794</v>
       </c>
       <c r="D26">
         <v>46.833109645545051</v>
@@ -43064,7 +43171,7 @@
         <v>604.26130791750495</v>
       </c>
       <c r="G26">
-        <v>448.88076744973699</v>
+        <v>448.89893941581198</v>
       </c>
       <c r="H26">
         <v>576</v>
@@ -43259,10 +43366,10 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>179.85845913589003</v>
+        <v>179.871709248424</v>
       </c>
       <c r="C27">
-        <v>53.458887326907899</v>
+        <v>55.4219035266308</v>
       </c>
       <c r="D27">
         <v>46.704258559644018</v>
@@ -43274,7 +43381,7 @@
         <v>605.607084485006</v>
       </c>
       <c r="G27">
-        <v>453.00845913589001</v>
+        <v>453.02170924842397</v>
       </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
@@ -43283,10 +43390,10 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>180.65923934280903</v>
+        <v>180.66559617817404</v>
       </c>
       <c r="C28">
-        <v>53.550750035862102</v>
+        <v>55.457441572728499</v>
       </c>
       <c r="D28">
         <v>46.650516776741028</v>
@@ -43298,7 +43405,7 @@
         <v>606.95286105250602</v>
       </c>
       <c r="G28">
-        <v>453.80923934280901</v>
+        <v>453.81559617817402</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -43307,10 +43414,10 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>180.63807000815905</v>
+        <v>180.63642715513703</v>
       </c>
       <c r="C29">
-        <v>53.642366339583504</v>
+        <v>55.492807114889303</v>
       </c>
       <c r="D29">
         <v>46.635361923277003</v>
@@ -43322,7 +43429,7 @@
         <v>608.29863762000605</v>
       </c>
       <c r="G29">
-        <v>453.78807000815902</v>
+        <v>453.78642715513701</v>
       </c>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
@@ -43331,10 +43438,10 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>180.38596918284901</v>
+        <v>180.37513305842901</v>
       </c>
       <c r="C30">
-        <v>53.734252450157399</v>
+        <v>55.528481248985301</v>
       </c>
       <c r="D30">
         <v>46.640282659233037</v>
@@ -43346,7 +43453,7 @@
         <v>609.64441418750596</v>
       </c>
       <c r="G30">
-        <v>453.53596918284899</v>
+        <v>453.52513305842899</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -43355,10 +43462,10 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>180.030884942412</v>
+        <v>180.00946750342803</v>
       </c>
       <c r="C31">
-        <v>53.826807556226598</v>
+        <v>55.564954097481298</v>
       </c>
       <c r="D31">
         <v>46.655906154215018</v>
@@ -43370,7 +43477,7 @@
         <v>610.99019075500701</v>
       </c>
       <c r="G31">
-        <v>453.18088494241198</v>
+        <v>453.159467503428</v>
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
@@ -43379,10 +43486,10 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>179.59369828403004</v>
+        <v>179.560163965821</v>
       </c>
       <c r="C32">
-        <v>53.920447504538302</v>
+        <v>55.603125646644301</v>
       </c>
       <c r="D32">
         <v>46.67739400118603</v>
@@ -43394,7 +43501,7 @@
         <v>612.33596732250703</v>
       </c>
       <c r="G32">
-        <v>452.74369828403002</v>
+        <v>452.71016396582098</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -43403,10 +43510,10 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>179.07013778984503</v>
+        <v>179.02281691730002</v>
       </c>
       <c r="C33">
-        <v>54.015555486012403</v>
+        <v>55.642535222350503</v>
       </c>
       <c r="D33">
         <v>46.702187670767046</v>
@@ -43418,7 +43525,7 @@
         <v>613.68174389000706</v>
       </c>
       <c r="G33">
-        <v>452.22013778984501</v>
+        <v>452.1728169173</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -43427,10 +43534,10 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>178.44952156245705</v>
+        <v>178.38666399419304</v>
       </c>
       <c r="C34">
-        <v>54.112629436428101</v>
+        <v>55.683784575349698</v>
       </c>
       <c r="D34">
         <v>46.728925569354999</v>
@@ -43442,7 +43549,7 @@
         <v>615.02752045750697</v>
       </c>
       <c r="G34">
-        <v>451.59952156245703</v>
+        <v>451.53666399419302</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -43451,10 +43558,10 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>177.71919628083702</v>
+        <v>177.63903175890403</v>
       </c>
       <c r="C35">
-        <v>54.212261052956897</v>
+        <v>55.7275335971472</v>
       </c>
       <c r="D35">
         <v>46.756860403717042</v>
@@ -43466,7 +43573,7 @@
         <v>616.37329702500801</v>
       </c>
       <c r="G35">
-        <v>450.869196280837</v>
+        <v>450.789031758904</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -43475,10 +43582,10 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>176.86593865454205</v>
+        <v>176.766723743081</v>
       </c>
       <c r="C36">
-        <v>54.315430223097003</v>
+        <v>55.773600524469003</v>
       </c>
       <c r="D36">
         <v>46.785567863286019</v>
@@ -43490,7 +43597,7 @@
         <v>617.71907359250804</v>
       </c>
       <c r="G36">
-        <v>450.01593865454203</v>
+        <v>449.91672374308098</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -43499,10 +43606,10 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>175.87672655880505</v>
+        <v>175.75688546001902</v>
       </c>
       <c r="C37">
-        <v>54.422870035450302</v>
+        <v>55.829560982055902</v>
       </c>
       <c r="D37">
         <v>46.814832626283021</v>
@@ -43514,7 +43621,7 @@
         <v>619.06485016000795</v>
       </c>
       <c r="G37">
-        <v>449.02672655880502</v>
+        <v>448.906885460019</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -43523,10 +43630,10 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>174.73963086903103</v>
+        <v>174.59788282811604</v>
       </c>
       <c r="C38">
-        <v>54.535894156153603</v>
+        <v>55.898871370666399</v>
       </c>
       <c r="D38">
         <v>46.844547031820014</v>
@@ -43538,7 +43645,7 @@
         <v>620.41062672750797</v>
       </c>
       <c r="G38">
-        <v>447.88963086903101</v>
+        <v>447.74788282811602</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -43547,10 +43654,10 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>173.44482128918202</v>
+        <v>173.28034152686604</v>
       </c>
       <c r="C39">
-        <v>54.6564934271765</v>
+        <v>55.974034854856797</v>
       </c>
       <c r="D39">
         <v>46.874679414928039</v>
@@ -43562,7 +43669,7 @@
         <v>621.75640329500902</v>
       </c>
       <c r="G39">
-        <v>446.59482128918199</v>
+        <v>446.43034152686602</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -43571,10 +43678,10 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>171.985800167918</v>
+        <v>171.798360696435</v>
       </c>
       <c r="C40">
-        <v>54.786753279440603</v>
+        <v>56.059174593141798</v>
       </c>
       <c r="D40">
         <v>46.905248774588017</v>
@@ -43586,7 +43693,7 @@
         <v>623.10217986250905</v>
       </c>
       <c r="G40">
-        <v>445.13580016791798</v>
+        <v>444.94836069643497</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -43595,10 +43702,10 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>170.36071007549805</v>
+        <v>170.15087415874001</v>
       </c>
       <c r="C41">
-        <v>54.928499217312897</v>
+        <v>56.158400420386101</v>
       </c>
       <c r="D41">
         <v>46.936337439715999</v>
@@ -43610,7 +43717,7 @@
         <v>624.44795643000896</v>
       </c>
       <c r="G41">
-        <v>443.51071007549803</v>
+        <v>443.30087415873999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -43619,10 +43726,10 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>168.573634675145</v>
+        <v>168.34287752807103</v>
       </c>
       <c r="C42">
-        <v>55.085919669328597</v>
+        <v>56.272140186739399</v>
       </c>
       <c r="D42">
         <v>46.968072070180995</v>
@@ -43634,7 +43741,7 @@
         <v>625.79373299750898</v>
       </c>
       <c r="G42">
-        <v>441.72363467514498</v>
+        <v>441.49287752807101</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -43643,10 +43750,10 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>166.63575877845301</v>
+        <v>166.386521211267</v>
       </c>
       <c r="C43">
-        <v>55.262767148063098</v>
+        <v>56.405981867150601</v>
       </c>
       <c r="D43">
         <v>47.000636322796026</v>
@@ -43658,7 +43765,7 @@
         <v>627.13950956501003</v>
       </c>
       <c r="G43">
-        <v>439.78575877845299</v>
+        <v>439.53652121126697</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -43667,10 +43774,10 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>164.56612606942701</v>
+        <v>164.30183460414401</v>
       </c>
       <c r="C44">
-        <v>55.464027048942299</v>
+        <v>56.568995115090601</v>
       </c>
       <c r="D44">
         <v>47.034302516282025</v>
@@ -43682,7 +43789,7 @@
         <v>628.48528613251005</v>
       </c>
       <c r="G44">
-        <v>437.71612606942699</v>
+        <v>437.45183460414398</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -43691,10 +43798,10 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>162.39202131927004</v>
+        <v>162.11690714061302</v>
       </c>
       <c r="C45">
-        <v>55.695565995082703</v>
+        <v>56.7667675369892</v>
       </c>
       <c r="D45">
         <v>47.069425298274041</v>
@@ -43706,7 +43813,7 @@
         <v>629.83106270000997</v>
       </c>
       <c r="G45">
-        <v>435.54202131927002</v>
+        <v>435.266907140613</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -43715,10 +43822,10 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>160.14874910414204</v>
+        <v>159.86767371594902</v>
       </c>
       <c r="C46">
-        <v>55.963697502665099</v>
+        <v>57.009759387807499</v>
       </c>
       <c r="D46">
         <v>47.106485976279032</v>
@@ -43730,7 +43837,7 @@
         <v>631.17683926750999</v>
       </c>
       <c r="G46">
-        <v>433.29874910414202</v>
+        <v>433.017673715949</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -43739,10 +43846,10 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>157.879231473804</v>
+        <v>157.59727766215804</v>
       </c>
       <c r="C47">
-        <v>56.277528443496102</v>
+        <v>57.295867897514803</v>
       </c>
       <c r="D47">
         <v>47.146136848628998</v>
@@ -43754,7 +43861,7 @@
         <v>632.52261583501104</v>
       </c>
       <c r="G47">
-        <v>431.02923147380397</v>
+        <v>430.74727766215801</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -43763,10 +43870,10 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>155.63351844847205</v>
+        <v>155.35557453930403</v>
       </c>
       <c r="C48">
-        <v>56.642283785163599</v>
+        <v>57.642965543990599</v>
       </c>
       <c r="D48">
         <v>47.189239202440035</v>
@@ -43778,7 +43885,7 @@
         <v>633.86839240251095</v>
       </c>
       <c r="G48">
-        <v>428.78351844847202</v>
+        <v>428.50557453930401</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -43787,10 +43894,10 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>153.46894895136404</v>
+        <v>153.199219307303</v>
       </c>
       <c r="C49">
-        <v>57.067212727468302</v>
+        <v>58.057429399797101</v>
       </c>
       <c r="D49">
         <v>47.23695197552405</v>
@@ -43802,7 +43909,7 @@
         <v>635.21416897001097</v>
       </c>
       <c r="G49">
-        <v>426.61894895136402</v>
+        <v>426.34921930730297</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -43811,10 +43918,10 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>151.45139133036105</v>
+        <v>151.19291355311901</v>
       </c>
       <c r="C50">
-        <v>57.559184555381201</v>
+        <v>58.538835291702597</v>
       </c>
       <c r="D50">
         <v>47.29079508632401</v>
@@ -43826,7 +43933,7 @@
         <v>636.559945537511</v>
       </c>
       <c r="G50">
-        <v>424.60139133036103</v>
+        <v>424.34291355311899</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -43835,10 +43942,10 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>149.65791215598603</v>
+        <v>149.41214804947401</v>
       </c>
       <c r="C51">
-        <v>58.121686948638697</v>
+        <v>59.073670614655398</v>
       </c>
       <c r="D51">
         <v>47.352814091742005</v>
@@ -43850,7 +43957,7 @@
         <v>637.90572210501205</v>
       </c>
       <c r="G51">
-        <v>422.807912155986</v>
+        <v>422.56214804947399</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -43859,10 +43966,10 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>148.18024297654603</v>
+        <v>147.94691090881804</v>
       </c>
       <c r="C52">
-        <v>58.753885163261202</v>
+        <v>59.710782824925303</v>
       </c>
       <c r="D52">
         <v>47.42576384395403</v>
@@ -43874,7 +43981,7 @@
         <v>639.25149867251196</v>
       </c>
       <c r="G52">
-        <v>421.330242976546</v>
+        <v>421.09691090881802</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -43883,10 +43990,10 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>147.12702666819104</v>
+        <v>146.90449719727002</v>
       </c>
       <c r="C53">
-        <v>59.449971212343797</v>
+        <v>60.384127439959002</v>
       </c>
       <c r="D53">
         <v>47.51333647817404</v>
@@ -43898,7 +44005,7 @@
         <v>640.59727524001198</v>
       </c>
       <c r="G53">
-        <v>420.27702666819101</v>
+        <v>420.05449719727</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -43907,10 +44014,10 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>146.62137662470303</v>
+        <v>146.40807395279404</v>
       </c>
       <c r="C54">
-        <v>60.197818620175902</v>
+        <v>61.096293131063398</v>
       </c>
       <c r="D54">
         <v>47.620642720163005</v>
@@ -43922,7 +44029,7 @@
         <v>641.94305180751201</v>
       </c>
       <c r="G54">
-        <v>419.77137662470301</v>
+        <v>419.55807395279402</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -43931,10 +44038,10 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>146.79107998907602</v>
+        <v>146.58803676664803</v>
       </c>
       <c r="C55">
-        <v>60.9803601345698</v>
+        <v>61.830301439656402</v>
       </c>
       <c r="D55">
         <v>47.754895849526008</v>
@@ -43946,7 +44053,7 @@
         <v>643.28882837501305</v>
       </c>
       <c r="G55">
-        <v>419.941079989076</v>
+        <v>419.73803676664801</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -43955,10 +44062,10 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>147.75614549815703</v>
+        <v>147.570033720136</v>
       </c>
       <c r="C56">
-        <v>61.777024756998799</v>
+        <v>62.5657958466808</v>
       </c>
       <c r="D56">
         <v>47.926665632427046</v>
@@ -43970,7 +44077,7 @@
         <v>644.63460494251296</v>
       </c>
       <c r="G56">
-        <v>420.906145498157</v>
+        <v>420.72003372013597</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -43979,10 +44086,10 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>149.63075478971001</v>
+        <v>149.47520007789103</v>
       </c>
       <c r="C57">
-        <v>62.567025428430597</v>
+        <v>63.283943278721601</v>
       </c>
       <c r="D57">
         <v>48.15236718803601</v>
@@ -43994,7 +44101,7 @@
         <v>645.98038151001299</v>
       </c>
       <c r="G57">
-        <v>422.78075478970999</v>
+        <v>422.62520007789101</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -44003,10 +44110,10 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>152.55330314338204</v>
+        <v>152.44568621218201</v>
       </c>
       <c r="C58">
-        <v>63.333913811673902</v>
+        <v>63.966767795580502</v>
       </c>
       <c r="D58">
         <v>48.459213389456011</v>
@@ -44018,7 +44125,7 @@
         <v>647.32615807751301</v>
       </c>
       <c r="G58">
-        <v>425.70330314338202</v>
+        <v>425.59568621218199</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -44027,10 +44134,10 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>156.69967641532401</v>
+        <v>156.65297245085202</v>
       </c>
       <c r="C59">
-        <v>64.072470274829399</v>
+        <v>64.614439781489594</v>
       </c>
       <c r="D59">
         <v>48.896044282615037</v>
@@ -44042,7 +44149,7 @@
         <v>648.67193464501395</v>
       </c>
       <c r="G59">
-        <v>429.84967641532398</v>
+        <v>429.802972450852</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -44051,10 +44158,10 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>162.142408242822</v>
+        <v>162.15515544116505</v>
       </c>
       <c r="C60">
-        <v>64.801247754856703</v>
+        <v>65.249609590819404</v>
       </c>
       <c r="D60">
         <v>49.558646394312007</v>
@@ -44066,7 +44173,7 @@
         <v>650.01771121251397</v>
       </c>
       <c r="G60">
-        <v>435.29240824282198</v>
+        <v>435.30515544116503</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -44075,10 +44182,10 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>168.52502634227301</v>
+        <v>168.57645770013301</v>
       </c>
       <c r="C61">
-        <v>65.592700236618299</v>
+        <v>65.944758620172394</v>
       </c>
       <c r="D61">
         <v>50.661993189156021</v>
@@ -44090,7 +44197,7 @@
         <v>651.363487780014</v>
       </c>
       <c r="G61">
-        <v>441.67502634227299</v>
+        <v>441.72645770013298</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -44099,10 +44206,10 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>174.97129326164702</v>
+        <v>175.03164296448205</v>
       </c>
       <c r="C62">
-        <v>66.6781824811154</v>
+        <v>66.935453844689704</v>
       </c>
       <c r="D62">
         <v>52.939407317339999</v>
@@ -44114,7 +44221,7 @@
         <v>652.70926434751402</v>
       </c>
       <c r="G62">
-        <v>448.121293261647</v>
+        <v>448.18164296448202</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -44123,10 +44230,10 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>180.62982892095999</v>
+        <v>180.67864512503104</v>
       </c>
       <c r="C63">
-        <v>69.045257790581402</v>
+        <v>69.210593338762493</v>
       </c>
       <c r="D63">
         <v>64.049333496392023</v>
@@ -44138,7 +44245,7 @@
         <v>654.05504091501496</v>
       </c>
       <c r="G63">
-        <v>453.77982892095997</v>
+        <v>453.82864512503102</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -44147,10 +44254,10 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>185.33612003028401</v>
+        <v>185.36799808442601</v>
       </c>
       <c r="C64">
-        <v>78.857783433238893</v>
+        <v>78.942378390062203</v>
       </c>
       <c r="E64">
         <v>652.45161290322596</v>
@@ -44159,7 +44266,7 @@
         <v>655.40081748251498</v>
       </c>
       <c r="G64">
-        <v>458.48612003028398</v>
+        <v>458.51799808442598</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -44168,10 +44275,10 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>190.43579732477701</v>
+        <v>190.45340602695904</v>
       </c>
       <c r="C65">
-        <v>118.513084445343</v>
+        <v>118.59490960456699</v>
       </c>
       <c r="E65">
         <v>655</v>
@@ -44180,7 +44287,7 @@
         <v>655.40081748251498</v>
       </c>
       <c r="G65">
-        <v>463.58579732477699</v>
+        <v>463.60340602695902</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -44222,13 +44329,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>376.20594616701197</v>
+        <v>376.211399330777</v>
       </c>
       <c r="E69" s="10">
-        <v>2.4412993835254299E-5</v>
+        <v>3.9516105327975499E-19</v>
       </c>
       <c r="G69">
-        <v>376.20015090111002</v>
+        <v>376.199841596017</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -44245,16 +44352,16 @@
         <v>1691.8542546532201</v>
       </c>
       <c r="D70">
-        <v>373.68388974274302</v>
+        <v>374.27882853649498</v>
       </c>
       <c r="E70">
-        <v>1689.19270119726</v>
+        <v>1689.25118409422</v>
       </c>
       <c r="G70">
-        <v>1040.4259474444</v>
+        <v>1040.72655204744</v>
       </c>
       <c r="H70">
-        <v>1689.2006775708501</v>
+        <v>1689.1992887400099</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -44268,16 +44375,16 @@
         <v>1711.6953188305599</v>
       </c>
       <c r="D71">
-        <v>371.74734818687898</v>
+        <v>372.71879442095297</v>
       </c>
       <c r="E71">
-        <v>1686.67064477299</v>
+        <v>1687.3186132999399</v>
       </c>
       <c r="G71">
-        <v>980.12234737059805</v>
+        <v>980.48123914113796</v>
       </c>
       <c r="H71">
-        <v>2353.4264741141401</v>
+        <v>2353.7259991914402</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -44291,16 +44398,16 @@
         <v>1710.04880400346</v>
       </c>
       <c r="D72">
-        <v>370.25149431975399</v>
+        <v>371.58533090607801</v>
       </c>
       <c r="E72">
-        <v>1684.73410321713</v>
+        <v>1685.7585791844001</v>
       </c>
       <c r="G72">
-        <v>928.79817339258102</v>
+        <v>929.68479672977003</v>
       </c>
       <c r="H72">
-        <v>2293.1228740403399</v>
+        <v>2293.4806862851301</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -44314,16 +44421,16 @@
         <v>1708.8656230384299</v>
       </c>
       <c r="D73">
-        <v>368.95599092697199</v>
+        <v>370.63961849127401</v>
       </c>
       <c r="E73">
-        <v>1683.2382493499999</v>
+        <v>1684.62511566952</v>
       </c>
       <c r="G73">
-        <v>919.21056217778698</v>
+        <v>920.50193290632797</v>
       </c>
       <c r="H73">
-        <v>2241.7987000623202</v>
+        <v>2242.6842438737599</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -44337,16 +44444,16 @@
         <v>1707.88887653446</v>
       </c>
       <c r="D74">
-        <v>367.60035166583702</v>
+        <v>369.61605307244002</v>
       </c>
       <c r="E74">
-        <v>1681.94274595722</v>
+        <v>1683.67940325472</v>
       </c>
       <c r="G74">
-        <v>932.813646170776</v>
+        <v>933.79040660491</v>
       </c>
       <c r="H74">
-        <v>2232.2110888475299</v>
+        <v>2233.5013800503202</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -44360,16 +44467,16 @@
         <v>1706.8593673497001</v>
       </c>
       <c r="D75">
-        <v>365.49442077250001</v>
+        <v>367.79680597044802</v>
       </c>
       <c r="E75">
-        <v>1680.5871066960799</v>
+        <v>1682.65583783588</v>
       </c>
       <c r="G75">
-        <v>941.00163132221496</v>
+        <v>941.52962656144405</v>
       </c>
       <c r="H75">
-        <v>2245.8141728405199</v>
+        <v>2246.7898537489</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -44383,16 +44490,16 @@
         <v>1705.0915724469701</v>
       </c>
       <c r="D76">
-        <v>358.092305576679</v>
+        <v>360.51295400656898</v>
       </c>
       <c r="E76">
-        <v>1678.4811758027499</v>
+        <v>1680.83659073389</v>
       </c>
       <c r="G76">
-        <v>939.22241494565696</v>
+        <v>939.59986191937298</v>
       </c>
       <c r="H76">
-        <v>2254.0021579919598</v>
+        <v>2254.5290737054402</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -44406,16 +44513,16 @@
         <v>1698.0225831979401</v>
       </c>
       <c r="D77">
-        <v>312.67562355114501</v>
+        <v>315.19681812677499</v>
       </c>
       <c r="E77">
-        <v>1671.0790606069299</v>
+        <v>1673.5527387700099</v>
       </c>
       <c r="G77">
-        <v>930.56846204197996</v>
+        <v>930.93109402309904</v>
       </c>
       <c r="H77">
-        <v>2252.2229416154</v>
+        <v>2252.5993090633701</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -44429,16 +44536,16 @@
         <v>1652.0514735777399</v>
       </c>
       <c r="D78">
-        <v>2107.3191858269101</v>
+        <v>2152.5343572327201</v>
       </c>
       <c r="E78">
-        <v>1625.6623785813899</v>
+        <v>1628.23660289022</v>
       </c>
       <c r="G78">
-        <v>2324.6707767295302</v>
+        <v>2324.9832128803901</v>
       </c>
       <c r="H78">
-        <v>2243.5689887117201</v>
+        <v>2243.9305411670898</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -44452,16 +44559,16 @@
         <v>1870.3717358291599</v>
       </c>
       <c r="D79">
-        <v>2112.1224015125199</v>
+        <v>2157.0348167501502</v>
       </c>
       <c r="E79">
-        <v>1802.6683890167899</v>
+        <v>1847.9365901557901</v>
       </c>
       <c r="G79">
-        <v>2226.2325390741298</v>
+        <v>2226.4271575998901</v>
       </c>
       <c r="H79">
-        <v>2019.6713033992801</v>
+        <v>2019.98266002438</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -44475,16 +44582,16 @@
         <v>1873.78027476441</v>
       </c>
       <c r="D80">
-        <v>2114.5340628737199</v>
+        <v>2159.06811719814</v>
       </c>
       <c r="E80">
-        <v>1807.4716047024001</v>
+        <v>1852.4370496732199</v>
       </c>
       <c r="G80">
-        <v>2214.3395104710198</v>
+        <v>2214.5005959750501</v>
       </c>
       <c r="H80">
-        <v>1921.2330657438799</v>
+        <v>1921.42660474388</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -44498,16 +44605,16 @@
         <v>1874.8600530676399</v>
       </c>
       <c r="D81">
-        <v>2116.00207703264</v>
+        <v>2160.1117741747798</v>
       </c>
       <c r="E81">
-        <v>1809.8832660636001</v>
+        <v>1854.47035012121</v>
       </c>
       <c r="G81">
-        <v>2213.9422183010502</v>
+        <v>2214.09548427461</v>
       </c>
       <c r="H81">
-        <v>1909.3400371407699</v>
+        <v>1909.5000431190399</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -44521,16 +44628,16 @@
         <v>1875.08660339375</v>
       </c>
       <c r="D82">
-        <v>2117.11709746305</v>
+        <v>2160.7757625059398</v>
       </c>
       <c r="E82">
-        <v>1811.35128022252</v>
+        <v>1855.51400709785</v>
       </c>
       <c r="G82">
-        <v>2213.7864581589301</v>
+        <v>2213.9379900019198</v>
       </c>
       <c r="H82">
-        <v>1908.94274497079</v>
+        <v>1909.09493141861</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -44544,16 +44651,16 @@
         <v>1875.0659731461301</v>
       </c>
       <c r="D83">
-        <v>2118.0922341943401</v>
+        <v>2161.3061854994899</v>
       </c>
       <c r="E83">
-        <v>1812.4663006529299</v>
+        <v>1856.17799542901</v>
       </c>
       <c r="G83">
-        <v>2213.6273860063998</v>
+        <v>2213.7790611968599</v>
       </c>
       <c r="H83">
-        <v>1908.78698482867</v>
+        <v>1908.9374371459101</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -44567,16 +44674,16 @@
         <v>1875.04169578438</v>
       </c>
       <c r="D84">
-        <v>2119.0469301267099</v>
+        <v>2161.8051927384399</v>
       </c>
       <c r="E84">
-        <v>1813.4414373842101</v>
+        <v>1856.70841842256</v>
       </c>
       <c r="G84">
-        <v>2213.5478531928802</v>
+        <v>2213.7004706460398</v>
       </c>
       <c r="H84">
-        <v>1908.6279126761499</v>
+        <v>1908.7785083408501</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -44590,16 +44697,16 @@
         <v>1875.11259816752</v>
       </c>
       <c r="D85">
-        <v>2120.0190339524802</v>
+        <v>2162.31874221617</v>
       </c>
       <c r="E85">
-        <v>1814.3961333165901</v>
+        <v>1857.2074256615099</v>
       </c>
       <c r="G85">
-        <v>2213.5503663394602</v>
+        <v>2213.70449269133</v>
       </c>
       <c r="H85">
-        <v>1908.5483798626201</v>
+        <v>1908.69991779003</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -44613,16 +44720,16 @@
         <v>1875.32146214</v>
       </c>
       <c r="D86">
-        <v>2121.0381634229402</v>
+        <v>2162.8775435124198</v>
       </c>
       <c r="E86">
-        <v>1815.3682371423599</v>
+        <v>1857.72097513925</v>
       </c>
       <c r="G86">
-        <v>2213.6652261189502</v>
+        <v>2213.8214229979199</v>
       </c>
       <c r="H86">
-        <v>1908.5508930092001</v>
+        <v>1908.7039398353299</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -44636,16 +44743,16 @@
         <v>1875.69330355493</v>
       </c>
       <c r="D87">
-        <v>2122.1640190712101</v>
+        <v>2163.5323400258499</v>
       </c>
       <c r="E87">
-        <v>1816.38736661282</v>
+        <v>1858.27977643549</v>
       </c>
       <c r="G87">
-        <v>2214.0718192321901</v>
+        <v>2214.23088888749</v>
       </c>
       <c r="H87">
-        <v>1908.66575278869</v>
+        <v>1908.8208701419101</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -44659,16 +44766,16 @@
         <v>1876.26936970265</v>
       </c>
       <c r="D88">
-        <v>2123.6736833434302</v>
+        <v>2164.5321711310899</v>
       </c>
       <c r="E88">
-        <v>1817.51322226109</v>
+        <v>1858.93457294892</v>
       </c>
       <c r="G88">
-        <v>2215.4892255785899</v>
+        <v>2215.6525659501399</v>
       </c>
       <c r="H88">
-        <v>1909.07234590194</v>
+        <v>1909.23033603149</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -44682,16 +44789,16 @@
         <v>1877.27995640223</v>
       </c>
       <c r="D89">
-        <v>2128.2602452360502</v>
+        <v>2168.64193934899</v>
       </c>
       <c r="E89">
-        <v>1819.0228865332999</v>
+        <v>1859.93440405416</v>
       </c>
       <c r="G89">
-        <v>2220.9662362162298</v>
+        <v>2221.1366981944798</v>
       </c>
       <c r="H89">
-        <v>1910.48975224834</v>
+        <v>1910.6520130941401</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -44705,16 +44812,16 @@
         <v>1881.43577877907</v>
       </c>
       <c r="D90">
-        <v>2230.8993250769799</v>
+        <v>2272.4360354092701</v>
       </c>
       <c r="E90">
-        <v>1823.6094484259299</v>
+        <v>1864.04417227206</v>
       </c>
       <c r="G90">
-        <v>2187.1391558697801</v>
+        <v>2187.2044832176198</v>
       </c>
       <c r="H90">
-        <v>1915.96676288597</v>
+        <v>1916.13614533848</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -44728,16 +44835,16 @@
         <v>1881.8671974174899</v>
       </c>
       <c r="D91">
-        <v>2231.8187947626602</v>
+        <v>2272.7708243638999</v>
       </c>
       <c r="E91">
-        <v>1823.11083383306</v>
+        <v>1864.7005738985399</v>
       </c>
       <c r="G91">
-        <v>2187.75262603891</v>
+        <v>2187.81205982859</v>
       </c>
       <c r="H91">
-        <v>1779.0396825395301</v>
+        <v>1779.1039303616101</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -44751,16 +44858,16 @@
         <v>1882.1787907151599</v>
       </c>
       <c r="D92">
-        <v>2232.6825835902901</v>
+        <v>2273.0550613996402</v>
       </c>
       <c r="E92">
-        <v>1824.0303035187401</v>
+        <v>1865.03536285317</v>
       </c>
       <c r="G92">
-        <v>2190.4485545554899</v>
+        <v>2190.5296709028898</v>
       </c>
       <c r="H92">
-        <v>1779.6531527086499</v>
+        <v>1779.7115069725801</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -44774,16 +44881,16 @@
         <v>1882.6229478903399</v>
       </c>
       <c r="D93">
-        <v>2233.5781759880902</v>
+        <v>2273.3118036149499</v>
       </c>
       <c r="E93">
-        <v>1824.8940923463699</v>
+        <v>1865.31959988891</v>
       </c>
       <c r="G93">
-        <v>2192.2864012967302</v>
+        <v>2192.3996113630801</v>
       </c>
       <c r="H93">
-        <v>1782.3490812252301</v>
+        <v>1782.4291180468899</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -44797,16 +44904,16 @@
         <v>1883.21039739762</v>
       </c>
       <c r="D94">
-        <v>2234.4316046188601</v>
+        <v>2273.57102285064</v>
       </c>
       <c r="E94">
-        <v>1825.78968474417</v>
+        <v>1865.57634210423</v>
       </c>
       <c r="G94">
-        <v>2194.02218410254</v>
+        <v>2194.1741853897602</v>
       </c>
       <c r="H94">
-        <v>1784.18692796648</v>
+        <v>1784.29905850707</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -44820,16 +44927,16 @@
         <v>1883.91914719071</v>
       </c>
       <c r="D95">
-        <v>2235.2781201918301</v>
+        <v>2273.8960928807701</v>
       </c>
       <c r="E95">
-        <v>1826.64311337494</v>
+        <v>1865.8355613399201</v>
       </c>
       <c r="G95">
-        <v>2195.9404411067799</v>
+        <v>2196.13742056404</v>
       </c>
       <c r="H95">
-        <v>1785.92271077228</v>
+        <v>1786.07363253375</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -44843,16 +44950,16 @@
         <v>1884.6963273043</v>
       </c>
       <c r="D96">
-        <v>2236.1205536893499</v>
+        <v>2274.27947764896</v>
       </c>
       <c r="E96">
-        <v>1827.48962894791</v>
+        <v>1866.1606313700399</v>
       </c>
       <c r="G96">
-        <v>2198.1409613320502</v>
+        <v>2198.3892946470501</v>
       </c>
       <c r="H96">
-        <v>1787.8409677765201</v>
+        <v>1788.0368677080401</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -44866,16 +44973,16 @@
         <v>1885.4518542931801</v>
       </c>
       <c r="D97">
-        <v>2236.9383051425002</v>
+        <v>2274.5258521624701</v>
       </c>
       <c r="E97">
-        <v>1828.33206244543</v>
+        <v>1866.5440161382301</v>
       </c>
       <c r="G97">
-        <v>2200.6811669323702</v>
+        <v>2200.9875662624499</v>
       </c>
       <c r="H97">
-        <v>1790.04148800179</v>
+        <v>1790.2887417910499</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -44889,16 +44996,16 @@
         <v>1886.05841788984</v>
       </c>
       <c r="D98">
-        <v>2237.7328760488699</v>
+        <v>2274.9505061286</v>
       </c>
       <c r="E98">
-        <v>1829.1498138985801</v>
+        <v>1866.7903906517499</v>
       </c>
       <c r="G98">
-        <v>2203.6110689054299</v>
+        <v>2203.9824052518002</v>
       </c>
       <c r="H98">
-        <v>1792.5816936021199</v>
+        <v>1792.88701340644</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -44912,16 +45019,16 @@
         <v>1886.3501508661</v>
       </c>
       <c r="D99">
-        <v>2238.4956396781299</v>
+        <v>2275.5426791455102</v>
       </c>
       <c r="E99">
-        <v>1829.94438480495</v>
+        <v>1867.21504461788</v>
       </c>
       <c r="G99">
-        <v>2206.9801397892802</v>
+        <v>2207.4232313119001</v>
       </c>
       <c r="H99">
-        <v>1795.5115955751801</v>
+        <v>1795.88185239579</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -44935,16 +45042,16 @@
         <v>1886.1074499184899</v>
       </c>
       <c r="D100">
-        <v>2239.2323241210802</v>
+        <v>2276.3335143920399</v>
       </c>
       <c r="E100">
-        <v>1830.70714843421</v>
+        <v>1867.80721763478</v>
       </c>
       <c r="G100">
-        <v>2210.83721419637</v>
+        <v>2211.3585017977498</v>
       </c>
       <c r="H100">
-        <v>1798.88066645903</v>
+        <v>1799.3226784558899</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -44958,16 +45065,16 @@
         <v>1885.2207502337801</v>
       </c>
       <c r="D101">
-        <v>2239.8654997630701</v>
+        <v>2277.8357827766099</v>
       </c>
       <c r="E101">
-        <v>1831.44383287716</v>
+        <v>1868.59805288132</v>
       </c>
       <c r="G101">
-        <v>2215.2286253718798</v>
+        <v>2215.83367148658</v>
       </c>
       <c r="H101">
-        <v>1802.73774086611</v>
+        <v>1803.2579489417401</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -44981,16 +45088,16 @@
         <v>1883.6894558722299</v>
       </c>
       <c r="D102">
-        <v>2240.4774369176498</v>
+        <v>2277.9257731249299</v>
       </c>
       <c r="E102">
-        <v>1832.07700851914</v>
+        <v>1870.10032126589</v>
       </c>
       <c r="G102">
-        <v>2220.1953161414999</v>
+        <v>2220.8884324983001</v>
       </c>
       <c r="H102">
-        <v>1807.12915204162</v>
+        <v>1807.7331186305701</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -45004,16 +45111,16 @@
         <v>1881.28749745808</v>
       </c>
       <c r="D103">
-        <v>2241.0594908698699</v>
+        <v>2275.5674797211</v>
       </c>
       <c r="E103">
-        <v>1832.6889456737199</v>
+        <v>1870.19031161421</v>
       </c>
       <c r="G103">
-        <v>2225.7697443359498</v>
+        <v>2226.5535098789901</v>
       </c>
       <c r="H103">
-        <v>1812.0958428112399</v>
+        <v>1812.7878796422899</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -45027,16 +45134,16 @@
         <v>1877.40971422337</v>
       </c>
       <c r="D104">
-        <v>2241.4838756455601</v>
+        <v>2273.9337931291202</v>
       </c>
       <c r="E104">
-        <v>1833.27099962594</v>
+        <v>1867.8320182103701</v>
       </c>
       <c r="G104">
-        <v>2231.9725860407202</v>
+        <v>2232.8474474069499</v>
       </c>
       <c r="H104">
-        <v>1817.6702710057</v>
+        <v>1818.4529570229899</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -45050,16 +45157,16 @@
         <v>1871.4411389807599</v>
       </c>
       <c r="D105">
-        <v>2241.7168046852198</v>
+        <v>2272.65298904157</v>
       </c>
       <c r="E105">
-        <v>1833.69538440163</v>
+        <v>1866.1983316184001</v>
       </c>
       <c r="G105">
-        <v>2238.8099457620801</v>
+        <v>2239.7738589803598</v>
       </c>
       <c r="H105">
-        <v>1823.87311271046</v>
+        <v>1824.7468945509399</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -45073,16 +45180,16 @@
         <v>1862.54462829876</v>
       </c>
       <c r="D106">
-        <v>2242.0276718934101</v>
+        <v>2271.16866736263</v>
       </c>
       <c r="E106">
-        <v>1833.9283134412899</v>
+        <v>1864.9175275308401</v>
       </c>
       <c r="G106">
-        <v>2246.27127385517</v>
+        <v>2247.3197026415</v>
       </c>
       <c r="H106">
-        <v>1830.7104724318201</v>
+        <v>1831.6733061243499</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -45096,16 +45203,16 @@
         <v>1849.1208416575</v>
       </c>
       <c r="D107">
-        <v>2242.0998747938302</v>
+        <v>2270.7040728192401</v>
       </c>
       <c r="E107">
-        <v>1834.23918064949</v>
+        <v>1863.4332058519001</v>
       </c>
       <c r="G107">
-        <v>2254.3283860870201</v>
+        <v>2255.4544102917198</v>
       </c>
       <c r="H107">
-        <v>1838.1718005249099</v>
+        <v>1839.2191497854899</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -45119,16 +45226,16 @@
         <v>1830.2885338624501</v>
       </c>
       <c r="D108">
-        <v>2242.0123478417599</v>
+        <v>2270.9464363116299</v>
       </c>
       <c r="E108">
-        <v>1834.31138354991</v>
+        <v>1862.9686113085099</v>
       </c>
       <c r="G108">
-        <v>2262.9355554334502</v>
+        <v>2264.1301699897299</v>
       </c>
       <c r="H108">
-        <v>1846.2289127567699</v>
+        <v>1847.3538574357101</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -45142,16 +45249,16 @@
         <v>1808.9545618047</v>
       </c>
       <c r="D109">
-        <v>2241.7258583098601</v>
+        <v>2270.6470289192398</v>
       </c>
       <c r="E109">
-        <v>1834.22385659784</v>
+        <v>1863.2109748009</v>
       </c>
       <c r="G109">
-        <v>2272.0298706861799</v>
+        <v>2273.28256970539</v>
       </c>
       <c r="H109">
-        <v>1854.8360821031899</v>
+        <v>1856.02961713373</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -45165,16 +45272,16 @@
         <v>1785.07555209047</v>
       </c>
       <c r="D110">
-        <v>2241.2120590699701</v>
+        <v>2270.1406796036399</v>
       </c>
       <c r="E110">
-        <v>1833.93736706594</v>
+        <v>1862.9115674085101</v>
       </c>
       <c r="G110">
-        <v>2281.5310735306298</v>
+        <v>2282.8302380322698</v>
       </c>
       <c r="H110">
-        <v>1863.9303973559199</v>
+        <v>1865.18201684938</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -45188,16 +45295,16 @@
         <v>1755.50619394006</v>
       </c>
       <c r="D111">
-        <v>2240.63924353935</v>
+        <v>2268.1846391853001</v>
       </c>
       <c r="E111">
-        <v>1833.42356782605</v>
+        <v>1862.40521809292</v>
       </c>
       <c r="G111">
-        <v>2291.3386811648802</v>
+        <v>2292.6722605084001</v>
       </c>
       <c r="H111">
-        <v>1873.43160020038</v>
+        <v>1874.7296851762601</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -45211,16 +45318,16 @@
         <v>1725.1342968654301</v>
       </c>
       <c r="D112">
-        <v>2239.4189836308001</v>
+        <v>2268.2231761948601</v>
       </c>
       <c r="E112">
-        <v>1832.8507522954301</v>
+        <v>1860.4491776745799</v>
       </c>
       <c r="G112">
-        <v>2301.32518629272</v>
+        <v>2302.6810620796</v>
       </c>
       <c r="H112">
-        <v>1883.23920783463</v>
+        <v>1884.5717076523899</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -45234,16 +45341,16 @@
         <v>1695.41170549801</v>
       </c>
       <c r="D113">
-        <v>2238.46591277064</v>
+        <v>2266.8328793834698</v>
       </c>
       <c r="E113">
-        <v>1831.63049238688</v>
+        <v>1860.48771468414</v>
       </c>
       <c r="G113">
-        <v>2311.3228551234401</v>
+        <v>2312.6894452461902</v>
       </c>
       <c r="H113">
-        <v>1893.22571296246</v>
+        <v>1894.5805092235901</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -45257,16 +45364,16 @@
         <v>1666.9282622890601</v>
       </c>
       <c r="D114">
-        <v>2237.2781952894802</v>
+        <v>2263.9640853809001</v>
       </c>
       <c r="E114">
-        <v>1830.6774215267201</v>
+        <v>1859.0974178727399</v>
       </c>
       <c r="G114">
-        <v>2321.1030912588099</v>
+        <v>2322.4701118787598</v>
       </c>
       <c r="H114">
-        <v>1903.2233817931799</v>
+        <v>1904.58889239018</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -45280,16 +45387,16 @@
         <v>1643.12259218402</v>
       </c>
       <c r="D115">
-        <v>2235.6847461381299</v>
+        <v>2261.2595059697301</v>
       </c>
       <c r="E115">
-        <v>1829.4897040455601</v>
+        <v>1856.2286238701699</v>
       </c>
       <c r="G115">
-        <v>2330.3476123135401</v>
+        <v>2331.7070854261501</v>
       </c>
       <c r="H115">
-        <v>1913.0036179285601</v>
+        <v>1914.3695590227601</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -45303,16 +45410,16 @@
         <v>1626.0936021863499</v>
       </c>
       <c r="D116">
-        <v>2233.77388448286</v>
+        <v>2265.0834207094699</v>
       </c>
       <c r="E116">
-        <v>1827.89625489421</v>
+        <v>1853.5240444590099</v>
       </c>
       <c r="G116">
-        <v>2338.61394928563</v>
+        <v>2339.9610269906402</v>
       </c>
       <c r="H116">
-        <v>1922.2481389832799</v>
+        <v>1923.60653257015</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -45326,16 +45433,16 @@
         <v>1616.7234970427701</v>
       </c>
       <c r="D117">
-        <v>2231.7495270238701</v>
+        <v>2255.88857871963</v>
       </c>
       <c r="E117">
-        <v>1825.9853932389401</v>
+        <v>1857.34795919875</v>
       </c>
       <c r="G117">
-        <v>2345.3039977559501</v>
+        <v>2346.6363748656599</v>
       </c>
       <c r="H117">
-        <v>1930.51447595537</v>
+        <v>1931.8604741346401</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -45349,16 +45456,16 @@
         <v>1615.3204022438299</v>
       </c>
       <c r="D118">
-        <v>2229.7151990715201</v>
+        <v>2253.6030394991099</v>
       </c>
       <c r="E118">
-        <v>1823.9610357799399</v>
+        <v>1848.1531172089101</v>
       </c>
       <c r="G118">
-        <v>2349.6552703746802</v>
+        <v>2350.9689086972198</v>
       </c>
       <c r="H118">
-        <v>1937.2045244256999</v>
+        <v>1938.53582200965</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -45372,16 +45479,16 @@
         <v>1621.9203498172801</v>
       </c>
       <c r="D119">
-        <v>2227.9300559846301</v>
+        <v>2252.48202832995</v>
       </c>
       <c r="E119">
-        <v>1821.9267078276</v>
+        <v>1845.8675779883799</v>
       </c>
       <c r="G119">
-        <v>2350.7814030703898</v>
+        <v>2352.0602171250298</v>
       </c>
       <c r="H119">
-        <v>1941.5557970444199</v>
+        <v>1942.8683558412099</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -45395,16 +45502,16 @@
         <v>1635.46770640197</v>
       </c>
       <c r="D120">
-        <v>2226.4927558128602</v>
+        <v>2251.6536549150601</v>
       </c>
       <c r="E120">
-        <v>1820.14156474071</v>
+        <v>1844.7465668192201</v>
       </c>
       <c r="G120">
-        <v>2347.7661967076001</v>
+        <v>2348.9668303737699</v>
       </c>
       <c r="H120">
-        <v>1942.68192974014</v>
+        <v>1943.9596642690301</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -45418,16 +45525,16 @@
         <v>1653.83599786427</v>
       </c>
       <c r="D121">
-        <v>2225.4592677917999</v>
+        <v>2250.7115157692601</v>
       </c>
       <c r="E121">
-        <v>1818.7042645689401</v>
+        <v>1843.9181934043299</v>
       </c>
       <c r="G121">
-        <v>2339.7445744521901</v>
+        <v>2340.7863672421599</v>
       </c>
       <c r="H121">
-        <v>1939.6667233773401</v>
+        <v>1940.86627751776</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -45441,16 +45548,16 @@
         <v>1675.54767630981</v>
       </c>
       <c r="D122">
-        <v>2224.8044958343698</v>
+        <v>2249.13725189553</v>
       </c>
       <c r="E122">
-        <v>1817.67077654788</v>
+        <v>1842.97605425854</v>
       </c>
       <c r="G122">
-        <v>2325.8648034725102</v>
+        <v>2326.6422236218</v>
       </c>
       <c r="H122">
-        <v>1931.6451011219301</v>
+        <v>1932.68581438615</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -45464,16 +45571,16 @@
         <v>1698.8669807868</v>
       </c>
       <c r="D123">
-        <v>2224.4191565353299</v>
+        <v>2248.1921418284201</v>
       </c>
       <c r="E123">
-        <v>1817.0160045904399</v>
+        <v>1841.4017903848001</v>
       </c>
       <c r="G123">
-        <v>2305.27783061118</v>
+        <v>2305.7053039013699</v>
       </c>
       <c r="H123">
-        <v>1917.7653301422499</v>
+        <v>1918.5416707658001</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -45487,16 +45594,16 @@
         <v>1721.79151989654</v>
       </c>
       <c r="D124">
-        <v>2224.0185338306101</v>
+        <v>2246.93097794186</v>
       </c>
       <c r="E124">
-        <v>1816.63066529141</v>
+        <v>1840.4566803176999</v>
       </c>
       <c r="G124">
-        <v>2277.8994105060201</v>
+        <v>2277.97684471606</v>
       </c>
       <c r="H124">
-        <v>1897.17835728092</v>
+        <v>1897.60475104536</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -45510,16 +45617,16 @@
         <v>1742.2727759574</v>
       </c>
       <c r="D125">
-        <v>2222.8743966785401</v>
+        <v>2244.4354710170301</v>
       </c>
       <c r="E125">
-        <v>1816.2300425866899</v>
+        <v>1839.19551643113</v>
       </c>
       <c r="G125">
-        <v>2246.3734279028899</v>
+        <v>2246.2259756486601</v>
       </c>
       <c r="H125">
-        <v>1869.7999371757701</v>
+        <v>1869.8762918600501</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -45533,16 +45640,16 @@
         <v>1757.45469471301</v>
       </c>
       <c r="D126">
-        <v>2218.9316758821101</v>
+        <v>2239.8099740017201</v>
       </c>
       <c r="E126">
-        <v>1815.0859054346099</v>
+        <v>1836.7000095062999</v>
       </c>
       <c r="G126">
-        <v>2216.74140584921</v>
+        <v>2216.5549659794901</v>
       </c>
       <c r="H126">
-        <v>1838.2739545726299</v>
+        <v>1838.1254227926499</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -45556,16 +45663,16 @@
         <v>1758.00772100836</v>
       </c>
       <c r="D127">
-        <v>2203.0411942473802</v>
+        <v>2223.2931735091702</v>
       </c>
       <c r="E127">
-        <v>1811.1431846381799</v>
+        <v>1832.0745124909899</v>
       </c>
       <c r="G127">
-        <v>2194.6584542689998</v>
+        <v>2194.5474527174501</v>
       </c>
       <c r="H127">
-        <v>1808.6419325189499</v>
+        <v>1808.45441312348</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -45579,16 +45686,16 @@
         <v>1686.0573864405401</v>
       </c>
       <c r="D128">
-        <v>2116.57562163385</v>
+        <v>2135.2181143204798</v>
       </c>
       <c r="E128">
-        <v>1795.2527030034601</v>
+        <v>1815.55771199844</v>
       </c>
       <c r="G128">
-        <v>2181.2558950427701</v>
+        <v>2181.2302125024098</v>
       </c>
       <c r="H128">
-        <v>1786.55898093874</v>
+        <v>1786.44689986144</v>
       </c>
     </row>
     <row r="129" spans="1:62" x14ac:dyDescent="0.25">
@@ -45602,16 +45709,16 @@
         <v>1362.53440755937</v>
       </c>
       <c r="D129">
-        <v>1774.8845335956601</v>
+        <v>1788.5046742494001</v>
       </c>
       <c r="E129">
-        <v>1708.7871303899301</v>
+        <v>1727.4826528097501</v>
       </c>
       <c r="G129">
-        <v>2097.2952868574098</v>
+        <v>2097.3008347309501</v>
       </c>
       <c r="H129">
-        <v>1773.1564217125101</v>
+        <v>1773.1296596463999</v>
       </c>
     </row>
     <row r="130" spans="1:62" x14ac:dyDescent="0.25">
@@ -45625,16 +45732,16 @@
         <v>1004.93397621798</v>
       </c>
       <c r="D130">
-        <v>407.788491243924</v>
+        <v>407.73546151072799</v>
       </c>
       <c r="E130">
-        <v>1367.0960423517399</v>
+        <v>1380.7692127386699</v>
       </c>
       <c r="G130">
-        <v>408.09947333025798</v>
+        <v>408.10055285600902</v>
       </c>
       <c r="H130">
-        <v>1689.19581352716</v>
+        <v>1689.20028187495</v>
       </c>
     </row>
     <row r="134" spans="1:62" x14ac:dyDescent="0.25">
@@ -45832,7 +45939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -63236,7 +63343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -70567,7 +70674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B5200C-4B85-4249-B9BF-4E633EE79E98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="kij" sheetId="9" r:id="rId9"/>
     <sheet name="zf" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="2048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="2084">
   <si>
     <t>№</t>
   </si>
@@ -6816,11 +6815,119 @@
   <si>
     <t>1689.20028187495)</t>
   </si>
+  <si>
+    <t>liqCp</t>
+  </si>
+  <si>
+    <t>Alk</t>
+  </si>
+  <si>
+    <t>С1</t>
+  </si>
+  <si>
+    <t>С2</t>
+  </si>
+  <si>
+    <t>С3=</t>
+  </si>
+  <si>
+    <t>С3</t>
+  </si>
+  <si>
+    <t>1-С4=</t>
+  </si>
+  <si>
+    <t>tr2-C4=</t>
+  </si>
+  <si>
+    <t>cis2-C4=</t>
+  </si>
+  <si>
+    <t>i-C4=</t>
+  </si>
+  <si>
+    <t>i-C4</t>
+  </si>
+  <si>
+    <t>n-C4</t>
+  </si>
+  <si>
+    <t>1-C5=</t>
+  </si>
+  <si>
+    <t>i-C5</t>
+  </si>
+  <si>
+    <t>n-C5</t>
+  </si>
+  <si>
+    <t>224-MC5</t>
+  </si>
+  <si>
+    <t>233-MC5</t>
+  </si>
+  <si>
+    <t>234-MC5</t>
+  </si>
+  <si>
+    <t>25-MC6</t>
+  </si>
+  <si>
+    <t>24-MC6</t>
+  </si>
+  <si>
+    <t>23-MC6</t>
+  </si>
+  <si>
+    <t>24-MC5</t>
+  </si>
+  <si>
+    <t>223-MC4</t>
+  </si>
+  <si>
+    <t>2-MC6</t>
+  </si>
+  <si>
+    <t>23-MC5</t>
+  </si>
+  <si>
+    <t>3-MC6</t>
+  </si>
+  <si>
+    <t>22-MC5</t>
+  </si>
+  <si>
+    <t>2MC7</t>
+  </si>
+  <si>
+    <t>2244-MC5</t>
+  </si>
+  <si>
+    <t>23-MC4</t>
+  </si>
+  <si>
+    <t>22-MC4</t>
+  </si>
+  <si>
+    <t>2-MC5</t>
+  </si>
+  <si>
+    <t>3-MC5</t>
+  </si>
+  <si>
+    <t>n-C12</t>
+  </si>
+  <si>
+    <t>2-MC9</t>
+  </si>
+  <si>
+    <t>n-C11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -7001,8 +7108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -7018,7 +7125,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7455,7 +7562,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7858,7 +7965,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7872,11 +7979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59475648"/>
-        <c:axId val="59476224"/>
+        <c:axId val="60262080"/>
+        <c:axId val="60262656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59475648"/>
+        <c:axId val="60262080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -7908,13 +8015,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59476224"/>
+        <c:crossAx val="60262656"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59476224"/>
+        <c:axId val="60262656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7956,7 +8063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59475648"/>
+        <c:crossAx val="60262080"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7979,7 +8086,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8427,7 +8534,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -8862,7 +8969,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1739-480A-A905-99EEB47984B8}"/>
             </c:ext>
@@ -8876,11 +8983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59478528"/>
-        <c:axId val="59479104"/>
+        <c:axId val="60264960"/>
+        <c:axId val="60265536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59478528"/>
+        <c:axId val="60264960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -8937,26 +9044,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8995,13 +9082,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59479104"/>
+        <c:crossAx val="60265536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59479104"/>
+        <c:axId val="60265536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,26 +9143,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9114,7 +9181,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59478528"/>
+        <c:crossAx val="60264960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9159,14 +9226,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9202,7 +9269,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9650,7 +9717,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -10085,7 +10152,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-289D-4A3D-B0A6-1E81BBB38AE5}"/>
             </c:ext>
@@ -10099,11 +10166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59481408"/>
-        <c:axId val="61456384"/>
+        <c:axId val="60267840"/>
+        <c:axId val="60735488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59481408"/>
+        <c:axId val="60267840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -10160,26 +10227,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10218,13 +10265,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61456384"/>
+        <c:crossAx val="60735488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61456384"/>
+        <c:axId val="60735488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10279,26 +10326,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10337,7 +10364,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59481408"/>
+        <c:crossAx val="60267840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10382,14 +10409,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10425,7 +10452,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10862,7 +10889,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11265,7 +11292,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11279,11 +11306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61458688"/>
-        <c:axId val="61459264"/>
+        <c:axId val="60737792"/>
+        <c:axId val="60738368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61458688"/>
+        <c:axId val="60737792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -11315,13 +11342,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61459264"/>
+        <c:crossAx val="60738368"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61459264"/>
+        <c:axId val="60738368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11363,7 +11390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61458688"/>
+        <c:crossAx val="60737792"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12517,7 +12544,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12553,7 +12580,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12589,7 +12616,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12625,7 +12652,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12689,7 +12716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12722,26 +12749,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12774,23 +12784,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12966,7 +12959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14851,11 +14844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z196"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110:K134"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172:F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21942,6 +21935,1235 @@
         <v>zf[24,FeedTray2-1]:=0;</v>
       </c>
     </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137">
+        <f>B141</f>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f>C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138">
+        <f>B142</f>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f>C142</f>
+        <v>8.2749863351620301E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>110</v>
+      </c>
+      <c r="E139">
+        <f>B144</f>
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f>C144</f>
+        <v>2.3790585713590801E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B140" s="10">
+        <v>2.95247708236639E-2</v>
+      </c>
+      <c r="C140" s="10">
+        <v>5.79086443102797E-3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140">
+        <f>B145</f>
+        <v>0.60845541702137096</v>
+      </c>
+      <c r="F140">
+        <f>C145</f>
+        <v>0.95345930688148695</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>96</v>
+      </c>
+      <c r="E141">
+        <f>B146</f>
+        <v>0.162170426974245</v>
+      </c>
+      <c r="F141">
+        <f>C146</f>
+        <v>3.7543271482609601E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" s="10">
+        <v>8.2749863351620301E-4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>115</v>
+      </c>
+      <c r="E142" s="10">
+        <f>B150</f>
+        <v>5.9210317186749101E-2</v>
+      </c>
+      <c r="F142" s="10">
+        <f>C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="10">
+        <f>B151</f>
+        <v>3.1310686051787398E-2</v>
+      </c>
+      <c r="F143" s="10">
+        <f>C151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" s="10">
+        <v>2.3790585713590801E-3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>117</v>
+      </c>
+      <c r="E144">
+        <f>B152</f>
+        <v>2.6412259430701E-2</v>
+      </c>
+      <c r="F144">
+        <f>C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B145">
+        <v>0.60845541702137096</v>
+      </c>
+      <c r="C145">
+        <v>0.95345930688148695</v>
+      </c>
+      <c r="D145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="10">
+        <f>B153</f>
+        <v>6.9756488019270804E-3</v>
+      </c>
+      <c r="F145" s="10">
+        <f>C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B146">
+        <v>0.162170426974245</v>
+      </c>
+      <c r="C146" s="10">
+        <v>3.7543271482609601E-2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="10">
+        <f>B154</f>
+        <v>5.6773849389016497E-3</v>
+      </c>
+      <c r="F146" s="10">
+        <f>C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" s="10">
+        <f>B155</f>
+        <v>4.9096900975235903E-3</v>
+      </c>
+      <c r="F147" s="10">
+        <f>C155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B148" s="10">
+        <v>2.40253828630273E-2</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="10">
+        <f>B139</f>
+        <v>0</v>
+      </c>
+      <c r="F148" s="10">
+        <f>C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>122</v>
+      </c>
+      <c r="E149" s="10">
+        <f>B156</f>
+        <v>6.2592459849861804E-3</v>
+      </c>
+      <c r="F149" s="10">
+        <f>C156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B150" s="10">
+        <v>5.9210317186749101E-2</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>123</v>
+      </c>
+      <c r="E150" s="10">
+        <f>B157</f>
+        <v>3.8317776651772501E-4</v>
+      </c>
+      <c r="F150" s="10">
+        <f>C157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B151" s="10">
+        <v>3.1310686051787398E-2</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>124</v>
+      </c>
+      <c r="E151" s="10">
+        <f>B158</f>
+        <v>3.7101339297747902E-4</v>
+      </c>
+      <c r="F151" s="10">
+        <f>C158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B152">
+        <v>2.6412259430701E-2</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>125</v>
+      </c>
+      <c r="E152" s="10">
+        <f>B159</f>
+        <v>3.15597913516362E-3</v>
+      </c>
+      <c r="F152" s="10">
+        <f>C159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B153" s="10">
+        <v>6.9756488019270804E-3</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>126</v>
+      </c>
+      <c r="E153" s="10">
+        <f>B160</f>
+        <v>2.6220982964528602E-4</v>
+      </c>
+      <c r="F153" s="10">
+        <f>C160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B154" s="10">
+        <v>5.6773849389016497E-3</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="10">
+        <f>B161</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="10">
+        <f>C161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B155" s="10">
+        <v>4.9096900975235903E-3</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="10">
+        <f>B162</f>
+        <v>4.4425522326541596E-3</v>
+      </c>
+      <c r="F155" s="10">
+        <f>C162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B156" s="10">
+        <v>6.2592459849861804E-3</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>98</v>
+      </c>
+      <c r="E156" s="10">
+        <f>B147</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="10">
+        <f>C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B157" s="10">
+        <v>3.8317776651772501E-4</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="10">
+        <f>B163</f>
+        <v>5.9862553352849797E-3</v>
+      </c>
+      <c r="F157" s="10">
+        <f>C163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B158" s="10">
+        <v>3.7101339297747902E-4</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>99</v>
+      </c>
+      <c r="E158" s="10">
+        <f>B140</f>
+        <v>2.95247708236639E-2</v>
+      </c>
+      <c r="F158" s="10">
+        <f>C140</f>
+        <v>5.79086443102797E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B159" s="10">
+        <v>3.15597913516362E-3</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>100</v>
+      </c>
+      <c r="E159" s="10">
+        <f>B148</f>
+        <v>2.40253828630273E-2</v>
+      </c>
+      <c r="F159" s="10">
+        <f>C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B160" s="10">
+        <v>2.6220982964528602E-4</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>127</v>
+      </c>
+      <c r="E160" s="10">
+        <f>B164</f>
+        <v>1.03363822712661E-2</v>
+      </c>
+      <c r="F160" s="10">
+        <f>C164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>128</v>
+      </c>
+      <c r="E161">
+        <f>B165</f>
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f>C165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B162" s="10">
+        <v>4.4425522326541596E-3</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>129</v>
+      </c>
+      <c r="E162" s="10">
+        <f>B166</f>
+        <v>2.4029692097865202E-3</v>
+      </c>
+      <c r="F162" s="10">
+        <f>C166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B163" s="10">
+        <v>5.9862553352849797E-3</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>130</v>
+      </c>
+      <c r="E163" s="10">
+        <f>B167</f>
+        <v>1.12840542356227E-3</v>
+      </c>
+      <c r="F163" s="10">
+        <f>C167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B164" s="10">
+        <v>1.03363822712661E-2</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>101</v>
+      </c>
+      <c r="E164" s="10">
+        <f>B168</f>
+        <v>2.2620635649920999E-4</v>
+      </c>
+      <c r="F164" s="10">
+        <f>C168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="10">
+        <f>B169</f>
+        <v>1.6562533039808001E-3</v>
+      </c>
+      <c r="F165" s="10">
+        <f>C169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B166" s="10">
+        <v>2.4029692097865202E-3</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>70</v>
+      </c>
+      <c r="E166" s="10">
+        <f>B170</f>
+        <v>4.7173655677782197E-3</v>
+      </c>
+      <c r="F166" s="10">
+        <f>C170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B167" s="10">
+        <v>1.12840542356227E-3</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>102</v>
+      </c>
+      <c r="E167" s="10">
+        <f>B138</f>
+        <v>0</v>
+      </c>
+      <c r="F167" s="10">
+        <f>C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B168" s="10">
+        <v>2.2620635649920999E-4</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B169" s="10">
+        <v>1.6562533039808001E-3</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B170" s="10">
+        <v>4.7173655677782197E-3</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>150</v>
+      </c>
+      <c r="D172" t="s">
+        <v>168</v>
+      </c>
+      <c r="E172" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>150</v>
+      </c>
+      <c r="D173" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>150</v>
+      </c>
+      <c r="D174" t="s">
+        <v>168</v>
+      </c>
+      <c r="E174" t="s">
+        <v>169</v>
+      </c>
+      <c r="F174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>150</v>
+      </c>
+      <c r="D175" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>150</v>
+      </c>
+      <c r="D176" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" t="s">
+        <v>169</v>
+      </c>
+      <c r="F176" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>150</v>
+      </c>
+      <c r="D177" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" t="s">
+        <v>169</v>
+      </c>
+      <c r="F177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>167</v>
+      </c>
+      <c r="B178">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>150</v>
+      </c>
+      <c r="D178" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" t="s">
+        <v>169</v>
+      </c>
+      <c r="F178" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>150</v>
+      </c>
+      <c r="D179" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" t="s">
+        <v>169</v>
+      </c>
+      <c r="F179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>167</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>150</v>
+      </c>
+      <c r="D180" t="s">
+        <v>168</v>
+      </c>
+      <c r="E180" t="s">
+        <v>169</v>
+      </c>
+      <c r="F180" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>150</v>
+      </c>
+      <c r="D181" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" t="s">
+        <v>169</v>
+      </c>
+      <c r="F181" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>150</v>
+      </c>
+      <c r="D182" t="s">
+        <v>168</v>
+      </c>
+      <c r="E182" t="s">
+        <v>169</v>
+      </c>
+      <c r="F182" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>150</v>
+      </c>
+      <c r="D183" t="s">
+        <v>168</v>
+      </c>
+      <c r="E183" t="s">
+        <v>169</v>
+      </c>
+      <c r="F183" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>150</v>
+      </c>
+      <c r="D184" t="s">
+        <v>168</v>
+      </c>
+      <c r="E184" t="s">
+        <v>169</v>
+      </c>
+      <c r="F184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>167</v>
+      </c>
+      <c r="B185">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>150</v>
+      </c>
+      <c r="D185" t="s">
+        <v>168</v>
+      </c>
+      <c r="E185" t="s">
+        <v>169</v>
+      </c>
+      <c r="F185" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>167</v>
+      </c>
+      <c r="B186">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>150</v>
+      </c>
+      <c r="D186" t="s">
+        <v>168</v>
+      </c>
+      <c r="E186" t="s">
+        <v>169</v>
+      </c>
+      <c r="F186" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>150</v>
+      </c>
+      <c r="D187" t="s">
+        <v>168</v>
+      </c>
+      <c r="E187" t="s">
+        <v>169</v>
+      </c>
+      <c r="F187" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>167</v>
+      </c>
+      <c r="B188">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D188" t="s">
+        <v>168</v>
+      </c>
+      <c r="E188" t="s">
+        <v>169</v>
+      </c>
+      <c r="F188" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>167</v>
+      </c>
+      <c r="B189">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>150</v>
+      </c>
+      <c r="D189" t="s">
+        <v>168</v>
+      </c>
+      <c r="E189" t="s">
+        <v>169</v>
+      </c>
+      <c r="F189" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>167</v>
+      </c>
+      <c r="B190">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>150</v>
+      </c>
+      <c r="D190" t="s">
+        <v>168</v>
+      </c>
+      <c r="E190" t="s">
+        <v>169</v>
+      </c>
+      <c r="F190" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>167</v>
+      </c>
+      <c r="B191">
+        <v>19</v>
+      </c>
+      <c r="C191" t="s">
+        <v>150</v>
+      </c>
+      <c r="D191" t="s">
+        <v>168</v>
+      </c>
+      <c r="E191" t="s">
+        <v>169</v>
+      </c>
+      <c r="F191" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192">
+        <v>20</v>
+      </c>
+      <c r="C192" t="s">
+        <v>150</v>
+      </c>
+      <c r="D192" t="s">
+        <v>168</v>
+      </c>
+      <c r="E192" t="s">
+        <v>169</v>
+      </c>
+      <c r="F192" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193">
+        <v>21</v>
+      </c>
+      <c r="C193" t="s">
+        <v>150</v>
+      </c>
+      <c r="D193" t="s">
+        <v>168</v>
+      </c>
+      <c r="E193" t="s">
+        <v>169</v>
+      </c>
+      <c r="F193" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>150</v>
+      </c>
+      <c r="D194" t="s">
+        <v>168</v>
+      </c>
+      <c r="E194" t="s">
+        <v>169</v>
+      </c>
+      <c r="F194" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195">
+        <v>23</v>
+      </c>
+      <c r="C195" t="s">
+        <v>150</v>
+      </c>
+      <c r="D195" t="s">
+        <v>168</v>
+      </c>
+      <c r="E195" t="s">
+        <v>169</v>
+      </c>
+      <c r="F195" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196">
+        <v>24</v>
+      </c>
+      <c r="C196" t="s">
+        <v>150</v>
+      </c>
+      <c r="D196" t="s">
+        <v>168</v>
+      </c>
+      <c r="E196" t="s">
+        <v>169</v>
+      </c>
+      <c r="F196" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21949,7 +23171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23610,7 +24832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28537,7 +29759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33444,11 +34666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AE156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39737,142 +40959,266 @@
         <v>0.000000000000882096</v>
       </c>
     </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2048</v>
+      </c>
+    </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>164</v>
+      <c r="A87" s="14">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="B87" s="14">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="C87" s="14">
+        <v>2.173</v>
+      </c>
+      <c r="D87" s="14">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="E87" s="15">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="F87" s="14">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="G87" s="14">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="H87" s="14">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="I87" s="14">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="J87" s="14">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="K87" s="14">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="L87" s="14">
+        <v>2.177</v>
+      </c>
+      <c r="M87" s="14">
+        <v>3.56</v>
+      </c>
+      <c r="N87" s="14">
+        <v>3.56</v>
+      </c>
+      <c r="O87" s="14">
+        <v>3.56</v>
+      </c>
+      <c r="P87" s="14">
+        <v>3.56</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>3.56</v>
+      </c>
+      <c r="R87" s="14">
+        <v>3.56</v>
+      </c>
+      <c r="S87" s="14">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="T87" s="14">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="U87" s="14">
+        <v>2.214</v>
+      </c>
+      <c r="V87" s="14">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="W87" s="14">
+        <v>2.161</v>
+      </c>
+      <c r="X87" s="14">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="Y87" s="14">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="Z87" s="14">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="AB87" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="AC87" s="14">
+        <v>2.206</v>
+      </c>
+      <c r="AD87" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="AE87" s="14">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>CONCATENATE(A87,A41)</f>
+        <v>2.131,</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" ref="B88:AE88" si="13">CONCATENATE(B87,B41)</f>
+        <v>2.135,</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.173,</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.233,</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="13"/>
+        <v>1.678,</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.088,</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.088,</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.088,</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.088,</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.088,</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.088,</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.177,</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.56,</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.56,</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.56,</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.56,</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.56,</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.56,</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.223,</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.216,</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.214,</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.231,</v>
+      </c>
+      <c r="W88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.161,</v>
+      </c>
+      <c r="X88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.239,</v>
+      </c>
+      <c r="Y88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.239,</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.239,</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.239,</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.19,</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.206,</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="13"/>
+        <v>2.19,</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="13"/>
+        <v>3.48</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="9">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <f>B91/$B$122</f>
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>167</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>150</v>
-      </c>
-      <c r="H91" t="s">
-        <v>168</v>
-      </c>
-      <c r="I91" t="s">
-        <v>169</v>
-      </c>
-      <c r="J91" t="s">
-        <v>170</v>
-      </c>
-      <c r="K91" t="str">
-        <f>CONCATENATE(E91,F91,G91,H91,I91,B91,J91)</f>
-        <v>zf[0,FeedTray1-1]:=0;</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="9">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <f t="shared" ref="C92:C121" si="13">B92/$B$122</f>
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>167</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>150</v>
-      </c>
-      <c r="H92" t="s">
-        <v>168</v>
-      </c>
-      <c r="I92" t="s">
-        <v>169</v>
-      </c>
-      <c r="J92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K92" t="str">
-        <f t="shared" ref="K92:K121" si="14">CONCATENATE(E92,F92,G92,H92,I92,B92,J92)</f>
-        <v>zf[1,FeedTray1-1]:=0;</v>
+      <c r="B92" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93" s="9">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>167</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-      <c r="G93" t="s">
-        <v>150</v>
-      </c>
-      <c r="H93" t="s">
-        <v>168</v>
-      </c>
-      <c r="I93" t="s">
-        <v>169</v>
-      </c>
-      <c r="J93" t="s">
-        <v>170</v>
-      </c>
-      <c r="K93" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[2,FeedTray1-1]:=0;</v>
+        <v>104</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B94" s="9">
-        <v>0.53243451031042266</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <f>B94/$B$122</f>
-        <v>0.53243451031042277</v>
+        <f>B94/$B$125</f>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
         <v>167</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>150</v>
@@ -39887,26 +41233,26 @@
         <v>170</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[3,FeedTray1-1]:=0.532434510310423;</v>
+        <f>CONCATENATE(E94,F94,G94,H94,I94,B94,J94)</f>
+        <v>zf[0,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B95" s="9">
-        <v>0.13946958469184165</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" si="13"/>
-        <v>0.13946958469184167</v>
+        <f t="shared" ref="C95:C124" si="14">B95/$B$125</f>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
         <v>167</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
         <v>150</v>
@@ -39921,26 +41267,26 @@
         <v>170</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[4,FeedTray1-1]:=0.139469584691842;</v>
+        <f t="shared" ref="K95:K124" si="15">CONCATENATE(E95,F95,G95,H95,I95,B95,J95)</f>
+        <v>zf[1,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B96" s="9">
-        <v>9.6447548559085591E-2</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" si="13"/>
-        <v>9.6447548559085605E-2</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
         <v>167</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G96" t="s">
         <v>150</v>
@@ -39955,26 +41301,26 @@
         <v>170</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[5,FeedTray1-1]:=0.0964475485590856;</v>
+        <f t="shared" si="15"/>
+        <v>zf[2,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B97" s="9">
-        <v>5.0997594683956086E-2</v>
+        <v>0.53243451031042266</v>
       </c>
       <c r="C97">
-        <f t="shared" si="13"/>
-        <v>5.0997594683956093E-2</v>
+        <f>B97/$B$125</f>
+        <v>0.53243451031042277</v>
       </c>
       <c r="E97" t="s">
         <v>167</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
         <v>150</v>
@@ -39989,26 +41335,26 @@
         <v>170</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[6,FeedTray1-1]:=0.0509975946839561;</v>
+        <f t="shared" si="15"/>
+        <v>zf[3,FeedTray1-1]:=0.532434510310423;</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B98" s="9">
-        <v>4.3018966177655764E-2</v>
+        <v>0.13946958469184165</v>
       </c>
       <c r="C98">
-        <f t="shared" si="13"/>
-        <v>4.3018966177655771E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.13946958469184167</v>
       </c>
       <c r="E98" t="s">
         <v>167</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G98" t="s">
         <v>150</v>
@@ -40023,26 +41369,26 @@
         <v>170</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[7,FeedTray1-1]:=0.0430189661776558;</v>
+        <f t="shared" si="15"/>
+        <v>zf[4,FeedTray1-1]:=0.139469584691842;</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B99" s="9">
-        <v>1.1361250705203992E-2</v>
+        <v>9.6447548559085591E-2</v>
       </c>
       <c r="C99">
-        <f t="shared" si="13"/>
-        <v>1.1361250705203994E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.6447548559085605E-2</v>
       </c>
       <c r="E99" t="s">
         <v>167</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G99" t="s">
         <v>150</v>
@@ -40057,26 +41403,26 @@
         <v>170</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[8,FeedTray1-1]:=0.011361250705204;</v>
+        <f t="shared" si="15"/>
+        <v>zf[5,FeedTray1-1]:=0.0964475485590856;</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B100" s="9">
-        <v>9.2467915526789797E-3</v>
+        <v>5.0997594683956086E-2</v>
       </c>
       <c r="C100">
-        <f t="shared" si="13"/>
-        <v>9.2467915526789814E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.0997594683956093E-2</v>
       </c>
       <c r="E100" t="s">
         <v>167</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G100" t="s">
         <v>150</v>
@@ -40091,26 +41437,26 @@
         <v>170</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[9,FeedTray1-1]:=0.00924679155267898;</v>
+        <f t="shared" si="15"/>
+        <v>zf[6,FeedTray1-1]:=0.0509975946839561;</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B101" s="9">
-        <v>7.996592138457272E-3</v>
+        <v>4.3018966177655764E-2</v>
       </c>
       <c r="C101">
-        <f t="shared" si="13"/>
-        <v>7.9965921384572737E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.3018966177655771E-2</v>
       </c>
       <c r="E101" t="s">
         <v>167</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
         <v>150</v>
@@ -40125,26 +41471,26 @@
         <v>170</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[10,FeedTray1-1]:=0.00799659213845727;</v>
+        <f t="shared" si="15"/>
+        <v>zf[7,FeedTray1-1]:=0.0430189661776558;</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B102" s="9">
-        <v>0</v>
+        <v>1.1361250705203992E-2</v>
       </c>
       <c r="C102">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1.1361250705203994E-2</v>
       </c>
       <c r="E102" t="s">
         <v>167</v>
       </c>
       <c r="F102">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G102" t="s">
         <v>150</v>
@@ -40159,26 +41505,26 @@
         <v>170</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[11,FeedTray1-1]:=0;</v>
+        <f t="shared" si="15"/>
+        <v>zf[8,FeedTray1-1]:=0.011361250705204;</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B103" s="9">
-        <v>8.9432776817251793E-3</v>
+        <v>9.2467915526789797E-3</v>
       </c>
       <c r="C103">
-        <f t="shared" si="13"/>
-        <v>8.943277681725181E-3</v>
+        <f t="shared" si="14"/>
+        <v>9.2467915526789814E-3</v>
       </c>
       <c r="E103" t="s">
         <v>167</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G103" t="s">
         <v>150</v>
@@ -40193,26 +41539,26 @@
         <v>170</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[12,FeedTray1-1]:=0.00894327768172518;</v>
+        <f t="shared" si="15"/>
+        <v>zf[9,FeedTray1-1]:=0.00924679155267898;</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" s="9">
-        <v>5.4705289527527613E-4</v>
+        <v>7.996592138457272E-3</v>
       </c>
       <c r="C104">
-        <f t="shared" si="13"/>
-        <v>5.4705289527527624E-4</v>
+        <f t="shared" si="14"/>
+        <v>7.9965921384572737E-3</v>
       </c>
       <c r="E104" t="s">
         <v>167</v>
       </c>
       <c r="F104">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
         <v>150</v>
@@ -40227,26 +41573,26 @@
         <v>170</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[13,FeedTray1-1]:=0.000547052895275276;</v>
+        <f t="shared" si="15"/>
+        <v>zf[10,FeedTray1-1]:=0.00799659213845727;</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B105" s="9">
-        <v>5.3026697320919666E-4</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <f t="shared" si="13"/>
-        <v>5.3026697320919676E-4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>167</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
         <v>150</v>
@@ -40261,26 +41607,26 @@
         <v>170</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[14,FeedTray1-1]:=0.000530266973209197;</v>
+        <f t="shared" si="15"/>
+        <v>zf[11,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B106" s="9">
-        <v>4.5093426373259086E-3</v>
+        <v>8.9432776817251793E-3</v>
       </c>
       <c r="C106">
-        <f t="shared" si="13"/>
-        <v>4.5093426373259094E-3</v>
+        <f t="shared" si="14"/>
+        <v>8.943277681725181E-3</v>
       </c>
       <c r="E106" t="s">
         <v>167</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
         <v>150</v>
@@ -40295,26 +41641,26 @@
         <v>170</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[15,FeedTray1-1]:=0.00450934263732591;</v>
+        <f t="shared" si="15"/>
+        <v>zf[12,FeedTray1-1]:=0.00894327768172518;</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B107" s="9">
-        <v>3.7493268704121008E-4</v>
+        <v>5.4705289527527613E-4</v>
       </c>
       <c r="C107">
-        <f t="shared" si="13"/>
-        <v>3.7493268704121013E-4</v>
+        <f t="shared" si="14"/>
+        <v>5.4705289527527624E-4</v>
       </c>
       <c r="E107" t="s">
         <v>167</v>
       </c>
       <c r="F107">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
         <v>150</v>
@@ -40329,26 +41675,26 @@
         <v>170</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[16,FeedTray1-1]:=0.00037493268704121;</v>
+        <f t="shared" si="15"/>
+        <v>zf[13,FeedTray1-1]:=0.000547052895275276;</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B108" s="9">
-        <v>0</v>
+        <v>5.3026697320919666E-4</v>
       </c>
       <c r="C108">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>5.3026697320919676E-4</v>
       </c>
       <c r="E108" t="s">
         <v>167</v>
       </c>
       <c r="F108">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
         <v>150</v>
@@ -40363,26 +41709,26 @@
         <v>170</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[17,FeedTray1-1]:=0;</v>
+        <f t="shared" si="15"/>
+        <v>zf[14,FeedTray1-1]:=0.000530266973209197;</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B109" s="9">
-        <v>7.2362140610227168E-3</v>
+        <v>4.5093426373259086E-3</v>
       </c>
       <c r="C109">
-        <f t="shared" si="13"/>
-        <v>7.2362140610227176E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.5093426373259094E-3</v>
       </c>
       <c r="E109" t="s">
         <v>167</v>
       </c>
       <c r="F109">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
         <v>150</v>
@@ -40397,26 +41743,26 @@
         <v>170</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[18,FeedTray1-1]:=0.00723621406102272;</v>
+        <f t="shared" si="15"/>
+        <v>zf[15,FeedTray1-1]:=0.00450934263732591;</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B110" s="9">
-        <v>0</v>
+        <v>3.7493268704121008E-4</v>
       </c>
       <c r="C110">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3.7493268704121013E-4</v>
       </c>
       <c r="E110" t="s">
         <v>167</v>
       </c>
       <c r="F110">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G110" t="s">
         <v>150</v>
@@ -40431,26 +41777,26 @@
         <v>170</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[19,FeedTray1-1]:=0;</v>
+        <f t="shared" si="15"/>
+        <v>zf[16,FeedTray1-1]:=0.00037493268704121;</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B111" s="9">
-        <v>1.0947820005587128E-2</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <f t="shared" si="13"/>
-        <v>1.094782000558713E-2</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E111" t="s">
         <v>167</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G111" t="s">
         <v>150</v>
@@ -40465,26 +41811,26 @@
         <v>170</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[20,FeedTray1-1]:=0.0109478200055871;</v>
+        <f t="shared" si="15"/>
+        <v>zf[17,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B112" s="9">
-        <v>1.9515039500368137E-2</v>
+        <v>7.2362140610227168E-3</v>
       </c>
       <c r="C112">
-        <f t="shared" si="13"/>
-        <v>1.9515039500368141E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.2362140610227176E-3</v>
       </c>
       <c r="E112" t="s">
         <v>167</v>
       </c>
       <c r="F112">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
         <v>150</v>
@@ -40499,26 +41845,26 @@
         <v>170</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[21,FeedTray1-1]:=0.0195150395003681;</v>
+        <f t="shared" si="15"/>
+        <v>zf[18,FeedTray1-1]:=0.00723621406102272;</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B113" s="9">
-        <v>2.4959312471910664E-2</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <f t="shared" si="13"/>
-        <v>2.4959312471910668E-2</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E113" t="s">
         <v>167</v>
       </c>
       <c r="F113">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
         <v>150</v>
@@ -40533,26 +41879,26 @@
         <v>170</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[22,FeedTray1-1]:=0.0249593124719107;</v>
+        <f t="shared" si="15"/>
+        <v>zf[19,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="B114" s="9">
-        <v>1.2700891777383011E-2</v>
+        <v>1.0947820005587128E-2</v>
       </c>
       <c r="C114">
-        <f t="shared" si="13"/>
-        <v>1.2700891777383013E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.094782000558713E-2</v>
       </c>
       <c r="E114" t="s">
         <v>167</v>
       </c>
       <c r="F114">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
         <v>150</v>
@@ -40567,26 +41913,26 @@
         <v>170</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[23,FeedTray1-1]:=0.012700891777383;</v>
+        <f t="shared" si="15"/>
+        <v>zf[20,FeedTray1-1]:=0.0109478200055871;</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B115" s="9">
-        <v>0</v>
+        <v>1.9515039500368137E-2</v>
       </c>
       <c r="C115">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1.9515039500368141E-2</v>
       </c>
       <c r="E115" t="s">
         <v>167</v>
       </c>
       <c r="F115">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
         <v>150</v>
@@ -40601,26 +41947,26 @@
         <v>170</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[24,FeedTray1-1]:=0;</v>
+        <f t="shared" si="15"/>
+        <v>zf[21,FeedTray1-1]:=0.0195150395003681;</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B116" s="9">
-        <v>2.9529131951911416E-3</v>
+        <v>2.4959312471910664E-2</v>
       </c>
       <c r="C116">
-        <f t="shared" si="13"/>
-        <v>2.952913195191142E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.4959312471910668E-2</v>
       </c>
       <c r="E116" t="s">
         <v>167</v>
       </c>
       <c r="F116">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G116" t="s">
         <v>150</v>
@@ -40635,26 +41981,26 @@
         <v>170</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[25,FeedTray1-1]:=0.00295291319519114;</v>
+        <f t="shared" si="15"/>
+        <v>zf[22,FeedTray1-1]:=0.0249593124719107;</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B117" s="9">
-        <v>1.3865878540410266E-3</v>
+        <v>1.2700891777383011E-2</v>
       </c>
       <c r="C117">
-        <f t="shared" si="13"/>
-        <v>1.3865878540410268E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.2700891777383013E-2</v>
       </c>
       <c r="E117" t="s">
         <v>167</v>
       </c>
       <c r="F117">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G117" t="s">
         <v>150</v>
@@ -40669,26 +42015,26 @@
         <v>170</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[26,FeedTray1-1]:=0.00138658785404103;</v>
+        <f t="shared" si="15"/>
+        <v>zf[23,FeedTray1-1]:=0.012700891777383;</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B118" s="9">
-        <v>5.494373946823099E-4</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <f t="shared" si="13"/>
-        <v>5.4943739468231001E-4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
         <v>167</v>
       </c>
       <c r="F118">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
         <v>150</v>
@@ -40703,26 +42049,26 @@
         <v>170</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[27,FeedTray1-1]:=0.00054943739468231;</v>
+        <f t="shared" si="15"/>
+        <v>zf[24,FeedTray1-1]:=0;</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B119" s="9">
-        <v>3.3601780383204615E-3</v>
+        <v>2.9529131951911416E-3</v>
       </c>
       <c r="C119">
-        <f t="shared" si="13"/>
-        <v>3.3601780383204619E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.952913195191142E-3</v>
       </c>
       <c r="E119" t="s">
         <v>167</v>
       </c>
       <c r="F119">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G119" t="s">
         <v>150</v>
@@ -40737,26 +42083,26 @@
         <v>170</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[28,FeedTray1-1]:=0.00336017803832046;</v>
+        <f t="shared" si="15"/>
+        <v>zf[25,FeedTray1-1]:=0.00295291319519114;</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B120" s="9">
-        <v>1.0513894007614729E-2</v>
+        <v>1.3865878540410266E-3</v>
       </c>
       <c r="C120">
-        <f t="shared" si="13"/>
-        <v>1.0513894007614731E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.3865878540410268E-3</v>
       </c>
       <c r="E120" t="s">
         <v>167</v>
       </c>
       <c r="F120">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G120" t="s">
         <v>150</v>
@@ -40771,26 +42117,26 @@
         <v>170</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="14"/>
-        <v>zf[29,FeedTray1-1]:=0.0105138940076147;</v>
+        <f t="shared" si="15"/>
+        <v>zf[26,FeedTray1-1]:=0.00138658785404103;</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="9">
-        <v>0</v>
+        <v>5.494373946823099E-4</v>
       </c>
       <c r="C121">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>5.4943739468231001E-4</v>
       </c>
       <c r="E121" t="s">
         <v>167</v>
       </c>
       <c r="F121">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G121" t="s">
         <v>150</v>
@@ -40805,132 +42151,141 @@
         <v>170</v>
       </c>
       <c r="K121" t="str">
+        <f t="shared" si="15"/>
+        <v>zf[27,FeedTray1-1]:=0.00054943739468231;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="9">
+        <v>3.3601780383204615E-3</v>
+      </c>
+      <c r="C122">
         <f t="shared" si="14"/>
+        <v>3.3601780383204619E-3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>167</v>
+      </c>
+      <c r="F122">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
+      <c r="H122" t="s">
+        <v>168</v>
+      </c>
+      <c r="I122" t="s">
+        <v>169</v>
+      </c>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="15"/>
+        <v>zf[28,FeedTray1-1]:=0.00336017803832046;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="9">
+        <v>1.0513894007614729E-2</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="14"/>
+        <v>1.0513894007614731E-2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>150</v>
+      </c>
+      <c r="H123" t="s">
+        <v>168</v>
+      </c>
+      <c r="I123" t="s">
+        <v>169</v>
+      </c>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="15"/>
+        <v>zf[29,FeedTray1-1]:=0.0105138940076147;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="9">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>167</v>
+      </c>
+      <c r="F124">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s">
+        <v>150</v>
+      </c>
+      <c r="H124" t="s">
+        <v>168</v>
+      </c>
+      <c r="I124" t="s">
+        <v>169</v>
+      </c>
+      <c r="J124" t="s">
+        <v>170</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="15"/>
         <v>zf[30,FeedTray1-1]:=0;</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="9">
-        <f>SUM(B91:B121)</f>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="9">
+        <f>SUM(B94:B124)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B125">
-        <v>7.5792344443218981E-4</v>
-      </c>
-      <c r="C125">
-        <f>B125/$B$156</f>
-        <v>7.5792344443218992E-4</v>
-      </c>
-      <c r="E125" t="s">
-        <v>167</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>150</v>
-      </c>
-      <c r="H125" t="s">
-        <v>171</v>
-      </c>
-      <c r="I125" t="s">
-        <v>169</v>
-      </c>
-      <c r="J125" t="s">
-        <v>170</v>
-      </c>
-      <c r="K125" t="str">
-        <f>CONCATENATE(E125,F125,G125,H125,I125,B125,J125)</f>
-        <v>zf[0,FeedTray2-1]:=0.00075792344443219;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <f t="shared" ref="C126:C155" si="15">B126/$B$156</f>
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>167</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
-        <v>150</v>
-      </c>
-      <c r="H126" t="s">
-        <v>171</v>
-      </c>
-      <c r="I126" t="s">
-        <v>169</v>
-      </c>
-      <c r="J126" t="s">
-        <v>170</v>
-      </c>
-      <c r="K126" t="str">
-        <f t="shared" ref="K126:K155" si="16">CONCATENATE(E126,F126,G126,H126,I126,B126,J126)</f>
-        <v>zf[1,FeedTray2-1]:=0;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B127">
-        <v>2.1826909648051539E-3</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="15"/>
-        <v>2.1826909648051543E-3</v>
-      </c>
-      <c r="E127" t="s">
-        <v>167</v>
-      </c>
-      <c r="F127">
-        <v>2</v>
-      </c>
-      <c r="G127" t="s">
-        <v>150</v>
-      </c>
-      <c r="H127" t="s">
-        <v>171</v>
-      </c>
-      <c r="I127" t="s">
-        <v>169</v>
-      </c>
-      <c r="J127" t="s">
-        <v>170</v>
-      </c>
-      <c r="K127" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[2,FeedTray2-1]:=0.00218269096480515;</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>0.95590636432036047</v>
+        <v>7.5792344443218981E-4</v>
       </c>
       <c r="C128">
-        <f t="shared" si="15"/>
-        <v>0.95590636432036058</v>
+        <f>B128/$B$159</f>
+        <v>7.5792344443218992E-4</v>
       </c>
       <c r="E128" t="s">
         <v>167</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>150</v>
@@ -40945,23 +42300,23 @@
         <v>170</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[3,FeedTray2-1]:=0.95590636432036;</v>
+        <f>CONCATENATE(E128,F128,G128,H128,I128,B128,J128)</f>
+        <v>zf[0,FeedTray2-1]:=0.00075792344443219;</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>3.6267756299790774E-2</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <f t="shared" si="15"/>
-        <v>3.6267756299790781E-2</v>
+        <f t="shared" ref="C129:C158" si="16">B129/$B$159</f>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
         <v>167</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>150</v>
@@ -40976,23 +42331,23 @@
         <v>170</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[4,FeedTray2-1]:=0.0362677562997908;</v>
+        <f t="shared" ref="K129:K158" si="17">CONCATENATE(E129,F129,G129,H129,I129,B129,J129)</f>
+        <v>zf[1,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130">
-        <v>0</v>
+        <v>2.1826909648051539E-3</v>
       </c>
       <c r="C130">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2.1826909648051543E-3</v>
       </c>
       <c r="E130" t="s">
         <v>167</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G130" t="s">
         <v>150</v>
@@ -41007,23 +42362,23 @@
         <v>170</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[5,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[2,FeedTray2-1]:=0.00218269096480515;</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131">
-        <v>0</v>
+        <v>0.95590636432036047</v>
       </c>
       <c r="C131">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0.95590636432036058</v>
       </c>
       <c r="E131" t="s">
         <v>167</v>
       </c>
       <c r="F131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
         <v>150</v>
@@ -41038,23 +42393,23 @@
         <v>170</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[6,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[3,FeedTray2-1]:=0.95590636432036;</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132">
-        <v>0</v>
+        <v>3.6267756299790774E-2</v>
       </c>
       <c r="C132">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3.6267756299790781E-2</v>
       </c>
       <c r="E132" t="s">
         <v>167</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G132" t="s">
         <v>150</v>
@@ -41069,8 +42424,8 @@
         <v>170</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[7,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[4,FeedTray2-1]:=0.0362677562997908;</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
@@ -41078,14 +42433,14 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E133" t="s">
         <v>167</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G133" t="s">
         <v>150</v>
@@ -41100,8 +42455,8 @@
         <v>170</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[8,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[5,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
@@ -41109,14 +42464,14 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E134" t="s">
         <v>167</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G134" t="s">
         <v>150</v>
@@ -41131,8 +42486,8 @@
         <v>170</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[9,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[6,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
@@ -41140,14 +42495,14 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E135" t="s">
         <v>167</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135" t="s">
         <v>150</v>
@@ -41162,8 +42517,8 @@
         <v>170</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[10,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[7,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
@@ -41171,14 +42526,14 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E136" t="s">
         <v>167</v>
       </c>
       <c r="F136">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G136" t="s">
         <v>150</v>
@@ -41193,8 +42548,8 @@
         <v>170</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[11,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[8,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
@@ -41202,14 +42557,14 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E137" t="s">
         <v>167</v>
       </c>
       <c r="F137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G137" t="s">
         <v>150</v>
@@ -41224,8 +42579,8 @@
         <v>170</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[12,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[9,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
@@ -41233,14 +42588,14 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E138" t="s">
         <v>167</v>
       </c>
       <c r="F138">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G138" t="s">
         <v>150</v>
@@ -41255,8 +42610,8 @@
         <v>170</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[13,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[10,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
@@ -41264,14 +42619,14 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E139" t="s">
         <v>167</v>
       </c>
       <c r="F139">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
         <v>150</v>
@@ -41286,8 +42641,8 @@
         <v>170</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[14,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[11,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
@@ -41295,14 +42650,14 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E140" t="s">
         <v>167</v>
       </c>
       <c r="F140">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
         <v>150</v>
@@ -41317,8 +42672,8 @@
         <v>170</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[15,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[12,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
@@ -41326,14 +42681,14 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E141" t="s">
         <v>167</v>
       </c>
       <c r="F141">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
         <v>150</v>
@@ -41348,8 +42703,8 @@
         <v>170</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[16,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[13,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
@@ -41357,14 +42712,14 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E142" t="s">
         <v>167</v>
       </c>
       <c r="F142">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
         <v>150</v>
@@ -41379,8 +42734,8 @@
         <v>170</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[17,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[14,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
@@ -41388,14 +42743,14 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E143" t="s">
         <v>167</v>
       </c>
       <c r="F143">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G143" t="s">
         <v>150</v>
@@ -41410,8 +42765,8 @@
         <v>170</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[18,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[15,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
@@ -41419,14 +42774,14 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E144" t="s">
         <v>167</v>
       </c>
       <c r="F144">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
         <v>150</v>
@@ -41441,8 +42796,8 @@
         <v>170</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[19,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[16,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
@@ -41450,14 +42805,14 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E145" t="s">
         <v>167</v>
       </c>
       <c r="F145">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -41472,23 +42827,23 @@
         <v>170</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[20,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[17,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146">
-        <v>4.8852649706113702E-3</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <f t="shared" si="15"/>
-        <v>4.8852649706113711E-3</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
         <v>167</v>
       </c>
       <c r="F146">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
         <v>150</v>
@@ -41503,8 +42858,8 @@
         <v>170</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[21,FeedTray2-1]:=0.00488526497061137;</v>
+        <f t="shared" si="17"/>
+        <v>zf[18,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
@@ -41512,14 +42867,14 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E147" t="s">
         <v>167</v>
       </c>
       <c r="F147">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G147" t="s">
         <v>150</v>
@@ -41534,8 +42889,8 @@
         <v>170</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[22,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[19,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
@@ -41543,14 +42898,14 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E148" t="s">
         <v>167</v>
       </c>
       <c r="F148">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G148" t="s">
         <v>150</v>
@@ -41565,23 +42920,23 @@
         <v>170</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[23,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[20,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149">
-        <v>0</v>
+        <v>4.8852649706113702E-3</v>
       </c>
       <c r="C149">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>4.8852649706113711E-3</v>
       </c>
       <c r="E149" t="s">
         <v>167</v>
       </c>
       <c r="F149">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G149" t="s">
         <v>150</v>
@@ -41596,8 +42951,8 @@
         <v>170</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[24,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[21,FeedTray2-1]:=0.00488526497061137;</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
@@ -41605,14 +42960,14 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E150" t="s">
         <v>167</v>
       </c>
       <c r="F150">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G150" t="s">
         <v>150</v>
@@ -41627,8 +42982,8 @@
         <v>170</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[25,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[22,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
@@ -41636,14 +42991,14 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E151" t="s">
         <v>167</v>
       </c>
       <c r="F151">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G151" t="s">
         <v>150</v>
@@ -41658,8 +43013,8 @@
         <v>170</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[26,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[23,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
@@ -41667,14 +43022,14 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E152" t="s">
         <v>167</v>
       </c>
       <c r="F152">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -41689,8 +43044,8 @@
         <v>170</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[27,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[24,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
@@ -41698,14 +43053,14 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E153" t="s">
         <v>167</v>
       </c>
       <c r="F153">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G153" t="s">
         <v>150</v>
@@ -41720,8 +43075,8 @@
         <v>170</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[28,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[25,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
@@ -41729,14 +43084,14 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E154" t="s">
         <v>167</v>
       </c>
       <c r="F154">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G154" t="s">
         <v>150</v>
@@ -41751,8 +43106,8 @@
         <v>170</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[29,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[26,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
@@ -41760,14 +43115,14 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E155" t="s">
         <v>167</v>
       </c>
       <c r="F155">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G155" t="s">
         <v>150</v>
@@ -41782,13 +43137,106 @@
         <v>170</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="16"/>
-        <v>zf[30,FeedTray2-1]:=0;</v>
+        <f t="shared" si="17"/>
+        <v>zf[27,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156">
-        <f>SUM(B125:B155)</f>
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>167</v>
+      </c>
+      <c r="F156">
+        <v>28</v>
+      </c>
+      <c r="G156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H156" t="s">
+        <v>171</v>
+      </c>
+      <c r="I156" t="s">
+        <v>169</v>
+      </c>
+      <c r="J156" t="s">
+        <v>170</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="17"/>
+        <v>zf[28,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>167</v>
+      </c>
+      <c r="F157">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s">
+        <v>150</v>
+      </c>
+      <c r="H157" t="s">
+        <v>171</v>
+      </c>
+      <c r="I157" t="s">
+        <v>169</v>
+      </c>
+      <c r="J157" t="s">
+        <v>170</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="17"/>
+        <v>zf[29,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>167</v>
+      </c>
+      <c r="F158">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>150</v>
+      </c>
+      <c r="H158" t="s">
+        <v>171</v>
+      </c>
+      <c r="I158" t="s">
+        <v>169</v>
+      </c>
+      <c r="J158" t="s">
+        <v>170</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="17"/>
+        <v>zf[30,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <f>SUM(B128:B158)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -41801,7 +43249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ134"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -45939,7 +47387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -63343,7 +64791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -70674,7 +72122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E593F286-4F2D-412D-8055-6460EFE86951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="kij" sheetId="9" r:id="rId9"/>
     <sheet name="zf" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="2084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="2022">
   <si>
     <t>№</t>
   </si>
@@ -6630,192 +6631,6 @@
     <t>Ср0, кДж / (кг * К) Жидкость</t>
   </si>
   <si>
-    <t>(0.</t>
-  </si>
-  <si>
-    <t>1689.19928874001.</t>
-  </si>
-  <si>
-    <t>2353.72599919144.</t>
-  </si>
-  <si>
-    <t>2293.48068628513.</t>
-  </si>
-  <si>
-    <t>2242.68424387376.</t>
-  </si>
-  <si>
-    <t>2233.50138005032.</t>
-  </si>
-  <si>
-    <t>2246.7898537489.</t>
-  </si>
-  <si>
-    <t>2254.52907370544.</t>
-  </si>
-  <si>
-    <t>2252.59930906337.</t>
-  </si>
-  <si>
-    <t>2243.93054116709.</t>
-  </si>
-  <si>
-    <t>2019.98266002438.</t>
-  </si>
-  <si>
-    <t>1921.42660474388.</t>
-  </si>
-  <si>
-    <t>1909.50004311904.</t>
-  </si>
-  <si>
-    <t>1909.09493141861.</t>
-  </si>
-  <si>
-    <t>1908.93743714591.</t>
-  </si>
-  <si>
-    <t>1908.77850834085.</t>
-  </si>
-  <si>
-    <t>1908.69991779003.</t>
-  </si>
-  <si>
-    <t>1908.70393983533.</t>
-  </si>
-  <si>
-    <t>1908.82087014191.</t>
-  </si>
-  <si>
-    <t>1909.23033603149.</t>
-  </si>
-  <si>
-    <t>1910.65201309414.</t>
-  </si>
-  <si>
-    <t>1916.13614533848.</t>
-  </si>
-  <si>
-    <t>1779.10393036161.</t>
-  </si>
-  <si>
-    <t>1779.71150697258.</t>
-  </si>
-  <si>
-    <t>1782.42911804689.</t>
-  </si>
-  <si>
-    <t>1784.29905850707.</t>
-  </si>
-  <si>
-    <t>1786.07363253375.</t>
-  </si>
-  <si>
-    <t>1788.03686770804.</t>
-  </si>
-  <si>
-    <t>1790.28874179105.</t>
-  </si>
-  <si>
-    <t>1792.88701340644.</t>
-  </si>
-  <si>
-    <t>1795.88185239579.</t>
-  </si>
-  <si>
-    <t>1799.32267845589.</t>
-  </si>
-  <si>
-    <t>1803.25794894174.</t>
-  </si>
-  <si>
-    <t>1807.73311863057.</t>
-  </si>
-  <si>
-    <t>1812.78787964229.</t>
-  </si>
-  <si>
-    <t>1818.45295702299.</t>
-  </si>
-  <si>
-    <t>1824.74689455094.</t>
-  </si>
-  <si>
-    <t>1831.67330612435.</t>
-  </si>
-  <si>
-    <t>1839.21914978549.</t>
-  </si>
-  <si>
-    <t>1847.35385743571.</t>
-  </si>
-  <si>
-    <t>1856.02961713373.</t>
-  </si>
-  <si>
-    <t>1865.18201684938.</t>
-  </si>
-  <si>
-    <t>1874.72968517626.</t>
-  </si>
-  <si>
-    <t>1884.57170765239.</t>
-  </si>
-  <si>
-    <t>1894.58050922359.</t>
-  </si>
-  <si>
-    <t>1904.58889239018.</t>
-  </si>
-  <si>
-    <t>1914.36955902276.</t>
-  </si>
-  <si>
-    <t>1923.60653257015.</t>
-  </si>
-  <si>
-    <t>1931.86047413464.</t>
-  </si>
-  <si>
-    <t>1938.53582200965.</t>
-  </si>
-  <si>
-    <t>1942.86835584121.</t>
-  </si>
-  <si>
-    <t>1943.95966426903.</t>
-  </si>
-  <si>
-    <t>1940.86627751776.</t>
-  </si>
-  <si>
-    <t>1932.68581438615.</t>
-  </si>
-  <si>
-    <t>1918.5416707658.</t>
-  </si>
-  <si>
-    <t>1897.60475104536.</t>
-  </si>
-  <si>
-    <t>1869.87629186005.</t>
-  </si>
-  <si>
-    <t>1838.12542279265.</t>
-  </si>
-  <si>
-    <t>1808.45441312348.</t>
-  </si>
-  <si>
-    <t>1786.44689986144.</t>
-  </si>
-  <si>
-    <t>1773.1296596464.</t>
-  </si>
-  <si>
-    <t>1689.20028187495)</t>
-  </si>
-  <si>
     <t>liqCp</t>
   </si>
   <si>
@@ -6927,7 +6742,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -7108,8 +6923,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -7125,7 +6940,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7373,196 +7188,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>55.211954912543035</c:v>
+                  <c:v>47.878581261634849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.292836925387007</c:v>
+                  <c:v>47.907751774787926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.214295825362001</c:v>
+                  <c:v>48.402619338035606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.529962828755004</c:v>
+                  <c:v>48.610585904121422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.277272602916014</c:v>
+                  <c:v>48.748880600929283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.462033709883997</c:v>
+                  <c:v>48.862749314308189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.912293574214004</c:v>
+                  <c:v>48.97840020656588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.174148371816045</c:v>
+                  <c:v>49.167424416542076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.436173370481015</c:v>
+                  <c:v>49.903410649299644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.817419698834044</c:v>
+                  <c:v>54.739809012413048</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.21500273644904</c:v>
+                  <c:v>55.175322270393394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.82938035428504</c:v>
+                  <c:v>55.249869799613975</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.27041696608103</c:v>
+                  <c:v>55.192637419700645</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>159.17987485826001</c:v>
+                  <c:v>55.085074877738975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159.82304846346403</c:v>
+                  <c:v>54.956799721717857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.10183056294903</c:v>
+                  <c:v>54.819917654991173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160.26183774173302</c:v>
+                  <c:v>54.680812335014366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>160.37612666785702</c:v>
+                  <c:v>54.544132924079918</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.46531682312502</c:v>
+                  <c:v>54.413759684562706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>160.51536013782004</c:v>
+                  <c:v>54.292035079002403</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160.42190527021904</c:v>
+                  <c:v>54.169708466529869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159.62055509388404</c:v>
+                  <c:v>53.821676945686363</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>175.748939415812</c:v>
+                  <c:v>53.820908045768761</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>179.871709248424</c:v>
+                  <c:v>53.871250128746055</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>180.66559617817404</c:v>
+                  <c:v>53.987759327888512</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.63642715513703</c:v>
+                  <c:v>54.182642674446129</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>180.37513305842901</c:v>
+                  <c:v>54.465651488304161</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>180.00946750342803</c:v>
+                  <c:v>54.843789315223717</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>179.560163965821</c:v>
+                  <c:v>55.320697999000572</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>179.02281691730002</c:v>
+                  <c:v>55.896091437339805</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>178.38666399419304</c:v>
+                  <c:v>56.565254902839683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>177.63903175890403</c:v>
+                  <c:v>57.318735098838829</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>176.766723743081</c:v>
+                  <c:v>58.142220950126671</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>175.75688546001902</c:v>
+                  <c:v>59.01681778430941</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>174.59788282811604</c:v>
+                  <c:v>59.919828152656578</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>173.28034152686604</c:v>
+                  <c:v>60.826051211357139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>171.798360696435</c:v>
+                  <c:v>61.709642386436485</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>170.15087415874001</c:v>
+                  <c:v>62.546282982826256</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>168.34287752807103</c:v>
+                  <c:v>63.315373635292076</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>166.386521211267</c:v>
+                  <c:v>64.001804566383385</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>164.30183460414401</c:v>
+                  <c:v>64.596992707252525</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>162.11690714061302</c:v>
+                  <c:v>65.099054551124595</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>159.86767371594902</c:v>
+                  <c:v>65.512102818489097</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>157.59727766215804</c:v>
+                  <c:v>65.844923233985924</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>155.35557453930403</c:v>
+                  <c:v>66.109448647499107</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>153.199219307303</c:v>
+                  <c:v>66.319191431999229</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>151.19291355311901</c:v>
+                  <c:v>66.488003706932091</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>149.41214804947401</c:v>
+                  <c:v>66.629183268547081</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>147.94691090881804</c:v>
+                  <c:v>66.754972910881065</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>146.90449719727002</c:v>
+                  <c:v>66.876435256004356</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>146.40807395279404</c:v>
+                  <c:v>67.003661370277428</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>146.58803676664803</c:v>
+                  <c:v>67.146247601509117</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>147.570033720136</c:v>
+                  <c:v>67.314189648628258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>149.47520007789103</c:v>
+                  <c:v>67.51937863826754</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>152.44568621218201</c:v>
+                  <c:v>67.778319096565269</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>156.65297245085202</c:v>
+                  <c:v>68.117541050910972</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>162.15515544116505</c:v>
+                  <c:v>68.585330224037193</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>168.57645770013301</c:v>
+                  <c:v>69.280034279823326</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>175.03164296448205</c:v>
+                  <c:v>70.436787581443809</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>180.67864512503104</c:v>
+                  <c:v>72.8706598043442</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>185.36799808442601</c:v>
+                  <c:v>81.339389061927818</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>190.45340602695904</c:v>
+                  <c:v>115.51935074329378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7965,7 +7780,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -8086,7 +7901,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8534,7 +8349,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -8777,199 +8592,199 @@
             <c:numRef>
               <c:f>Лист2!$G$69:$G$130</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.199841596017</c:v>
+                  <c:v>376.19997172829449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1040.72655204744</c:v>
+                  <c:v>422.4668124170737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>980.48123914113796</c:v>
+                  <c:v>422.43382048410126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>929.68479672977003</c:v>
+                  <c:v>422.32844595802135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>920.50193290632797</c:v>
+                  <c:v>422.18937504061205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>933.79040660491</c:v>
+                  <c:v>422.03766905626867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>941.52962656144405</c:v>
+                  <c:v>421.81395273683938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>939.59986191937298</c:v>
+                  <c:v>421.12124428473794</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930.93109402309904</c:v>
+                  <c:v>416.99513831493346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2324.9832128803901</c:v>
+                  <c:v>2021.6550051780507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2226.4271575998901</c:v>
+                  <c:v>2019.9007659398601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2214.5005959750501</c:v>
+                  <c:v>2019.6512313278308</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2214.09548427461</c:v>
+                  <c:v>2019.9764130716865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2213.9379900019198</c:v>
+                  <c:v>2020.5562242255201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2213.7790611968599</c:v>
+                  <c:v>2021.2786874206872</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2213.7004706460398</c:v>
+                  <c:v>2022.100175662187</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2213.70449269133</c:v>
+                  <c:v>2022.9971162818358</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2213.8214229979199</c:v>
+                  <c:v>2023.949497898124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2214.23088888749</c:v>
+                  <c:v>2024.9371326314003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2215.6525659501399</c:v>
+                  <c:v>2025.9513304508685</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2221.1366981944798</c:v>
+                  <c:v>2027.187065285616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2187.2044832176198</c:v>
+                  <c:v>2131.5315252158857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2187.81205982859</c:v>
+                  <c:v>2133.527377700264</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2190.5296709028898</c:v>
+                  <c:v>2135.6302383701664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2192.3996113630801</c:v>
+                  <c:v>2137.8049776831167</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2194.1741853897602</c:v>
+                  <c:v>2140.0334137785881</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2196.13742056404</c:v>
+                  <c:v>2142.3140900085154</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2198.3892946470501</c:v>
+                  <c:v>2144.6643183591664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2200.9875662624499</c:v>
+                  <c:v>2147.1212671902867</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2203.9824052518002</c:v>
+                  <c:v>2149.7402687606059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2207.4232313119001</c:v>
+                  <c:v>2152.5895699262232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2211.3585017977498</c:v>
+                  <c:v>2155.7415292093278</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2215.83367148658</c:v>
+                  <c:v>2159.2612107030554</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2220.8884324983001</c:v>
+                  <c:v>2163.1939132214002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2226.5535098789901</c:v>
+                  <c:v>2167.5538438348754</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2232.8474474069499</c:v>
+                  <c:v>2172.3164513346278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2239.7738589803598</c:v>
+                  <c:v>2177.4164641389116</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2247.3197026415</c:v>
+                  <c:v>2182.7525651120081</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2255.4544102917198</c:v>
+                  <c:v>2188.1979827401819</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2264.1301699897299</c:v>
+                  <c:v>2193.614748063249</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2273.28256970539</c:v>
+                  <c:v>2198.8683376101553</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2282.8302380322698</c:v>
+                  <c:v>2203.83980486174</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2292.6722605084001</c:v>
+                  <c:v>2208.4334920058782</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2302.6810620796</c:v>
+                  <c:v>2212.5799773214976</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2312.6894452461902</c:v>
+                  <c:v>2216.2349115782645</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2322.4701118787598</c:v>
+                  <c:v>2219.375217615509</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2331.7070854261501</c:v>
+                  <c:v>2221.9938986858597</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2339.9610269906402</c:v>
+                  <c:v>2224.0945504995225</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2346.6363748656599</c:v>
+                  <c:v>2225.6860361117324</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2350.9689086972198</c:v>
+                  <c:v>2226.7774120388253</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2352.0602171250298</c:v>
+                  <c:v>2227.3727239413656</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2348.9668303737699</c:v>
+                  <c:v>2227.4647501377353</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2340.7863672421599</c:v>
+                  <c:v>2227.0257621030637</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2326.6422236218</c:v>
+                  <c:v>2225.9913664817032</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2305.7053039013699</c:v>
+                  <c:v>2224.2286735265038</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2277.97684471606</c:v>
+                  <c:v>2221.4686274807877</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2246.2259756486601</c:v>
+                  <c:v>2217.1521054339751</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2216.5549659794901</c:v>
+                  <c:v>2210.0362414866108</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2194.5474527174501</c:v>
+                  <c:v>2196.8028144559771</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2181.2302125024098</c:v>
+                  <c:v>2163.45887971714</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2097.3008347309501</c:v>
+                  <c:v>2029.4479521855869</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>408.10055285600902</c:v>
+                  <c:v>391.70781729683097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1739-480A-A905-99EEB47984B8}"/>
             </c:ext>
@@ -9044,6 +8859,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9143,6 +8978,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9226,14 +9081,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9269,7 +9124,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9717,7 +9572,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -9960,199 +9815,199 @@
             <c:numRef>
               <c:f>Лист2!$H$69:$H$130</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.1992887400099</c:v>
+                  <c:v>1689.1998730553828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2353.7259991914402</c:v>
+                  <c:v>1735.466713744162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2293.4806862851301</c:v>
+                  <c:v>1735.4337218111896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2242.6842438737599</c:v>
+                  <c:v>1735.3283472851097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2233.5013800503202</c:v>
+                  <c:v>1735.1892763677004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2246.7898537489</c:v>
+                  <c:v>1735.037570383357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2254.5290737054402</c:v>
+                  <c:v>1734.8138540639277</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2252.5993090633701</c:v>
+                  <c:v>1734.1211456118263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2243.9305411670898</c:v>
+                  <c:v>1729.9950396420218</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019.98266002438</c:v>
+                  <c:v>1716.654906505139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1921.42660474388</c:v>
+                  <c:v>1714.9006672669484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1909.5000431190399</c:v>
+                  <c:v>1714.6511326549191</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1909.09493141861</c:v>
+                  <c:v>1714.9763143987748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1908.9374371459101</c:v>
+                  <c:v>1715.5561255526084</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1908.7785083408501</c:v>
+                  <c:v>1716.2785887477755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1908.69991779003</c:v>
+                  <c:v>1717.1000769892753</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1908.7039398353299</c:v>
+                  <c:v>1717.9970176089241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908.8208701419101</c:v>
+                  <c:v>1718.9493992252123</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1909.23033603149</c:v>
+                  <c:v>1719.9370339584887</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1910.6520130941401</c:v>
+                  <c:v>1720.9512317779568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1916.13614533848</c:v>
+                  <c:v>1722.1869666127043</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1779.1039303616101</c:v>
+                  <c:v>1723.4314265429741</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1779.7115069725801</c:v>
+                  <c:v>1725.4272790273521</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1782.4291180468899</c:v>
+                  <c:v>1727.5301396972548</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1784.29905850707</c:v>
+                  <c:v>1729.7048790102049</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1786.07363253375</c:v>
+                  <c:v>1731.9333151056762</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1788.0368677080401</c:v>
+                  <c:v>1734.2139913356039</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1790.2887417910499</c:v>
+                  <c:v>1736.5642196862548</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1792.88701340644</c:v>
+                  <c:v>1739.0211685173751</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1795.88185239579</c:v>
+                  <c:v>1741.6401700876943</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1799.3226784558899</c:v>
+                  <c:v>1744.4894712533116</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1803.2579489417401</c:v>
+                  <c:v>1747.6414305364162</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1807.7331186305701</c:v>
+                  <c:v>1751.1611120301438</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1812.7878796422899</c:v>
+                  <c:v>1755.0938145484886</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1818.4529570229899</c:v>
+                  <c:v>1759.4537451619635</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1824.7468945509399</c:v>
+                  <c:v>1764.2163526617162</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1831.6733061243499</c:v>
+                  <c:v>1769.316365466</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1839.2191497854899</c:v>
+                  <c:v>1774.6524664390965</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1847.3538574357101</c:v>
+                  <c:v>1780.0978840672703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1856.02961713373</c:v>
+                  <c:v>1785.5146493903374</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1865.18201684938</c:v>
+                  <c:v>1790.7682389372437</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1874.7296851762601</c:v>
+                  <c:v>1795.7397061888284</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1884.5717076523899</c:v>
+                  <c:v>1800.3333933329664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1894.5805092235901</c:v>
+                  <c:v>1804.479878648586</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1904.58889239018</c:v>
+                  <c:v>1808.1348129053526</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1914.3695590227601</c:v>
+                  <c:v>1811.2751189425974</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1923.60653257015</c:v>
+                  <c:v>1813.8938000129478</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1931.8604741346401</c:v>
+                  <c:v>1815.9944518266109</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1938.53582200965</c:v>
+                  <c:v>1817.5859374388208</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1942.8683558412099</c:v>
+                  <c:v>1818.6773133659135</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1943.9596642690301</c:v>
+                  <c:v>1819.272625268454</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1940.86627751776</c:v>
+                  <c:v>1819.3646514648235</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1932.68581438615</c:v>
+                  <c:v>1818.9256634301521</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1918.5416707658001</c:v>
+                  <c:v>1817.8912678087913</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1897.60475104536</c:v>
+                  <c:v>1816.1285748535922</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1869.8762918600501</c:v>
+                  <c:v>1813.3685288078761</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1838.1254227926499</c:v>
+                  <c:v>1809.0520067610635</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1808.45441312348</c:v>
+                  <c:v>1801.936142813699</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1786.44689986144</c:v>
+                  <c:v>1788.7027157830655</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1773.1296596463999</c:v>
+                  <c:v>1755.3587810442282</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1689.20028187495</c:v>
+                  <c:v>1621.3478535126753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-289D-4A3D-B0A6-1E81BBB38AE5}"/>
             </c:ext>
@@ -10227,6 +10082,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10326,6 +10201,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10409,14 +10304,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10452,7 +10347,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10889,7 +10784,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11292,7 +11187,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -12544,7 +12439,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12580,7 +12475,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12616,7 +12511,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12652,7 +12547,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12716,7 +12611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12749,9 +12644,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12784,6 +12696,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12959,7 +12888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14844,11 +14773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172:F196"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172:H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21937,13 +21866,13 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>2049</v>
+        <v>1987</v>
       </c>
       <c r="C136" t="s">
         <v>1935</v>
       </c>
       <c r="E136" t="s">
-        <v>2049</v>
+        <v>1987</v>
       </c>
       <c r="F136" t="s">
         <v>1935</v>
@@ -21951,7 +21880,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2050</v>
+        <v>1988</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -21973,7 +21902,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2051</v>
+        <v>1989</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -21995,7 +21924,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2052</v>
+        <v>1990</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -22007,17 +21936,17 @@
         <v>110</v>
       </c>
       <c r="E139">
-        <f>B144</f>
+        <f t="shared" ref="E139:F141" si="21">B144</f>
         <v>0</v>
       </c>
       <c r="F139">
-        <f>C144</f>
+        <f t="shared" si="21"/>
         <v>2.3790585713590801E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2053</v>
+        <v>1991</v>
       </c>
       <c r="B140" s="10">
         <v>2.95247708236639E-2</v>
@@ -22029,17 +21958,17 @@
         <v>112</v>
       </c>
       <c r="E140">
-        <f>B145</f>
+        <f t="shared" si="21"/>
         <v>0.60845541702137096</v>
       </c>
       <c r="F140">
-        <f>C145</f>
+        <f t="shared" si="21"/>
         <v>0.95345930688148695</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2054</v>
+        <v>1992</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -22051,17 +21980,17 @@
         <v>96</v>
       </c>
       <c r="E141">
-        <f>B146</f>
+        <f t="shared" si="21"/>
         <v>0.162170426974245</v>
       </c>
       <c r="F141">
-        <f>C146</f>
+        <f t="shared" si="21"/>
         <v>3.7543271482609601E-2</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2055</v>
+        <v>1993</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -22073,17 +22002,17 @@
         <v>115</v>
       </c>
       <c r="E142" s="10">
-        <f>B150</f>
+        <f t="shared" ref="E142:F147" si="22">B150</f>
         <v>5.9210317186749101E-2</v>
       </c>
       <c r="F142" s="10">
-        <f>C150</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2056</v>
+        <v>1994</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -22095,17 +22024,17 @@
         <v>116</v>
       </c>
       <c r="E143" s="10">
-        <f>B151</f>
+        <f t="shared" si="22"/>
         <v>3.1310686051787398E-2</v>
       </c>
       <c r="F143" s="10">
-        <f>C151</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2057</v>
+        <v>1995</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -22117,17 +22046,17 @@
         <v>117</v>
       </c>
       <c r="E144">
-        <f>B152</f>
+        <f t="shared" si="22"/>
         <v>2.6412259430701E-2</v>
       </c>
       <c r="F144">
-        <f>C152</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2058</v>
+        <v>1996</v>
       </c>
       <c r="B145">
         <v>0.60845541702137096</v>
@@ -22139,17 +22068,17 @@
         <v>119</v>
       </c>
       <c r="E145" s="10">
-        <f>B153</f>
+        <f t="shared" si="22"/>
         <v>6.9756488019270804E-3</v>
       </c>
       <c r="F145" s="10">
-        <f>C153</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2059</v>
+        <v>1997</v>
       </c>
       <c r="B146">
         <v>0.162170426974245</v>
@@ -22161,17 +22090,17 @@
         <v>120</v>
       </c>
       <c r="E146" s="10">
-        <f>B154</f>
+        <f t="shared" si="22"/>
         <v>5.6773849389016497E-3</v>
       </c>
       <c r="F146" s="10">
-        <f>C154</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2060</v>
+        <v>1998</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -22183,17 +22112,17 @@
         <v>121</v>
       </c>
       <c r="E147" s="10">
-        <f>B155</f>
+        <f t="shared" si="22"/>
         <v>4.9096900975235903E-3</v>
       </c>
       <c r="F147" s="10">
-        <f>C155</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2061</v>
+        <v>1999</v>
       </c>
       <c r="B148" s="10">
         <v>2.40253828630273E-2</v>
@@ -22215,7 +22144,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2062</v>
+        <v>2000</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -22227,17 +22156,17 @@
         <v>122</v>
       </c>
       <c r="E149" s="10">
-        <f>B156</f>
+        <f t="shared" ref="E149:F155" si="23">B156</f>
         <v>6.2592459849861804E-3</v>
       </c>
       <c r="F149" s="10">
-        <f>C156</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2063</v>
+        <v>2001</v>
       </c>
       <c r="B150" s="10">
         <v>5.9210317186749101E-2</v>
@@ -22249,17 +22178,17 @@
         <v>123</v>
       </c>
       <c r="E150" s="10">
-        <f>B157</f>
+        <f t="shared" si="23"/>
         <v>3.8317776651772501E-4</v>
       </c>
       <c r="F150" s="10">
-        <f>C157</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2064</v>
+        <v>2002</v>
       </c>
       <c r="B151" s="10">
         <v>3.1310686051787398E-2</v>
@@ -22271,17 +22200,17 @@
         <v>124</v>
       </c>
       <c r="E151" s="10">
-        <f>B158</f>
+        <f t="shared" si="23"/>
         <v>3.7101339297747902E-4</v>
       </c>
       <c r="F151" s="10">
-        <f>C158</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2065</v>
+        <v>2003</v>
       </c>
       <c r="B152">
         <v>2.6412259430701E-2</v>
@@ -22293,17 +22222,17 @@
         <v>125</v>
       </c>
       <c r="E152" s="10">
-        <f>B159</f>
+        <f t="shared" si="23"/>
         <v>3.15597913516362E-3</v>
       </c>
       <c r="F152" s="10">
-        <f>C159</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2066</v>
+        <v>2004</v>
       </c>
       <c r="B153" s="10">
         <v>6.9756488019270804E-3</v>
@@ -22315,17 +22244,17 @@
         <v>126</v>
       </c>
       <c r="E153" s="10">
-        <f>B160</f>
+        <f t="shared" si="23"/>
         <v>2.6220982964528602E-4</v>
       </c>
       <c r="F153" s="10">
-        <f>C160</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2067</v>
+        <v>2005</v>
       </c>
       <c r="B154" s="10">
         <v>5.6773849389016497E-3</v>
@@ -22337,17 +22266,17 @@
         <v>30</v>
       </c>
       <c r="E154" s="10">
-        <f>B161</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F154" s="10">
-        <f>C161</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2068</v>
+        <v>2006</v>
       </c>
       <c r="B155" s="10">
         <v>4.9096900975235903E-3</v>
@@ -22359,17 +22288,17 @@
         <v>32</v>
       </c>
       <c r="E155" s="10">
-        <f>B162</f>
+        <f t="shared" si="23"/>
         <v>4.4425522326541596E-3</v>
       </c>
       <c r="F155" s="10">
-        <f>C162</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2069</v>
+        <v>2007</v>
       </c>
       <c r="B156" s="10">
         <v>6.2592459849861804E-3</v>
@@ -22391,7 +22320,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2070</v>
+        <v>2008</v>
       </c>
       <c r="B157" s="10">
         <v>3.8317776651772501E-4</v>
@@ -22413,7 +22342,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2071</v>
+        <v>2009</v>
       </c>
       <c r="B158" s="10">
         <v>3.7101339297747902E-4</v>
@@ -22435,7 +22364,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2072</v>
+        <v>2010</v>
       </c>
       <c r="B159" s="10">
         <v>3.15597913516362E-3</v>
@@ -22457,7 +22386,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2073</v>
+        <v>2011</v>
       </c>
       <c r="B160" s="10">
         <v>2.6220982964528602E-4</v>
@@ -22469,17 +22398,17 @@
         <v>127</v>
       </c>
       <c r="E160" s="10">
-        <f>B164</f>
+        <f t="shared" ref="E160:F166" si="24">B164</f>
         <v>1.03363822712661E-2</v>
       </c>
       <c r="F160" s="10">
-        <f>C164</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2074</v>
+        <v>2012</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -22491,17 +22420,17 @@
         <v>128</v>
       </c>
       <c r="E161">
-        <f>B165</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F161">
-        <f>C165</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2075</v>
+        <v>2013</v>
       </c>
       <c r="B162" s="10">
         <v>4.4425522326541596E-3</v>
@@ -22513,17 +22442,17 @@
         <v>129</v>
       </c>
       <c r="E162" s="10">
-        <f>B166</f>
+        <f t="shared" si="24"/>
         <v>2.4029692097865202E-3</v>
       </c>
       <c r="F162" s="10">
-        <f>C166</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2076</v>
+        <v>2014</v>
       </c>
       <c r="B163" s="10">
         <v>5.9862553352849797E-3</v>
@@ -22535,17 +22464,17 @@
         <v>130</v>
       </c>
       <c r="E163" s="10">
-        <f>B167</f>
+        <f t="shared" si="24"/>
         <v>1.12840542356227E-3</v>
       </c>
       <c r="F163" s="10">
-        <f>C167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2077</v>
+        <v>2015</v>
       </c>
       <c r="B164" s="10">
         <v>1.03363822712661E-2</v>
@@ -22557,17 +22486,17 @@
         <v>101</v>
       </c>
       <c r="E164" s="10">
-        <f>B168</f>
+        <f t="shared" si="24"/>
         <v>2.2620635649920999E-4</v>
       </c>
       <c r="F164" s="10">
-        <f>C168</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2078</v>
+        <v>2016</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -22579,17 +22508,17 @@
         <v>65</v>
       </c>
       <c r="E165" s="10">
-        <f>B169</f>
+        <f t="shared" si="24"/>
         <v>1.6562533039808001E-3</v>
       </c>
       <c r="F165" s="10">
-        <f>C169</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2079</v>
+        <v>2017</v>
       </c>
       <c r="B166" s="10">
         <v>2.4029692097865202E-3</v>
@@ -22601,17 +22530,17 @@
         <v>70</v>
       </c>
       <c r="E166" s="10">
-        <f>B170</f>
+        <f t="shared" si="24"/>
         <v>4.7173655677782197E-3</v>
       </c>
       <c r="F166" s="10">
-        <f>C170</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2080</v>
+        <v>2018</v>
       </c>
       <c r="B167" s="10">
         <v>1.12840542356227E-3</v>
@@ -22631,9 +22560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2081</v>
+        <v>2019</v>
       </c>
       <c r="B168" s="10">
         <v>2.2620635649920999E-4</v>
@@ -22642,9 +22571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2082</v>
+        <v>2020</v>
       </c>
       <c r="B169" s="10">
         <v>1.6562533039808001E-3</v>
@@ -22653,9 +22582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2083</v>
+        <v>2021</v>
       </c>
       <c r="B170" s="10">
         <v>4.7173655677782197E-3</v>
@@ -22664,7 +22593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -22683,8 +22612,16 @@
       <c r="F172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="str">
+        <f>CONCATENATE(A172,B172,C172,D172,E172,E137,F172)</f>
+        <v>zf[0,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H172" t="str">
+        <f>CONCATENATE(A172,B172,C172,D198,E172,F137,F172)</f>
+        <v>zf[0,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -22703,8 +22640,16 @@
       <c r="F173" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="str">
+        <f t="shared" ref="G173:G196" si="25">CONCATENATE(A173,B173,C173,D173,E173,E138,F173)</f>
+        <v>zf[1,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" ref="H173:H196" si="26">CONCATENATE(A173,B173,C173,D199,E173,F138,F173)</f>
+        <v>zf[1,FeedTray2-1]:=0.000827498633516203;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>167</v>
       </c>
@@ -22723,8 +22668,16 @@
       <c r="F174" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[2,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[2,FeedTray2-1]:=0.00237905857135908;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -22743,8 +22696,16 @@
       <c r="F175" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[3,FeedTray1-1]:=0.608455417021371;</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[3,FeedTray2-1]:=0.953459306881487;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -22763,8 +22724,16 @@
       <c r="F176" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[4,FeedTray1-1]:=0.162170426974245;</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[4,FeedTray2-1]:=0.0375432714826096;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>167</v>
       </c>
@@ -22783,8 +22752,16 @@
       <c r="F177" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[5,FeedTray1-1]:=0.0592103171867491;</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[5,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>167</v>
       </c>
@@ -22803,8 +22780,16 @@
       <c r="F178" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[6,FeedTray1-1]:=0.0313106860517874;</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[6,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -22823,8 +22808,16 @@
       <c r="F179" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[7,FeedTray1-1]:=0.026412259430701;</v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[7,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>167</v>
       </c>
@@ -22843,8 +22836,16 @@
       <c r="F180" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[8,FeedTray1-1]:=0.00697564880192708;</v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[8,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>167</v>
       </c>
@@ -22863,8 +22864,16 @@
       <c r="F181" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[9,FeedTray1-1]:=0.00567738493890165;</v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[9,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -22883,8 +22892,16 @@
       <c r="F182" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[10,FeedTray1-1]:=0.00490969009752359;</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[10,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -22903,8 +22920,16 @@
       <c r="F183" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[11,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[11,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>167</v>
       </c>
@@ -22923,8 +22948,16 @@
       <c r="F184" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[12,FeedTray1-1]:=0.00625924598498618;</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[12,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>167</v>
       </c>
@@ -22943,8 +22976,16 @@
       <c r="F185" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[13,FeedTray1-1]:=0.000383177766517725;</v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[13,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -22963,8 +23004,16 @@
       <c r="F186" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[14,FeedTray1-1]:=0.000371013392977479;</v>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[14,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>167</v>
       </c>
@@ -22983,8 +23032,16 @@
       <c r="F187" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[15,FeedTray1-1]:=0.00315597913516362;</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[15,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>167</v>
       </c>
@@ -23003,8 +23060,16 @@
       <c r="F188" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[16,FeedTray1-1]:=0.000262209829645286;</v>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[16,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>167</v>
       </c>
@@ -23023,8 +23088,16 @@
       <c r="F189" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[17,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[17,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>167</v>
       </c>
@@ -23043,8 +23116,16 @@
       <c r="F190" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[18,FeedTray1-1]:=0.00444255223265416;</v>
+      </c>
+      <c r="H190" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[18,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>167</v>
       </c>
@@ -23063,8 +23144,16 @@
       <c r="F191" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[19,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[19,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>167</v>
       </c>
@@ -23083,8 +23172,16 @@
       <c r="F192" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[20,FeedTray1-1]:=0.00598625533528498;</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[20,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>167</v>
       </c>
@@ -23103,8 +23200,16 @@
       <c r="F193" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[21,FeedTray1-1]:=0.0295247708236639;</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[21,FeedTray2-1]:=0.00579086443102797;</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>167</v>
       </c>
@@ -23123,8 +23228,16 @@
       <c r="F194" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[22,FeedTray1-1]:=0.0240253828630273;</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[22,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>167</v>
       </c>
@@ -23143,8 +23256,16 @@
       <c r="F195" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[23,FeedTray1-1]:=0.0103363822712661;</v>
+      </c>
+      <c r="H195" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[23,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>167</v>
       </c>
@@ -23162,6 +23283,139 @@
       </c>
       <c r="F196" t="s">
         <v>170</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="25"/>
+        <v>zf[24,FeedTray1-1]:=0;</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="26"/>
+        <v>zf[24,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -23171,7 +23425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24832,7 +25086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29759,7 +30013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34666,7 +34920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40961,7 +41215,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2048</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -43249,11 +43503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:BQ130"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:D130"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43642,7 +43896,7 @@
       </c>
       <c r="B4">
         <f>G4-273.15</f>
-        <v>55.211954912543035</v>
+        <v>47.878581261634849</v>
       </c>
       <c r="C4">
         <v>46.043582630709402</v>
@@ -43656,8 +43910,8 @@
       <c r="F4">
         <v>576</v>
       </c>
-      <c r="G4">
-        <v>328.36195491254301</v>
+      <c r="G4" s="18">
+        <v>321.02858126163483</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -43666,7 +43920,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
-        <v>55.292836925387007</v>
+        <v>47.907751774787926</v>
       </c>
       <c r="C5">
         <v>48.171534442983898</v>
@@ -43680,8 +43934,8 @@
       <c r="F5">
         <v>576</v>
       </c>
-      <c r="G5">
-        <v>328.44283692538698</v>
+      <c r="G5" s="18">
+        <v>321.0577517747879</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -43690,7 +43944,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>66.214295825362001</v>
+        <v>48.402619338035606</v>
       </c>
       <c r="C6">
         <v>48.637331111067702</v>
@@ -43704,8 +43958,8 @@
       <c r="F6">
         <v>577.34577656750002</v>
       </c>
-      <c r="G6">
-        <v>339.36429582536198</v>
+      <c r="G6" s="18">
+        <v>321.55261933803558</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -43714,7 +43968,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>80.529962828755004</v>
+        <v>48.610585904121422</v>
       </c>
       <c r="C7">
         <v>48.837399453558803</v>
@@ -43728,8 +43982,8 @@
       <c r="F7">
         <v>578.69155313500096</v>
       </c>
-      <c r="G7">
-        <v>353.67996282875498</v>
+      <c r="G7" s="18">
+        <v>321.7605859041214</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -43738,7 +43992,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>91.277272602916014</v>
+        <v>48.748880600929283</v>
       </c>
       <c r="C8">
         <v>48.968482363985501</v>
@@ -43752,8 +44006,8 @@
       <c r="F8">
         <v>580.03732970250098</v>
       </c>
-      <c r="G8">
-        <v>364.42727260291599</v>
+      <c r="G8" s="18">
+        <v>321.89888060092926</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -43762,7 +44016,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>94.462033709883997</v>
+        <v>48.862749314308189</v>
       </c>
       <c r="C9">
         <v>49.076951638003301</v>
@@ -43776,8 +44030,8 @@
       <c r="F9">
         <v>581.38310627000101</v>
       </c>
-      <c r="G9">
-        <v>367.61203370988397</v>
+      <c r="G9" s="18">
+        <v>322.01274931430817</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -43786,7 +44040,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>92.912293574214004</v>
+        <v>48.97840020656588</v>
       </c>
       <c r="C10">
         <v>49.192221563876203</v>
@@ -43800,8 +44054,8 @@
       <c r="F10">
         <v>582.72888283750103</v>
       </c>
-      <c r="G10">
-        <v>366.06229357421398</v>
+      <c r="G10" s="18">
+        <v>322.12840020656586</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -43810,7 +44064,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>91.174148371816045</v>
+        <v>49.167424416542076</v>
       </c>
       <c r="C11">
         <v>49.388229804275099</v>
@@ -43824,8 +44078,8 @@
       <c r="F11">
         <v>584.07465940500197</v>
       </c>
-      <c r="G11">
-        <v>364.32414837181602</v>
+      <c r="G11" s="18">
+        <v>322.31742441654205</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -43834,7 +44088,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>91.436173370481015</v>
+        <v>49.903410649299644</v>
       </c>
       <c r="C12">
         <v>50.151837894986798</v>
@@ -43848,8 +44102,8 @@
       <c r="F12">
         <v>585.42043597250199</v>
       </c>
-      <c r="G12">
-        <v>364.58617337048099</v>
+      <c r="G12" s="18">
+        <v>323.05341064929962</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -43858,7 +44112,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>94.817419698834044</v>
+        <v>54.739809012413048</v>
       </c>
       <c r="C13">
         <v>54.9799937069698</v>
@@ -43872,8 +44126,8 @@
       <c r="F13">
         <v>586.76621254000202</v>
       </c>
-      <c r="G13">
-        <v>367.96741969883402</v>
+      <c r="G13" s="18">
+        <v>327.88980901241302</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -43882,7 +44136,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>131.21500273644904</v>
+        <v>55.175322270393394</v>
       </c>
       <c r="C14">
         <v>55.475286124278298</v>
@@ -43896,8 +44150,8 @@
       <c r="F14">
         <v>588.11198910750204</v>
       </c>
-      <c r="G14">
-        <v>404.36500273644901</v>
+      <c r="G14" s="18">
+        <v>328.32532227039337</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -43906,7 +44160,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>150.82938035428504</v>
+        <v>55.249869799613975</v>
       </c>
       <c r="C15">
         <v>55.681952080612703</v>
@@ -43920,8 +44174,8 @@
       <c r="F15">
         <v>589.45776567500297</v>
       </c>
-      <c r="G15">
-        <v>423.97938035428501</v>
+      <c r="G15" s="18">
+        <v>328.39986979961395</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -43930,7 +44184,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>157.27041696608103</v>
+        <v>55.192637419700645</v>
       </c>
       <c r="C16">
         <v>55.772428049256199</v>
@@ -43944,8 +44198,8 @@
       <c r="F16">
         <v>590.803542242503</v>
       </c>
-      <c r="G16">
-        <v>430.42041696608101</v>
+      <c r="G16" s="18">
+        <v>328.34263741970062</v>
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
@@ -43954,7 +44208,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>159.17987485826001</v>
+        <v>55.085074877738975</v>
       </c>
       <c r="C17">
         <v>55.815322520011698</v>
@@ -43968,8 +44222,8 @@
       <c r="F17">
         <v>592.14931881000302</v>
       </c>
-      <c r="G17">
-        <v>432.32987485825998</v>
+      <c r="G17" s="18">
+        <v>328.23507487773895</v>
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
@@ -43978,7 +44232,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>159.82304846346403</v>
+        <v>54.956799721717857</v>
       </c>
       <c r="C18">
         <v>55.837119346028203</v>
@@ -43992,8 +44246,8 @@
       <c r="F18">
         <v>593.49509537750305</v>
       </c>
-      <c r="G18">
-        <v>432.97304846346401</v>
+      <c r="G18" s="18">
+        <v>328.10679972171783</v>
       </c>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
@@ -44002,7 +44256,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>160.10183056294903</v>
+        <v>54.819917654991173</v>
       </c>
       <c r="C19">
         <v>55.847558602984101</v>
@@ -44016,8 +44270,8 @@
       <c r="F19">
         <v>594.84087194500398</v>
       </c>
-      <c r="G19">
-        <v>433.25183056294901</v>
+      <c r="G19" s="18">
+        <v>327.96991765499115</v>
       </c>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
@@ -44026,7 +44280,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>160.26183774173302</v>
+        <v>54.680812335014366</v>
       </c>
       <c r="C20">
         <v>55.849676477742896</v>
@@ -44040,8 +44294,8 @@
       <c r="F20">
         <v>596.18664851250401</v>
       </c>
-      <c r="G20">
-        <v>433.411837741733</v>
+      <c r="G20" s="18">
+        <v>327.83081233501434</v>
       </c>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
@@ -44050,7 +44304,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>160.37612666785702</v>
+        <v>54.544132924079918</v>
       </c>
       <c r="C21">
         <v>55.843548999819603</v>
@@ -44064,8 +44318,8 @@
       <c r="F21">
         <v>597.53242508000403</v>
       </c>
-      <c r="G21">
-        <v>433.526126667857</v>
+      <c r="G21" s="18">
+        <v>327.6941329240799</v>
       </c>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
@@ -44074,7 +44328,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>160.46531682312502</v>
+        <v>54.413759684562706</v>
       </c>
       <c r="C22">
         <v>55.827340623791699</v>
@@ -44088,8 +44342,8 @@
       <c r="F22">
         <v>598.87820164750406</v>
       </c>
-      <c r="G22">
-        <v>433.615316823125</v>
+      <c r="G22" s="18">
+        <v>327.56375968456268</v>
       </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
@@ -44098,7 +44352,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>160.51536013782004</v>
+        <v>54.292035079002403</v>
       </c>
       <c r="C23">
         <v>55.795734063302604</v>
@@ -44112,8 +44366,8 @@
       <c r="F23">
         <v>600.22397821500499</v>
       </c>
-      <c r="G23">
-        <v>433.66536013782002</v>
+      <c r="G23" s="18">
+        <v>327.44203507900238</v>
       </c>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
@@ -44122,7 +44376,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>160.42190527021904</v>
+        <v>54.169708466529869</v>
       </c>
       <c r="C24">
         <v>55.723509688218201</v>
@@ -44136,8 +44390,8 @@
       <c r="F24">
         <v>601.56975478250502</v>
       </c>
-      <c r="G24">
-        <v>433.57190527021902</v>
+      <c r="G24" s="18">
+        <v>327.31970846652985</v>
       </c>
       <c r="H24">
         <v>0.57599999999999996</v>
@@ -44332,7 +44586,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>159.62055509388404</v>
+        <v>53.821676945686363</v>
       </c>
       <c r="C25">
         <v>55.344109407954399</v>
@@ -44346,8 +44600,8 @@
       <c r="F25">
         <v>602.91553135000504</v>
       </c>
-      <c r="G25">
-        <v>432.77055509388401</v>
+      <c r="G25" s="18">
+        <v>326.97167694568634</v>
       </c>
       <c r="H25">
         <f>H24*1000</f>
@@ -44604,7 +44858,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>175.748939415812</v>
+        <v>53.820908045768761</v>
       </c>
       <c r="C26">
         <v>55.385015614794</v>
@@ -44618,8 +44872,8 @@
       <c r="F26">
         <v>604.26130791750495</v>
       </c>
-      <c r="G26">
-        <v>448.89893941581198</v>
+      <c r="G26" s="18">
+        <v>326.97090804576874</v>
       </c>
       <c r="H26">
         <v>576</v>
@@ -44814,7 +45068,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>179.871709248424</v>
+        <v>53.871250128746055</v>
       </c>
       <c r="C27">
         <v>55.4219035266308</v>
@@ -44828,8 +45082,8 @@
       <c r="F27">
         <v>605.607084485006</v>
       </c>
-      <c r="G27">
-        <v>453.02170924842397</v>
+      <c r="G27" s="18">
+        <v>327.02125012874603</v>
       </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
@@ -44838,7 +45092,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>180.66559617817404</v>
+        <v>53.987759327888512</v>
       </c>
       <c r="C28">
         <v>55.457441572728499</v>
@@ -44852,8 +45106,8 @@
       <c r="F28">
         <v>606.95286105250602</v>
       </c>
-      <c r="G28">
-        <v>453.81559617817402</v>
+      <c r="G28" s="18">
+        <v>327.13775932788849</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -44862,7 +45116,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>180.63642715513703</v>
+        <v>54.182642674446129</v>
       </c>
       <c r="C29">
         <v>55.492807114889303</v>
@@ -44876,8 +45130,8 @@
       <c r="F29">
         <v>608.29863762000605</v>
       </c>
-      <c r="G29">
-        <v>453.78642715513701</v>
+      <c r="G29" s="18">
+        <v>327.33264267444611</v>
       </c>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
@@ -44886,7 +45140,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>180.37513305842901</v>
+        <v>54.465651488304161</v>
       </c>
       <c r="C30">
         <v>55.528481248985301</v>
@@ -44900,8 +45154,8 @@
       <c r="F30">
         <v>609.64441418750596</v>
       </c>
-      <c r="G30">
-        <v>453.52513305842899</v>
+      <c r="G30" s="18">
+        <v>327.61565148830414</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -44910,7 +45164,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>180.00946750342803</v>
+        <v>54.843789315223717</v>
       </c>
       <c r="C31">
         <v>55.564954097481298</v>
@@ -44924,8 +45178,8 @@
       <c r="F31">
         <v>610.99019075500701</v>
       </c>
-      <c r="G31">
-        <v>453.159467503428</v>
+      <c r="G31" s="18">
+        <v>327.99378931522369</v>
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
@@ -44934,7 +45188,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>179.560163965821</v>
+        <v>55.320697999000572</v>
       </c>
       <c r="C32">
         <v>55.603125646644301</v>
@@ -44948,8 +45202,8 @@
       <c r="F32">
         <v>612.33596732250703</v>
       </c>
-      <c r="G32">
-        <v>452.71016396582098</v>
+      <c r="G32" s="18">
+        <v>328.47069799900055</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -44958,7 +45212,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>179.02281691730002</v>
+        <v>55.896091437339805</v>
       </c>
       <c r="C33">
         <v>55.642535222350503</v>
@@ -44972,8 +45226,8 @@
       <c r="F33">
         <v>613.68174389000706</v>
       </c>
-      <c r="G33">
-        <v>452.1728169173</v>
+      <c r="G33" s="18">
+        <v>329.04609143733978</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -44982,7 +45236,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>178.38666399419304</v>
+        <v>56.565254902839683</v>
       </c>
       <c r="C34">
         <v>55.683784575349698</v>
@@ -44996,8 +45250,8 @@
       <c r="F34">
         <v>615.02752045750697</v>
       </c>
-      <c r="G34">
-        <v>451.53666399419302</v>
+      <c r="G34" s="18">
+        <v>329.71525490283966</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -45006,7 +45260,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>177.63903175890403</v>
+        <v>57.318735098838829</v>
       </c>
       <c r="C35">
         <v>55.7275335971472</v>
@@ -45020,8 +45274,8 @@
       <c r="F35">
         <v>616.37329702500801</v>
       </c>
-      <c r="G35">
-        <v>450.789031758904</v>
+      <c r="G35" s="18">
+        <v>330.46873509883881</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -45030,7 +45284,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>176.766723743081</v>
+        <v>58.142220950126671</v>
       </c>
       <c r="C36">
         <v>55.773600524469003</v>
@@ -45044,8 +45298,8 @@
       <c r="F36">
         <v>617.71907359250804</v>
       </c>
-      <c r="G36">
-        <v>449.91672374308098</v>
+      <c r="G36" s="18">
+        <v>331.29222095012665</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -45054,7 +45308,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>175.75688546001902</v>
+        <v>59.01681778430941</v>
       </c>
       <c r="C37">
         <v>55.829560982055902</v>
@@ -45068,8 +45322,8 @@
       <c r="F37">
         <v>619.06485016000795</v>
       </c>
-      <c r="G37">
-        <v>448.906885460019</v>
+      <c r="G37" s="18">
+        <v>332.16681778430939</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -45078,7 +45332,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>174.59788282811604</v>
+        <v>59.919828152656578</v>
       </c>
       <c r="C38">
         <v>55.898871370666399</v>
@@ -45092,8 +45346,8 @@
       <c r="F38">
         <v>620.41062672750797</v>
       </c>
-      <c r="G38">
-        <v>447.74788282811602</v>
+      <c r="G38" s="18">
+        <v>333.06982815265656</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -45102,7 +45356,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>173.28034152686604</v>
+        <v>60.826051211357139</v>
       </c>
       <c r="C39">
         <v>55.974034854856797</v>
@@ -45116,8 +45370,8 @@
       <c r="F39">
         <v>621.75640329500902</v>
       </c>
-      <c r="G39">
-        <v>446.43034152686602</v>
+      <c r="G39" s="18">
+        <v>333.97605121135712</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -45126,7 +45380,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>171.798360696435</v>
+        <v>61.709642386436485</v>
       </c>
       <c r="C40">
         <v>56.059174593141798</v>
@@ -45140,8 +45394,8 @@
       <c r="F40">
         <v>623.10217986250905</v>
       </c>
-      <c r="G40">
-        <v>444.94836069643497</v>
+      <c r="G40" s="18">
+        <v>334.85964238643646</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -45150,7 +45404,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>170.15087415874001</v>
+        <v>62.546282982826256</v>
       </c>
       <c r="C41">
         <v>56.158400420386101</v>
@@ -45164,8 +45418,8 @@
       <c r="F41">
         <v>624.44795643000896</v>
       </c>
-      <c r="G41">
-        <v>443.30087415873999</v>
+      <c r="G41" s="18">
+        <v>335.69628298282623</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -45174,7 +45428,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>168.34287752807103</v>
+        <v>63.315373635292076</v>
       </c>
       <c r="C42">
         <v>56.272140186739399</v>
@@ -45188,8 +45442,8 @@
       <c r="F42">
         <v>625.79373299750898</v>
       </c>
-      <c r="G42">
-        <v>441.49287752807101</v>
+      <c r="G42" s="18">
+        <v>336.46537363529205</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -45198,7 +45452,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>166.386521211267</v>
+        <v>64.001804566383385</v>
       </c>
       <c r="C43">
         <v>56.405981867150601</v>
@@ -45212,8 +45466,8 @@
       <c r="F43">
         <v>627.13950956501003</v>
       </c>
-      <c r="G43">
-        <v>439.53652121126697</v>
+      <c r="G43" s="18">
+        <v>337.15180456638336</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -45222,7 +45476,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>164.30183460414401</v>
+        <v>64.596992707252525</v>
       </c>
       <c r="C44">
         <v>56.568995115090601</v>
@@ -45236,8 +45490,8 @@
       <c r="F44">
         <v>628.48528613251005</v>
       </c>
-      <c r="G44">
-        <v>437.45183460414398</v>
+      <c r="G44" s="18">
+        <v>337.7469927072525</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -45246,7 +45500,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>162.11690714061302</v>
+        <v>65.099054551124595</v>
       </c>
       <c r="C45">
         <v>56.7667675369892</v>
@@ -45260,8 +45514,8 @@
       <c r="F45">
         <v>629.83106270000997</v>
       </c>
-      <c r="G45">
-        <v>435.266907140613</v>
+      <c r="G45" s="18">
+        <v>338.24905455112457</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -45270,7 +45524,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>159.86767371594902</v>
+        <v>65.512102818489097</v>
       </c>
       <c r="C46">
         <v>57.009759387807499</v>
@@ -45284,8 +45538,8 @@
       <c r="F46">
         <v>631.17683926750999</v>
       </c>
-      <c r="G46">
-        <v>433.017673715949</v>
+      <c r="G46" s="18">
+        <v>338.66210281848907</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -45294,7 +45548,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>157.59727766215804</v>
+        <v>65.844923233985924</v>
       </c>
       <c r="C47">
         <v>57.295867897514803</v>
@@ -45308,8 +45562,8 @@
       <c r="F47">
         <v>632.52261583501104</v>
       </c>
-      <c r="G47">
-        <v>430.74727766215801</v>
+      <c r="G47" s="18">
+        <v>338.9949232339859</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -45318,7 +45572,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>155.35557453930403</v>
+        <v>66.109448647499107</v>
       </c>
       <c r="C48">
         <v>57.642965543990599</v>
@@ -45332,8 +45586,8 @@
       <c r="F48">
         <v>633.86839240251095</v>
       </c>
-      <c r="G48">
-        <v>428.50557453930401</v>
+      <c r="G48" s="18">
+        <v>339.25944864749908</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -45342,7 +45596,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>153.199219307303</v>
+        <v>66.319191431999229</v>
       </c>
       <c r="C49">
         <v>58.057429399797101</v>
@@ -45356,8 +45610,8 @@
       <c r="F49">
         <v>635.21416897001097</v>
       </c>
-      <c r="G49">
-        <v>426.34921930730297</v>
+      <c r="G49" s="18">
+        <v>339.46919143199921</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -45366,7 +45620,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>151.19291355311901</v>
+        <v>66.488003706932091</v>
       </c>
       <c r="C50">
         <v>58.538835291702597</v>
@@ -45380,8 +45634,8 @@
       <c r="F50">
         <v>636.559945537511</v>
       </c>
-      <c r="G50">
-        <v>424.34291355311899</v>
+      <c r="G50" s="18">
+        <v>339.63800370693207</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -45390,7 +45644,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>149.41214804947401</v>
+        <v>66.629183268547081</v>
       </c>
       <c r="C51">
         <v>59.073670614655398</v>
@@ -45404,8 +45658,8 @@
       <c r="F51">
         <v>637.90572210501205</v>
       </c>
-      <c r="G51">
-        <v>422.56214804947399</v>
+      <c r="G51" s="18">
+        <v>339.77918326854706</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -45414,7 +45668,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>147.94691090881804</v>
+        <v>66.754972910881065</v>
       </c>
       <c r="C52">
         <v>59.710782824925303</v>
@@ -45428,8 +45682,8 @@
       <c r="F52">
         <v>639.25149867251196</v>
       </c>
-      <c r="G52">
-        <v>421.09691090881802</v>
+      <c r="G52" s="18">
+        <v>339.90497291088104</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -45438,7 +45692,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>146.90449719727002</v>
+        <v>66.876435256004356</v>
       </c>
       <c r="C53">
         <v>60.384127439959002</v>
@@ -45452,8 +45706,8 @@
       <c r="F53">
         <v>640.59727524001198</v>
       </c>
-      <c r="G53">
-        <v>420.05449719727</v>
+      <c r="G53" s="18">
+        <v>340.02643525600433</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -45462,7 +45716,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>146.40807395279404</v>
+        <v>67.003661370277428</v>
       </c>
       <c r="C54">
         <v>61.096293131063398</v>
@@ -45476,8 +45730,8 @@
       <c r="F54">
         <v>641.94305180751201</v>
       </c>
-      <c r="G54">
-        <v>419.55807395279402</v>
+      <c r="G54" s="18">
+        <v>340.1536613702774</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -45486,7 +45740,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>146.58803676664803</v>
+        <v>67.146247601509117</v>
       </c>
       <c r="C55">
         <v>61.830301439656402</v>
@@ -45500,8 +45754,8 @@
       <c r="F55">
         <v>643.28882837501305</v>
       </c>
-      <c r="G55">
-        <v>419.73803676664801</v>
+      <c r="G55" s="18">
+        <v>340.29624760150909</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -45510,7 +45764,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>147.570033720136</v>
+        <v>67.314189648628258</v>
       </c>
       <c r="C56">
         <v>62.5657958466808</v>
@@ -45524,8 +45778,8 @@
       <c r="F56">
         <v>644.63460494251296</v>
       </c>
-      <c r="G56">
-        <v>420.72003372013597</v>
+      <c r="G56" s="18">
+        <v>340.46418964862823</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -45534,7 +45788,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>149.47520007789103</v>
+        <v>67.51937863826754</v>
       </c>
       <c r="C57">
         <v>63.283943278721601</v>
@@ -45548,8 +45802,8 @@
       <c r="F57">
         <v>645.98038151001299</v>
       </c>
-      <c r="G57">
-        <v>422.62520007789101</v>
+      <c r="G57" s="18">
+        <v>340.66937863826752</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -45558,7 +45812,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>152.44568621218201</v>
+        <v>67.778319096565269</v>
       </c>
       <c r="C58">
         <v>63.966767795580502</v>
@@ -45572,8 +45826,8 @@
       <c r="F58">
         <v>647.32615807751301</v>
       </c>
-      <c r="G58">
-        <v>425.59568621218199</v>
+      <c r="G58" s="18">
+        <v>340.92831909656525</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -45582,7 +45836,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>156.65297245085202</v>
+        <v>68.117541050910972</v>
       </c>
       <c r="C59">
         <v>64.614439781489594</v>
@@ -45596,8 +45850,8 @@
       <c r="F59">
         <v>648.67193464501395</v>
       </c>
-      <c r="G59">
-        <v>429.802972450852</v>
+      <c r="G59" s="18">
+        <v>341.26754105091095</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -45606,7 +45860,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>162.15515544116505</v>
+        <v>68.585330224037193</v>
       </c>
       <c r="C60">
         <v>65.249609590819404</v>
@@ -45620,8 +45874,8 @@
       <c r="F60">
         <v>650.01771121251397</v>
       </c>
-      <c r="G60">
-        <v>435.30515544116503</v>
+      <c r="G60" s="18">
+        <v>341.73533022403717</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -45630,7 +45884,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>168.57645770013301</v>
+        <v>69.280034279823326</v>
       </c>
       <c r="C61">
         <v>65.944758620172394</v>
@@ -45644,8 +45898,8 @@
       <c r="F61">
         <v>651.363487780014</v>
       </c>
-      <c r="G61">
-        <v>441.72645770013298</v>
+      <c r="G61" s="18">
+        <v>342.4300342798233</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -45654,7 +45908,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>175.03164296448205</v>
+        <v>70.436787581443809</v>
       </c>
       <c r="C62">
         <v>66.935453844689704</v>
@@ -45668,8 +45922,8 @@
       <c r="F62">
         <v>652.70926434751402</v>
       </c>
-      <c r="G62">
-        <v>448.18164296448202</v>
+      <c r="G62" s="18">
+        <v>343.58678758144379</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -45678,7 +45932,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>180.67864512503104</v>
+        <v>72.8706598043442</v>
       </c>
       <c r="C63">
         <v>69.210593338762493</v>
@@ -45692,8 +45946,8 @@
       <c r="F63">
         <v>654.05504091501496</v>
       </c>
-      <c r="G63">
-        <v>453.82864512503102</v>
+      <c r="G63" s="18">
+        <v>346.02065980434418</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -45702,7 +45956,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>185.36799808442601</v>
+        <v>81.339389061927818</v>
       </c>
       <c r="C64">
         <v>78.942378390062203</v>
@@ -45713,8 +45967,8 @@
       <c r="F64">
         <v>655.40081748251498</v>
       </c>
-      <c r="G64">
-        <v>458.51799808442598</v>
+      <c r="G64" s="18">
+        <v>354.4893890619278</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -45723,7 +45977,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>190.45340602695904</v>
+        <v>115.51935074329378</v>
       </c>
       <c r="C65">
         <v>118.59490960456699</v>
@@ -45734,8 +45988,8 @@
       <c r="F65">
         <v>655.40081748251498</v>
       </c>
-      <c r="G65">
-        <v>463.60340602695902</v>
+      <c r="G65" s="18">
+        <v>388.66935074329376</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -45782,10 +46036,10 @@
       <c r="E69" s="10">
         <v>3.9516105327975499E-19</v>
       </c>
-      <c r="G69">
-        <v>376.199841596017</v>
-      </c>
-      <c r="H69">
+      <c r="G69" s="18">
+        <v>376.19997172829449</v>
+      </c>
+      <c r="H69" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45805,11 +46059,11 @@
       <c r="E70">
         <v>1689.25118409422</v>
       </c>
-      <c r="G70">
-        <v>1040.72655204744</v>
-      </c>
-      <c r="H70">
-        <v>1689.1992887400099</v>
+      <c r="G70" s="18">
+        <v>422.4668124170737</v>
+      </c>
+      <c r="H70" s="18">
+        <v>1689.1998730553828</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -45828,11 +46082,11 @@
       <c r="E71">
         <v>1687.3186132999399</v>
       </c>
-      <c r="G71">
-        <v>980.48123914113796</v>
-      </c>
-      <c r="H71">
-        <v>2353.7259991914402</v>
+      <c r="G71" s="18">
+        <v>422.43382048410126</v>
+      </c>
+      <c r="H71" s="18">
+        <v>1735.466713744162</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -45851,11 +46105,11 @@
       <c r="E72">
         <v>1685.7585791844001</v>
       </c>
-      <c r="G72">
-        <v>929.68479672977003</v>
-      </c>
-      <c r="H72">
-        <v>2293.4806862851301</v>
+      <c r="G72" s="18">
+        <v>422.32844595802135</v>
+      </c>
+      <c r="H72" s="18">
+        <v>1735.4337218111896</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -45874,11 +46128,11 @@
       <c r="E73">
         <v>1684.62511566952</v>
       </c>
-      <c r="G73">
-        <v>920.50193290632797</v>
-      </c>
-      <c r="H73">
-        <v>2242.6842438737599</v>
+      <c r="G73" s="18">
+        <v>422.18937504061205</v>
+      </c>
+      <c r="H73" s="18">
+        <v>1735.3283472851097</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -45897,11 +46151,11 @@
       <c r="E74">
         <v>1683.67940325472</v>
       </c>
-      <c r="G74">
-        <v>933.79040660491</v>
-      </c>
-      <c r="H74">
-        <v>2233.5013800503202</v>
+      <c r="G74" s="18">
+        <v>422.03766905626867</v>
+      </c>
+      <c r="H74" s="18">
+        <v>1735.1892763677004</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -45920,11 +46174,11 @@
       <c r="E75">
         <v>1682.65583783588</v>
       </c>
-      <c r="G75">
-        <v>941.52962656144405</v>
-      </c>
-      <c r="H75">
-        <v>2246.7898537489</v>
+      <c r="G75" s="18">
+        <v>421.81395273683938</v>
+      </c>
+      <c r="H75" s="18">
+        <v>1735.037570383357</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -45943,11 +46197,11 @@
       <c r="E76">
         <v>1680.83659073389</v>
       </c>
-      <c r="G76">
-        <v>939.59986191937298</v>
-      </c>
-      <c r="H76">
-        <v>2254.5290737054402</v>
+      <c r="G76" s="18">
+        <v>421.12124428473794</v>
+      </c>
+      <c r="H76" s="18">
+        <v>1734.8138540639277</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -45966,11 +46220,11 @@
       <c r="E77">
         <v>1673.5527387700099</v>
       </c>
-      <c r="G77">
-        <v>930.93109402309904</v>
-      </c>
-      <c r="H77">
-        <v>2252.5993090633701</v>
+      <c r="G77" s="18">
+        <v>416.99513831493346</v>
+      </c>
+      <c r="H77" s="18">
+        <v>1734.1211456118263</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -45989,11 +46243,11 @@
       <c r="E78">
         <v>1628.23660289022</v>
       </c>
-      <c r="G78">
-        <v>2324.9832128803901</v>
-      </c>
-      <c r="H78">
-        <v>2243.9305411670898</v>
+      <c r="G78" s="18">
+        <v>2021.6550051780507</v>
+      </c>
+      <c r="H78" s="18">
+        <v>1729.9950396420218</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -46012,11 +46266,11 @@
       <c r="E79">
         <v>1847.9365901557901</v>
       </c>
-      <c r="G79">
-        <v>2226.4271575998901</v>
-      </c>
-      <c r="H79">
-        <v>2019.98266002438</v>
+      <c r="G79" s="18">
+        <v>2019.9007659398601</v>
+      </c>
+      <c r="H79" s="18">
+        <v>1716.654906505139</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -46035,11 +46289,11 @@
       <c r="E80">
         <v>1852.4370496732199</v>
       </c>
-      <c r="G80">
-        <v>2214.5005959750501</v>
-      </c>
-      <c r="H80">
-        <v>1921.42660474388</v>
+      <c r="G80" s="18">
+        <v>2019.6512313278308</v>
+      </c>
+      <c r="H80" s="18">
+        <v>1714.9006672669484</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -46058,11 +46312,11 @@
       <c r="E81">
         <v>1854.47035012121</v>
       </c>
-      <c r="G81">
-        <v>2214.09548427461</v>
-      </c>
-      <c r="H81">
-        <v>1909.5000431190399</v>
+      <c r="G81" s="18">
+        <v>2019.9764130716865</v>
+      </c>
+      <c r="H81" s="18">
+        <v>1714.6511326549191</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -46081,11 +46335,11 @@
       <c r="E82">
         <v>1855.51400709785</v>
       </c>
-      <c r="G82">
-        <v>2213.9379900019198</v>
-      </c>
-      <c r="H82">
-        <v>1909.09493141861</v>
+      <c r="G82" s="18">
+        <v>2020.5562242255201</v>
+      </c>
+      <c r="H82" s="18">
+        <v>1714.9763143987748</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -46104,11 +46358,11 @@
       <c r="E83">
         <v>1856.17799542901</v>
       </c>
-      <c r="G83">
-        <v>2213.7790611968599</v>
-      </c>
-      <c r="H83">
-        <v>1908.9374371459101</v>
+      <c r="G83" s="18">
+        <v>2021.2786874206872</v>
+      </c>
+      <c r="H83" s="18">
+        <v>1715.5561255526084</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -46127,11 +46381,11 @@
       <c r="E84">
         <v>1856.70841842256</v>
       </c>
-      <c r="G84">
-        <v>2213.7004706460398</v>
-      </c>
-      <c r="H84">
-        <v>1908.7785083408501</v>
+      <c r="G84" s="18">
+        <v>2022.100175662187</v>
+      </c>
+      <c r="H84" s="18">
+        <v>1716.2785887477755</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -46150,11 +46404,11 @@
       <c r="E85">
         <v>1857.2074256615099</v>
       </c>
-      <c r="G85">
-        <v>2213.70449269133</v>
-      </c>
-      <c r="H85">
-        <v>1908.69991779003</v>
+      <c r="G85" s="18">
+        <v>2022.9971162818358</v>
+      </c>
+      <c r="H85" s="18">
+        <v>1717.1000769892753</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -46173,11 +46427,11 @@
       <c r="E86">
         <v>1857.72097513925</v>
       </c>
-      <c r="G86">
-        <v>2213.8214229979199</v>
-      </c>
-      <c r="H86">
-        <v>1908.7039398353299</v>
+      <c r="G86" s="18">
+        <v>2023.949497898124</v>
+      </c>
+      <c r="H86" s="18">
+        <v>1717.9970176089241</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -46196,11 +46450,11 @@
       <c r="E87">
         <v>1858.27977643549</v>
       </c>
-      <c r="G87">
-        <v>2214.23088888749</v>
-      </c>
-      <c r="H87">
-        <v>1908.8208701419101</v>
+      <c r="G87" s="18">
+        <v>2024.9371326314003</v>
+      </c>
+      <c r="H87" s="18">
+        <v>1718.9493992252123</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -46219,11 +46473,11 @@
       <c r="E88">
         <v>1858.93457294892</v>
       </c>
-      <c r="G88">
-        <v>2215.6525659501399</v>
-      </c>
-      <c r="H88">
-        <v>1909.23033603149</v>
+      <c r="G88" s="18">
+        <v>2025.9513304508685</v>
+      </c>
+      <c r="H88" s="18">
+        <v>1719.9370339584887</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -46242,11 +46496,11 @@
       <c r="E89">
         <v>1859.93440405416</v>
       </c>
-      <c r="G89">
-        <v>2221.1366981944798</v>
-      </c>
-      <c r="H89">
-        <v>1910.6520130941401</v>
+      <c r="G89" s="18">
+        <v>2027.187065285616</v>
+      </c>
+      <c r="H89" s="18">
+        <v>1720.9512317779568</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -46265,11 +46519,11 @@
       <c r="E90">
         <v>1864.04417227206</v>
       </c>
-      <c r="G90">
-        <v>2187.2044832176198</v>
-      </c>
-      <c r="H90">
-        <v>1916.13614533848</v>
+      <c r="G90" s="18">
+        <v>2131.5315252158857</v>
+      </c>
+      <c r="H90" s="18">
+        <v>1722.1869666127043</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -46288,11 +46542,11 @@
       <c r="E91">
         <v>1864.7005738985399</v>
       </c>
-      <c r="G91">
-        <v>2187.81205982859</v>
-      </c>
-      <c r="H91">
-        <v>1779.1039303616101</v>
+      <c r="G91" s="18">
+        <v>2133.527377700264</v>
+      </c>
+      <c r="H91" s="18">
+        <v>1723.4314265429741</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -46311,11 +46565,11 @@
       <c r="E92">
         <v>1865.03536285317</v>
       </c>
-      <c r="G92">
-        <v>2190.5296709028898</v>
-      </c>
-      <c r="H92">
-        <v>1779.7115069725801</v>
+      <c r="G92" s="18">
+        <v>2135.6302383701664</v>
+      </c>
+      <c r="H92" s="18">
+        <v>1725.4272790273521</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -46334,11 +46588,11 @@
       <c r="E93">
         <v>1865.31959988891</v>
       </c>
-      <c r="G93">
-        <v>2192.3996113630801</v>
-      </c>
-      <c r="H93">
-        <v>1782.4291180468899</v>
+      <c r="G93" s="18">
+        <v>2137.8049776831167</v>
+      </c>
+      <c r="H93" s="18">
+        <v>1727.5301396972548</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -46357,11 +46611,11 @@
       <c r="E94">
         <v>1865.57634210423</v>
       </c>
-      <c r="G94">
-        <v>2194.1741853897602</v>
-      </c>
-      <c r="H94">
-        <v>1784.29905850707</v>
+      <c r="G94" s="18">
+        <v>2140.0334137785881</v>
+      </c>
+      <c r="H94" s="18">
+        <v>1729.7048790102049</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -46380,11 +46634,11 @@
       <c r="E95">
         <v>1865.8355613399201</v>
       </c>
-      <c r="G95">
-        <v>2196.13742056404</v>
-      </c>
-      <c r="H95">
-        <v>1786.07363253375</v>
+      <c r="G95" s="18">
+        <v>2142.3140900085154</v>
+      </c>
+      <c r="H95" s="18">
+        <v>1731.9333151056762</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -46403,11 +46657,11 @@
       <c r="E96">
         <v>1866.1606313700399</v>
       </c>
-      <c r="G96">
-        <v>2198.3892946470501</v>
-      </c>
-      <c r="H96">
-        <v>1788.0368677080401</v>
+      <c r="G96" s="18">
+        <v>2144.6643183591664</v>
+      </c>
+      <c r="H96" s="18">
+        <v>1734.2139913356039</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -46426,11 +46680,11 @@
       <c r="E97">
         <v>1866.5440161382301</v>
       </c>
-      <c r="G97">
-        <v>2200.9875662624499</v>
-      </c>
-      <c r="H97">
-        <v>1790.2887417910499</v>
+      <c r="G97" s="18">
+        <v>2147.1212671902867</v>
+      </c>
+      <c r="H97" s="18">
+        <v>1736.5642196862548</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -46449,11 +46703,11 @@
       <c r="E98">
         <v>1866.7903906517499</v>
       </c>
-      <c r="G98">
-        <v>2203.9824052518002</v>
-      </c>
-      <c r="H98">
-        <v>1792.88701340644</v>
+      <c r="G98" s="18">
+        <v>2149.7402687606059</v>
+      </c>
+      <c r="H98" s="18">
+        <v>1739.0211685173751</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -46472,11 +46726,11 @@
       <c r="E99">
         <v>1867.21504461788</v>
       </c>
-      <c r="G99">
-        <v>2207.4232313119001</v>
-      </c>
-      <c r="H99">
-        <v>1795.88185239579</v>
+      <c r="G99" s="18">
+        <v>2152.5895699262232</v>
+      </c>
+      <c r="H99" s="18">
+        <v>1741.6401700876943</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -46495,11 +46749,11 @@
       <c r="E100">
         <v>1867.80721763478</v>
       </c>
-      <c r="G100">
-        <v>2211.3585017977498</v>
-      </c>
-      <c r="H100">
-        <v>1799.3226784558899</v>
+      <c r="G100" s="18">
+        <v>2155.7415292093278</v>
+      </c>
+      <c r="H100" s="18">
+        <v>1744.4894712533116</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -46518,11 +46772,11 @@
       <c r="E101">
         <v>1868.59805288132</v>
       </c>
-      <c r="G101">
-        <v>2215.83367148658</v>
-      </c>
-      <c r="H101">
-        <v>1803.2579489417401</v>
+      <c r="G101" s="18">
+        <v>2159.2612107030554</v>
+      </c>
+      <c r="H101" s="18">
+        <v>1747.6414305364162</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -46541,11 +46795,11 @@
       <c r="E102">
         <v>1870.10032126589</v>
       </c>
-      <c r="G102">
-        <v>2220.8884324983001</v>
-      </c>
-      <c r="H102">
-        <v>1807.7331186305701</v>
+      <c r="G102" s="18">
+        <v>2163.1939132214002</v>
+      </c>
+      <c r="H102" s="18">
+        <v>1751.1611120301438</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -46564,11 +46818,11 @@
       <c r="E103">
         <v>1870.19031161421</v>
       </c>
-      <c r="G103">
-        <v>2226.5535098789901</v>
-      </c>
-      <c r="H103">
-        <v>1812.7878796422899</v>
+      <c r="G103" s="18">
+        <v>2167.5538438348754</v>
+      </c>
+      <c r="H103" s="18">
+        <v>1755.0938145484886</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -46587,11 +46841,11 @@
       <c r="E104">
         <v>1867.8320182103701</v>
       </c>
-      <c r="G104">
-        <v>2232.8474474069499</v>
-      </c>
-      <c r="H104">
-        <v>1818.4529570229899</v>
+      <c r="G104" s="18">
+        <v>2172.3164513346278</v>
+      </c>
+      <c r="H104" s="18">
+        <v>1759.4537451619635</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -46610,11 +46864,11 @@
       <c r="E105">
         <v>1866.1983316184001</v>
       </c>
-      <c r="G105">
-        <v>2239.7738589803598</v>
-      </c>
-      <c r="H105">
-        <v>1824.7468945509399</v>
+      <c r="G105" s="18">
+        <v>2177.4164641389116</v>
+      </c>
+      <c r="H105" s="18">
+        <v>1764.2163526617162</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -46633,11 +46887,11 @@
       <c r="E106">
         <v>1864.9175275308401</v>
       </c>
-      <c r="G106">
-        <v>2247.3197026415</v>
-      </c>
-      <c r="H106">
-        <v>1831.6733061243499</v>
+      <c r="G106" s="18">
+        <v>2182.7525651120081</v>
+      </c>
+      <c r="H106" s="18">
+        <v>1769.316365466</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -46656,11 +46910,11 @@
       <c r="E107">
         <v>1863.4332058519001</v>
       </c>
-      <c r="G107">
-        <v>2255.4544102917198</v>
-      </c>
-      <c r="H107">
-        <v>1839.2191497854899</v>
+      <c r="G107" s="18">
+        <v>2188.1979827401819</v>
+      </c>
+      <c r="H107" s="18">
+        <v>1774.6524664390965</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -46679,11 +46933,11 @@
       <c r="E108">
         <v>1862.9686113085099</v>
       </c>
-      <c r="G108">
-        <v>2264.1301699897299</v>
-      </c>
-      <c r="H108">
-        <v>1847.3538574357101</v>
+      <c r="G108" s="18">
+        <v>2193.614748063249</v>
+      </c>
+      <c r="H108" s="18">
+        <v>1780.0978840672703</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -46702,11 +46956,11 @@
       <c r="E109">
         <v>1863.2109748009</v>
       </c>
-      <c r="G109">
-        <v>2273.28256970539</v>
-      </c>
-      <c r="H109">
-        <v>1856.02961713373</v>
+      <c r="G109" s="18">
+        <v>2198.8683376101553</v>
+      </c>
+      <c r="H109" s="18">
+        <v>1785.5146493903374</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -46725,11 +46979,11 @@
       <c r="E110">
         <v>1862.9115674085101</v>
       </c>
-      <c r="G110">
-        <v>2282.8302380322698</v>
-      </c>
-      <c r="H110">
-        <v>1865.18201684938</v>
+      <c r="G110" s="18">
+        <v>2203.83980486174</v>
+      </c>
+      <c r="H110" s="18">
+        <v>1790.7682389372437</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -46748,11 +47002,11 @@
       <c r="E111">
         <v>1862.40521809292</v>
       </c>
-      <c r="G111">
-        <v>2292.6722605084001</v>
-      </c>
-      <c r="H111">
-        <v>1874.7296851762601</v>
+      <c r="G111" s="18">
+        <v>2208.4334920058782</v>
+      </c>
+      <c r="H111" s="18">
+        <v>1795.7397061888284</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -46771,11 +47025,11 @@
       <c r="E112">
         <v>1860.4491776745799</v>
       </c>
-      <c r="G112">
-        <v>2302.6810620796</v>
-      </c>
-      <c r="H112">
-        <v>1884.5717076523899</v>
+      <c r="G112" s="18">
+        <v>2212.5799773214976</v>
+      </c>
+      <c r="H112" s="18">
+        <v>1800.3333933329664</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -46794,11 +47048,11 @@
       <c r="E113">
         <v>1860.48771468414</v>
       </c>
-      <c r="G113">
-        <v>2312.6894452461902</v>
-      </c>
-      <c r="H113">
-        <v>1894.5805092235901</v>
+      <c r="G113" s="18">
+        <v>2216.2349115782645</v>
+      </c>
+      <c r="H113" s="18">
+        <v>1804.479878648586</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -46817,11 +47071,11 @@
       <c r="E114">
         <v>1859.0974178727399</v>
       </c>
-      <c r="G114">
-        <v>2322.4701118787598</v>
-      </c>
-      <c r="H114">
-        <v>1904.58889239018</v>
+      <c r="G114" s="18">
+        <v>2219.375217615509</v>
+      </c>
+      <c r="H114" s="18">
+        <v>1808.1348129053526</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -46840,11 +47094,11 @@
       <c r="E115">
         <v>1856.2286238701699</v>
       </c>
-      <c r="G115">
-        <v>2331.7070854261501</v>
-      </c>
-      <c r="H115">
-        <v>1914.3695590227601</v>
+      <c r="G115" s="18">
+        <v>2221.9938986858597</v>
+      </c>
+      <c r="H115" s="18">
+        <v>1811.2751189425974</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -46863,11 +47117,11 @@
       <c r="E116">
         <v>1853.5240444590099</v>
       </c>
-      <c r="G116">
-        <v>2339.9610269906402</v>
-      </c>
-      <c r="H116">
-        <v>1923.60653257015</v>
+      <c r="G116" s="18">
+        <v>2224.0945504995225</v>
+      </c>
+      <c r="H116" s="18">
+        <v>1813.8938000129478</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -46886,11 +47140,11 @@
       <c r="E117">
         <v>1857.34795919875</v>
       </c>
-      <c r="G117">
-        <v>2346.6363748656599</v>
-      </c>
-      <c r="H117">
-        <v>1931.8604741346401</v>
+      <c r="G117" s="18">
+        <v>2225.6860361117324</v>
+      </c>
+      <c r="H117" s="18">
+        <v>1815.9944518266109</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -46909,11 +47163,11 @@
       <c r="E118">
         <v>1848.1531172089101</v>
       </c>
-      <c r="G118">
-        <v>2350.9689086972198</v>
-      </c>
-      <c r="H118">
-        <v>1938.53582200965</v>
+      <c r="G118" s="18">
+        <v>2226.7774120388253</v>
+      </c>
+      <c r="H118" s="18">
+        <v>1817.5859374388208</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -46932,11 +47186,11 @@
       <c r="E119">
         <v>1845.8675779883799</v>
       </c>
-      <c r="G119">
-        <v>2352.0602171250298</v>
-      </c>
-      <c r="H119">
-        <v>1942.8683558412099</v>
+      <c r="G119" s="18">
+        <v>2227.3727239413656</v>
+      </c>
+      <c r="H119" s="18">
+        <v>1818.6773133659135</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -46955,11 +47209,11 @@
       <c r="E120">
         <v>1844.7465668192201</v>
       </c>
-      <c r="G120">
-        <v>2348.9668303737699</v>
-      </c>
-      <c r="H120">
-        <v>1943.9596642690301</v>
+      <c r="G120" s="18">
+        <v>2227.4647501377353</v>
+      </c>
+      <c r="H120" s="18">
+        <v>1819.272625268454</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -46978,11 +47232,11 @@
       <c r="E121">
         <v>1843.9181934043299</v>
       </c>
-      <c r="G121">
-        <v>2340.7863672421599</v>
-      </c>
-      <c r="H121">
-        <v>1940.86627751776</v>
+      <c r="G121" s="18">
+        <v>2227.0257621030637</v>
+      </c>
+      <c r="H121" s="18">
+        <v>1819.3646514648235</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -47001,11 +47255,11 @@
       <c r="E122">
         <v>1842.97605425854</v>
       </c>
-      <c r="G122">
-        <v>2326.6422236218</v>
-      </c>
-      <c r="H122">
-        <v>1932.68581438615</v>
+      <c r="G122" s="18">
+        <v>2225.9913664817032</v>
+      </c>
+      <c r="H122" s="18">
+        <v>1818.9256634301521</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -47024,11 +47278,11 @@
       <c r="E123">
         <v>1841.4017903848001</v>
       </c>
-      <c r="G123">
-        <v>2305.7053039013699</v>
-      </c>
-      <c r="H123">
-        <v>1918.5416707658001</v>
+      <c r="G123" s="18">
+        <v>2224.2286735265038</v>
+      </c>
+      <c r="H123" s="18">
+        <v>1817.8912678087913</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -47047,11 +47301,11 @@
       <c r="E124">
         <v>1840.4566803176999</v>
       </c>
-      <c r="G124">
-        <v>2277.97684471606</v>
-      </c>
-      <c r="H124">
-        <v>1897.60475104536</v>
+      <c r="G124" s="18">
+        <v>2221.4686274807877</v>
+      </c>
+      <c r="H124" s="18">
+        <v>1816.1285748535922</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -47070,11 +47324,11 @@
       <c r="E125">
         <v>1839.19551643113</v>
       </c>
-      <c r="G125">
-        <v>2246.2259756486601</v>
-      </c>
-      <c r="H125">
-        <v>1869.8762918600501</v>
+      <c r="G125" s="18">
+        <v>2217.1521054339751</v>
+      </c>
+      <c r="H125" s="18">
+        <v>1813.3685288078761</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -47093,11 +47347,11 @@
       <c r="E126">
         <v>1836.7000095062999</v>
       </c>
-      <c r="G126">
-        <v>2216.5549659794901</v>
-      </c>
-      <c r="H126">
-        <v>1838.1254227926499</v>
+      <c r="G126" s="18">
+        <v>2210.0362414866108</v>
+      </c>
+      <c r="H126" s="18">
+        <v>1809.0520067610635</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -47116,11 +47370,11 @@
       <c r="E127">
         <v>1832.0745124909899</v>
       </c>
-      <c r="G127">
-        <v>2194.5474527174501</v>
-      </c>
-      <c r="H127">
-        <v>1808.45441312348</v>
+      <c r="G127" s="18">
+        <v>2196.8028144559771</v>
+      </c>
+      <c r="H127" s="18">
+        <v>1801.936142813699</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -47139,14 +47393,14 @@
       <c r="E128">
         <v>1815.55771199844</v>
       </c>
-      <c r="G128">
-        <v>2181.2302125024098</v>
-      </c>
-      <c r="H128">
-        <v>1786.44689986144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G128" s="18">
+        <v>2163.45887971714</v>
+      </c>
+      <c r="H128" s="18">
+        <v>1788.7027157830655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>61</v>
       </c>
@@ -47162,14 +47416,14 @@
       <c r="E129">
         <v>1727.4826528097501</v>
       </c>
-      <c r="G129">
-        <v>2097.3008347309501</v>
-      </c>
-      <c r="H129">
-        <v>1773.1296596463999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G129" s="18">
+        <v>2029.4479521855869</v>
+      </c>
+      <c r="H129" s="18">
+        <v>1755.3587810442282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>62</v>
       </c>
@@ -47185,199 +47439,11 @@
       <c r="E130">
         <v>1380.7692127386699</v>
       </c>
-      <c r="G130">
-        <v>408.10055285600902</v>
-      </c>
-      <c r="H130">
-        <v>1689.20028187495</v>
-      </c>
-    </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1986</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G134" t="s">
-        <v>1992</v>
-      </c>
-      <c r="H134" t="s">
-        <v>1993</v>
-      </c>
-      <c r="I134" t="s">
-        <v>1994</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K134" t="s">
-        <v>1996</v>
-      </c>
-      <c r="L134" t="s">
-        <v>1997</v>
-      </c>
-      <c r="M134" t="s">
-        <v>1998</v>
-      </c>
-      <c r="N134" t="s">
-        <v>1999</v>
-      </c>
-      <c r="O134" t="s">
-        <v>2000</v>
-      </c>
-      <c r="P134" t="s">
-        <v>2001</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>2002</v>
-      </c>
-      <c r="R134" t="s">
-        <v>2003</v>
-      </c>
-      <c r="S134" t="s">
-        <v>2004</v>
-      </c>
-      <c r="T134" t="s">
-        <v>2005</v>
-      </c>
-      <c r="U134" t="s">
-        <v>2006</v>
-      </c>
-      <c r="V134" t="s">
-        <v>2007</v>
-      </c>
-      <c r="W134" t="s">
-        <v>2008</v>
-      </c>
-      <c r="X134" t="s">
-        <v>2009</v>
-      </c>
-      <c r="Y134" t="s">
-        <v>2010</v>
-      </c>
-      <c r="Z134" t="s">
-        <v>2011</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>2012</v>
-      </c>
-      <c r="AB134" t="s">
-        <v>2013</v>
-      </c>
-      <c r="AC134" t="s">
-        <v>2014</v>
-      </c>
-      <c r="AD134" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AE134" t="s">
-        <v>2016</v>
-      </c>
-      <c r="AF134" t="s">
-        <v>2017</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>2018</v>
-      </c>
-      <c r="AH134" t="s">
-        <v>2019</v>
-      </c>
-      <c r="AI134" t="s">
-        <v>2020</v>
-      </c>
-      <c r="AJ134" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AK134" t="s">
-        <v>2022</v>
-      </c>
-      <c r="AL134" t="s">
-        <v>2023</v>
-      </c>
-      <c r="AM134" t="s">
-        <v>2024</v>
-      </c>
-      <c r="AN134" t="s">
-        <v>2025</v>
-      </c>
-      <c r="AO134" t="s">
-        <v>2026</v>
-      </c>
-      <c r="AP134" t="s">
-        <v>2027</v>
-      </c>
-      <c r="AQ134" t="s">
-        <v>2028</v>
-      </c>
-      <c r="AR134" t="s">
-        <v>2029</v>
-      </c>
-      <c r="AS134" t="s">
-        <v>2030</v>
-      </c>
-      <c r="AT134" t="s">
-        <v>2031</v>
-      </c>
-      <c r="AU134" t="s">
-        <v>2032</v>
-      </c>
-      <c r="AV134" t="s">
-        <v>2033</v>
-      </c>
-      <c r="AW134" t="s">
-        <v>2034</v>
-      </c>
-      <c r="AX134" t="s">
-        <v>2035</v>
-      </c>
-      <c r="AY134" t="s">
-        <v>2036</v>
-      </c>
-      <c r="AZ134" t="s">
-        <v>2037</v>
-      </c>
-      <c r="BA134" t="s">
-        <v>2038</v>
-      </c>
-      <c r="BB134" t="s">
-        <v>2039</v>
-      </c>
-      <c r="BC134" t="s">
-        <v>2040</v>
-      </c>
-      <c r="BD134" t="s">
-        <v>2041</v>
-      </c>
-      <c r="BE134" t="s">
-        <v>2042</v>
-      </c>
-      <c r="BF134" t="s">
-        <v>2043</v>
-      </c>
-      <c r="BG134" t="s">
-        <v>2044</v>
-      </c>
-      <c r="BH134" t="s">
-        <v>2045</v>
-      </c>
-      <c r="BI134" t="s">
-        <v>2046</v>
-      </c>
-      <c r="BJ134" t="s">
-        <v>2047</v>
+      <c r="G130" s="18">
+        <v>391.70781729683097</v>
+      </c>
+      <c r="H130" s="18">
+        <v>1621.3478535126753</v>
       </c>
     </row>
   </sheetData>
@@ -47387,7 +47453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -64791,7 +64857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -72122,7 +72188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E593F286-4F2D-412D-8055-6460EFE86951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="kij" sheetId="9" r:id="rId9"/>
     <sheet name="zf" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="2024">
   <si>
     <t>№</t>
   </si>
@@ -6738,11 +6737,17 @@
   <si>
     <t>n-C11</t>
   </si>
+  <si>
+    <t>Distilate</t>
+  </si>
+  <si>
+    <t>Bottoms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -6923,8 +6928,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6940,7 +6945,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7377,7 +7382,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7780,7 +7785,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7794,11 +7799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60262080"/>
-        <c:axId val="60262656"/>
+        <c:axId val="43530432"/>
+        <c:axId val="43531008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60262080"/>
+        <c:axId val="43530432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -7824,19 +7829,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60262656"/>
+        <c:crossAx val="43531008"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60262656"/>
+        <c:axId val="43531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7878,7 +7884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60262080"/>
+        <c:crossAx val="43530432"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7901,7 +7907,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8349,7 +8355,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -8784,7 +8790,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1739-480A-A905-99EEB47984B8}"/>
             </c:ext>
@@ -8798,11 +8804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60264960"/>
-        <c:axId val="60265536"/>
+        <c:axId val="85779008"/>
+        <c:axId val="85779584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60264960"/>
+        <c:axId val="85779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -8859,26 +8865,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8917,13 +8903,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60265536"/>
+        <c:crossAx val="85779584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60265536"/>
+        <c:axId val="85779584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,26 +8964,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9036,7 +9002,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60264960"/>
+        <c:crossAx val="85779008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9081,14 +9047,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9124,7 +9090,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9572,7 +9538,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -10007,7 +9973,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-289D-4A3D-B0A6-1E81BBB38AE5}"/>
             </c:ext>
@@ -10021,11 +9987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60267840"/>
-        <c:axId val="60735488"/>
+        <c:axId val="85781888"/>
+        <c:axId val="85783040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60267840"/>
+        <c:axId val="85781888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -10082,26 +10048,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10140,13 +10086,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60735488"/>
+        <c:crossAx val="85783040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60735488"/>
+        <c:axId val="85783040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10201,26 +10147,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10259,7 +10185,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60267840"/>
+        <c:crossAx val="85781888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10304,14 +10230,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10347,7 +10273,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10784,7 +10710,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11187,7 +11113,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11201,11 +11127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60737792"/>
-        <c:axId val="60738368"/>
+        <c:axId val="147677184"/>
+        <c:axId val="147677760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60737792"/>
+        <c:axId val="147677184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -11231,19 +11157,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60738368"/>
+        <c:crossAx val="147677760"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60738368"/>
+        <c:axId val="147677760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11285,7 +11212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60737792"/>
+        <c:crossAx val="147677184"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12439,7 +12366,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12475,7 +12402,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12511,7 +12438,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12547,7 +12474,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12611,7 +12538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12644,26 +12571,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12696,23 +12606,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12888,7 +12781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14773,11 +14666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z259"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172:H196"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="F226" sqref="F226:F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23418,6 +23311,735 @@
         <v>171</v>
       </c>
     </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E225" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F225" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>108</v>
+      </c>
+      <c r="E226">
+        <f>B230</f>
+        <v>0</v>
+      </c>
+      <c r="F226" s="14">
+        <f>C230</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>109</v>
+      </c>
+      <c r="E227">
+        <f>B231</f>
+        <v>1.49852588284716E-6</v>
+      </c>
+      <c r="F227" s="14">
+        <f>C231</f>
+        <v>2.0449209101502399E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>110</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ref="E228:E230" si="27">B233</f>
+        <v>6.3404179787276705E-5</v>
+      </c>
+      <c r="F228" s="14">
+        <f t="shared" ref="F228:F230" si="28">C233</f>
+        <v>3.9760683260483599E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B229" s="10">
+        <v>3.6828765556975701E-2</v>
+      </c>
+      <c r="C229" s="10">
+        <v>2.5386754344451099E-21</v>
+      </c>
+      <c r="D229" t="s">
+        <v>112</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="27"/>
+        <v>0.82098408463884098</v>
+      </c>
+      <c r="F229" s="14">
+        <f t="shared" si="28"/>
+        <v>1.1314100660211801E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>96</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="27"/>
+        <v>0.13819719386235499</v>
+      </c>
+      <c r="F230" s="14">
+        <f t="shared" si="28"/>
+        <v>0.207847227552409</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B231" s="10">
+        <v>1.49852588284716E-6</v>
+      </c>
+      <c r="C231" s="10">
+        <v>2.0449209101502399E-4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>115</v>
+      </c>
+      <c r="E231" s="10">
+        <f t="shared" ref="E231:E236" si="29">B239</f>
+        <v>4.1551606289867097E-11</v>
+      </c>
+      <c r="F231" s="14">
+        <f t="shared" ref="F231:F236" si="30">C239</f>
+        <v>0.23490925250460601</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>116</v>
+      </c>
+      <c r="E232" s="10">
+        <f t="shared" si="29"/>
+        <v>2.4732968922153198E-13</v>
+      </c>
+      <c r="F232" s="14">
+        <f t="shared" si="30"/>
+        <v>0.124221085267557</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B233" s="10">
+        <v>6.3404179787276705E-5</v>
+      </c>
+      <c r="C233" s="10">
+        <v>3.9760683260483599E-4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>117</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="29"/>
+        <v>1.9523397441409901E-13</v>
+      </c>
+      <c r="F233" s="14">
+        <f t="shared" si="30"/>
+        <v>0.104787213075582</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B234">
+        <v>0.82098408463884098</v>
+      </c>
+      <c r="C234" s="10">
+        <v>1.1314100660211801E-2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>119</v>
+      </c>
+      <c r="E234" s="10">
+        <f t="shared" si="29"/>
+        <v>2.4965893608088201E-13</v>
+      </c>
+      <c r="F234" s="14">
+        <f t="shared" si="30"/>
+        <v>2.7674981735241699E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B235">
+        <v>0.13819719386235499</v>
+      </c>
+      <c r="C235" s="10">
+        <v>0.207847227552409</v>
+      </c>
+      <c r="D235" t="s">
+        <v>120</v>
+      </c>
+      <c r="E235" s="10">
+        <f t="shared" si="29"/>
+        <v>1.5227946216122299E-13</v>
+      </c>
+      <c r="F235" s="14">
+        <f t="shared" si="30"/>
+        <v>2.2524288270615998E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236" t="s">
+        <v>121</v>
+      </c>
+      <c r="E236" s="10">
+        <f t="shared" si="29"/>
+        <v>2.06486408545875E-14</v>
+      </c>
+      <c r="F236" s="14">
+        <f t="shared" si="30"/>
+        <v>1.9478558573735701E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B237" s="10">
+        <v>3.9197760932139199E-3</v>
+      </c>
+      <c r="C237" s="10">
+        <v>8.2694645773245895E-2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" s="10">
+        <f>B228</f>
+        <v>0</v>
+      </c>
+      <c r="F237" s="14">
+        <f>C228</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>122</v>
+      </c>
+      <c r="E238" s="10">
+        <f t="shared" ref="E238:E244" si="31">B245</f>
+        <v>2.1841294213315398E-9</v>
+      </c>
+      <c r="F238" s="14">
+        <f t="shared" ref="F238:F244" si="32">C245</f>
+        <v>2.4832739458460099E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B239" s="10">
+        <v>4.1551606289867097E-11</v>
+      </c>
+      <c r="C239">
+        <v>0.23490925250460601</v>
+      </c>
+      <c r="D239" t="s">
+        <v>123</v>
+      </c>
+      <c r="E239" s="10">
+        <f t="shared" si="31"/>
+        <v>1.3477385976669001E-10</v>
+      </c>
+      <c r="F239" s="14">
+        <f t="shared" si="32"/>
+        <v>1.5202076485801199E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B240" s="10">
+        <v>2.4732968922153198E-13</v>
+      </c>
+      <c r="C240">
+        <v>0.124221085267557</v>
+      </c>
+      <c r="D240" t="s">
+        <v>124</v>
+      </c>
+      <c r="E240" s="10">
+        <f t="shared" si="31"/>
+        <v>4.7885506939839597E-12</v>
+      </c>
+      <c r="F240" s="14">
+        <f t="shared" si="32"/>
+        <v>1.47194749312412E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B241" s="10">
+        <v>1.9523397441409901E-13</v>
+      </c>
+      <c r="C241">
+        <v>0.104787213075582</v>
+      </c>
+      <c r="D241" t="s">
+        <v>125</v>
+      </c>
+      <c r="E241" s="10">
+        <f t="shared" si="31"/>
+        <v>5.9275076183887706E-11</v>
+      </c>
+      <c r="F241" s="14">
+        <f t="shared" si="32"/>
+        <v>1.2520937632255799E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B242" s="10">
+        <v>2.4965893608088201E-13</v>
+      </c>
+      <c r="C242" s="10">
+        <v>2.7674981735241699E-2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>126</v>
+      </c>
+      <c r="E242" s="10">
+        <f t="shared" si="31"/>
+        <v>2.4973033489339902E-12</v>
+      </c>
+      <c r="F242" s="14">
+        <f t="shared" si="32"/>
+        <v>1.0402834770496499E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B243" s="10">
+        <v>1.5227946216122299E-13</v>
+      </c>
+      <c r="C243">
+        <v>2.2524288270615998E-2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>30</v>
+      </c>
+      <c r="E243" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F243" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B244" s="10">
+        <v>2.06486408545875E-14</v>
+      </c>
+      <c r="C244" s="10">
+        <v>1.9478558573735701E-2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>32</v>
+      </c>
+      <c r="E244" s="10">
+        <f t="shared" si="31"/>
+        <v>4.11620040986828E-15</v>
+      </c>
+      <c r="F244" s="14">
+        <f t="shared" si="32"/>
+        <v>1.7625249692340399E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B245" s="10">
+        <v>2.1841294213315398E-9</v>
+      </c>
+      <c r="C245" s="10">
+        <v>2.4832739458460099E-2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>98</v>
+      </c>
+      <c r="E245" s="10">
+        <f>B236</f>
+        <v>0</v>
+      </c>
+      <c r="F245" s="14">
+        <f>C236</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B246" s="10">
+        <v>1.3477385976669001E-10</v>
+      </c>
+      <c r="C246" s="10">
+        <v>1.5202076485801199E-3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>36</v>
+      </c>
+      <c r="E246" s="10">
+        <f>B252</f>
+        <v>4.9112919612574701E-15</v>
+      </c>
+      <c r="F246" s="14">
+        <f>C252</f>
+        <v>2.3749691501877199E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B247" s="10">
+        <v>4.7885506939839597E-12</v>
+      </c>
+      <c r="C247" s="10">
+        <v>1.47194749312412E-3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>99</v>
+      </c>
+      <c r="E247" s="10">
+        <f>B229</f>
+        <v>3.6828765556975701E-2</v>
+      </c>
+      <c r="F247" s="14">
+        <f>C229</f>
+        <v>2.5386754344451099E-21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B248" s="10">
+        <v>5.9275076183887706E-11</v>
+      </c>
+      <c r="C248" s="10">
+        <v>1.2520937632255799E-2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>100</v>
+      </c>
+      <c r="E248" s="10">
+        <f>B237</f>
+        <v>3.9197760932139199E-3</v>
+      </c>
+      <c r="F248" s="14">
+        <f>C237</f>
+        <v>8.2694645773245895E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B249" s="10">
+        <v>2.4973033489339902E-12</v>
+      </c>
+      <c r="C249" s="10">
+        <v>1.0402834770496499E-3</v>
+      </c>
+      <c r="D249" t="s">
+        <v>127</v>
+      </c>
+      <c r="E249" s="10">
+        <f t="shared" ref="E249:E255" si="33">B253</f>
+        <v>4.6365893650737902E-6</v>
+      </c>
+      <c r="F249" s="14">
+        <f t="shared" ref="F249:F255" si="34">C253</f>
+        <v>4.09933245049263E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>128</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B251" s="10">
+        <v>4.11620040986828E-15</v>
+      </c>
+      <c r="C251" s="10">
+        <v>1.7625249692340399E-2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>129</v>
+      </c>
+      <c r="E251" s="10">
+        <f t="shared" si="33"/>
+        <v>5.3270494503594399E-7</v>
+      </c>
+      <c r="F251" s="14">
+        <f t="shared" si="34"/>
+        <v>9.5317531432772395E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B252" s="10">
+        <v>4.9112919612574701E-15</v>
+      </c>
+      <c r="C252" s="10">
+        <v>2.3749691501877199E-2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>130</v>
+      </c>
+      <c r="E252" s="10">
+        <f t="shared" si="33"/>
+        <v>1.0542074330547799E-7</v>
+      </c>
+      <c r="F252" s="14">
+        <f t="shared" si="34"/>
+        <v>4.4764626516954403E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B253" s="10">
+        <v>4.6365893650737902E-6</v>
+      </c>
+      <c r="C253" s="10">
+        <v>4.09933245049263E-2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>101</v>
+      </c>
+      <c r="E253" s="10">
+        <f t="shared" si="33"/>
+        <v>9.5175514181316701E-31</v>
+      </c>
+      <c r="F253" s="14">
+        <f t="shared" si="34"/>
+        <v>8.9744437577815302E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>65</v>
+      </c>
+      <c r="E254" s="10">
+        <f t="shared" si="33"/>
+        <v>2.6157486971791499E-22</v>
+      </c>
+      <c r="F254" s="14">
+        <f t="shared" si="34"/>
+        <v>6.5709701333116202E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B255" s="10">
+        <v>5.3270494503594399E-7</v>
+      </c>
+      <c r="C255" s="10">
+        <v>9.5317531432772395E-3</v>
+      </c>
+      <c r="D255" t="s">
+        <v>70</v>
+      </c>
+      <c r="E255" s="10">
+        <f t="shared" si="33"/>
+        <v>7.1102814211597695E-29</v>
+      </c>
+      <c r="F255" s="14">
+        <f t="shared" si="34"/>
+        <v>1.87155359504978E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B256" s="10">
+        <v>1.0542074330547799E-7</v>
+      </c>
+      <c r="C256" s="10">
+        <v>4.4764626516954403E-3</v>
+      </c>
+      <c r="D256" t="s">
+        <v>102</v>
+      </c>
+      <c r="E256" s="10">
+        <f>B227</f>
+        <v>0</v>
+      </c>
+      <c r="F256" s="14">
+        <f>C227</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B257" s="10">
+        <v>9.5175514181316701E-31</v>
+      </c>
+      <c r="C257" s="10">
+        <v>8.9744437577815302E-4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B258" s="10">
+        <v>2.6157486971791499E-22</v>
+      </c>
+      <c r="C258" s="10">
+        <v>6.5709701333116202E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B259" s="10">
+        <v>7.1102814211597695E-29</v>
+      </c>
+      <c r="C259" s="10">
+        <v>1.87155359504978E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -23425,7 +24047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25086,7 +25708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30013,7 +30635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34920,7 +35542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43503,10 +44125,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
@@ -47453,7 +48075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -64857,7 +65479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -72188,7 +72810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5A11C-24B6-4BDF-AC6E-B08E97CB0FB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="zf" sheetId="10" r:id="rId10"/>
     <sheet name="theta" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6757,7 +6758,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -6938,8 +6939,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6955,7 +6956,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7203,196 +7204,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>47.878581261634849</c:v>
+                  <c:v>47.794324206299734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.907751774787926</c:v>
+                  <c:v>47.823703214176362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.402619338035606</c:v>
+                  <c:v>48.330436748572708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.610585904121422</c:v>
+                  <c:v>48.545839468607539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.748880600929283</c:v>
+                  <c:v>48.692763604352763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.862749314308189</c:v>
+                  <c:v>48.816685115586324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.97840020656588</c:v>
+                  <c:v>48.940620931934575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.167424416542076</c:v>
+                  <c:v>49.125346333396408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.903410649299644</c:v>
+                  <c:v>49.803283481074004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.739809012413048</c:v>
+                  <c:v>54.587868597043894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.175322270393394</c:v>
+                  <c:v>55.045650028779107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.249869799613975</c:v>
+                  <c:v>55.158628127231907</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.192637419700645</c:v>
+                  <c:v>55.150155801490314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.085074877738975</c:v>
+                  <c:v>55.099647896067381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.956799721717857</c:v>
+                  <c:v>55.036065115766462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.819917654991173</c:v>
+                  <c:v>54.971352231400658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.680812335014366</c:v>
+                  <c:v>54.911939392048225</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.544132924079918</c:v>
+                  <c:v>54.862611658591845</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.413759684562706</c:v>
+                  <c:v>54.827453141291414</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.292035079002403</c:v>
+                  <c:v>54.808995845457105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.169708466529869</c:v>
+                  <c:v>54.797755480012142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.821676945686363</c:v>
+                  <c:v>54.567367909214454</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.820908045768761</c:v>
+                  <c:v>54.741421695075644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.871250128746055</c:v>
+                  <c:v>54.987258546732789</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.987759327888512</c:v>
+                  <c:v>55.318883171522202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>54.182642674446129</c:v>
+                  <c:v>55.745622504258449</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.465651488304161</c:v>
+                  <c:v>56.271782384479991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54.843789315223717</c:v>
+                  <c:v>56.895588977958425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>55.320697999000572</c:v>
+                  <c:v>57.60819457122318</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.896091437339805</c:v>
+                  <c:v>58.393534520414505</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56.565254902839683</c:v>
+                  <c:v>59.229357219544738</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57.318735098838829</c:v>
+                  <c:v>60.089562986759745</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.142220950126671</c:v>
+                  <c:v>60.947372647254781</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59.01681778430941</c:v>
+                  <c:v>61.778474658518803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.919828152656578</c:v>
+                  <c:v>62.563449827284103</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60.826051211357139</c:v>
+                  <c:v>63.288887108476104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61.709642386436485</c:v>
+                  <c:v>63.947269164295847</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.546282982826256</c:v>
+                  <c:v>64.535942395957818</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63.315373635292076</c:v>
+                  <c:v>65.055822330805881</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>64.001804566383385</c:v>
+                  <c:v>65.510056094084064</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.596992707252525</c:v>
+                  <c:v>65.903049661134276</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>65.099054551124595</c:v>
+                  <c:v>66.239859890019147</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65.512102818489097</c:v>
+                  <c:v>66.525801130866967</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65.844923233985924</c:v>
+                  <c:v>66.766345090068</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>66.109448647499107</c:v>
+                  <c:v>66.967077914930712</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>66.319191431999229</c:v>
+                  <c:v>67.13370734623868</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66.488003706932091</c:v>
+                  <c:v>67.272127091267407</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66.629183268547081</c:v>
+                  <c:v>67.388445434013363</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>66.754972910881065</c:v>
+                  <c:v>67.489035303096045</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>66.876435256004356</c:v>
+                  <c:v>67.580663017790243</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>67.003661370277428</c:v>
+                  <c:v>67.670659949403444</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>67.146247601509117</c:v>
+                  <c:v>67.767287301701401</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>67.314189648628258</c:v>
+                  <c:v>67.880372688514797</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>67.51937863826754</c:v>
+                  <c:v>68.022590441508555</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67.778319096565269</c:v>
+                  <c:v>68.211986462934988</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68.117541050910972</c:v>
+                  <c:v>68.477335491105748</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>68.585330224037193</c:v>
+                  <c:v>68.869878447041458</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>69.280034279823326</c:v>
+                  <c:v>69.491932663963439</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>70.436787581443809</c:v>
+                  <c:v>70.583452136622782</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>72.8706598043442</c:v>
+                  <c:v>72.957468061613611</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81.339389061927818</c:v>
+                  <c:v>81.286424305665776</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>115.51935074329378</c:v>
+                  <c:v>115.08837678461168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7795,7 +7796,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -8207,6 +8208,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72FB-4C32-A9A2-10C3C6656068}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8246,7 +8252,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8324,7 +8329,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8772,7 +8777,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -9015,199 +9020,199 @@
             <c:numRef>
               <c:f>Лист2!$G$69:$G$130</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.19997172829449</c:v>
+                  <c:v>376.20000634204672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>422.4668124170737</c:v>
+                  <c:v>494.2901392812887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>422.43382048410126</c:v>
+                  <c:v>494.3376521372395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>422.32844595802135</c:v>
+                  <c:v>494.26316313760799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>422.18937504061205</c:v>
+                  <c:v>494.11114925073502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>422.03766905626867</c:v>
+                  <c:v>493.92659949740937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>421.81395273683938</c:v>
+                  <c:v>493.66912713855027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421.12124428473794</c:v>
+                  <c:v>492.959747306282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.99513831493346</c:v>
+                  <c:v>488.65027771837094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2021.6550051780507</c:v>
+                  <c:v>2093.1755846026572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019.9007659398601</c:v>
+                  <c:v>2091.5004029192964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2019.6512313278308</c:v>
+                  <c:v>2091.3523805815171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2019.9764130716865</c:v>
+                  <c:v>2091.7885205193797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020.5562242255201</c:v>
+                  <c:v>2092.4891494162348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2021.2786874206872</c:v>
+                  <c:v>2093.3487839446807</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2022.100175662187</c:v>
+                  <c:v>2094.3342709330263</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2022.9971162818358</c:v>
+                  <c:v>2095.4362404131489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2023.949497898124</c:v>
+                  <c:v>2096.6533036382643</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2024.9371326314003</c:v>
+                  <c:v>2097.9895824857927</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2025.9513304508685</c:v>
+                  <c:v>2099.4694826987443</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2027.187065285616</c:v>
+                  <c:v>2101.3488835810995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2131.5315252158857</c:v>
+                  <c:v>2206.896295512729</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2133.527377700264</c:v>
+                  <c:v>2210.3735167156583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2135.6302383701664</c:v>
+                  <c:v>2214.39696423339</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2137.8049776831167</c:v>
+                  <c:v>2219.0042703070712</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2140.0334137785881</c:v>
+                  <c:v>2224.2256058776115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2142.3140900085154</c:v>
+                  <c:v>2230.0626610264981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2144.6643183591664</c:v>
+                  <c:v>2236.4698765633707</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2147.1212671902867</c:v>
+                  <c:v>2243.340549832184</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2149.7402687606059</c:v>
+                  <c:v>2250.5029079481992</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2152.5895699262232</c:v>
+                  <c:v>2257.7306155537567</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2155.7415292093278</c:v>
+                  <c:v>2264.7680232914277</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2159.2612107030554</c:v>
+                  <c:v>2271.3649399614628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2163.1939132214002</c:v>
+                  <c:v>2277.3116113934434</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2167.5538438348754</c:v>
+                  <c:v>2282.4642883423771</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2172.3164513346278</c:v>
+                  <c:v>2286.7559937293258</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2177.4164641389116</c:v>
+                  <c:v>2290.192477295031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2182.7525651120081</c:v>
+                  <c:v>2292.8376068624743</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2188.1979827401819</c:v>
+                  <c:v>2294.7938536536481</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2193.614748063249</c:v>
+                  <c:v>2296.1829134543659</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2198.8683376101553</c:v>
+                  <c:v>2297.1294189064593</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2203.83980486174</c:v>
+                  <c:v>2297.7491094332327</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2208.4334920058782</c:v>
+                  <c:v>2298.1414075136995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2212.5799773214976</c:v>
+                  <c:v>2298.385659161358</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2216.2349115782645</c:v>
+                  <c:v>2298.5401152086947</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2219.375217615509</c:v>
+                  <c:v>2298.6426491579859</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2221.9938986858597</c:v>
+                  <c:v>2298.7124116493846</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2224.0945504995225</c:v>
+                  <c:v>2298.7517817854814</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2225.6860361117324</c:v>
+                  <c:v>2298.748058216428</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2226.7774120388253</c:v>
+                  <c:v>2298.6744321244259</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2227.3727239413656</c:v>
+                  <c:v>2298.4896392294054</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2227.4647501377353</c:v>
+                  <c:v>2298.1353581809603</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2227.0257621030637</c:v>
+                  <c:v>2297.5294965070666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2225.9913664817032</c:v>
+                  <c:v>2296.5512232359133</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2224.2286735265038</c:v>
+                  <c:v>2295.0086746707684</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2221.4686274807877</c:v>
+                  <c:v>2292.5680127368614</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2217.1521054339751</c:v>
+                  <c:v>2288.5913025306036</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2210.0362414866108</c:v>
+                  <c:v>2281.7242572091882</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2196.8028144559771</c:v>
+                  <c:v>2268.4631567707779</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2163.45887971714</c:v>
+                  <c:v>2234.4263444391268</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2029.4479521855869</c:v>
+                  <c:v>2097.2978797516716</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>391.70781729683097</c:v>
+                  <c:v>408.09997786521183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1739-480A-A905-99EEB47984B8}"/>
             </c:ext>
@@ -9274,7 +9279,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9283,6 +9287,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9374,7 +9398,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9383,6 +9406,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9435,7 +9478,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9467,14 +9509,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9510,7 +9552,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9958,7 +10000,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -10201,199 +10243,199 @@
             <c:numRef>
               <c:f>Лист2!$H$69:$H$130</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.1998730553828</c:v>
+                  <c:v>1689.2000284768349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1735.466713744162</c:v>
+                  <c:v>1807.2901614160769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1735.4337218111896</c:v>
+                  <c:v>1807.3376742720277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1735.3283472851097</c:v>
+                  <c:v>1807.2631852723962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1735.1892763677004</c:v>
+                  <c:v>1807.1111713855232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1735.037570383357</c:v>
+                  <c:v>1806.9266216321976</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1734.8138540639277</c:v>
+                  <c:v>1806.6691492733385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1734.1211456118263</c:v>
+                  <c:v>1805.9597694410702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1729.9950396420218</c:v>
+                  <c:v>1801.6502998531591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1716.654906505139</c:v>
+                  <c:v>1788.1756067374456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1714.9006672669484</c:v>
+                  <c:v>1786.5004250540846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1714.6511326549191</c:v>
+                  <c:v>1786.3524027163053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1714.9763143987748</c:v>
+                  <c:v>1786.7885426541679</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1715.5561255526084</c:v>
+                  <c:v>1787.489171551023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1716.2785887477755</c:v>
+                  <c:v>1788.3488060794687</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1717.1000769892753</c:v>
+                  <c:v>1789.3342930678143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1717.9970176089241</c:v>
+                  <c:v>1790.4362625479373</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1718.9493992252123</c:v>
+                  <c:v>1791.6533257730528</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1719.9370339584887</c:v>
+                  <c:v>1792.9896046205808</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1720.9512317779568</c:v>
+                  <c:v>1794.4695048335327</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1722.1869666127043</c:v>
+                  <c:v>1796.3489057158879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1723.4314265429741</c:v>
+                  <c:v>1798.7963176475171</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1725.4272790273521</c:v>
+                  <c:v>1802.2735388504464</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1727.5301396972548</c:v>
+                  <c:v>1806.2969863681781</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1729.7048790102049</c:v>
+                  <c:v>1810.9042924418593</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1731.9333151056762</c:v>
+                  <c:v>1816.1256280123998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1734.2139913356039</c:v>
+                  <c:v>1821.9626831612861</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1736.5642196862548</c:v>
+                  <c:v>1828.369898698159</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1739.0211685173751</c:v>
+                  <c:v>1835.2405719669723</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1741.6401700876943</c:v>
+                  <c:v>1842.4029300829873</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1744.4894712533116</c:v>
+                  <c:v>1849.6306376885448</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1747.6414305364162</c:v>
+                  <c:v>1856.6680454262157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1751.1611120301438</c:v>
+                  <c:v>1863.2649620962509</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1755.0938145484886</c:v>
+                  <c:v>1869.2116335282315</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1759.4537451619635</c:v>
+                  <c:v>1874.3643104771654</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1764.2163526617162</c:v>
+                  <c:v>1878.6560158641139</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1769.316365466</c:v>
+                  <c:v>1882.0924994298191</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1774.6524664390965</c:v>
+                  <c:v>1884.7376289972624</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1780.0978840672703</c:v>
+                  <c:v>1886.6938757884363</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1785.5146493903374</c:v>
+                  <c:v>1888.0829355891542</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1790.7682389372437</c:v>
+                  <c:v>1889.0294410412473</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1795.7397061888284</c:v>
+                  <c:v>1889.6491315680209</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1800.3333933329664</c:v>
+                  <c:v>1890.0414296484878</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1804.479878648586</c:v>
+                  <c:v>1890.2856812961463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1808.1348129053526</c:v>
+                  <c:v>1890.4401373434828</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1811.2751189425974</c:v>
+                  <c:v>1890.5426712927742</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1813.8938000129478</c:v>
+                  <c:v>1890.6124337841729</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1815.9944518266109</c:v>
+                  <c:v>1890.6518039202697</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1817.5859374388208</c:v>
+                  <c:v>1890.6480803512161</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1818.6773133659135</c:v>
+                  <c:v>1890.5744542592142</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1819.272625268454</c:v>
+                  <c:v>1890.3896613641937</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1819.3646514648235</c:v>
+                  <c:v>1890.0353803157484</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1818.9256634301521</c:v>
+                  <c:v>1889.4295186418547</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1817.8912678087913</c:v>
+                  <c:v>1888.4512453707014</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1816.1285748535922</c:v>
+                  <c:v>1886.9086968055567</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1813.3685288078761</c:v>
+                  <c:v>1884.4680348716495</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1809.0520067610635</c:v>
+                  <c:v>1880.4913246653916</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1801.936142813699</c:v>
+                  <c:v>1873.6242793439762</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1788.7027157830655</c:v>
+                  <c:v>1860.3631789055662</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1755.3587810442282</c:v>
+                  <c:v>1826.3263665739148</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1621.3478535126753</c:v>
+                  <c:v>1689.1979018864597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-289D-4A3D-B0A6-1E81BBB38AE5}"/>
             </c:ext>
@@ -10460,7 +10502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10469,6 +10510,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10560,7 +10621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10569,6 +10629,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10621,7 +10701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10653,14 +10732,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10696,7 +10775,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11133,7 +11212,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11536,7 +11615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11580,7 +11659,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -11658,7 +11736,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11885,195 +11963,200 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>13.730492521338817</c:v>
+                  <c:v>13.646235466003702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.560747912875911</c:v>
+                  <c:v>12.476699352264347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.856700354507609</c:v>
+                  <c:v>11.784517765044711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.865751798978408</c:v>
+                  <c:v>10.801005363464526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.805131374170287</c:v>
+                  <c:v>9.7490143775937668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.720084965934177</c:v>
+                  <c:v>8.674020767212312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6368207365758849</c:v>
+                  <c:v>7.5990414619445801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6269298249360418</c:v>
+                  <c:v>6.5848517417903736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1640009360785939</c:v>
+                  <c:v>6.0638737678529537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8014841775760146</c:v>
+                  <c:v>9.6495437622068607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0380823139413451</c:v>
+                  <c:v>8.9084100723270581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9137147215459436</c:v>
+                  <c:v>7.8224730491638752</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6575672200166309</c:v>
+                  <c:v>6.6150856018062996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3510895564399448</c:v>
+                  <c:v>5.3656625747683506</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.023899278802844</c:v>
+                  <c:v>4.1031646728514488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6881020904601769</c:v>
+                  <c:v>2.8395366668696624</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.350081648868354</c:v>
+                  <c:v>1.5812087059022133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.448711631792321E-2</c:v>
+                  <c:v>0.33296585082985075</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.3148012448143049</c:v>
+                  <c:v>-0.90110778808559644</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.6354409719906471</c:v>
+                  <c:v>-2.1184802055359455</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.9566827060791638</c:v>
+                  <c:v>-3.3286356925968903</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.5036293485376859</c:v>
+                  <c:v>-4.7579383850095951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6.703313370071271</c:v>
+                  <c:v>-5.7827997207643875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.8518864087089923</c:v>
+                  <c:v>-6.7358779907222583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.9342923311825189</c:v>
+                  <c:v>-7.6031684875488281</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9.9383241062408842</c:v>
+                  <c:v>-8.3753442764285637</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.854230413997868</c:v>
+                  <c:v>-9.0480995178220383</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-11.675007708694295</c:v>
+                  <c:v>-9.6232080459595863</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-12.397014146532456</c:v>
+                  <c:v>-10.109517574309848</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-13.020535829809205</c:v>
+                  <c:v>-10.523092746734505</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-13.550287485925367</c:v>
+                  <c:v>-10.886185169220312</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-13.99572241154118</c:v>
+                  <c:v>-11.224894523620264</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-14.371151681869378</c:v>
+                  <c:v>-11.565999984741268</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-14.695469969302621</c:v>
+                  <c:v>-11.933813095093228</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-14.99137472257047</c:v>
+                  <c:v>-12.347753047942945</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-15.284066785485891</c:v>
+                  <c:v>-12.821230888366927</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-15.599390732021561</c:v>
+                  <c:v>-13.3617639541622</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-15.961665257247773</c:v>
+                  <c:v>-13.972005844116211</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-16.391489726397936</c:v>
+                  <c:v>-14.65104103088413</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-16.903973916921643</c:v>
+                  <c:v>-15.395722389220964</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-17.507700897668485</c:v>
+                  <c:v>-16.201643943786735</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-18.204554175411431</c:v>
+                  <c:v>-17.063748836516879</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-18.990421029662912</c:v>
+                  <c:v>-17.976722717285043</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-19.856515735782125</c:v>
+                  <c:v>-18.935093879700048</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-20.790905443883901</c:v>
+                  <c:v>-19.933276176452296</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-21.780077780999818</c:v>
+                  <c:v>-20.965561866760368</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-22.810180627682939</c:v>
+                  <c:v>-22.026057243347623</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-23.867916187682965</c:v>
+                  <c:v>-23.108654022216683</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-24.941041666964963</c:v>
+                  <c:v>-24.206979274749983</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-26.018494443456689</c:v>
+                  <c:v>-25.314266681670802</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-27.0901834507996</c:v>
+                  <c:v>-26.423184871673584</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-28.146512341183893</c:v>
+                  <c:v>-27.525472640991609</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-29.177485415679769</c:v>
+                  <c:v>-28.61130237579323</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-30.171211547656469</c:v>
+                  <c:v>-29.667999744415454</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-31.111186210973756</c:v>
+                  <c:v>-30.677518844604037</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-31.970879378244035</c:v>
+                  <c:v>-31.61108493804926</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-32.702005326733854</c:v>
+                  <c:v>-32.417457103729589</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-33.206216392562681</c:v>
+                  <c:v>-32.994318008422567</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-33.248378212558237</c:v>
+                  <c:v>-33.101713657379264</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-32.013421111272805</c:v>
+                  <c:v>-31.926612854003395</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-24.743606975305227</c:v>
+                  <c:v>-24.796571731567269</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.2374395844447577</c:v>
+                  <c:v>7.8064656257626552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E1C-4F67-A4F7-6DB260216F15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13264,7 +13347,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13300,7 +13383,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4B2BE-F8DE-4630-B02A-DE0089131C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13336,7 +13419,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0DA76-6759-4491-A2FA-B614464B5799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13372,7 +13455,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02025082-B3D9-44D0-BB68-11CEFE8AA60E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13405,7 +13488,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13466,7 +13555,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13499,9 +13588,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13534,6 +13640,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -13709,7 +13832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15594,7 +15717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z259"/>
   <sheetViews>
     <sheetView topLeftCell="A222" workbookViewId="0">
@@ -24997,10 +25120,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
@@ -32253,7 +32376,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" ref="Q42:BX42" si="3">Q$2*Q9</f>
+        <f t="shared" ref="Q42:BI42" si="3">Q$2*Q9</f>
         <v>0</v>
       </c>
       <c r="R42">
@@ -33498,7 +33621,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:BX47" si="5">Q$2*Q14</f>
+        <f t="shared" ref="Q47:BI47" si="5">Q$2*Q14</f>
         <v>0</v>
       </c>
       <c r="R47">
@@ -34743,7 +34866,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" ref="Q52:BX52" si="7">Q$2*Q19</f>
+        <f t="shared" ref="Q52:BI52" si="7">Q$2*Q19</f>
         <v>0</v>
       </c>
       <c r="R52">
@@ -35988,7 +36111,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" ref="Q57:BX57" si="9">Q$2*Q24</f>
+        <f t="shared" ref="Q57:BI57" si="9">Q$2*Q24</f>
         <v>0</v>
       </c>
       <c r="R57">
@@ -37241,7 +37364,7 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62:BX62" si="11">S$2*S29</f>
+        <f t="shared" ref="S62:BI62" si="11">S$2*S29</f>
         <v>0</v>
       </c>
       <c r="T62">
@@ -38478,7 +38601,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:BX67" si="13">Q$2*Q34</f>
+        <f t="shared" ref="Q67:BI67" si="13">Q$2*Q34</f>
         <v>0</v>
       </c>
       <c r="R67">
@@ -40258,11 +40381,11 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110:B139" si="15">BJ38/(1+$B$106*($B$105*C72))/($B$104*B72)</f>
+        <f t="shared" ref="B110" si="15">BJ38/(1+$B$106*($B$105*C72))/($B$104*B72)</f>
         <v>0</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:C139" si="16">$B$106*($B$105*C72)/($B$104*B72)*B110</f>
+        <f t="shared" ref="C110:C132" si="16">$B$106*($B$105*C72)/($B$104*B72)*B110</f>
         <v>0</v>
       </c>
     </row>
@@ -40284,7 +40407,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <f t="shared" ref="B112:B139" si="17">BJ40/(1+$B$106*($B$105*C74)/($B$104*B74))</f>
+        <f t="shared" ref="B112:B132" si="17">BJ40/(1+$B$106*($B$105*C74)/($B$104*B74))</f>
         <v>1.7443527515034996</v>
       </c>
       <c r="C112">
@@ -40638,7 +40761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42299,7 +42422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47226,7 +47349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52133,10 +52256,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A33"/>
     </sheetView>
   </sheetViews>
@@ -60716,16 +60839,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BK135"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69:H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -61109,7 +61233,7 @@
       </c>
       <c r="B4">
         <f>G4-273.15</f>
-        <v>47.878581261634849</v>
+        <v>47.794324206299734</v>
       </c>
       <c r="C4">
         <v>46.043582630709402</v>
@@ -61123,12 +61247,12 @@
       <c r="F4">
         <v>576</v>
       </c>
-      <c r="G4" s="18">
-        <v>321.02858126163483</v>
+      <c r="G4" s="14">
+        <v>320.94432420629971</v>
       </c>
       <c r="H4">
         <f>B4-D4</f>
-        <v>13.730492521338817</v>
+        <v>13.646235466003702</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -61137,7 +61261,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
-        <v>47.907751774787926</v>
+        <v>47.823703214176362</v>
       </c>
       <c r="C5">
         <v>48.171534442983898</v>
@@ -61151,12 +61275,12 @@
       <c r="F5">
         <v>576</v>
       </c>
-      <c r="G5" s="18">
-        <v>321.0577517747879</v>
+      <c r="G5" s="14">
+        <v>320.97370321417634</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H65" si="1">B5-D5</f>
-        <v>12.560747912875911</v>
+        <v>12.476699352264347</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -61165,7 +61289,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>48.402619338035606</v>
+        <v>48.330436748572708</v>
       </c>
       <c r="C6">
         <v>48.637331111067702</v>
@@ -61179,12 +61303,12 @@
       <c r="F6">
         <v>577.34577656750002</v>
       </c>
-      <c r="G6" s="18">
-        <v>321.55261933803558</v>
+      <c r="G6" s="14">
+        <v>321.48043674857269</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>11.856700354507609</v>
+        <v>11.784517765044711</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -61193,7 +61317,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>48.610585904121422</v>
+        <v>48.545839468607539</v>
       </c>
       <c r="C7">
         <v>48.837399453558803</v>
@@ -61207,12 +61331,12 @@
       <c r="F7">
         <v>578.69155313500096</v>
       </c>
-      <c r="G7" s="18">
-        <v>321.7605859041214</v>
+      <c r="G7" s="14">
+        <v>321.69583946860752</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>10.865751798978408</v>
+        <v>10.801005363464526</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -61221,7 +61345,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>48.748880600929283</v>
+        <v>48.692763604352763</v>
       </c>
       <c r="C8">
         <v>48.968482363985501</v>
@@ -61235,12 +61359,12 @@
       <c r="F8">
         <v>580.03732970250098</v>
       </c>
-      <c r="G8" s="18">
-        <v>321.89888060092926</v>
+      <c r="G8" s="14">
+        <v>321.84276360435274</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>9.805131374170287</v>
+        <v>9.7490143775937668</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -61249,7 +61373,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>48.862749314308189</v>
+        <v>48.816685115586324</v>
       </c>
       <c r="C9">
         <v>49.076951638003301</v>
@@ -61263,12 +61387,12 @@
       <c r="F9">
         <v>581.38310627000101</v>
       </c>
-      <c r="G9" s="18">
-        <v>322.01274931430817</v>
+      <c r="G9" s="14">
+        <v>321.9666851155863</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.720084965934177</v>
+        <v>8.674020767212312</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -61277,7 +61401,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>48.97840020656588</v>
+        <v>48.940620931934575</v>
       </c>
       <c r="C10">
         <v>49.192221563876203</v>
@@ -61291,12 +61415,12 @@
       <c r="F10">
         <v>582.72888283750103</v>
       </c>
-      <c r="G10" s="18">
-        <v>322.12840020656586</v>
+      <c r="G10" s="14">
+        <v>322.09062093193455</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.6368207365758849</v>
+        <v>7.5990414619445801</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -61305,7 +61429,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>49.167424416542076</v>
+        <v>49.125346333396408</v>
       </c>
       <c r="C11">
         <v>49.388229804275099</v>
@@ -61319,12 +61443,12 @@
       <c r="F11">
         <v>584.07465940500197</v>
       </c>
-      <c r="G11" s="18">
-        <v>322.31742441654205</v>
+      <c r="G11" s="14">
+        <v>322.27534633339639</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.6269298249360418</v>
+        <v>6.5848517417903736</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -61333,7 +61457,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>49.903410649299644</v>
+        <v>49.803283481074004</v>
       </c>
       <c r="C12">
         <v>50.151837894986798</v>
@@ -61347,12 +61471,12 @@
       <c r="F12">
         <v>585.42043597250199</v>
       </c>
-      <c r="G12" s="18">
-        <v>323.05341064929962</v>
+      <c r="G12" s="14">
+        <v>322.95328348107398</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>6.1640009360785939</v>
+        <v>6.0638737678529537</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -61361,7 +61485,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>54.739809012413048</v>
+        <v>54.587868597043894</v>
       </c>
       <c r="C13">
         <v>54.9799937069698</v>
@@ -61375,12 +61499,12 @@
       <c r="F13">
         <v>586.76621254000202</v>
       </c>
-      <c r="G13" s="18">
-        <v>327.88980901241302</v>
+      <c r="G13" s="14">
+        <v>327.73786859704387</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>9.8014841775760146</v>
+        <v>9.6495437622068607</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -61389,7 +61513,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>55.175322270393394</v>
+        <v>55.045650028779107</v>
       </c>
       <c r="C14">
         <v>55.475286124278298</v>
@@ -61403,12 +61527,12 @@
       <c r="F14">
         <v>588.11198910750204</v>
       </c>
-      <c r="G14" s="18">
-        <v>328.32532227039337</v>
+      <c r="G14" s="14">
+        <v>328.19565002877908</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>9.0380823139413451</v>
+        <v>8.9084100723270581</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -61417,7 +61541,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>55.249869799613975</v>
+        <v>55.158628127231907</v>
       </c>
       <c r="C15">
         <v>55.681952080612703</v>
@@ -61431,12 +61555,12 @@
       <c r="F15">
         <v>589.45776567500297</v>
       </c>
-      <c r="G15" s="18">
-        <v>328.39986979961395</v>
+      <c r="G15" s="14">
+        <v>328.30862812723188</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.9137147215459436</v>
+        <v>7.8224730491638752</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -61445,7 +61569,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>55.192637419700645</v>
+        <v>55.150155801490314</v>
       </c>
       <c r="C16">
         <v>55.772428049256199</v>
@@ -61459,12 +61583,12 @@
       <c r="F16">
         <v>590.803542242503</v>
       </c>
-      <c r="G16" s="18">
-        <v>328.34263741970062</v>
+      <c r="G16" s="14">
+        <v>328.30015580149029</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.6575672200166309</v>
+        <v>6.6150856018062996</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -61473,7 +61597,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>55.085074877738975</v>
+        <v>55.099647896067381</v>
       </c>
       <c r="C17">
         <v>55.815322520011698</v>
@@ -61487,12 +61611,12 @@
       <c r="F17">
         <v>592.14931881000302</v>
       </c>
-      <c r="G17" s="18">
-        <v>328.23507487773895</v>
+      <c r="G17" s="14">
+        <v>328.24964789606736</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>5.3510895564399448</v>
+        <v>5.3656625747683506</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -61501,7 +61625,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>54.956799721717857</v>
+        <v>55.036065115766462</v>
       </c>
       <c r="C18">
         <v>55.837119346028203</v>
@@ -61515,12 +61639,12 @@
       <c r="F18">
         <v>593.49509537750305</v>
       </c>
-      <c r="G18" s="18">
-        <v>328.10679972171783</v>
+      <c r="G18" s="14">
+        <v>328.18606511576644</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>4.023899278802844</v>
+        <v>4.1031646728514488</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -61529,7 +61653,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>54.819917654991173</v>
+        <v>54.971352231400658</v>
       </c>
       <c r="C19">
         <v>55.847558602984101</v>
@@ -61543,12 +61667,12 @@
       <c r="F19">
         <v>594.84087194500398</v>
       </c>
-      <c r="G19" s="18">
-        <v>327.96991765499115</v>
+      <c r="G19" s="14">
+        <v>328.12135223140064</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2.6881020904601769</v>
+        <v>2.8395366668696624</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -61557,7 +61681,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>54.680812335014366</v>
+        <v>54.911939392048225</v>
       </c>
       <c r="C20">
         <v>55.849676477742896</v>
@@ -61571,12 +61695,12 @@
       <c r="F20">
         <v>596.18664851250401</v>
       </c>
-      <c r="G20" s="18">
-        <v>327.83081233501434</v>
+      <c r="G20" s="14">
+        <v>328.0619393920482</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>1.350081648868354</v>
+        <v>1.5812087059022133</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -61585,7 +61709,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>54.544132924079918</v>
+        <v>54.862611658591845</v>
       </c>
       <c r="C21">
         <v>55.843548999819603</v>
@@ -61599,12 +61723,12 @@
       <c r="F21">
         <v>597.53242508000403</v>
       </c>
-      <c r="G21" s="18">
-        <v>327.6941329240799</v>
+      <c r="G21" s="14">
+        <v>328.01261165859182</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>1.448711631792321E-2</v>
+        <v>0.33296585082985075</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -61613,7 +61737,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>54.413759684562706</v>
+        <v>54.827453141291414</v>
       </c>
       <c r="C22">
         <v>55.827340623791699</v>
@@ -61627,12 +61751,12 @@
       <c r="F22">
         <v>598.87820164750406</v>
       </c>
-      <c r="G22" s="18">
-        <v>327.56375968456268</v>
+      <c r="G22" s="14">
+        <v>327.97745314129139</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-1.3148012448143049</v>
+        <v>-0.90110778808559644</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -61641,7 +61765,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>54.292035079002403</v>
+        <v>54.808995845457105</v>
       </c>
       <c r="C23">
         <v>55.795734063302604</v>
@@ -61655,12 +61779,12 @@
       <c r="F23">
         <v>600.22397821500499</v>
       </c>
-      <c r="G23" s="18">
-        <v>327.44203507900238</v>
+      <c r="G23" s="14">
+        <v>327.95899584545708</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-2.6354409719906471</v>
+        <v>-2.1184802055359455</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -61669,7 +61793,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>54.169708466529869</v>
+        <v>54.797755480012142</v>
       </c>
       <c r="C24">
         <v>55.723509688218201</v>
@@ -61683,12 +61807,12 @@
       <c r="F24">
         <v>601.56975478250502</v>
       </c>
-      <c r="G24" s="18">
-        <v>327.31970846652985</v>
+      <c r="G24" s="14">
+        <v>327.94775548001212</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-3.9566827060791638</v>
+        <v>-3.3286356925968903</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -61697,7 +61821,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>53.821676945686363</v>
+        <v>54.567367909214454</v>
       </c>
       <c r="C25">
         <v>55.344109407954399</v>
@@ -61711,12 +61835,12 @@
       <c r="F25">
         <v>602.91553135000504</v>
       </c>
-      <c r="G25" s="18">
-        <v>326.97167694568634</v>
+      <c r="G25" s="14">
+        <v>327.71736790921443</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-5.5036293485376859</v>
+        <v>-4.7579383850095951</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -61725,7 +61849,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>53.820908045768761</v>
+        <v>54.741421695075644</v>
       </c>
       <c r="C26">
         <v>55.385015614794</v>
@@ -61739,12 +61863,12 @@
       <c r="F26">
         <v>604.26130791750495</v>
       </c>
-      <c r="G26" s="18">
-        <v>326.97090804576874</v>
+      <c r="G26" s="14">
+        <v>327.89142169507562</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-6.703313370071271</v>
+        <v>-5.7827997207643875</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -61753,7 +61877,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>53.871250128746055</v>
+        <v>54.987258546732789</v>
       </c>
       <c r="C27">
         <v>55.4219035266308</v>
@@ -61767,12 +61891,12 @@
       <c r="F27">
         <v>605.607084485006</v>
       </c>
-      <c r="G27" s="18">
-        <v>327.02125012874603</v>
+      <c r="G27" s="14">
+        <v>328.13725854673277</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-7.8518864087089923</v>
+        <v>-6.7358779907222583</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -61781,7 +61905,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>53.987759327888512</v>
+        <v>55.318883171522202</v>
       </c>
       <c r="C28">
         <v>55.457441572728499</v>
@@ -61795,12 +61919,12 @@
       <c r="F28">
         <v>606.95286105250602</v>
       </c>
-      <c r="G28" s="18">
-        <v>327.13775932788849</v>
+      <c r="G28" s="14">
+        <v>328.46888317152218</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-8.9342923311825189</v>
+        <v>-7.6031684875488281</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -61809,7 +61933,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>54.182642674446129</v>
+        <v>55.745622504258449</v>
       </c>
       <c r="C29">
         <v>55.492807114889303</v>
@@ -61823,12 +61947,12 @@
       <c r="F29">
         <v>608.29863762000605</v>
       </c>
-      <c r="G29" s="18">
-        <v>327.33264267444611</v>
+      <c r="G29" s="14">
+        <v>328.89562250425843</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-9.9383241062408842</v>
+        <v>-8.3753442764285637</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -61837,7 +61961,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>54.465651488304161</v>
+        <v>56.271782384479991</v>
       </c>
       <c r="C30">
         <v>55.528481248985301</v>
@@ -61851,12 +61975,12 @@
       <c r="F30">
         <v>609.64441418750596</v>
       </c>
-      <c r="G30" s="18">
-        <v>327.61565148830414</v>
+      <c r="G30" s="14">
+        <v>329.42178238447997</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-10.854230413997868</v>
+        <v>-9.0480995178220383</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -61865,7 +61989,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>54.843789315223717</v>
+        <v>56.895588977958425</v>
       </c>
       <c r="C31">
         <v>55.564954097481298</v>
@@ -61879,12 +62003,12 @@
       <c r="F31">
         <v>610.99019075500701</v>
       </c>
-      <c r="G31" s="18">
-        <v>327.99378931522369</v>
+      <c r="G31" s="14">
+        <v>330.0455889779584</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-11.675007708694295</v>
+        <v>-9.6232080459595863</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -61893,7 +62017,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>55.320697999000572</v>
+        <v>57.60819457122318</v>
       </c>
       <c r="C32">
         <v>55.603125646644301</v>
@@ -61907,12 +62031,12 @@
       <c r="F32">
         <v>612.33596732250703</v>
       </c>
-      <c r="G32" s="18">
-        <v>328.47069799900055</v>
+      <c r="G32" s="14">
+        <v>330.75819457122316</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-12.397014146532456</v>
+        <v>-10.109517574309848</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -61921,7 +62045,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>55.896091437339805</v>
+        <v>58.393534520414505</v>
       </c>
       <c r="C33">
         <v>55.642535222350503</v>
@@ -61935,12 +62059,12 @@
       <c r="F33">
         <v>613.68174389000706</v>
       </c>
-      <c r="G33" s="18">
-        <v>329.04609143733978</v>
+      <c r="G33" s="14">
+        <v>331.54353452041448</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-13.020535829809205</v>
+        <v>-10.523092746734505</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -61949,7 +62073,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>56.565254902839683</v>
+        <v>59.229357219544738</v>
       </c>
       <c r="C34">
         <v>55.683784575349698</v>
@@ -61963,12 +62087,12 @@
       <c r="F34">
         <v>615.02752045750697</v>
       </c>
-      <c r="G34" s="18">
-        <v>329.71525490283966</v>
+      <c r="G34" s="14">
+        <v>332.37935721954472</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-13.550287485925367</v>
+        <v>-10.886185169220312</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -61977,7 +62101,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>57.318735098838829</v>
+        <v>60.089562986759745</v>
       </c>
       <c r="C35">
         <v>55.7275335971472</v>
@@ -61991,12 +62115,12 @@
       <c r="F35">
         <v>616.37329702500801</v>
       </c>
-      <c r="G35" s="18">
-        <v>330.46873509883881</v>
+      <c r="G35" s="14">
+        <v>333.23956298675972</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-13.99572241154118</v>
+        <v>-11.224894523620264</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -62005,7 +62129,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>58.142220950126671</v>
+        <v>60.947372647254781</v>
       </c>
       <c r="C36">
         <v>55.773600524469003</v>
@@ -62019,12 +62143,12 @@
       <c r="F36">
         <v>617.71907359250804</v>
       </c>
-      <c r="G36" s="18">
-        <v>331.29222095012665</v>
+      <c r="G36" s="14">
+        <v>334.09737264725476</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-14.371151681869378</v>
+        <v>-11.565999984741268</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -62033,7 +62157,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>59.01681778430941</v>
+        <v>61.778474658518803</v>
       </c>
       <c r="C37">
         <v>55.829560982055902</v>
@@ -62047,12 +62171,12 @@
       <c r="F37">
         <v>619.06485016000795</v>
       </c>
-      <c r="G37" s="18">
-        <v>332.16681778430939</v>
+      <c r="G37" s="14">
+        <v>334.92847465851878</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>-14.695469969302621</v>
+        <v>-11.933813095093228</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -62061,7 +62185,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>59.919828152656578</v>
+        <v>62.563449827284103</v>
       </c>
       <c r="C38">
         <v>55.898871370666399</v>
@@ -62075,12 +62199,12 @@
       <c r="F38">
         <v>620.41062672750797</v>
       </c>
-      <c r="G38" s="18">
-        <v>333.06982815265656</v>
+      <c r="G38" s="14">
+        <v>335.71344982728408</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>-14.99137472257047</v>
+        <v>-12.347753047942945</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -62089,7 +62213,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>60.826051211357139</v>
+        <v>63.288887108476104</v>
       </c>
       <c r="C39">
         <v>55.974034854856797</v>
@@ -62103,12 +62227,12 @@
       <c r="F39">
         <v>621.75640329500902</v>
       </c>
-      <c r="G39" s="18">
-        <v>333.97605121135712</v>
+      <c r="G39" s="14">
+        <v>336.43888710847608</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-15.284066785485891</v>
+        <v>-12.821230888366927</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -62117,7 +62241,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>61.709642386436485</v>
+        <v>63.947269164295847</v>
       </c>
       <c r="C40">
         <v>56.059174593141798</v>
@@ -62131,12 +62255,12 @@
       <c r="F40">
         <v>623.10217986250905</v>
       </c>
-      <c r="G40" s="18">
-        <v>334.85964238643646</v>
+      <c r="G40" s="14">
+        <v>337.09726916429582</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-15.599390732021561</v>
+        <v>-13.3617639541622</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -62145,7 +62269,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>62.546282982826256</v>
+        <v>64.535942395957818</v>
       </c>
       <c r="C41">
         <v>56.158400420386101</v>
@@ -62159,12 +62283,12 @@
       <c r="F41">
         <v>624.44795643000896</v>
       </c>
-      <c r="G41" s="18">
-        <v>335.69628298282623</v>
+      <c r="G41" s="14">
+        <v>337.6859423959578</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-15.961665257247773</v>
+        <v>-13.972005844116211</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -62173,7 +62297,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>63.315373635292076</v>
+        <v>65.055822330805881</v>
       </c>
       <c r="C42">
         <v>56.272140186739399</v>
@@ -62187,12 +62311,12 @@
       <c r="F42">
         <v>625.79373299750898</v>
       </c>
-      <c r="G42" s="18">
-        <v>336.46537363529205</v>
+      <c r="G42" s="14">
+        <v>338.20582233080586</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-16.391489726397936</v>
+        <v>-14.65104103088413</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -62201,7 +62325,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>64.001804566383385</v>
+        <v>65.510056094084064</v>
       </c>
       <c r="C43">
         <v>56.405981867150601</v>
@@ -62215,12 +62339,12 @@
       <c r="F43">
         <v>627.13950956501003</v>
       </c>
-      <c r="G43" s="18">
-        <v>337.15180456638336</v>
+      <c r="G43" s="14">
+        <v>338.66005609408404</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-16.903973916921643</v>
+        <v>-15.395722389220964</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -62229,7 +62353,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>64.596992707252525</v>
+        <v>65.903049661134276</v>
       </c>
       <c r="C44">
         <v>56.568995115090601</v>
@@ -62243,12 +62367,12 @@
       <c r="F44">
         <v>628.48528613251005</v>
       </c>
-      <c r="G44" s="18">
-        <v>337.7469927072525</v>
+      <c r="G44" s="14">
+        <v>339.05304966113425</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-17.507700897668485</v>
+        <v>-16.201643943786735</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -62257,7 +62381,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>65.099054551124595</v>
+        <v>66.239859890019147</v>
       </c>
       <c r="C45">
         <v>56.7667675369892</v>
@@ -62271,12 +62395,12 @@
       <c r="F45">
         <v>629.83106270000997</v>
       </c>
-      <c r="G45" s="18">
-        <v>338.24905455112457</v>
+      <c r="G45" s="14">
+        <v>339.38985989001912</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-18.204554175411431</v>
+        <v>-17.063748836516879</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -62285,7 +62409,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>65.512102818489097</v>
+        <v>66.525801130866967</v>
       </c>
       <c r="C46">
         <v>57.009759387807499</v>
@@ -62299,12 +62423,12 @@
       <c r="F46">
         <v>631.17683926750999</v>
       </c>
-      <c r="G46" s="18">
-        <v>338.66210281848907</v>
+      <c r="G46" s="14">
+        <v>339.67580113086694</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-18.990421029662912</v>
+        <v>-17.976722717285043</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -62313,7 +62437,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>65.844923233985924</v>
+        <v>66.766345090068</v>
       </c>
       <c r="C47">
         <v>57.295867897514803</v>
@@ -62327,12 +62451,12 @@
       <c r="F47">
         <v>632.52261583501104</v>
       </c>
-      <c r="G47" s="18">
-        <v>338.9949232339859</v>
+      <c r="G47" s="14">
+        <v>339.91634509006798</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-19.856515735782125</v>
+        <v>-18.935093879700048</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -62341,7 +62465,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>66.109448647499107</v>
+        <v>66.967077914930712</v>
       </c>
       <c r="C48">
         <v>57.642965543990599</v>
@@ -62355,12 +62479,12 @@
       <c r="F48">
         <v>633.86839240251095</v>
       </c>
-      <c r="G48" s="18">
-        <v>339.25944864749908</v>
+      <c r="G48" s="14">
+        <v>340.11707791493069</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>-20.790905443883901</v>
+        <v>-19.933276176452296</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -62369,7 +62493,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>66.319191431999229</v>
+        <v>67.13370734623868</v>
       </c>
       <c r="C49">
         <v>58.057429399797101</v>
@@ -62383,12 +62507,12 @@
       <c r="F49">
         <v>635.21416897001097</v>
       </c>
-      <c r="G49" s="18">
-        <v>339.46919143199921</v>
+      <c r="G49" s="14">
+        <v>340.28370734623866</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>-21.780077780999818</v>
+        <v>-20.965561866760368</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -62397,7 +62521,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>66.488003706932091</v>
+        <v>67.272127091267407</v>
       </c>
       <c r="C50">
         <v>58.538835291702597</v>
@@ -62411,12 +62535,12 @@
       <c r="F50">
         <v>636.559945537511</v>
       </c>
-      <c r="G50" s="18">
-        <v>339.63800370693207</v>
+      <c r="G50" s="14">
+        <v>340.42212709126738</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-22.810180627682939</v>
+        <v>-22.026057243347623</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -62425,7 +62549,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>66.629183268547081</v>
+        <v>67.388445434013363</v>
       </c>
       <c r="C51">
         <v>59.073670614655398</v>
@@ -62439,12 +62563,12 @@
       <c r="F51">
         <v>637.90572210501205</v>
       </c>
-      <c r="G51" s="18">
-        <v>339.77918326854706</v>
+      <c r="G51" s="14">
+        <v>340.53844543401334</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>-23.867916187682965</v>
+        <v>-23.108654022216683</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -62453,7 +62577,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>66.754972910881065</v>
+        <v>67.489035303096045</v>
       </c>
       <c r="C52">
         <v>59.710782824925303</v>
@@ -62467,12 +62591,12 @@
       <c r="F52">
         <v>639.25149867251196</v>
       </c>
-      <c r="G52" s="18">
-        <v>339.90497291088104</v>
+      <c r="G52" s="14">
+        <v>340.63903530309602</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>-24.941041666964963</v>
+        <v>-24.206979274749983</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -62481,7 +62605,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>66.876435256004356</v>
+        <v>67.580663017790243</v>
       </c>
       <c r="C53">
         <v>60.384127439959002</v>
@@ -62495,12 +62619,12 @@
       <c r="F53">
         <v>640.59727524001198</v>
       </c>
-      <c r="G53" s="18">
-        <v>340.02643525600433</v>
+      <c r="G53" s="14">
+        <v>340.73066301779022</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>-26.018494443456689</v>
+        <v>-25.314266681670802</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -62509,7 +62633,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>67.003661370277428</v>
+        <v>67.670659949403444</v>
       </c>
       <c r="C54">
         <v>61.096293131063398</v>
@@ -62523,12 +62647,12 @@
       <c r="F54">
         <v>641.94305180751201</v>
       </c>
-      <c r="G54" s="18">
-        <v>340.1536613702774</v>
+      <c r="G54" s="14">
+        <v>340.82065994940342</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>-27.0901834507996</v>
+        <v>-26.423184871673584</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -62537,7 +62661,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>67.146247601509117</v>
+        <v>67.767287301701401</v>
       </c>
       <c r="C55">
         <v>61.830301439656402</v>
@@ -62551,12 +62675,12 @@
       <c r="F55">
         <v>643.28882837501305</v>
       </c>
-      <c r="G55" s="18">
-        <v>340.29624760150909</v>
+      <c r="G55" s="14">
+        <v>340.91728730170138</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>-28.146512341183893</v>
+        <v>-27.525472640991609</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -62565,7 +62689,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>67.314189648628258</v>
+        <v>67.880372688514797</v>
       </c>
       <c r="C56">
         <v>62.5657958466808</v>
@@ -62579,12 +62703,12 @@
       <c r="F56">
         <v>644.63460494251296</v>
       </c>
-      <c r="G56" s="18">
-        <v>340.46418964862823</v>
+      <c r="G56" s="14">
+        <v>341.03037268851477</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>-29.177485415679769</v>
+        <v>-28.61130237579323</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -62593,7 +62717,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>67.51937863826754</v>
+        <v>68.022590441508555</v>
       </c>
       <c r="C57">
         <v>63.283943278721601</v>
@@ -62607,12 +62731,12 @@
       <c r="F57">
         <v>645.98038151001299</v>
       </c>
-      <c r="G57" s="18">
-        <v>340.66937863826752</v>
+      <c r="G57" s="14">
+        <v>341.17259044150853</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>-30.171211547656469</v>
+        <v>-29.667999744415454</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -62621,7 +62745,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>67.778319096565269</v>
+        <v>68.211986462934988</v>
       </c>
       <c r="C58">
         <v>63.966767795580502</v>
@@ -62635,12 +62759,12 @@
       <c r="F58">
         <v>647.32615807751301</v>
       </c>
-      <c r="G58" s="18">
-        <v>340.92831909656525</v>
+      <c r="G58" s="14">
+        <v>341.36198646293496</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>-31.111186210973756</v>
+        <v>-30.677518844604037</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -62649,7 +62773,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>68.117541050910972</v>
+        <v>68.477335491105748</v>
       </c>
       <c r="C59">
         <v>64.614439781489594</v>
@@ -62663,12 +62787,12 @@
       <c r="F59">
         <v>648.67193464501395</v>
       </c>
-      <c r="G59" s="18">
-        <v>341.26754105091095</v>
+      <c r="G59" s="14">
+        <v>341.62733549110573</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>-31.970879378244035</v>
+        <v>-31.61108493804926</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -62677,7 +62801,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>68.585330224037193</v>
+        <v>68.869878447041458</v>
       </c>
       <c r="C60">
         <v>65.249609590819404</v>
@@ -62691,12 +62815,12 @@
       <c r="F60">
         <v>650.01771121251397</v>
       </c>
-      <c r="G60" s="18">
-        <v>341.73533022403717</v>
+      <c r="G60" s="14">
+        <v>342.01987844704144</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>-32.702005326733854</v>
+        <v>-32.417457103729589</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -62705,7 +62829,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>69.280034279823326</v>
+        <v>69.491932663963439</v>
       </c>
       <c r="C61">
         <v>65.944758620172394</v>
@@ -62719,12 +62843,12 @@
       <c r="F61">
         <v>651.363487780014</v>
       </c>
-      <c r="G61" s="18">
-        <v>342.4300342798233</v>
+      <c r="G61" s="14">
+        <v>342.64193266396342</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>-33.206216392562681</v>
+        <v>-32.994318008422567</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -62733,7 +62857,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>70.436787581443809</v>
+        <v>70.583452136622782</v>
       </c>
       <c r="C62">
         <v>66.935453844689704</v>
@@ -62747,12 +62871,12 @@
       <c r="F62">
         <v>652.70926434751402</v>
       </c>
-      <c r="G62" s="18">
-        <v>343.58678758144379</v>
+      <c r="G62" s="14">
+        <v>343.73345213662276</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>-33.248378212558237</v>
+        <v>-33.101713657379264</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -62761,7 +62885,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>72.8706598043442</v>
+        <v>72.957468061613611</v>
       </c>
       <c r="C63">
         <v>69.210593338762493</v>
@@ -62775,12 +62899,12 @@
       <c r="F63">
         <v>654.05504091501496</v>
       </c>
-      <c r="G63" s="18">
-        <v>346.02065980434418</v>
+      <c r="G63" s="14">
+        <v>346.10746806161359</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>-32.013421111272805</v>
+        <v>-31.926612854003395</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -62789,7 +62913,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>81.339389061927818</v>
+        <v>81.286424305665776</v>
       </c>
       <c r="C64">
         <v>78.942378390062203</v>
@@ -62803,12 +62927,12 @@
       <c r="F64">
         <v>655.40081748251498</v>
       </c>
-      <c r="G64" s="18">
-        <v>354.4893890619278</v>
+      <c r="G64" s="14">
+        <v>354.43642430566575</v>
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-24.743606975305227</v>
+        <v>-24.796571731567269</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -62817,7 +62941,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>115.51935074329378</v>
+        <v>115.08837678461168</v>
       </c>
       <c r="C65">
         <v>118.59490960456699</v>
@@ -62831,12 +62955,12 @@
       <c r="F65">
         <v>655.40081748251498</v>
       </c>
-      <c r="G65" s="18">
-        <v>388.66935074329376</v>
+      <c r="G65" s="14">
+        <v>388.23837678461166</v>
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>8.2374395844447577</v>
+        <v>7.8064656257626552</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -62883,10 +63007,10 @@
       <c r="E69" s="10">
         <v>3.9516105327975499E-19</v>
       </c>
-      <c r="G69" s="18">
-        <v>376.19997172829449</v>
-      </c>
-      <c r="H69" s="18">
+      <c r="G69" s="14">
+        <v>376.20000634204672</v>
+      </c>
+      <c r="H69" s="14">
         <v>0</v>
       </c>
     </row>
@@ -62906,11 +63030,11 @@
       <c r="E70">
         <v>1689.25118409422</v>
       </c>
-      <c r="G70" s="18">
-        <v>422.4668124170737</v>
-      </c>
-      <c r="H70" s="18">
-        <v>1689.1998730553828</v>
+      <c r="G70" s="14">
+        <v>494.2901392812887</v>
+      </c>
+      <c r="H70" s="14">
+        <v>1689.2000284768349</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -62929,11 +63053,11 @@
       <c r="E71">
         <v>1687.3186132999399</v>
       </c>
-      <c r="G71" s="18">
-        <v>422.43382048410126</v>
-      </c>
-      <c r="H71" s="18">
-        <v>1735.466713744162</v>
+      <c r="G71" s="14">
+        <v>494.3376521372395</v>
+      </c>
+      <c r="H71" s="14">
+        <v>1807.2901614160769</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -62952,11 +63076,11 @@
       <c r="E72">
         <v>1685.7585791844001</v>
       </c>
-      <c r="G72" s="18">
-        <v>422.32844595802135</v>
-      </c>
-      <c r="H72" s="18">
-        <v>1735.4337218111896</v>
+      <c r="G72" s="14">
+        <v>494.26316313760799</v>
+      </c>
+      <c r="H72" s="14">
+        <v>1807.3376742720277</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -62975,11 +63099,11 @@
       <c r="E73">
         <v>1684.62511566952</v>
       </c>
-      <c r="G73" s="18">
-        <v>422.18937504061205</v>
-      </c>
-      <c r="H73" s="18">
-        <v>1735.3283472851097</v>
+      <c r="G73" s="14">
+        <v>494.11114925073502</v>
+      </c>
+      <c r="H73" s="14">
+        <v>1807.2631852723962</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -62998,11 +63122,11 @@
       <c r="E74">
         <v>1683.67940325472</v>
       </c>
-      <c r="G74" s="18">
-        <v>422.03766905626867</v>
-      </c>
-      <c r="H74" s="18">
-        <v>1735.1892763677004</v>
+      <c r="G74" s="14">
+        <v>493.92659949740937</v>
+      </c>
+      <c r="H74" s="14">
+        <v>1807.1111713855232</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -63021,11 +63145,11 @@
       <c r="E75">
         <v>1682.65583783588</v>
       </c>
-      <c r="G75" s="18">
-        <v>421.81395273683938</v>
-      </c>
-      <c r="H75" s="18">
-        <v>1735.037570383357</v>
+      <c r="G75" s="14">
+        <v>493.66912713855027</v>
+      </c>
+      <c r="H75" s="14">
+        <v>1806.9266216321976</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -63044,11 +63168,11 @@
       <c r="E76">
         <v>1680.83659073389</v>
       </c>
-      <c r="G76" s="18">
-        <v>421.12124428473794</v>
-      </c>
-      <c r="H76" s="18">
-        <v>1734.8138540639277</v>
+      <c r="G76" s="14">
+        <v>492.959747306282</v>
+      </c>
+      <c r="H76" s="14">
+        <v>1806.6691492733385</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -63067,11 +63191,11 @@
       <c r="E77">
         <v>1673.5527387700099</v>
       </c>
-      <c r="G77" s="18">
-        <v>416.99513831493346</v>
-      </c>
-      <c r="H77" s="18">
-        <v>1734.1211456118263</v>
+      <c r="G77" s="14">
+        <v>488.65027771837094</v>
+      </c>
+      <c r="H77" s="14">
+        <v>1805.9597694410702</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -63090,11 +63214,11 @@
       <c r="E78">
         <v>1628.23660289022</v>
       </c>
-      <c r="G78" s="18">
-        <v>2021.6550051780507</v>
-      </c>
-      <c r="H78" s="18">
-        <v>1729.9950396420218</v>
+      <c r="G78" s="14">
+        <v>2093.1755846026572</v>
+      </c>
+      <c r="H78" s="14">
+        <v>1801.6502998531591</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -63113,11 +63237,11 @@
       <c r="E79">
         <v>1847.9365901557901</v>
       </c>
-      <c r="G79" s="18">
-        <v>2019.9007659398601</v>
-      </c>
-      <c r="H79" s="18">
-        <v>1716.654906505139</v>
+      <c r="G79" s="14">
+        <v>2091.5004029192964</v>
+      </c>
+      <c r="H79" s="14">
+        <v>1788.1756067374456</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -63136,11 +63260,11 @@
       <c r="E80">
         <v>1852.4370496732199</v>
       </c>
-      <c r="G80" s="18">
-        <v>2019.6512313278308</v>
-      </c>
-      <c r="H80" s="18">
-        <v>1714.9006672669484</v>
+      <c r="G80" s="14">
+        <v>2091.3523805815171</v>
+      </c>
+      <c r="H80" s="14">
+        <v>1786.5004250540846</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -63159,11 +63283,11 @@
       <c r="E81">
         <v>1854.47035012121</v>
       </c>
-      <c r="G81" s="18">
-        <v>2019.9764130716865</v>
-      </c>
-      <c r="H81" s="18">
-        <v>1714.6511326549191</v>
+      <c r="G81" s="14">
+        <v>2091.7885205193797</v>
+      </c>
+      <c r="H81" s="14">
+        <v>1786.3524027163053</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -63182,11 +63306,11 @@
       <c r="E82">
         <v>1855.51400709785</v>
       </c>
-      <c r="G82" s="18">
-        <v>2020.5562242255201</v>
-      </c>
-      <c r="H82" s="18">
-        <v>1714.9763143987748</v>
+      <c r="G82" s="14">
+        <v>2092.4891494162348</v>
+      </c>
+      <c r="H82" s="14">
+        <v>1786.7885426541679</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -63205,11 +63329,11 @@
       <c r="E83">
         <v>1856.17799542901</v>
       </c>
-      <c r="G83" s="18">
-        <v>2021.2786874206872</v>
-      </c>
-      <c r="H83" s="18">
-        <v>1715.5561255526084</v>
+      <c r="G83" s="14">
+        <v>2093.3487839446807</v>
+      </c>
+      <c r="H83" s="14">
+        <v>1787.489171551023</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -63228,11 +63352,11 @@
       <c r="E84">
         <v>1856.70841842256</v>
       </c>
-      <c r="G84" s="18">
-        <v>2022.100175662187</v>
-      </c>
-      <c r="H84" s="18">
-        <v>1716.2785887477755</v>
+      <c r="G84" s="14">
+        <v>2094.3342709330263</v>
+      </c>
+      <c r="H84" s="14">
+        <v>1788.3488060794687</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -63251,11 +63375,11 @@
       <c r="E85">
         <v>1857.2074256615099</v>
       </c>
-      <c r="G85" s="18">
-        <v>2022.9971162818358</v>
-      </c>
-      <c r="H85" s="18">
-        <v>1717.1000769892753</v>
+      <c r="G85" s="14">
+        <v>2095.4362404131489</v>
+      </c>
+      <c r="H85" s="14">
+        <v>1789.3342930678143</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -63274,11 +63398,11 @@
       <c r="E86">
         <v>1857.72097513925</v>
       </c>
-      <c r="G86" s="18">
-        <v>2023.949497898124</v>
-      </c>
-      <c r="H86" s="18">
-        <v>1717.9970176089241</v>
+      <c r="G86" s="14">
+        <v>2096.6533036382643</v>
+      </c>
+      <c r="H86" s="14">
+        <v>1790.4362625479373</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -63297,11 +63421,11 @@
       <c r="E87">
         <v>1858.27977643549</v>
       </c>
-      <c r="G87" s="18">
-        <v>2024.9371326314003</v>
-      </c>
-      <c r="H87" s="18">
-        <v>1718.9493992252123</v>
+      <c r="G87" s="14">
+        <v>2097.9895824857927</v>
+      </c>
+      <c r="H87" s="14">
+        <v>1791.6533257730528</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -63320,11 +63444,11 @@
       <c r="E88">
         <v>1858.93457294892</v>
       </c>
-      <c r="G88" s="18">
-        <v>2025.9513304508685</v>
-      </c>
-      <c r="H88" s="18">
-        <v>1719.9370339584887</v>
+      <c r="G88" s="14">
+        <v>2099.4694826987443</v>
+      </c>
+      <c r="H88" s="14">
+        <v>1792.9896046205808</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -63343,11 +63467,11 @@
       <c r="E89">
         <v>1859.93440405416</v>
       </c>
-      <c r="G89" s="18">
-        <v>2027.187065285616</v>
-      </c>
-      <c r="H89" s="18">
-        <v>1720.9512317779568</v>
+      <c r="G89" s="14">
+        <v>2101.3488835810995</v>
+      </c>
+      <c r="H89" s="14">
+        <v>1794.4695048335327</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -63366,11 +63490,11 @@
       <c r="E90">
         <v>1864.04417227206</v>
       </c>
-      <c r="G90" s="18">
-        <v>2131.5315252158857</v>
-      </c>
-      <c r="H90" s="18">
-        <v>1722.1869666127043</v>
+      <c r="G90" s="14">
+        <v>2206.896295512729</v>
+      </c>
+      <c r="H90" s="14">
+        <v>1796.3489057158879</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -63389,11 +63513,11 @@
       <c r="E91">
         <v>1864.7005738985399</v>
       </c>
-      <c r="G91" s="18">
-        <v>2133.527377700264</v>
-      </c>
-      <c r="H91" s="18">
-        <v>1723.4314265429741</v>
+      <c r="G91" s="14">
+        <v>2210.3735167156583</v>
+      </c>
+      <c r="H91" s="14">
+        <v>1798.7963176475171</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -63412,11 +63536,11 @@
       <c r="E92">
         <v>1865.03536285317</v>
       </c>
-      <c r="G92" s="18">
-        <v>2135.6302383701664</v>
-      </c>
-      <c r="H92" s="18">
-        <v>1725.4272790273521</v>
+      <c r="G92" s="14">
+        <v>2214.39696423339</v>
+      </c>
+      <c r="H92" s="14">
+        <v>1802.2735388504464</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -63435,11 +63559,11 @@
       <c r="E93">
         <v>1865.31959988891</v>
       </c>
-      <c r="G93" s="18">
-        <v>2137.8049776831167</v>
-      </c>
-      <c r="H93" s="18">
-        <v>1727.5301396972548</v>
+      <c r="G93" s="14">
+        <v>2219.0042703070712</v>
+      </c>
+      <c r="H93" s="14">
+        <v>1806.2969863681781</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -63458,11 +63582,11 @@
       <c r="E94">
         <v>1865.57634210423</v>
       </c>
-      <c r="G94" s="18">
-        <v>2140.0334137785881</v>
-      </c>
-      <c r="H94" s="18">
-        <v>1729.7048790102049</v>
+      <c r="G94" s="14">
+        <v>2224.2256058776115</v>
+      </c>
+      <c r="H94" s="14">
+        <v>1810.9042924418593</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -63481,11 +63605,11 @@
       <c r="E95">
         <v>1865.8355613399201</v>
       </c>
-      <c r="G95" s="18">
-        <v>2142.3140900085154</v>
-      </c>
-      <c r="H95" s="18">
-        <v>1731.9333151056762</v>
+      <c r="G95" s="14">
+        <v>2230.0626610264981</v>
+      </c>
+      <c r="H95" s="14">
+        <v>1816.1256280123998</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -63504,11 +63628,11 @@
       <c r="E96">
         <v>1866.1606313700399</v>
       </c>
-      <c r="G96" s="18">
-        <v>2144.6643183591664</v>
-      </c>
-      <c r="H96" s="18">
-        <v>1734.2139913356039</v>
+      <c r="G96" s="14">
+        <v>2236.4698765633707</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1821.9626831612861</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -63527,11 +63651,11 @@
       <c r="E97">
         <v>1866.5440161382301</v>
       </c>
-      <c r="G97" s="18">
-        <v>2147.1212671902867</v>
-      </c>
-      <c r="H97" s="18">
-        <v>1736.5642196862548</v>
+      <c r="G97" s="14">
+        <v>2243.340549832184</v>
+      </c>
+      <c r="H97" s="14">
+        <v>1828.369898698159</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -63550,11 +63674,11 @@
       <c r="E98">
         <v>1866.7903906517499</v>
       </c>
-      <c r="G98" s="18">
-        <v>2149.7402687606059</v>
-      </c>
-      <c r="H98" s="18">
-        <v>1739.0211685173751</v>
+      <c r="G98" s="14">
+        <v>2250.5029079481992</v>
+      </c>
+      <c r="H98" s="14">
+        <v>1835.2405719669723</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -63573,11 +63697,11 @@
       <c r="E99">
         <v>1867.21504461788</v>
       </c>
-      <c r="G99" s="18">
-        <v>2152.5895699262232</v>
-      </c>
-      <c r="H99" s="18">
-        <v>1741.6401700876943</v>
+      <c r="G99" s="14">
+        <v>2257.7306155537567</v>
+      </c>
+      <c r="H99" s="14">
+        <v>1842.4029300829873</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -63596,11 +63720,11 @@
       <c r="E100">
         <v>1867.80721763478</v>
       </c>
-      <c r="G100" s="18">
-        <v>2155.7415292093278</v>
-      </c>
-      <c r="H100" s="18">
-        <v>1744.4894712533116</v>
+      <c r="G100" s="14">
+        <v>2264.7680232914277</v>
+      </c>
+      <c r="H100" s="14">
+        <v>1849.6306376885448</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -63619,11 +63743,11 @@
       <c r="E101">
         <v>1868.59805288132</v>
       </c>
-      <c r="G101" s="18">
-        <v>2159.2612107030554</v>
-      </c>
-      <c r="H101" s="18">
-        <v>1747.6414305364162</v>
+      <c r="G101" s="14">
+        <v>2271.3649399614628</v>
+      </c>
+      <c r="H101" s="14">
+        <v>1856.6680454262157</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -63642,11 +63766,11 @@
       <c r="E102">
         <v>1870.10032126589</v>
       </c>
-      <c r="G102" s="18">
-        <v>2163.1939132214002</v>
-      </c>
-      <c r="H102" s="18">
-        <v>1751.1611120301438</v>
+      <c r="G102" s="14">
+        <v>2277.3116113934434</v>
+      </c>
+      <c r="H102" s="14">
+        <v>1863.2649620962509</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -63665,11 +63789,11 @@
       <c r="E103">
         <v>1870.19031161421</v>
       </c>
-      <c r="G103" s="18">
-        <v>2167.5538438348754</v>
-      </c>
-      <c r="H103" s="18">
-        <v>1755.0938145484886</v>
+      <c r="G103" s="14">
+        <v>2282.4642883423771</v>
+      </c>
+      <c r="H103" s="14">
+        <v>1869.2116335282315</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -63688,11 +63812,11 @@
       <c r="E104">
         <v>1867.8320182103701</v>
       </c>
-      <c r="G104" s="18">
-        <v>2172.3164513346278</v>
-      </c>
-      <c r="H104" s="18">
-        <v>1759.4537451619635</v>
+      <c r="G104" s="14">
+        <v>2286.7559937293258</v>
+      </c>
+      <c r="H104" s="14">
+        <v>1874.3643104771654</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -63711,11 +63835,11 @@
       <c r="E105">
         <v>1866.1983316184001</v>
       </c>
-      <c r="G105" s="18">
-        <v>2177.4164641389116</v>
-      </c>
-      <c r="H105" s="18">
-        <v>1764.2163526617162</v>
+      <c r="G105" s="14">
+        <v>2290.192477295031</v>
+      </c>
+      <c r="H105" s="14">
+        <v>1878.6560158641139</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -63734,11 +63858,11 @@
       <c r="E106">
         <v>1864.9175275308401</v>
       </c>
-      <c r="G106" s="18">
-        <v>2182.7525651120081</v>
-      </c>
-      <c r="H106" s="18">
-        <v>1769.316365466</v>
+      <c r="G106" s="14">
+        <v>2292.8376068624743</v>
+      </c>
+      <c r="H106" s="14">
+        <v>1882.0924994298191</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -63757,11 +63881,11 @@
       <c r="E107">
         <v>1863.4332058519001</v>
       </c>
-      <c r="G107" s="18">
-        <v>2188.1979827401819</v>
-      </c>
-      <c r="H107" s="18">
-        <v>1774.6524664390965</v>
+      <c r="G107" s="14">
+        <v>2294.7938536536481</v>
+      </c>
+      <c r="H107" s="14">
+        <v>1884.7376289972624</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -63780,11 +63904,11 @@
       <c r="E108">
         <v>1862.9686113085099</v>
       </c>
-      <c r="G108" s="18">
-        <v>2193.614748063249</v>
-      </c>
-      <c r="H108" s="18">
-        <v>1780.0978840672703</v>
+      <c r="G108" s="14">
+        <v>2296.1829134543659</v>
+      </c>
+      <c r="H108" s="14">
+        <v>1886.6938757884363</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -63803,11 +63927,11 @@
       <c r="E109">
         <v>1863.2109748009</v>
       </c>
-      <c r="G109" s="18">
-        <v>2198.8683376101553</v>
-      </c>
-      <c r="H109" s="18">
-        <v>1785.5146493903374</v>
+      <c r="G109" s="14">
+        <v>2297.1294189064593</v>
+      </c>
+      <c r="H109" s="14">
+        <v>1888.0829355891542</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -63826,11 +63950,11 @@
       <c r="E110">
         <v>1862.9115674085101</v>
       </c>
-      <c r="G110" s="18">
-        <v>2203.83980486174</v>
-      </c>
-      <c r="H110" s="18">
-        <v>1790.7682389372437</v>
+      <c r="G110" s="14">
+        <v>2297.7491094332327</v>
+      </c>
+      <c r="H110" s="14">
+        <v>1889.0294410412473</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -63849,11 +63973,11 @@
       <c r="E111">
         <v>1862.40521809292</v>
       </c>
-      <c r="G111" s="18">
-        <v>2208.4334920058782</v>
-      </c>
-      <c r="H111" s="18">
-        <v>1795.7397061888284</v>
+      <c r="G111" s="14">
+        <v>2298.1414075136995</v>
+      </c>
+      <c r="H111" s="14">
+        <v>1889.6491315680209</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -63872,11 +63996,11 @@
       <c r="E112">
         <v>1860.4491776745799</v>
       </c>
-      <c r="G112" s="18">
-        <v>2212.5799773214976</v>
-      </c>
-      <c r="H112" s="18">
-        <v>1800.3333933329664</v>
+      <c r="G112" s="14">
+        <v>2298.385659161358</v>
+      </c>
+      <c r="H112" s="14">
+        <v>1890.0414296484878</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -63895,11 +64019,11 @@
       <c r="E113">
         <v>1860.48771468414</v>
       </c>
-      <c r="G113" s="18">
-        <v>2216.2349115782645</v>
-      </c>
-      <c r="H113" s="18">
-        <v>1804.479878648586</v>
+      <c r="G113" s="14">
+        <v>2298.5401152086947</v>
+      </c>
+      <c r="H113" s="14">
+        <v>1890.2856812961463</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -63918,11 +64042,11 @@
       <c r="E114">
         <v>1859.0974178727399</v>
       </c>
-      <c r="G114" s="18">
-        <v>2219.375217615509</v>
-      </c>
-      <c r="H114" s="18">
-        <v>1808.1348129053526</v>
+      <c r="G114" s="14">
+        <v>2298.6426491579859</v>
+      </c>
+      <c r="H114" s="14">
+        <v>1890.4401373434828</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -63941,11 +64065,11 @@
       <c r="E115">
         <v>1856.2286238701699</v>
       </c>
-      <c r="G115" s="18">
-        <v>2221.9938986858597</v>
-      </c>
-      <c r="H115" s="18">
-        <v>1811.2751189425974</v>
+      <c r="G115" s="14">
+        <v>2298.7124116493846</v>
+      </c>
+      <c r="H115" s="14">
+        <v>1890.5426712927742</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -63964,11 +64088,11 @@
       <c r="E116">
         <v>1853.5240444590099</v>
       </c>
-      <c r="G116" s="18">
-        <v>2224.0945504995225</v>
-      </c>
-      <c r="H116" s="18">
-        <v>1813.8938000129478</v>
+      <c r="G116" s="14">
+        <v>2298.7517817854814</v>
+      </c>
+      <c r="H116" s="14">
+        <v>1890.6124337841729</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -63987,11 +64111,11 @@
       <c r="E117">
         <v>1857.34795919875</v>
       </c>
-      <c r="G117" s="18">
-        <v>2225.6860361117324</v>
-      </c>
-      <c r="H117" s="18">
-        <v>1815.9944518266109</v>
+      <c r="G117" s="14">
+        <v>2298.748058216428</v>
+      </c>
+      <c r="H117" s="14">
+        <v>1890.6518039202697</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -64010,11 +64134,11 @@
       <c r="E118">
         <v>1848.1531172089101</v>
       </c>
-      <c r="G118" s="18">
-        <v>2226.7774120388253</v>
-      </c>
-      <c r="H118" s="18">
-        <v>1817.5859374388208</v>
+      <c r="G118" s="14">
+        <v>2298.6744321244259</v>
+      </c>
+      <c r="H118" s="14">
+        <v>1890.6480803512161</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -64033,11 +64157,11 @@
       <c r="E119">
         <v>1845.8675779883799</v>
       </c>
-      <c r="G119" s="18">
-        <v>2227.3727239413656</v>
-      </c>
-      <c r="H119" s="18">
-        <v>1818.6773133659135</v>
+      <c r="G119" s="14">
+        <v>2298.4896392294054</v>
+      </c>
+      <c r="H119" s="14">
+        <v>1890.5744542592142</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -64056,11 +64180,11 @@
       <c r="E120">
         <v>1844.7465668192201</v>
       </c>
-      <c r="G120" s="18">
-        <v>2227.4647501377353</v>
-      </c>
-      <c r="H120" s="18">
-        <v>1819.272625268454</v>
+      <c r="G120" s="14">
+        <v>2298.1353581809603</v>
+      </c>
+      <c r="H120" s="14">
+        <v>1890.3896613641937</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -64079,11 +64203,11 @@
       <c r="E121">
         <v>1843.9181934043299</v>
       </c>
-      <c r="G121" s="18">
-        <v>2227.0257621030637</v>
-      </c>
-      <c r="H121" s="18">
-        <v>1819.3646514648235</v>
+      <c r="G121" s="14">
+        <v>2297.5294965070666</v>
+      </c>
+      <c r="H121" s="14">
+        <v>1890.0353803157484</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -64102,11 +64226,11 @@
       <c r="E122">
         <v>1842.97605425854</v>
       </c>
-      <c r="G122" s="18">
-        <v>2225.9913664817032</v>
-      </c>
-      <c r="H122" s="18">
-        <v>1818.9256634301521</v>
+      <c r="G122" s="14">
+        <v>2296.5512232359133</v>
+      </c>
+      <c r="H122" s="14">
+        <v>1889.4295186418547</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -64125,11 +64249,11 @@
       <c r="E123">
         <v>1841.4017903848001</v>
       </c>
-      <c r="G123" s="18">
-        <v>2224.2286735265038</v>
-      </c>
-      <c r="H123" s="18">
-        <v>1817.8912678087913</v>
+      <c r="G123" s="14">
+        <v>2295.0086746707684</v>
+      </c>
+      <c r="H123" s="14">
+        <v>1888.4512453707014</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -64148,11 +64272,11 @@
       <c r="E124">
         <v>1840.4566803176999</v>
       </c>
-      <c r="G124" s="18">
-        <v>2221.4686274807877</v>
-      </c>
-      <c r="H124" s="18">
-        <v>1816.1285748535922</v>
+      <c r="G124" s="14">
+        <v>2292.5680127368614</v>
+      </c>
+      <c r="H124" s="14">
+        <v>1886.9086968055567</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -64171,11 +64295,11 @@
       <c r="E125">
         <v>1839.19551643113</v>
       </c>
-      <c r="G125" s="18">
-        <v>2217.1521054339751</v>
-      </c>
-      <c r="H125" s="18">
-        <v>1813.3685288078761</v>
+      <c r="G125" s="14">
+        <v>2288.5913025306036</v>
+      </c>
+      <c r="H125" s="14">
+        <v>1884.4680348716495</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -64194,11 +64318,11 @@
       <c r="E126">
         <v>1836.7000095062999</v>
       </c>
-      <c r="G126" s="18">
-        <v>2210.0362414866108</v>
-      </c>
-      <c r="H126" s="18">
-        <v>1809.0520067610635</v>
+      <c r="G126" s="14">
+        <v>2281.7242572091882</v>
+      </c>
+      <c r="H126" s="14">
+        <v>1880.4913246653916</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -64217,11 +64341,11 @@
       <c r="E127">
         <v>1832.0745124909899</v>
       </c>
-      <c r="G127" s="18">
-        <v>2196.8028144559771</v>
-      </c>
-      <c r="H127" s="18">
-        <v>1801.936142813699</v>
+      <c r="G127" s="14">
+        <v>2268.4631567707779</v>
+      </c>
+      <c r="H127" s="14">
+        <v>1873.6242793439762</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -64240,11 +64364,11 @@
       <c r="E128">
         <v>1815.55771199844</v>
       </c>
-      <c r="G128" s="18">
-        <v>2163.45887971714</v>
-      </c>
-      <c r="H128" s="18">
-        <v>1788.7027157830655</v>
+      <c r="G128" s="14">
+        <v>2234.4263444391268</v>
+      </c>
+      <c r="H128" s="14">
+        <v>1860.3631789055662</v>
       </c>
     </row>
     <row r="129" spans="1:63" x14ac:dyDescent="0.25">
@@ -64263,11 +64387,11 @@
       <c r="E129">
         <v>1727.4826528097501</v>
       </c>
-      <c r="G129" s="18">
-        <v>2029.4479521855869</v>
-      </c>
-      <c r="H129" s="18">
-        <v>1755.3587810442282</v>
+      <c r="G129" s="14">
+        <v>2097.2978797516716</v>
+      </c>
+      <c r="H129" s="14">
+        <v>1826.3263665739148</v>
       </c>
     </row>
     <row r="130" spans="1:63" x14ac:dyDescent="0.25">
@@ -64286,11 +64410,11 @@
       <c r="E130">
         <v>1380.7692127386699</v>
       </c>
-      <c r="G130" s="18">
-        <v>391.70781729683097</v>
-      </c>
-      <c r="H130" s="18">
-        <v>1621.3478535126753</v>
+      <c r="G130" s="14">
+        <v>408.09997786521183</v>
+      </c>
+      <c r="H130" s="14">
+        <v>1689.1979018864597</v>
       </c>
     </row>
     <row r="134" spans="1:63" x14ac:dyDescent="0.25">
@@ -64676,7 +64800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
@@ -82080,7 +82204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -89411,7 +89535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5A11C-24B6-4BDF-AC6E-B08E97CB0FB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="zf" sheetId="10" r:id="rId10"/>
     <sheet name="theta" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6758,7 +6757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -6939,8 +6938,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6956,7 +6955,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7393,7 +7392,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -7796,7 +7795,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -8208,7 +8207,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72FB-4C32-A9A2-10C3C6656068}"/>
             </c:ext>
@@ -8222,11 +8221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59410112"/>
-        <c:axId val="59410688"/>
+        <c:axId val="59869440"/>
+        <c:axId val="59870016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59410112"/>
+        <c:axId val="59869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -8252,19 +8251,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59410688"/>
+        <c:crossAx val="59870016"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59410688"/>
+        <c:axId val="59870016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8306,7 +8306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59410112"/>
+        <c:crossAx val="59869440"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8329,7 +8329,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8777,7 +8777,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -9020,199 +9020,199 @@
             <c:numRef>
               <c:f>Лист2!$G$69:$G$130</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>376.20000634204672</c:v>
+                  <c:v>376.20000653081354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>494.2901392812887</c:v>
+                  <c:v>494.2901410854713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>494.3376521372395</c:v>
+                  <c:v>494.33765392838473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>494.26316313760799</c:v>
+                  <c:v>494.26316492135402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>494.11114925073502</c:v>
+                  <c:v>494.11115103322891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>493.92659949740937</c:v>
+                  <c:v>493.92660128200077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>493.66912713855027</c:v>
+                  <c:v>493.66912892554978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>492.959747306282</c:v>
+                  <c:v>492.95974908935068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>488.65027771837094</c:v>
+                  <c:v>488.65027947709928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2093.1755846026572</c:v>
+                  <c:v>2093.1755861581564</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2091.5004029192964</c:v>
+                  <c:v>2091.5004045395453</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2091.3523805815171</c:v>
+                  <c:v>2091.3523822845236</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2091.7885205193797</c:v>
+                  <c:v>2091.7885223231951</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2092.4891494162348</c:v>
+                  <c:v>2092.4891513426128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2093.3487839446807</c:v>
+                  <c:v>2093.3487860213031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2094.3342709330263</c:v>
+                  <c:v>2094.3342731955095</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2095.4362404131489</c:v>
+                  <c:v>2095.436242907298</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2096.6533036382643</c:v>
+                  <c:v>2096.6533064227351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2097.9895824857927</c:v>
+                  <c:v>2097.9895856352832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2099.4694826987443</c:v>
+                  <c:v>2099.469486213784</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2101.3488835810995</c:v>
+                  <c:v>2101.3488820954467</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2206.896295512729</c:v>
+                  <c:v>2206.8963005395985</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2210.3735167156583</c:v>
+                  <c:v>2210.3735228286091</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2214.39696423339</c:v>
+                  <c:v>2214.3969716954575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2219.0042703070712</c:v>
+                  <c:v>2219.0042793979251</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2224.2256058776115</c:v>
+                  <c:v>2224.2256168264935</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2230.0626610264981</c:v>
+                  <c:v>2230.0626667614015</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2236.4698765633707</c:v>
+                  <c:v>2236.4698845278649</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2243.340549832184</c:v>
+                  <c:v>2243.3405593465823</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2250.5029079481992</c:v>
+                  <c:v>2250.5029188345929</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2257.7306155537567</c:v>
+                  <c:v>2257.7306276424279</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2264.7680232914277</c:v>
+                  <c:v>2264.7680303011034</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2271.3649399614628</c:v>
+                  <c:v>2271.3649538483241</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2277.3116113934434</c:v>
+                  <c:v>2277.3116258659916</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2282.4642883423771</c:v>
+                  <c:v>2282.4643032553408</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2286.7559937293258</c:v>
+                  <c:v>2286.7560090039192</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2290.192477295031</c:v>
+                  <c:v>2290.1924929191373</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2292.8376068624743</c:v>
+                  <c:v>2292.8376228816169</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2294.7938536536481</c:v>
+                  <c:v>2294.7938705252495</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2296.1829134543659</c:v>
+                  <c:v>2296.1829361195273</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2297.1294189064593</c:v>
+                  <c:v>2297.1294368947365</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2297.7491094332327</c:v>
+                  <c:v>2297.7491282116034</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2298.1414075136995</c:v>
+                  <c:v>2298.1414271912231</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2298.385659161358</c:v>
+                  <c:v>2298.3856798268462</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2298.5401152086947</c:v>
+                  <c:v>2298.5401369057649</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2298.6426491579859</c:v>
+                  <c:v>2298.6426717556405</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2298.7124116493846</c:v>
+                  <c:v>2298.7124335946442</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2298.7517817854814</c:v>
+                  <c:v>2298.7517977096882</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2298.748058216428</c:v>
+                  <c:v>2298.7480748633893</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2298.6744321244259</c:v>
+                  <c:v>2298.6744477777788</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2298.4896392294054</c:v>
+                  <c:v>2298.4896482962599</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2298.1353581809603</c:v>
+                  <c:v>2298.1353664566</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2297.5294965070666</c:v>
+                  <c:v>2297.5295052958368</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2296.5512232359133</c:v>
+                  <c:v>2296.5512339089546</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2295.0086746707684</c:v>
+                  <c:v>2295.0086767000848</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2292.5680127368614</c:v>
+                  <c:v>2292.5680124677847</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2288.5913025306036</c:v>
+                  <c:v>2288.5912925307025</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2281.7242572091882</c:v>
+                  <c:v>2281.7242465935374</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2268.4631567707779</c:v>
+                  <c:v>2268.4631555587962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2234.4263444391268</c:v>
+                  <c:v>2234.4263449815576</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2097.2978797516716</c:v>
+                  <c:v>2097.2978763658416</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>408.09997786521183</c:v>
+                  <c:v>408.09997720638455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1739-480A-A905-99EEB47984B8}"/>
             </c:ext>
@@ -9226,11 +9226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59412992"/>
-        <c:axId val="59413568"/>
+        <c:axId val="59872320"/>
+        <c:axId val="59872896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59412992"/>
+        <c:axId val="59872320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -9279,6 +9279,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9287,26 +9288,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9345,13 +9326,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59413568"/>
+        <c:crossAx val="59872896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59413568"/>
+        <c:axId val="59872896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9398,6 +9379,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9406,26 +9388,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9464,7 +9426,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59412992"/>
+        <c:crossAx val="59872320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9478,6 +9440,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9509,14 +9472,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9552,7 +9515,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10000,7 +9963,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBF6-4D50-A6E6-452DDEEC93C6}"/>
             </c:ext>
@@ -10243,199 +10206,199 @@
             <c:numRef>
               <c:f>Лист2!$H$69:$H$130</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689.2000284768349</c:v>
+                  <c:v>1689.2000293244289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1807.2901614160769</c:v>
+                  <c:v>1807.2901638790868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1807.3376742720277</c:v>
+                  <c:v>1807.3376767220002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1807.2631852723962</c:v>
+                  <c:v>1807.2631877149695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1807.1111713855232</c:v>
+                  <c:v>1807.1111738268444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1806.9266216321976</c:v>
+                  <c:v>1806.9266240756162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1806.6691492733385</c:v>
+                  <c:v>1806.6691517191653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1805.9597694410702</c:v>
+                  <c:v>1805.9597718829662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1801.6502998531591</c:v>
+                  <c:v>1801.6503022707147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1788.1756067374456</c:v>
+                  <c:v>1788.1756089517719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1786.5004250540846</c:v>
+                  <c:v>1786.500427333161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1786.3524027163053</c:v>
+                  <c:v>1786.3524050781389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1786.7885426541679</c:v>
+                  <c:v>1786.7885451168106</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1787.489171551023</c:v>
+                  <c:v>1787.489174136228</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1788.3488060794687</c:v>
+                  <c:v>1788.3488088149186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1789.3342930678143</c:v>
+                  <c:v>1789.3342959891249</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1790.4362625479373</c:v>
+                  <c:v>1790.4362657009137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1791.6533257730528</c:v>
+                  <c:v>1791.6533292163504</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1792.9896046205808</c:v>
+                  <c:v>1792.9896084288987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1794.4695048335327</c:v>
+                  <c:v>1794.4695090073992</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1796.3489057158879</c:v>
+                  <c:v>1796.3489048890622</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1798.7963176475171</c:v>
+                  <c:v>1798.7963233332141</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1802.2735388504464</c:v>
+                  <c:v>1802.2735456222247</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1806.2969863681781</c:v>
+                  <c:v>1806.2969944890731</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1810.9042924418593</c:v>
+                  <c:v>1810.9043021915406</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1816.1256280123998</c:v>
+                  <c:v>1816.1256396201088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1821.9626831612861</c:v>
+                  <c:v>1821.9626895550168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1828.369898698159</c:v>
+                  <c:v>1828.3699073214802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1835.2405719669723</c:v>
+                  <c:v>1835.2405821401978</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1842.4029300829873</c:v>
+                  <c:v>1842.4029416282083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1849.6306376885448</c:v>
+                  <c:v>1849.6306504360434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1856.6680454262157</c:v>
+                  <c:v>1856.6680530947187</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1863.2649620962509</c:v>
+                  <c:v>1863.2649766419395</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1869.2116335282315</c:v>
+                  <c:v>1869.2116486596069</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1874.3643104771654</c:v>
+                  <c:v>1874.3643260489562</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1878.6560158641139</c:v>
+                  <c:v>1878.6560317975348</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1882.0924994298191</c:v>
+                  <c:v>1882.0925157127529</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1884.7376289972624</c:v>
+                  <c:v>1884.7376456752324</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1886.6938757884363</c:v>
+                  <c:v>1886.6938933188649</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1888.0829355891542</c:v>
+                  <c:v>1888.0829589131429</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1889.0294410412473</c:v>
+                  <c:v>1889.0294596883521</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1889.6491315680209</c:v>
+                  <c:v>1889.649151005219</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1890.0414296484878</c:v>
+                  <c:v>1890.0414499848384</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1890.2856812961463</c:v>
+                  <c:v>1890.2857026204615</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1890.4401373434828</c:v>
+                  <c:v>1890.4401596993805</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1890.5426712927742</c:v>
+                  <c:v>1890.5426945492561</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1890.6124337841729</c:v>
+                  <c:v>1890.6124563882595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1890.6518039202697</c:v>
+                  <c:v>1890.6518205033037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1890.6480803512161</c:v>
+                  <c:v>1890.6480976570049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1890.5744542592142</c:v>
+                  <c:v>1890.5744705713944</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1890.3896613641937</c:v>
+                  <c:v>1890.3896710898753</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1890.0353803157484</c:v>
+                  <c:v>1890.0353892502155</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1889.4295186418547</c:v>
+                  <c:v>1889.4295280894521</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1888.4512453707014</c:v>
+                  <c:v>1888.4512567025702</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1886.9086968055567</c:v>
+                  <c:v>1886.9086994937004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1884.4680348716495</c:v>
+                  <c:v>1884.4680352614002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1880.4913246653916</c:v>
+                  <c:v>1880.4913153243178</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1873.6242793439762</c:v>
+                  <c:v>1873.6242693871527</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1860.3631789055662</c:v>
+                  <c:v>1860.3631783524115</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1826.3263665739148</c:v>
+                  <c:v>1826.3263677751731</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1689.1979018864597</c:v>
+                  <c:v>1689.1978991594572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-289D-4A3D-B0A6-1E81BBB38AE5}"/>
             </c:ext>
@@ -10449,11 +10412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59415872"/>
-        <c:axId val="61128704"/>
+        <c:axId val="61538304"/>
+        <c:axId val="61538880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59415872"/>
+        <c:axId val="61538304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -10502,6 +10465,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10510,26 +10474,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10568,13 +10512,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61128704"/>
+        <c:crossAx val="61538880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61128704"/>
+        <c:axId val="61538880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10621,6 +10565,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10629,26 +10574,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10687,7 +10612,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59415872"/>
+        <c:crossAx val="61538304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10701,6 +10626,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10732,14 +10658,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10775,7 +10701,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11212,7 +11138,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11615,7 +11541,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FD5-4613-9034-FA48704AE2D5}"/>
             </c:ext>
@@ -11629,11 +11555,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61131008"/>
-        <c:axId val="61131584"/>
+        <c:axId val="61541184"/>
+        <c:axId val="61541760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61131008"/>
+        <c:axId val="61541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -11659,19 +11585,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61131584"/>
+        <c:crossAx val="61541760"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61131584"/>
+        <c:axId val="61541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11713,7 +11640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61131008"/>
+        <c:crossAx val="61541184"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11736,7 +11663,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12152,7 +12079,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E1C-4F67-A4F7-6DB260216F15}"/>
             </c:ext>
@@ -12166,11 +12093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87075072"/>
-        <c:axId val="87074496"/>
+        <c:axId val="61544064"/>
+        <c:axId val="61544640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87075072"/>
+        <c:axId val="61544064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -12182,12 +12109,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87074496"/>
+        <c:crossAx val="61544640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87074496"/>
+        <c:axId val="61544640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12198,7 +12125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87075072"/>
+        <c:crossAx val="61544064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13347,7 +13274,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13383,7 +13310,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13419,7 +13346,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13455,7 +13382,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13491,7 +13418,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13555,7 +13482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13588,26 +13515,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13640,23 +13550,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -13832,7 +13725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15717,7 +15610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z259"/>
   <sheetViews>
     <sheetView topLeftCell="A222" workbookViewId="0">
@@ -25120,7 +25013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
@@ -40761,7 +40654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42422,7 +42315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47349,7 +47242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52256,10 +52149,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A33"/>
     </sheetView>
   </sheetViews>
@@ -60839,11 +60732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK135"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69:H130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69:H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63007,10 +62900,10 @@
       <c r="E69" s="10">
         <v>3.9516105327975499E-19</v>
       </c>
-      <c r="G69" s="14">
-        <v>376.20000634204672</v>
-      </c>
-      <c r="H69" s="14">
+      <c r="G69" s="9">
+        <v>376.20000653081354</v>
+      </c>
+      <c r="H69" s="9">
         <v>0</v>
       </c>
     </row>
@@ -63030,11 +62923,11 @@
       <c r="E70">
         <v>1689.25118409422</v>
       </c>
-      <c r="G70" s="14">
-        <v>494.2901392812887</v>
-      </c>
-      <c r="H70" s="14">
-        <v>1689.2000284768349</v>
+      <c r="G70" s="9">
+        <v>494.2901410854713</v>
+      </c>
+      <c r="H70" s="9">
+        <v>1689.2000293244289</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -63053,11 +62946,11 @@
       <c r="E71">
         <v>1687.3186132999399</v>
       </c>
-      <c r="G71" s="14">
-        <v>494.3376521372395</v>
-      </c>
-      <c r="H71" s="14">
-        <v>1807.2901614160769</v>
+      <c r="G71" s="9">
+        <v>494.33765392838473</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1807.2901638790868</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -63076,11 +62969,11 @@
       <c r="E72">
         <v>1685.7585791844001</v>
       </c>
-      <c r="G72" s="14">
-        <v>494.26316313760799</v>
-      </c>
-      <c r="H72" s="14">
-        <v>1807.3376742720277</v>
+      <c r="G72" s="9">
+        <v>494.26316492135402</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1807.3376767220002</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -63099,11 +62992,11 @@
       <c r="E73">
         <v>1684.62511566952</v>
       </c>
-      <c r="G73" s="14">
-        <v>494.11114925073502</v>
-      </c>
-      <c r="H73" s="14">
-        <v>1807.2631852723962</v>
+      <c r="G73" s="9">
+        <v>494.11115103322891</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1807.2631877149695</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -63122,11 +63015,11 @@
       <c r="E74">
         <v>1683.67940325472</v>
       </c>
-      <c r="G74" s="14">
-        <v>493.92659949740937</v>
-      </c>
-      <c r="H74" s="14">
-        <v>1807.1111713855232</v>
+      <c r="G74" s="9">
+        <v>493.92660128200077</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1807.1111738268444</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -63145,11 +63038,11 @@
       <c r="E75">
         <v>1682.65583783588</v>
       </c>
-      <c r="G75" s="14">
-        <v>493.66912713855027</v>
-      </c>
-      <c r="H75" s="14">
-        <v>1806.9266216321976</v>
+      <c r="G75" s="9">
+        <v>493.66912892554978</v>
+      </c>
+      <c r="H75" s="9">
+        <v>1806.9266240756162</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -63168,11 +63061,11 @@
       <c r="E76">
         <v>1680.83659073389</v>
       </c>
-      <c r="G76" s="14">
-        <v>492.959747306282</v>
-      </c>
-      <c r="H76" s="14">
-        <v>1806.6691492733385</v>
+      <c r="G76" s="9">
+        <v>492.95974908935068</v>
+      </c>
+      <c r="H76" s="9">
+        <v>1806.6691517191653</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -63191,11 +63084,11 @@
       <c r="E77">
         <v>1673.5527387700099</v>
       </c>
-      <c r="G77" s="14">
-        <v>488.65027771837094</v>
-      </c>
-      <c r="H77" s="14">
-        <v>1805.9597694410702</v>
+      <c r="G77" s="9">
+        <v>488.65027947709928</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1805.9597718829662</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -63214,11 +63107,11 @@
       <c r="E78">
         <v>1628.23660289022</v>
       </c>
-      <c r="G78" s="14">
-        <v>2093.1755846026572</v>
-      </c>
-      <c r="H78" s="14">
-        <v>1801.6502998531591</v>
+      <c r="G78" s="9">
+        <v>2093.1755861581564</v>
+      </c>
+      <c r="H78" s="9">
+        <v>1801.6503022707147</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -63237,11 +63130,11 @@
       <c r="E79">
         <v>1847.9365901557901</v>
       </c>
-      <c r="G79" s="14">
-        <v>2091.5004029192964</v>
-      </c>
-      <c r="H79" s="14">
-        <v>1788.1756067374456</v>
+      <c r="G79" s="9">
+        <v>2091.5004045395453</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1788.1756089517719</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -63260,11 +63153,11 @@
       <c r="E80">
         <v>1852.4370496732199</v>
       </c>
-      <c r="G80" s="14">
-        <v>2091.3523805815171</v>
-      </c>
-      <c r="H80" s="14">
-        <v>1786.5004250540846</v>
+      <c r="G80" s="9">
+        <v>2091.3523822845236</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1786.500427333161</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -63283,11 +63176,11 @@
       <c r="E81">
         <v>1854.47035012121</v>
       </c>
-      <c r="G81" s="14">
-        <v>2091.7885205193797</v>
-      </c>
-      <c r="H81" s="14">
-        <v>1786.3524027163053</v>
+      <c r="G81" s="9">
+        <v>2091.7885223231951</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1786.3524050781389</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -63306,11 +63199,11 @@
       <c r="E82">
         <v>1855.51400709785</v>
       </c>
-      <c r="G82" s="14">
-        <v>2092.4891494162348</v>
-      </c>
-      <c r="H82" s="14">
-        <v>1786.7885426541679</v>
+      <c r="G82" s="9">
+        <v>2092.4891513426128</v>
+      </c>
+      <c r="H82" s="9">
+        <v>1786.7885451168106</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -63329,11 +63222,11 @@
       <c r="E83">
         <v>1856.17799542901</v>
       </c>
-      <c r="G83" s="14">
-        <v>2093.3487839446807</v>
-      </c>
-      <c r="H83" s="14">
-        <v>1787.489171551023</v>
+      <c r="G83" s="9">
+        <v>2093.3487860213031</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1787.489174136228</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -63352,11 +63245,11 @@
       <c r="E84">
         <v>1856.70841842256</v>
       </c>
-      <c r="G84" s="14">
-        <v>2094.3342709330263</v>
-      </c>
-      <c r="H84" s="14">
-        <v>1788.3488060794687</v>
+      <c r="G84" s="9">
+        <v>2094.3342731955095</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1788.3488088149186</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -63375,11 +63268,11 @@
       <c r="E85">
         <v>1857.2074256615099</v>
       </c>
-      <c r="G85" s="14">
-        <v>2095.4362404131489</v>
-      </c>
-      <c r="H85" s="14">
-        <v>1789.3342930678143</v>
+      <c r="G85" s="9">
+        <v>2095.436242907298</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1789.3342959891249</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -63398,11 +63291,11 @@
       <c r="E86">
         <v>1857.72097513925</v>
       </c>
-      <c r="G86" s="14">
-        <v>2096.6533036382643</v>
-      </c>
-      <c r="H86" s="14">
-        <v>1790.4362625479373</v>
+      <c r="G86" s="9">
+        <v>2096.6533064227351</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1790.4362657009137</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -63421,11 +63314,11 @@
       <c r="E87">
         <v>1858.27977643549</v>
       </c>
-      <c r="G87" s="14">
-        <v>2097.9895824857927</v>
-      </c>
-      <c r="H87" s="14">
-        <v>1791.6533257730528</v>
+      <c r="G87" s="9">
+        <v>2097.9895856352832</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1791.6533292163504</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -63444,11 +63337,11 @@
       <c r="E88">
         <v>1858.93457294892</v>
       </c>
-      <c r="G88" s="14">
-        <v>2099.4694826987443</v>
-      </c>
-      <c r="H88" s="14">
-        <v>1792.9896046205808</v>
+      <c r="G88" s="9">
+        <v>2099.469486213784</v>
+      </c>
+      <c r="H88" s="9">
+        <v>1792.9896084288987</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -63467,11 +63360,11 @@
       <c r="E89">
         <v>1859.93440405416</v>
       </c>
-      <c r="G89" s="14">
-        <v>2101.3488835810995</v>
-      </c>
-      <c r="H89" s="14">
-        <v>1794.4695048335327</v>
+      <c r="G89" s="9">
+        <v>2101.3488820954467</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1794.4695090073992</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -63490,11 +63383,11 @@
       <c r="E90">
         <v>1864.04417227206</v>
       </c>
-      <c r="G90" s="14">
-        <v>2206.896295512729</v>
-      </c>
-      <c r="H90" s="14">
-        <v>1796.3489057158879</v>
+      <c r="G90" s="9">
+        <v>2206.8963005395985</v>
+      </c>
+      <c r="H90" s="9">
+        <v>1796.3489048890622</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -63513,11 +63406,11 @@
       <c r="E91">
         <v>1864.7005738985399</v>
       </c>
-      <c r="G91" s="14">
-        <v>2210.3735167156583</v>
-      </c>
-      <c r="H91" s="14">
-        <v>1798.7963176475171</v>
+      <c r="G91" s="9">
+        <v>2210.3735228286091</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1798.7963233332141</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -63536,11 +63429,11 @@
       <c r="E92">
         <v>1865.03536285317</v>
       </c>
-      <c r="G92" s="14">
-        <v>2214.39696423339</v>
-      </c>
-      <c r="H92" s="14">
-        <v>1802.2735388504464</v>
+      <c r="G92" s="9">
+        <v>2214.3969716954575</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1802.2735456222247</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -63559,11 +63452,11 @@
       <c r="E93">
         <v>1865.31959988891</v>
       </c>
-      <c r="G93" s="14">
-        <v>2219.0042703070712</v>
-      </c>
-      <c r="H93" s="14">
-        <v>1806.2969863681781</v>
+      <c r="G93" s="9">
+        <v>2219.0042793979251</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1806.2969944890731</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -63582,11 +63475,11 @@
       <c r="E94">
         <v>1865.57634210423</v>
       </c>
-      <c r="G94" s="14">
-        <v>2224.2256058776115</v>
-      </c>
-      <c r="H94" s="14">
-        <v>1810.9042924418593</v>
+      <c r="G94" s="9">
+        <v>2224.2256168264935</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1810.9043021915406</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -63605,11 +63498,11 @@
       <c r="E95">
         <v>1865.8355613399201</v>
       </c>
-      <c r="G95" s="14">
-        <v>2230.0626610264981</v>
-      </c>
-      <c r="H95" s="14">
-        <v>1816.1256280123998</v>
+      <c r="G95" s="9">
+        <v>2230.0626667614015</v>
+      </c>
+      <c r="H95" s="9">
+        <v>1816.1256396201088</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -63628,11 +63521,11 @@
       <c r="E96">
         <v>1866.1606313700399</v>
       </c>
-      <c r="G96" s="14">
-        <v>2236.4698765633707</v>
-      </c>
-      <c r="H96" s="14">
-        <v>1821.9626831612861</v>
+      <c r="G96" s="9">
+        <v>2236.4698845278649</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1821.9626895550168</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -63651,11 +63544,11 @@
       <c r="E97">
         <v>1866.5440161382301</v>
       </c>
-      <c r="G97" s="14">
-        <v>2243.340549832184</v>
-      </c>
-      <c r="H97" s="14">
-        <v>1828.369898698159</v>
+      <c r="G97" s="9">
+        <v>2243.3405593465823</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1828.3699073214802</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -63674,11 +63567,11 @@
       <c r="E98">
         <v>1866.7903906517499</v>
       </c>
-      <c r="G98" s="14">
-        <v>2250.5029079481992</v>
-      </c>
-      <c r="H98" s="14">
-        <v>1835.2405719669723</v>
+      <c r="G98" s="9">
+        <v>2250.5029188345929</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1835.2405821401978</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -63697,11 +63590,11 @@
       <c r="E99">
         <v>1867.21504461788</v>
       </c>
-      <c r="G99" s="14">
-        <v>2257.7306155537567</v>
-      </c>
-      <c r="H99" s="14">
-        <v>1842.4029300829873</v>
+      <c r="G99" s="9">
+        <v>2257.7306276424279</v>
+      </c>
+      <c r="H99" s="9">
+        <v>1842.4029416282083</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -63720,11 +63613,11 @@
       <c r="E100">
         <v>1867.80721763478</v>
       </c>
-      <c r="G100" s="14">
-        <v>2264.7680232914277</v>
-      </c>
-      <c r="H100" s="14">
-        <v>1849.6306376885448</v>
+      <c r="G100" s="9">
+        <v>2264.7680303011034</v>
+      </c>
+      <c r="H100" s="9">
+        <v>1849.6306504360434</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -63743,11 +63636,11 @@
       <c r="E101">
         <v>1868.59805288132</v>
       </c>
-      <c r="G101" s="14">
-        <v>2271.3649399614628</v>
-      </c>
-      <c r="H101" s="14">
-        <v>1856.6680454262157</v>
+      <c r="G101" s="9">
+        <v>2271.3649538483241</v>
+      </c>
+      <c r="H101" s="9">
+        <v>1856.6680530947187</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -63766,11 +63659,11 @@
       <c r="E102">
         <v>1870.10032126589</v>
       </c>
-      <c r="G102" s="14">
-        <v>2277.3116113934434</v>
-      </c>
-      <c r="H102" s="14">
-        <v>1863.2649620962509</v>
+      <c r="G102" s="9">
+        <v>2277.3116258659916</v>
+      </c>
+      <c r="H102" s="9">
+        <v>1863.2649766419395</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -63789,11 +63682,11 @@
       <c r="E103">
         <v>1870.19031161421</v>
       </c>
-      <c r="G103" s="14">
-        <v>2282.4642883423771</v>
-      </c>
-      <c r="H103" s="14">
-        <v>1869.2116335282315</v>
+      <c r="G103" s="9">
+        <v>2282.4643032553408</v>
+      </c>
+      <c r="H103" s="9">
+        <v>1869.2116486596069</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -63812,11 +63705,11 @@
       <c r="E104">
         <v>1867.8320182103701</v>
       </c>
-      <c r="G104" s="14">
-        <v>2286.7559937293258</v>
-      </c>
-      <c r="H104" s="14">
-        <v>1874.3643104771654</v>
+      <c r="G104" s="9">
+        <v>2286.7560090039192</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1874.3643260489562</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -63835,11 +63728,11 @@
       <c r="E105">
         <v>1866.1983316184001</v>
       </c>
-      <c r="G105" s="14">
-        <v>2290.192477295031</v>
-      </c>
-      <c r="H105" s="14">
-        <v>1878.6560158641139</v>
+      <c r="G105" s="9">
+        <v>2290.1924929191373</v>
+      </c>
+      <c r="H105" s="9">
+        <v>1878.6560317975348</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -63858,11 +63751,11 @@
       <c r="E106">
         <v>1864.9175275308401</v>
       </c>
-      <c r="G106" s="14">
-        <v>2292.8376068624743</v>
-      </c>
-      <c r="H106" s="14">
-        <v>1882.0924994298191</v>
+      <c r="G106" s="9">
+        <v>2292.8376228816169</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1882.0925157127529</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -63881,11 +63774,11 @@
       <c r="E107">
         <v>1863.4332058519001</v>
       </c>
-      <c r="G107" s="14">
-        <v>2294.7938536536481</v>
-      </c>
-      <c r="H107" s="14">
-        <v>1884.7376289972624</v>
+      <c r="G107" s="9">
+        <v>2294.7938705252495</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1884.7376456752324</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -63904,11 +63797,11 @@
       <c r="E108">
         <v>1862.9686113085099</v>
       </c>
-      <c r="G108" s="14">
-        <v>2296.1829134543659</v>
-      </c>
-      <c r="H108" s="14">
-        <v>1886.6938757884363</v>
+      <c r="G108" s="9">
+        <v>2296.1829361195273</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1886.6938933188649</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -63927,11 +63820,11 @@
       <c r="E109">
         <v>1863.2109748009</v>
       </c>
-      <c r="G109" s="14">
-        <v>2297.1294189064593</v>
-      </c>
-      <c r="H109" s="14">
-        <v>1888.0829355891542</v>
+      <c r="G109" s="9">
+        <v>2297.1294368947365</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1888.0829589131429</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -63950,11 +63843,11 @@
       <c r="E110">
         <v>1862.9115674085101</v>
       </c>
-      <c r="G110" s="14">
-        <v>2297.7491094332327</v>
-      </c>
-      <c r="H110" s="14">
-        <v>1889.0294410412473</v>
+      <c r="G110" s="9">
+        <v>2297.7491282116034</v>
+      </c>
+      <c r="H110" s="9">
+        <v>1889.0294596883521</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -63973,11 +63866,11 @@
       <c r="E111">
         <v>1862.40521809292</v>
       </c>
-      <c r="G111" s="14">
-        <v>2298.1414075136995</v>
-      </c>
-      <c r="H111" s="14">
-        <v>1889.6491315680209</v>
+      <c r="G111" s="9">
+        <v>2298.1414271912231</v>
+      </c>
+      <c r="H111" s="9">
+        <v>1889.649151005219</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -63996,11 +63889,11 @@
       <c r="E112">
         <v>1860.4491776745799</v>
       </c>
-      <c r="G112" s="14">
-        <v>2298.385659161358</v>
-      </c>
-      <c r="H112" s="14">
-        <v>1890.0414296484878</v>
+      <c r="G112" s="9">
+        <v>2298.3856798268462</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1890.0414499848384</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -64019,11 +63912,11 @@
       <c r="E113">
         <v>1860.48771468414</v>
       </c>
-      <c r="G113" s="14">
-        <v>2298.5401152086947</v>
-      </c>
-      <c r="H113" s="14">
-        <v>1890.2856812961463</v>
+      <c r="G113" s="9">
+        <v>2298.5401369057649</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1890.2857026204615</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -64042,11 +63935,11 @@
       <c r="E114">
         <v>1859.0974178727399</v>
       </c>
-      <c r="G114" s="14">
-        <v>2298.6426491579859</v>
-      </c>
-      <c r="H114" s="14">
-        <v>1890.4401373434828</v>
+      <c r="G114" s="9">
+        <v>2298.6426717556405</v>
+      </c>
+      <c r="H114" s="9">
+        <v>1890.4401596993805</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -64065,11 +63958,11 @@
       <c r="E115">
         <v>1856.2286238701699</v>
       </c>
-      <c r="G115" s="14">
-        <v>2298.7124116493846</v>
-      </c>
-      <c r="H115" s="14">
-        <v>1890.5426712927742</v>
+      <c r="G115" s="9">
+        <v>2298.7124335946442</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1890.5426945492561</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -64088,11 +63981,11 @@
       <c r="E116">
         <v>1853.5240444590099</v>
       </c>
-      <c r="G116" s="14">
-        <v>2298.7517817854814</v>
-      </c>
-      <c r="H116" s="14">
-        <v>1890.6124337841729</v>
+      <c r="G116" s="9">
+        <v>2298.7517977096882</v>
+      </c>
+      <c r="H116" s="9">
+        <v>1890.6124563882595</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -64111,11 +64004,11 @@
       <c r="E117">
         <v>1857.34795919875</v>
       </c>
-      <c r="G117" s="14">
-        <v>2298.748058216428</v>
-      </c>
-      <c r="H117" s="14">
-        <v>1890.6518039202697</v>
+      <c r="G117" s="9">
+        <v>2298.7480748633893</v>
+      </c>
+      <c r="H117" s="9">
+        <v>1890.6518205033037</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -64134,11 +64027,11 @@
       <c r="E118">
         <v>1848.1531172089101</v>
       </c>
-      <c r="G118" s="14">
-        <v>2298.6744321244259</v>
-      </c>
-      <c r="H118" s="14">
-        <v>1890.6480803512161</v>
+      <c r="G118" s="9">
+        <v>2298.6744477777788</v>
+      </c>
+      <c r="H118" s="9">
+        <v>1890.6480976570049</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -64157,11 +64050,11 @@
       <c r="E119">
         <v>1845.8675779883799</v>
       </c>
-      <c r="G119" s="14">
-        <v>2298.4896392294054</v>
-      </c>
-      <c r="H119" s="14">
-        <v>1890.5744542592142</v>
+      <c r="G119" s="9">
+        <v>2298.4896482962599</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1890.5744705713944</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -64180,11 +64073,11 @@
       <c r="E120">
         <v>1844.7465668192201</v>
       </c>
-      <c r="G120" s="14">
-        <v>2298.1353581809603</v>
-      </c>
-      <c r="H120" s="14">
-        <v>1890.3896613641937</v>
+      <c r="G120" s="9">
+        <v>2298.1353664566</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1890.3896710898753</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -64203,11 +64096,11 @@
       <c r="E121">
         <v>1843.9181934043299</v>
       </c>
-      <c r="G121" s="14">
-        <v>2297.5294965070666</v>
-      </c>
-      <c r="H121" s="14">
-        <v>1890.0353803157484</v>
+      <c r="G121" s="9">
+        <v>2297.5295052958368</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1890.0353892502155</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -64226,11 +64119,11 @@
       <c r="E122">
         <v>1842.97605425854</v>
       </c>
-      <c r="G122" s="14">
-        <v>2296.5512232359133</v>
-      </c>
-      <c r="H122" s="14">
-        <v>1889.4295186418547</v>
+      <c r="G122" s="9">
+        <v>2296.5512339089546</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1889.4295280894521</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -64249,11 +64142,11 @@
       <c r="E123">
         <v>1841.4017903848001</v>
       </c>
-      <c r="G123" s="14">
-        <v>2295.0086746707684</v>
-      </c>
-      <c r="H123" s="14">
-        <v>1888.4512453707014</v>
+      <c r="G123" s="9">
+        <v>2295.0086767000848</v>
+      </c>
+      <c r="H123" s="9">
+        <v>1888.4512567025702</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -64272,11 +64165,11 @@
       <c r="E124">
         <v>1840.4566803176999</v>
       </c>
-      <c r="G124" s="14">
-        <v>2292.5680127368614</v>
-      </c>
-      <c r="H124" s="14">
-        <v>1886.9086968055567</v>
+      <c r="G124" s="9">
+        <v>2292.5680124677847</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1886.9086994937004</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -64295,11 +64188,11 @@
       <c r="E125">
         <v>1839.19551643113</v>
       </c>
-      <c r="G125" s="14">
-        <v>2288.5913025306036</v>
-      </c>
-      <c r="H125" s="14">
-        <v>1884.4680348716495</v>
+      <c r="G125" s="9">
+        <v>2288.5912925307025</v>
+      </c>
+      <c r="H125" s="9">
+        <v>1884.4680352614002</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -64318,11 +64211,11 @@
       <c r="E126">
         <v>1836.7000095062999</v>
       </c>
-      <c r="G126" s="14">
-        <v>2281.7242572091882</v>
-      </c>
-      <c r="H126" s="14">
-        <v>1880.4913246653916</v>
+      <c r="G126" s="9">
+        <v>2281.7242465935374</v>
+      </c>
+      <c r="H126" s="9">
+        <v>1880.4913153243178</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -64341,11 +64234,11 @@
       <c r="E127">
         <v>1832.0745124909899</v>
       </c>
-      <c r="G127" s="14">
-        <v>2268.4631567707779</v>
-      </c>
-      <c r="H127" s="14">
-        <v>1873.6242793439762</v>
+      <c r="G127" s="9">
+        <v>2268.4631555587962</v>
+      </c>
+      <c r="H127" s="9">
+        <v>1873.6242693871527</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -64364,11 +64257,11 @@
       <c r="E128">
         <v>1815.55771199844</v>
       </c>
-      <c r="G128" s="14">
-        <v>2234.4263444391268</v>
-      </c>
-      <c r="H128" s="14">
-        <v>1860.3631789055662</v>
+      <c r="G128" s="9">
+        <v>2234.4263449815576</v>
+      </c>
+      <c r="H128" s="9">
+        <v>1860.3631783524115</v>
       </c>
     </row>
     <row r="129" spans="1:63" x14ac:dyDescent="0.25">
@@ -64387,11 +64280,11 @@
       <c r="E129">
         <v>1727.4826528097501</v>
       </c>
-      <c r="G129" s="14">
-        <v>2097.2978797516716</v>
-      </c>
-      <c r="H129" s="14">
-        <v>1826.3263665739148</v>
+      <c r="G129" s="9">
+        <v>2097.2978763658416</v>
+      </c>
+      <c r="H129" s="9">
+        <v>1826.3263677751731</v>
       </c>
     </row>
     <row r="130" spans="1:63" x14ac:dyDescent="0.25">
@@ -64410,11 +64303,11 @@
       <c r="E130">
         <v>1380.7692127386699</v>
       </c>
-      <c r="G130" s="14">
-        <v>408.09997786521183</v>
-      </c>
-      <c r="H130" s="14">
-        <v>1689.1979018864597</v>
+      <c r="G130" s="9">
+        <v>408.09997720638455</v>
+      </c>
+      <c r="H130" s="9">
+        <v>1689.1978991594572</v>
       </c>
     </row>
     <row r="134" spans="1:63" x14ac:dyDescent="0.25">
@@ -64800,7 +64693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ140"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
@@ -82204,7 +82097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -89535,7 +89428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Параметры модели (version 1).xlsb.xlsx
+++ b/Параметры модели (version 1).xlsb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="kij" sheetId="9" r:id="rId9"/>
     <sheet name="zf" sheetId="10" r:id="rId10"/>
     <sheet name="theta" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист4" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="2089">
   <si>
     <t>№</t>
   </si>
@@ -6752,6 +6753,192 @@
   </si>
   <si>
     <t>bi</t>
+  </si>
+  <si>
+    <t>(320.944308129871.</t>
+  </si>
+  <si>
+    <t>320.973688820144.</t>
+  </si>
+  <si>
+    <t>321.480418724725.</t>
+  </si>
+  <si>
+    <t>321.695822371681.</t>
+  </si>
+  <si>
+    <t>321.842426023265.</t>
+  </si>
+  <si>
+    <t>321.966723888805.</t>
+  </si>
+  <si>
+    <t>322.090607932016.</t>
+  </si>
+  <si>
+    <t>322.275334395833.</t>
+  </si>
+  <si>
+    <t>322.953272338809.</t>
+  </si>
+  <si>
+    <t>327.737864463008.</t>
+  </si>
+  <si>
+    <t>328.195701094051.</t>
+  </si>
+  <si>
+    <t>328.308607681342.</t>
+  </si>
+  <si>
+    <t>328.300111221.</t>
+  </si>
+  <si>
+    <t>328.249571527203.</t>
+  </si>
+  <si>
+    <t>328.185952069382.</t>
+  </si>
+  <si>
+    <t>328.121180449278.</t>
+  </si>
+  <si>
+    <t>328.061689978459.</t>
+  </si>
+  <si>
+    <t>328.012256743399.</t>
+  </si>
+  <si>
+    <t>327.976973312931.</t>
+  </si>
+  <si>
+    <t>327.958347294533.</t>
+  </si>
+  <si>
+    <t>327.946911712453.</t>
+  </si>
+  <si>
+    <t>327.71633935198.</t>
+  </si>
+  <si>
+    <t>327.89009313423.</t>
+  </si>
+  <si>
+    <t>328.135977986568.</t>
+  </si>
+  <si>
+    <t>328.467353065153.</t>
+  </si>
+  <si>
+    <t>328.893825036938.</t>
+  </si>
+  <si>
+    <t>329.419719149591.</t>
+  </si>
+  <si>
+    <t>330.043256249014.</t>
+  </si>
+  <si>
+    <t>330.755652960456.</t>
+  </si>
+  <si>
+    <t>331.540841849911.</t>
+  </si>
+  <si>
+    <t>332.376572961968.</t>
+  </si>
+  <si>
+    <t>333.236788585094.</t>
+  </si>
+  <si>
+    <t>334.094671461415.</t>
+  </si>
+  <si>
+    <t>334.925903972241.</t>
+  </si>
+  <si>
+    <t>335.71104716116.</t>
+  </si>
+  <si>
+    <t>336.436672717207.</t>
+  </si>
+  <si>
+    <t>337.095238288861.</t>
+  </si>
+  <si>
+    <t>337.684093797431.</t>
+  </si>
+  <si>
+    <t>338.203731576725.</t>
+  </si>
+  <si>
+    <t>338.658260954.</t>
+  </si>
+  <si>
+    <t>339.051505431951.</t>
+  </si>
+  <si>
+    <t>339.388501741636.</t>
+  </si>
+  <si>
+    <t>339.674576743946.</t>
+  </si>
+  <si>
+    <t>339.915205783445.</t>
+  </si>
+  <si>
+    <t>340.115982332234.</t>
+  </si>
+  <si>
+    <t>340.282636487772.</t>
+  </si>
+  <si>
+    <t>340.421069564146.</t>
+  </si>
+  <si>
+    <t>340.537395080548.</t>
+  </si>
+  <si>
+    <t>340.6379742314.</t>
+  </si>
+  <si>
+    <t>340.729630844585.</t>
+  </si>
+  <si>
+    <t>340.81968910407.</t>
+  </si>
+  <si>
+    <t>340.916394185194.</t>
+  </si>
+  <si>
+    <t>341.029568320295.</t>
+  </si>
+  <si>
+    <t>341.171877280582.</t>
+  </si>
+  <si>
+    <t>341.361367760021.</t>
+  </si>
+  <si>
+    <t>341.626788686732.</t>
+  </si>
+  <si>
+    <t>342.019403113084.</t>
+  </si>
+  <si>
+    <t>342.641574765879.</t>
+  </si>
+  <si>
+    <t>343.73319911649.</t>
+  </si>
+  <si>
+    <t>346.107290809198.</t>
+  </si>
+  <si>
+    <t>354.436199275422.</t>
+  </si>
+  <si>
+    <t>388.237957226967)</t>
   </si>
 </sst>
 </file>
@@ -7203,190 +7390,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>47.794324206299734</c:v>
+                  <c:v>47.794308129871013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.823703214176362</c:v>
+                  <c:v>47.823688820144014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.330436748572708</c:v>
+                  <c:v>48.330418724725007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.545839468607539</c:v>
+                  <c:v>48.545822371681027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.692763604352763</c:v>
+                  <c:v>48.692426023265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.816685115586324</c:v>
+                  <c:v>48.816723888805029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.940620931934575</c:v>
+                  <c:v>48.940607932016007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.125346333396408</c:v>
+                  <c:v>49.125334395833022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.803283481074004</c:v>
+                  <c:v>49.803272338808995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.587868597043894</c:v>
+                  <c:v>54.587864463008032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.045650028779107</c:v>
+                  <c:v>55.045701094051026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.158628127231907</c:v>
+                  <c:v>55.158607681342005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.150155801490314</c:v>
+                  <c:v>55.150111221000031</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.099647896067381</c:v>
+                  <c:v>55.099571527203011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.036065115766462</c:v>
+                  <c:v>55.035952069382006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.971352231400658</c:v>
+                  <c:v>54.971180449277995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.911939392048225</c:v>
+                  <c:v>54.911689978459037</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.862611658591845</c:v>
+                  <c:v>54.86225674339903</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.827453141291414</c:v>
+                  <c:v>54.826973312931045</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.808995845457105</c:v>
+                  <c:v>54.808347294533007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.797755480012142</c:v>
+                  <c:v>54.796911712453038</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.567367909214454</c:v>
+                  <c:v>54.566339351980048</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.741421695075644</c:v>
+                  <c:v>54.740093134230051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.987258546732789</c:v>
+                  <c:v>54.985977986568003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.318883171522202</c:v>
+                  <c:v>55.317353065153043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.745622504258449</c:v>
+                  <c:v>55.743825036938006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.271782384479991</c:v>
+                  <c:v>56.269719149591026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.895588977958425</c:v>
+                  <c:v>56.89325624901403</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.60819457122318</c:v>
+                  <c:v>57.605652960456041</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>58.393534520414505</c:v>
+                  <c:v>58.390841849910998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59.229357219544738</c:v>
+                  <c:v>59.226572961968031</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60.089562986759745</c:v>
+                  <c:v>60.086788585094041</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>60.947372647254781</c:v>
+                  <c:v>60.944671461414998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>61.778474658518803</c:v>
+                  <c:v>61.775903972240997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.563449827284103</c:v>
+                  <c:v>62.561047161160047</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63.288887108476104</c:v>
+                  <c:v>63.286672717207011</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>63.947269164295847</c:v>
+                  <c:v>63.945238288861049</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64.535942395957818</c:v>
+                  <c:v>64.534093797431012</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65.055822330805881</c:v>
+                  <c:v>65.053731576724999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.510056094084064</c:v>
+                  <c:v>65.508260954000036</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65.903049661134276</c:v>
+                  <c:v>65.901505431951023</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66.239859890019147</c:v>
+                  <c:v>66.238501741636014</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>66.525801130866967</c:v>
+                  <c:v>66.524576743946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>66.766345090068</c:v>
+                  <c:v>66.765205783445026</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>66.967077914930712</c:v>
+                  <c:v>66.965982332234034</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67.13370734623868</c:v>
+                  <c:v>67.132636487772004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>67.272127091267407</c:v>
+                  <c:v>67.271069564146046</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>67.388445434013363</c:v>
+                  <c:v>67.387395080548004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67.489035303096045</c:v>
+                  <c:v>67.487974231400017</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>67.580663017790243</c:v>
+                  <c:v>67.57963084458504</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>67.670659949403444</c:v>
+                  <c:v>67.669689104070017</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>67.767287301701401</c:v>
+                  <c:v>67.766394185194031</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>67.880372688514797</c:v>
+                  <c:v>67.87956832029505</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>68.022590441508555</c:v>
+                  <c:v>68.021877280582032</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>68.211986462934988</c:v>
+                  <c:v>68.211367760021005</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68.477335491105748</c:v>
+                  <c:v>68.47678868673205</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>68.869878447041458</c:v>
+                  <c:v>68.869403113084047</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>69.491932663963439</c:v>
+                  <c:v>69.491574765879022</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>70.583452136622782</c:v>
+                  <c:v>70.58319911649005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>72.957468061613611</c:v>
+                  <c:v>72.957290809198014</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81.286424305665776</c:v>
+                  <c:v>81.286199275422007</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>115.08837678461168</c:v>
+                  <c:v>115.08795722696703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8221,11 +8408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59869440"/>
-        <c:axId val="59870016"/>
+        <c:axId val="59410688"/>
+        <c:axId val="59411264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59869440"/>
+        <c:axId val="59410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -8258,13 +8445,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59870016"/>
+        <c:crossAx val="59411264"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59870016"/>
+        <c:axId val="59411264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8306,7 +8493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59869440"/>
+        <c:crossAx val="59410688"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9226,11 +9413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59872320"/>
-        <c:axId val="59872896"/>
+        <c:axId val="59413568"/>
+        <c:axId val="59414144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59872320"/>
+        <c:axId val="59413568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -9279,7 +9466,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9326,13 +9512,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59872896"/>
+        <c:crossAx val="59414144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59872896"/>
+        <c:axId val="59414144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9379,7 +9565,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9426,7 +9611,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59872320"/>
+        <c:crossAx val="59413568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9440,7 +9625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10412,11 +10596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61538304"/>
-        <c:axId val="61538880"/>
+        <c:axId val="90243072"/>
+        <c:axId val="90243648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61538304"/>
+        <c:axId val="90243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -10465,7 +10649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10512,13 +10695,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61538880"/>
+        <c:crossAx val="90243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61538880"/>
+        <c:axId val="90243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10565,7 +10748,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10612,7 +10794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61538304"/>
+        <c:crossAx val="90243072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10626,7 +10808,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11555,11 +11736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61541184"/>
-        <c:axId val="61541760"/>
+        <c:axId val="90245952"/>
+        <c:axId val="90246528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61541184"/>
+        <c:axId val="90245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -11592,13 +11773,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61541760"/>
+        <c:crossAx val="90246528"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61541760"/>
+        <c:axId val="90246528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11640,7 +11821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61541184"/>
+        <c:crossAx val="90245952"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11890,190 +12071,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>13.646235466003702</c:v>
+                  <c:v>13.646219389574981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.476699352264347</c:v>
+                  <c:v>12.476684958231999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.784517765044711</c:v>
+                  <c:v>11.78449974119701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.801005363464526</c:v>
+                  <c:v>10.800988266538013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7490143775937668</c:v>
+                  <c:v>9.7486767965060039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.674020767212312</c:v>
+                  <c:v>8.674059540431017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5990414619445801</c:v>
+                  <c:v>7.5990284620260127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5848517417903736</c:v>
+                  <c:v>6.5848398042269878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0638737678529537</c:v>
+                  <c:v>6.0638626255879444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6495437622068607</c:v>
+                  <c:v>9.6495396281709986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9084100723270581</c:v>
+                  <c:v>8.9084611375989766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8224730491638752</c:v>
+                  <c:v>7.8224526032739732</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6150856018062996</c:v>
+                  <c:v>6.6150410213160171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3656625747683506</c:v>
+                  <c:v>5.3655862059039805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1031646728514488</c:v>
+                  <c:v>4.1030516264669927</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8395366668696624</c:v>
+                  <c:v>2.839364884746999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5812087059022133</c:v>
+                  <c:v>1.5809592923130253</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33296585082985075</c:v>
+                  <c:v>0.33261093563703525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.90110778808559644</c:v>
+                  <c:v>-0.90158761644596552</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.1184802055359455</c:v>
+                  <c:v>-2.119128756460043</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.3286356925968903</c:v>
+                  <c:v>-3.3294794601559943</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.7579383850095951</c:v>
+                  <c:v>-4.7589669422440011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.7827997207643875</c:v>
+                  <c:v>-5.7841282816099806</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-6.7358779907222583</c:v>
+                  <c:v>-6.7371585508870453</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.6031684875488281</c:v>
+                  <c:v>-7.6046985939179876</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.3753442764285637</c:v>
+                  <c:v>-8.3771417437490072</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9.0480995178220383</c:v>
+                  <c:v>-9.0501627527110031</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.6232080459595863</c:v>
+                  <c:v>-9.6255407749039819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10.109517574309848</c:v>
+                  <c:v>-10.112059185076987</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10.523092746734505</c:v>
+                  <c:v>-10.525785417238012</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-10.886185169220312</c:v>
+                  <c:v>-10.888969426797019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11.224894523620264</c:v>
+                  <c:v>-11.227668925285968</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-11.565999984741268</c:v>
+                  <c:v>-11.568701170581051</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-11.933813095093228</c:v>
+                  <c:v>-11.936383781371035</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-12.347753047942945</c:v>
+                  <c:v>-12.350155714067</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-12.821230888366927</c:v>
+                  <c:v>-12.823445279636019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-13.3617639541622</c:v>
+                  <c:v>-13.363794829596998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-13.972005844116211</c:v>
+                  <c:v>-13.973854442643017</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-14.65104103088413</c:v>
+                  <c:v>-14.653131784965012</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-15.395722389220964</c:v>
+                  <c:v>-15.397517529304992</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-16.201643943786735</c:v>
+                  <c:v>-16.203188172969988</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-17.063748836516879</c:v>
+                  <c:v>-17.065106984900012</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-17.976722717285043</c:v>
+                  <c:v>-17.977947104206009</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-18.935093879700048</c:v>
+                  <c:v>-18.936233186323022</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-19.933276176452296</c:v>
+                  <c:v>-19.934371759148974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-20.965561866760368</c:v>
+                  <c:v>-20.966632725227043</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-22.026057243347623</c:v>
+                  <c:v>-22.027114770468984</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-23.108654022216683</c:v>
+                  <c:v>-23.109704375682043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-24.206979274749983</c:v>
+                  <c:v>-24.208040346446012</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-25.314266681670802</c:v>
+                  <c:v>-25.315298854876005</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-26.423184871673584</c:v>
+                  <c:v>-26.424155717007011</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-27.525472640991609</c:v>
+                  <c:v>-27.526365757498979</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-28.61130237579323</c:v>
+                  <c:v>-28.612106744012976</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-29.667999744415454</c:v>
+                  <c:v>-29.668712905341977</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-30.677518844604037</c:v>
+                  <c:v>-30.67813754751802</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-31.61108493804926</c:v>
+                  <c:v>-31.611631742422958</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-32.417457103729589</c:v>
+                  <c:v>-32.417932437687</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-32.994318008422567</c:v>
+                  <c:v>-32.994675906506984</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-33.101713657379264</c:v>
+                  <c:v>-33.101966677511996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-31.926612854003395</c:v>
+                  <c:v>-31.926790106418991</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-24.796571731567269</c:v>
+                  <c:v>-24.796796761811038</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.8064656257626552</c:v>
+                  <c:v>7.8060460681180075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12093,11 +12274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61544064"/>
-        <c:axId val="61544640"/>
+        <c:axId val="90248832"/>
+        <c:axId val="90249408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61544064"/>
+        <c:axId val="90248832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
@@ -12109,12 +12290,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61544640"/>
+        <c:crossAx val="90249408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61544640"/>
+        <c:axId val="90249408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12125,7 +12306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61544064"/>
+        <c:crossAx val="90248832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -40653,6 +40834,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
@@ -60733,10 +60926,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BS135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69:H130"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61126,7 +61319,7 @@
       </c>
       <c r="B4">
         <f>G4-273.15</f>
-        <v>47.794324206299734</v>
+        <v>47.794308129871013</v>
       </c>
       <c r="C4">
         <v>46.043582630709402</v>
@@ -61140,12 +61333,12 @@
       <c r="F4">
         <v>576</v>
       </c>
-      <c r="G4" s="14">
-        <v>320.94432420629971</v>
+      <c r="G4">
+        <v>320.94430812987099</v>
       </c>
       <c r="H4">
         <f>B4-D4</f>
-        <v>13.646235466003702</v>
+        <v>13.646219389574981</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -61154,7 +61347,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B65" si="0">G5-273.15</f>
-        <v>47.823703214176362</v>
+        <v>47.823688820144014</v>
       </c>
       <c r="C5">
         <v>48.171534442983898</v>
@@ -61168,12 +61361,12 @@
       <c r="F5">
         <v>576</v>
       </c>
-      <c r="G5" s="14">
-        <v>320.97370321417634</v>
+      <c r="G5">
+        <v>320.97368882014399</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H65" si="1">B5-D5</f>
-        <v>12.476699352264347</v>
+        <v>12.476684958231999</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -61182,7 +61375,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>48.330436748572708</v>
+        <v>48.330418724725007</v>
       </c>
       <c r="C6">
         <v>48.637331111067702</v>
@@ -61196,12 +61389,12 @@
       <c r="F6">
         <v>577.34577656750002</v>
       </c>
-      <c r="G6" s="14">
-        <v>321.48043674857269</v>
+      <c r="G6">
+        <v>321.48041872472498</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>11.784517765044711</v>
+        <v>11.78449974119701</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -61210,7 +61403,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>48.545839468607539</v>
+        <v>48.545822371681027</v>
       </c>
       <c r="C7">
         <v>48.837399453558803</v>
@@ -61224,12 +61417,12 @@
       <c r="F7">
         <v>578.69155313500096</v>
       </c>
-      <c r="G7" s="14">
-        <v>321.69583946860752</v>
+      <c r="G7">
+        <v>321.695822371681</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>10.801005363464526</v>
+        <v>10.800988266538013</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
@@ -61238,7 +61431,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>48.692763604352763</v>
+        <v>48.692426023265</v>
       </c>
       <c r="C8">
         <v>48.968482363985501</v>
@@ -61252,12 +61445,12 @@
       <c r="F8">
         <v>580.03732970250098</v>
       </c>
-      <c r="G8" s="14">
-        <v>321.84276360435274</v>
+      <c r="G8">
+        <v>321.84242602326498</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>9.7490143775937668</v>
+        <v>9.7486767965060039</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -61266,7 +61459,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>48.816685115586324</v>
+        <v>48.816723888805029</v>
       </c>
       <c r="C9">
         <v>49.076951638003301</v>
@@ -61280,12 +61473,12 @@
       <c r="F9">
         <v>581.38310627000101</v>
       </c>
-      <c r="G9" s="14">
-        <v>321.9666851155863</v>
+      <c r="G9">
+        <v>321.96672388880501</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.674020767212312</v>
+        <v>8.674059540431017</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -61294,7 +61487,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>48.940620931934575</v>
+        <v>48.940607932016007</v>
       </c>
       <c r="C10">
         <v>49.192221563876203</v>
@@ -61308,12 +61501,12 @@
       <c r="F10">
         <v>582.72888283750103</v>
       </c>
-      <c r="G10" s="14">
-        <v>322.09062093193455</v>
+      <c r="G10">
+        <v>322.09060793201598</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.5990414619445801</v>
+        <v>7.5990284620260127</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
@@ -61322,7 +61515,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>49.125346333396408</v>
+        <v>49.125334395833022</v>
       </c>
       <c r="C11">
         <v>49.388229804275099</v>
@@ -61336,12 +61529,12 @@
       <c r="F11">
         <v>584.07465940500197</v>
       </c>
-      <c r="G11" s="14">
-        <v>322.27534633339639</v>
+      <c r="G11">
+        <v>322.275334395833</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.5848517417903736</v>
+        <v>6.5848398042269878</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
@@ -61350,7 +61543,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>49.803283481074004</v>
+        <v>49.803272338808995</v>
       </c>
       <c r="C12">
         <v>50.151837894986798</v>
@@ -61364,12 +61557,12 @@
       <c r="F12">
         <v>585.42043597250199</v>
       </c>
-      <c r="G12" s="14">
-        <v>322.95328348107398</v>
+      <c r="G12">
+        <v>322.95327233880897</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>6.0638737678529537</v>
+        <v>6.0638626255879444</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
@@ -61378,7 +61571,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>54.587868597043894</v>
+        <v>54.587864463008032</v>
       </c>
       <c r="C13">
         <v>54.9799937069698</v>
@@ -61392,12 +61585,12 @@
       <c r="F13">
         <v>586.76621254000202</v>
       </c>
-      <c r="G13" s="14">
-        <v>327.73786859704387</v>
+      <c r="G13">
+        <v>327.73786446300801</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>9.6495437622068607</v>
+        <v>9.6495396281709986</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -61406,7 +61599,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>55.045650028779107</v>
+        <v>55.045701094051026</v>
       </c>
       <c r="C14">
         <v>55.475286124278298</v>
@@ -61420,12 +61613,12 @@
       <c r="F14">
         <v>588.11198910750204</v>
       </c>
-      <c r="G14" s="14">
-        <v>328.19565002877908</v>
+      <c r="G14">
+        <v>328.195701094051</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.9084100723270581</v>
+        <v>8.9084611375989766</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -61434,7 +61627,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>55.158628127231907</v>
+        <v>55.158607681342005</v>
       </c>
       <c r="C15">
         <v>55.681952080612703</v>
@@ -61448,12 +61641,12 @@
       <c r="F15">
         <v>589.45776567500297</v>
       </c>
-      <c r="G15" s="14">
-        <v>328.30862812723188</v>
+      <c r="G15">
+        <v>328.30860768134198</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.8224730491638752</v>
+        <v>7.8224526032739732</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -61462,7 +61655,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>55.150155801490314</v>
+        <v>55.150111221000031</v>
       </c>
       <c r="C16">
         <v>55.772428049256199</v>
@@ -61476,12 +61669,12 @@
       <c r="F16">
         <v>590.803542242503</v>
       </c>
-      <c r="G16" s="14">
-        <v>328.30015580149029</v>
+      <c r="G16">
+        <v>328.30011122100001</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.6150856018062996</v>
+        <v>6.6150410213160171</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -61490,7 +61683,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>55.099647896067381</v>
+        <v>55.099571527203011</v>
       </c>
       <c r="C17">
         <v>55.815322520011698</v>
@@ -61504,12 +61697,12 @@
       <c r="F17">
         <v>592.14931881000302</v>
       </c>
-      <c r="G17" s="14">
-        <v>328.24964789606736</v>
+      <c r="G17">
+        <v>328.24957152720299</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>5.3656625747683506</v>
+        <v>5.3655862059039805</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -61518,7 +61711,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>55.036065115766462</v>
+        <v>55.035952069382006</v>
       </c>
       <c r="C18">
         <v>55.837119346028203</v>
@@ -61532,12 +61725,12 @@
       <c r="F18">
         <v>593.49509537750305</v>
       </c>
-      <c r="G18" s="14">
-        <v>328.18606511576644</v>
+      <c r="G18">
+        <v>328.18595206938198</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>4.1031646728514488</v>
+        <v>4.1030516264669927</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -61546,7 +61739,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>54.971352231400658</v>
+        <v>54.971180449277995</v>
       </c>
       <c r="C19">
         <v>55.847558602984101</v>
@@ -61560,12 +61753,12 @@
       <c r="F19">
         <v>594.84087194500398</v>
       </c>
-      <c r="G19" s="14">
-        <v>328.12135223140064</v>
+      <c r="G19">
+        <v>328.12118044927797</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2.8395366668696624</v>
+        <v>2.839364884746999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -61574,7 +61767,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>54.911939392048225</v>
+        <v>54.911689978459037</v>
       </c>
       <c r="C20">
         <v>55.849676477742896</v>
@@ -61588,12 +61781,12 @@
       <c r="F20">
         <v>596.18664851250401</v>
       </c>
-      <c r="G20" s="14">
-        <v>328.0619393920482</v>
+      <c r="G20">
+        <v>328.06168997845901</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>1.5812087059022133</v>
+        <v>1.5809592923130253</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -61602,7 +61795,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>54.862611658591845</v>
+        <v>54.86225674339903</v>
       </c>
       <c r="C21">
         <v>55.843548999819603</v>
@@ -61616,12 +61809,12 @@
       <c r="F21">
         <v>597.53242508000403</v>
       </c>
-      <c r="G21" s="14">
-        <v>328.01261165859182</v>
+      <c r="G21">
+        <v>328.01225674339901</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>0.33296585082985075</v>
+        <v>0.33261093563703525</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -61630,7 +61823,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>54.827453141291414</v>
+        <v>54.826973312931045</v>
       </c>
       <c r="C22">
         <v>55.827340623791699</v>
@@ -61644,12 +61837,12 @@
       <c r="F22">
         <v>598.87820164750406</v>
       </c>
-      <c r="G22" s="14">
-        <v>327.97745314129139</v>
+      <c r="G22">
+        <v>327.97697331293102</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-0.90110778808559644</v>
+        <v>-0.90158761644596552</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -61658,7 +61851,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>54.808995845457105</v>
+        <v>54.808347294533007</v>
       </c>
       <c r="C23">
         <v>55.795734063302604</v>
@@ -61672,12 +61865,12 @@
       <c r="F23">
         <v>600.22397821500499</v>
       </c>
-      <c r="G23" s="14">
-        <v>327.95899584545708</v>
+      <c r="G23">
+        <v>327.95834729453298</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-2.1184802055359455</v>
+        <v>-2.119128756460043</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -61686,7 +61879,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>54.797755480012142</v>
+        <v>54.796911712453038</v>
       </c>
       <c r="C24">
         <v>55.723509688218201</v>
@@ -61700,12 +61893,12 @@
       <c r="F24">
         <v>601.56975478250502</v>
       </c>
-      <c r="G24" s="14">
-        <v>327.94775548001212</v>
+      <c r="G24">
+        <v>327.94691171245302</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-3.3286356925968903</v>
+        <v>-3.3294794601559943</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -61714,7 +61907,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>54.567367909214454</v>
+        <v>54.566339351980048</v>
       </c>
       <c r="C25">
         <v>55.344109407954399</v>
@@ -61728,12 +61921,12 @@
       <c r="F25">
         <v>602.91553135000504</v>
       </c>
-      <c r="G25" s="14">
-        <v>327.71736790921443</v>
+      <c r="G25">
+        <v>327.71633935198003</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-4.7579383850095951</v>
+        <v>-4.7589669422440011</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -61742,7 +61935,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>54.741421695075644</v>
+        <v>54.740093134230051</v>
       </c>
       <c r="C26">
         <v>55.385015614794</v>
@@ -61756,12 +61949,12 @@
       <c r="F26">
         <v>604.26130791750495</v>
       </c>
-      <c r="G26" s="14">
-        <v>327.89142169507562</v>
+      <c r="G26">
+        <v>327.89009313423003</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-5.7827997207643875</v>
+        <v>-5.7841282816099806</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -61770,7 +61963,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>54.987258546732789</v>
+        <v>54.985977986568003</v>
       </c>
       <c r="C27">
         <v>55.4219035266308</v>
@@ -61784,12 +61977,12 @@
       <c r="F27">
         <v>605.607084485006</v>
       </c>
-      <c r="G27" s="14">
-        <v>328.13725854673277</v>
+      <c r="G27">
+        <v>328.13597798656798</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-6.7358779907222583</v>
+        <v>-6.7371585508870453</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -61798,7 +61991,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>55.318883171522202</v>
+        <v>55.317353065153043</v>
       </c>
       <c r="C28">
         <v>55.457441572728499</v>
@@ -61812,12 +62005,12 @@
       <c r="F28">
         <v>606.95286105250602</v>
       </c>
-      <c r="G28" s="14">
-        <v>328.46888317152218</v>
+      <c r="G28">
+        <v>328.46735306515302</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-7.6031684875488281</v>
+        <v>-7.6046985939179876</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -61826,7 +62019,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>55.745622504258449</v>
+        <v>55.743825036938006</v>
       </c>
       <c r="C29">
         <v>55.492807114889303</v>
@@ -61840,12 +62033,12 @@
       <c r="F29">
         <v>608.29863762000605</v>
       </c>
-      <c r="G29" s="14">
-        <v>328.89562250425843</v>
+      <c r="G29">
+        <v>328.89382503693798</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-8.3753442764285637</v>
+        <v>-8.3771417437490072</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -61854,7 +62047,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>56.271782384479991</v>
+        <v>56.269719149591026</v>
       </c>
       <c r="C30">
         <v>55.528481248985301</v>
@@ -61868,12 +62061,12 @@
       <c r="F30">
         <v>609.64441418750596</v>
       </c>
-      <c r="G30" s="14">
-        <v>329.42178238447997</v>
+      <c r="G30">
+        <v>329.419719149591</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-9.0480995178220383</v>
+        <v>-9.0501627527110031</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -61882,7 +62075,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>56.895588977958425</v>
+        <v>56.89325624901403</v>
       </c>
       <c r="C31">
         <v>55.564954097481298</v>
@@ -61896,12 +62089,12 @@
       <c r="F31">
         <v>610.99019075500701</v>
       </c>
-      <c r="G31" s="14">
-        <v>330.0455889779584</v>
+      <c r="G31">
+        <v>330.04325624901401</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-9.6232080459595863</v>
+        <v>-9.6255407749039819</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -61910,7 +62103,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>57.60819457122318</v>
+        <v>57.605652960456041</v>
       </c>
       <c r="C32">
         <v>55.603125646644301</v>
@@ -61924,12 +62117,12 @@
       <c r="F32">
         <v>612.33596732250703</v>
       </c>
-      <c r="G32" s="14">
-        <v>330.75819457122316</v>
+      <c r="G32">
+        <v>330.75565296045602</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-10.109517574309848</v>
+        <v>-10.112059185076987</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -61938,7 +62131,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>58.393534520414505</v>
+        <v>58.390841849910998</v>
       </c>
       <c r="C33">
         <v>55.642535222350503</v>
@@ -61952,12 +62145,12 @@
       <c r="F33">
         <v>613.68174389000706</v>
       </c>
-      <c r="G33" s="14">
-        <v>331.54353452041448</v>
+      <c r="G33">
+        <v>331.54084184991098</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-10.523092746734505</v>
+        <v>-10.525785417238012</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -61966,7 +62159,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>59.229357219544738</v>
+        <v>59.226572961968031</v>
       </c>
       <c r="C34">
         <v>55.683784575349698</v>
@@ -61980,12 +62173,12 @@
       <c r="F34">
         <v>615.02752045750697</v>
       </c>
-      <c r="G34" s="14">
-        <v>332.37935721954472</v>
+      <c r="G34">
+        <v>332.37657296196801</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-10.886185169220312</v>
+        <v>-10.888969426797019</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -61994,7 +62187,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>60.089562986759745</v>
+        <v>60.086788585094041</v>
       </c>
       <c r="C35">
         <v>55.7275335971472</v>
@@ -62008,12 +62201,12 @@
       <c r="F35">
         <v>616.37329702500801</v>
       </c>
-      <c r="G35" s="14">
-        <v>333.23956298675972</v>
+      <c r="G35">
+        <v>333.23678858509402</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-11.224894523620264</v>
+        <v>-11.227668925285968</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -62022,7 +62215,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>60.947372647254781</v>
+        <v>60.944671461414998</v>
       </c>
       <c r="C36">
         <v>55.773600524469003</v>
@@ -62036,12 +62229,12 @@
       <c r="F36">
         <v>617.71907359250804</v>
       </c>
-      <c r="G36" s="14">
-        <v>334.09737264725476</v>
+      <c r="G36">
+        <v>334.09467146141498</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-11.565999984741268</v>
+        <v>-11.568701170581051</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -62050,7 +62243,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>61.778474658518803</v>
+        <v>61.775903972240997</v>
       </c>
       <c r="C37">
         <v>55.829560982055902</v>
@@ -62064,12 +62257,12 @@
       <c r="F37">
         <v>619.06485016000795</v>
       </c>
-      <c r="G37" s="14">
-        <v>334.92847465851878</v>
+      <c r="G37">
+        <v>334.92590397224097</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>-11.933813095093228</v>
+        <v>-11.936383781371035</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -62078,7 +62271,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>62.563449827284103</v>
+        <v>62.561047161160047</v>
       </c>
       <c r="C38">
         <v>55.898871370666399</v>
@@ -62092,12 +62285,12 @@
       <c r="F38">
         <v>620.41062672750797</v>
       </c>
-      <c r="G38" s="14">
-        <v>335.71344982728408</v>
+      <c r="G38">
+        <v>335.71104716116002</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>-12.347753047942945</v>
+        <v>-12.350155714067</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -62106,7 +62299,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>63.288887108476104</v>
+        <v>63.286672717207011</v>
       </c>
       <c r="C39">
         <v>55.974034854856797</v>
@@ -62120,12 +62313,12 @@
       <c r="F39">
         <v>621.75640329500902</v>
       </c>
-      <c r="G39" s="14">
-        <v>336.43888710847608</v>
+      <c r="G39">
+        <v>336.43667271720699</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-12.821230888366927</v>
+        <v>-12.823445279636019</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -62134,7 +62327,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>63.947269164295847</v>
+        <v>63.945238288861049</v>
       </c>
       <c r="C40">
         <v>56.059174593141798</v>
@@ -62148,12 +62341,12 @@
       <c r="F40">
         <v>623.10217986250905</v>
       </c>
-      <c r="G40" s="14">
-        <v>337.09726916429582</v>
+      <c r="G40">
+        <v>337.09523828886103</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-13.3617639541622</v>
+        <v>-13.363794829596998</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -62162,7 +62355,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>64.535942395957818</v>
+        <v>64.534093797431012</v>
       </c>
       <c r="C41">
         <v>56.158400420386101</v>
@@ -62176,12 +62369,12 @@
       <c r="F41">
         <v>624.44795643000896</v>
       </c>
-      <c r="G41" s="14">
-        <v>337.6859423959578</v>
+      <c r="G41">
+        <v>337.68409379743099</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-13.972005844116211</v>
+        <v>-13.973854442643017</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -62190,7 +62383,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>65.055822330805881</v>
+        <v>65.053731576724999</v>
       </c>
       <c r="C42">
         <v>56.272140186739399</v>
@@ -62204,12 +62397,12 @@
       <c r="F42">
         <v>625.79373299750898</v>
       </c>
-      <c r="G42" s="14">
-        <v>338.20582233080586</v>
+      <c r="G42">
+        <v>338.20373157672498</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-14.65104103088413</v>
+        <v>-14.653131784965012</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -62218,7 +62411,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>65.510056094084064</v>
+        <v>65.508260954000036</v>
       </c>
       <c r="C43">
         <v>56.405981867150601</v>
@@ -62232,12 +62425,12 @@
       <c r="F43">
         <v>627.13950956501003</v>
       </c>
-      <c r="G43" s="14">
-        <v>338.66005609408404</v>
+      <c r="G43">
+        <v>338.65826095400001</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-15.395722389220964</v>
+        <v>-15.397517529304992</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -62246,7 +62439,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>65.903049661134276</v>
+        <v>65.901505431951023</v>
       </c>
       <c r="C44">
         <v>56.568995115090601</v>
@@ -62260,12 +62453,12 @@
       <c r="F44">
         <v>628.48528613251005</v>
       </c>
-      <c r="G44" s="14">
-        <v>339.05304966113425</v>
+      <c r="G44">
+        <v>339.051505431951</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-16.201643943786735</v>
+        <v>-16.203188172969988</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -62274,7 +62467,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>66.239859890019147</v>
+        <v>66.238501741636014</v>
       </c>
       <c r="C45">
         <v>56.7667675369892</v>
@@ -62288,12 +62481,12 @@
       <c r="F45">
         <v>629.83106270000997</v>
       </c>
-      <c r="G45" s="14">
-        <v>339.38985989001912</v>
+      <c r="G45">
+        <v>339.38850174163599</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-17.063748836516879</v>
+        <v>-17.065106984900012</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -62302,7 +62495,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>66.525801130866967</v>
+        <v>66.524576743946</v>
       </c>
       <c r="C46">
         <v>57.009759387807499</v>
@@ -62316,12 +62509,12 @@
       <c r="F46">
         <v>631.17683926750999</v>
       </c>
-      <c r="G46" s="14">
-        <v>339.67580113086694</v>
+      <c r="G46">
+        <v>339.67457674394598</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-17.976722717285043</v>
+        <v>-17.977947104206009</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -62330,7 +62523,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>66.766345090068</v>
+        <v>66.765205783445026</v>
       </c>
       <c r="C47">
         <v>57.295867897514803</v>
@@ -62344,12 +62537,12 @@
       <c r="F47">
         <v>632.52261583501104</v>
       </c>
-      <c r="G47" s="14">
-        <v>339.91634509006798</v>
+      <c r="G47">
+        <v>339.915205783445</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-18.935093879700048</v>
+        <v>-18.936233186323022</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -62358,7 +62551,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>66.967077914930712</v>
+        <v>66.965982332234034</v>
       </c>
       <c r="C48">
         <v>57.642965543990599</v>
@@ -62372,21 +62565,21 @@
       <c r="F48">
         <v>633.86839240251095</v>
       </c>
-      <c r="G48" s="14">
-        <v>340.11707791493069</v>
+      <c r="G48">
+        <v>340.11598233223401</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>-19.933276176452296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-19.934371759148974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>67.13370734623868</v>
+        <v>67.132636487772004</v>
       </c>
       <c r="C49">
         <v>58.057429399797101</v>
@@ -62400,21 +62593,21 @@
       <c r="F49">
         <v>635.21416897001097</v>
       </c>
-      <c r="G49" s="14">
-        <v>340.28370734623866</v>
+      <c r="G49">
+        <v>340.28263648777198</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>-20.965561866760368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-20.966632725227043</v>
+      </c>
+    </row>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>67.272127091267407</v>
+        <v>67.271069564146046</v>
       </c>
       <c r="C50">
         <v>58.538835291702597</v>
@@ -62428,21 +62621,21 @@
       <c r="F50">
         <v>636.559945537511</v>
       </c>
-      <c r="G50" s="14">
-        <v>340.42212709126738</v>
+      <c r="G50">
+        <v>340.42106956414602</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-22.026057243347623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-22.027114770468984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>67.388445434013363</v>
+        <v>67.387395080548004</v>
       </c>
       <c r="C51">
         <v>59.073670614655398</v>
@@ -62456,21 +62649,21 @@
       <c r="F51">
         <v>637.90572210501205</v>
       </c>
-      <c r="G51" s="14">
-        <v>340.53844543401334</v>
+      <c r="G51">
+        <v>340.53739508054798</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>-23.108654022216683</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-23.109704375682043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>67.489035303096045</v>
+        <v>67.487974231400017</v>
       </c>
       <c r="C52">
         <v>59.710782824925303</v>
@@ -62484,21 +62677,207 @@
       <c r="F52">
         <v>639.25149867251196</v>
       </c>
-      <c r="G52" s="14">
-        <v>340.63903530309602</v>
+      <c r="G52">
+        <v>340.63797423139999</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>-24.206979274749983</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-24.208040346446012</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2028</v>
+      </c>
+      <c r="L52" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M52" t="s">
+        <v>2030</v>
+      </c>
+      <c r="N52" t="s">
+        <v>2031</v>
+      </c>
+      <c r="O52" t="s">
+        <v>2032</v>
+      </c>
+      <c r="P52" t="s">
+        <v>2033</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>2034</v>
+      </c>
+      <c r="R52" t="s">
+        <v>2035</v>
+      </c>
+      <c r="S52" t="s">
+        <v>2036</v>
+      </c>
+      <c r="T52" t="s">
+        <v>2037</v>
+      </c>
+      <c r="U52" t="s">
+        <v>2038</v>
+      </c>
+      <c r="V52" t="s">
+        <v>2039</v>
+      </c>
+      <c r="W52" t="s">
+        <v>2040</v>
+      </c>
+      <c r="X52" t="s">
+        <v>2041</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>2042</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>2044</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>2045</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>2046</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>2047</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>2048</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>2058</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>2065</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>2069</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>2071</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>2073</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>2075</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>2076</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>2079</v>
+      </c>
+      <c r="BK52" t="s">
+        <v>2080</v>
+      </c>
+      <c r="BL52" t="s">
+        <v>2081</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>2082</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>2083</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>2084</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>2085</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>2086</v>
+      </c>
+      <c r="BR52" t="s">
+        <v>2087</v>
+      </c>
+      <c r="BS52" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>67.580663017790243</v>
+        <v>67.57963084458504</v>
       </c>
       <c r="C53">
         <v>60.384127439959002</v>
@@ -62512,21 +62891,21 @@
       <c r="F53">
         <v>640.59727524001198</v>
       </c>
-      <c r="G53" s="14">
-        <v>340.73066301779022</v>
+      <c r="G53">
+        <v>340.72963084458502</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>-25.314266681670802</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-25.315298854876005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>67.670659949403444</v>
+        <v>67.669689104070017</v>
       </c>
       <c r="C54">
         <v>61.096293131063398</v>
@@ -62540,21 +62919,21 @@
       <c r="F54">
         <v>641.94305180751201</v>
       </c>
-      <c r="G54" s="14">
-        <v>340.82065994940342</v>
+      <c r="G54">
+        <v>340.81968910406999</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>-26.423184871673584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-26.424155717007011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>67.767287301701401</v>
+        <v>67.766394185194031</v>
       </c>
       <c r="C55">
         <v>61.830301439656402</v>
@@ -62568,21 +62947,21 @@
       <c r="F55">
         <v>643.28882837501305</v>
       </c>
-      <c r="G55" s="14">
-        <v>340.91728730170138</v>
+      <c r="G55">
+        <v>340.91639418519401</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>-27.525472640991609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-27.526365757498979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>67.880372688514797</v>
+        <v>67.87956832029505</v>
       </c>
       <c r="C56">
         <v>62.5657958466808</v>
@@ -62596,21 +62975,21 @@
       <c r="F56">
         <v>644.63460494251296</v>
       </c>
-      <c r="G56" s="14">
-        <v>341.03037268851477</v>
+      <c r="G56">
+        <v>341.02956832029503</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>-28.61130237579323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-28.612106744012976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>68.022590441508555</v>
+        <v>68.021877280582032</v>
       </c>
       <c r="C57">
         <v>63.283943278721601</v>
@@ -62624,21 +63003,21 @@
       <c r="F57">
         <v>645.98038151001299</v>
       </c>
-      <c r="G57" s="14">
-        <v>341.17259044150853</v>
+      <c r="G57">
+        <v>341.17187728058201</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>-29.667999744415454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-29.668712905341977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>68.211986462934988</v>
+        <v>68.211367760021005</v>
       </c>
       <c r="C58">
         <v>63.966767795580502</v>
@@ -62652,21 +63031,21 @@
       <c r="F58">
         <v>647.32615807751301</v>
       </c>
-      <c r="G58" s="14">
-        <v>341.36198646293496</v>
+      <c r="G58">
+        <v>341.36136776002098</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>-30.677518844604037</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-30.67813754751802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>68.477335491105748</v>
+        <v>68.47678868673205</v>
       </c>
       <c r="C59">
         <v>64.614439781489594</v>
@@ -62680,21 +63059,21 @@
       <c r="F59">
         <v>648.67193464501395</v>
       </c>
-      <c r="G59" s="14">
-        <v>341.62733549110573</v>
+      <c r="G59">
+        <v>341.62678868673203</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>-31.61108493804926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-31.611631742422958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>68.869878447041458</v>
+        <v>68.869403113084047</v>
       </c>
       <c r="C60">
         <v>65.249609590819404</v>
@@ -62708,21 +63087,21 @@
       <c r="F60">
         <v>650.01771121251397</v>
       </c>
-      <c r="G60" s="14">
-        <v>342.01987844704144</v>
+      <c r="G60">
+        <v>342.01940311308402</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>-32.417457103729589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-32.417932437687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>69.491932663963439</v>
+        <v>69.491574765879022</v>
       </c>
       <c r="C61">
         <v>65.944758620172394</v>
@@ -62736,21 +63115,21 @@
       <c r="F61">
         <v>651.363487780014</v>
       </c>
-      <c r="G61" s="14">
-        <v>342.64193266396342</v>
+      <c r="G61">
+        <v>342.641574765879</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>-32.994318008422567</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-32.994675906506984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>70.583452136622782</v>
+        <v>70.58319911649005</v>
       </c>
       <c r="C62">
         <v>66.935453844689704</v>
@@ -62764,21 +63143,21 @@
       <c r="F62">
         <v>652.70926434751402</v>
       </c>
-      <c r="G62" s="14">
-        <v>343.73345213662276</v>
+      <c r="G62">
+        <v>343.73319911649003</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>-33.101713657379264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-33.101966677511996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>72.957468061613611</v>
+        <v>72.957290809198014</v>
       </c>
       <c r="C63">
         <v>69.210593338762493</v>
@@ -62792,21 +63171,21 @@
       <c r="F63">
         <v>654.05504091501496</v>
       </c>
-      <c r="G63" s="14">
-        <v>346.10746806161359</v>
+      <c r="G63">
+        <v>346.10729080919799</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>-31.926612854003395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-31.926790106418991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>81.286424305665776</v>
+        <v>81.286199275422007</v>
       </c>
       <c r="C64">
         <v>78.942378390062203</v>
@@ -62820,12 +63199,12 @@
       <c r="F64">
         <v>655.40081748251498</v>
       </c>
-      <c r="G64" s="14">
-        <v>354.43642430566575</v>
+      <c r="G64">
+        <v>354.43619927542198</v>
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-24.796571731567269</v>
+        <v>-24.796796761811038</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -62834,7 +63213,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>115.08837678461168</v>
+        <v>115.08795722696703</v>
       </c>
       <c r="C65">
         <v>118.59490960456699</v>
@@ -62848,12 +63227,12 @@
       <c r="F65">
         <v>655.40081748251498</v>
       </c>
-      <c r="G65" s="14">
-        <v>388.23837678461166</v>
+      <c r="G65">
+        <v>388.23795722696701</v>
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>7.8064656257626552</v>
+        <v>7.8060460681180075</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
